--- a/AAII_Financials/Yearly/MYTAY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/MYTAY_YR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="92">
   <si>
     <t>MYTAY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,141 +665,153 @@
     <col min="1" max="1" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43465</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43100</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42735</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42369</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42004</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41639</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41274</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>40908</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2135600</v>
+        <v>2113300</v>
       </c>
       <c r="E8" s="3">
-        <v>1985300</v>
+        <v>2083000</v>
       </c>
       <c r="F8" s="3">
-        <v>1865600</v>
+        <v>1936400</v>
       </c>
       <c r="G8" s="3">
-        <v>2133100</v>
+        <v>1819700</v>
       </c>
       <c r="H8" s="3">
-        <v>2036000</v>
+        <v>2080600</v>
       </c>
       <c r="I8" s="3">
-        <v>2071900</v>
+        <v>1985800</v>
       </c>
       <c r="J8" s="3">
+        <v>2020900</v>
+      </c>
+      <c r="K8" s="3">
         <v>1973200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2091700</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1088000</v>
+        <v>1062000</v>
       </c>
       <c r="E9" s="3">
-        <v>978300</v>
+        <v>1061200</v>
       </c>
       <c r="F9" s="3">
-        <v>860500</v>
+        <v>954200</v>
       </c>
       <c r="G9" s="3">
-        <v>969100</v>
+        <v>839300</v>
       </c>
       <c r="H9" s="3">
-        <v>697600</v>
+        <v>945300</v>
       </c>
       <c r="I9" s="3">
-        <v>740300</v>
+        <v>680400</v>
       </c>
       <c r="J9" s="3">
+        <v>722100</v>
+      </c>
+      <c r="K9" s="3">
         <v>630400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>741600</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1047600</v>
+        <v>1051300</v>
       </c>
       <c r="E10" s="3">
-        <v>1007000</v>
+        <v>1021800</v>
       </c>
       <c r="F10" s="3">
-        <v>1005100</v>
+        <v>982200</v>
       </c>
       <c r="G10" s="3">
-        <v>1164000</v>
+        <v>980400</v>
       </c>
       <c r="H10" s="3">
-        <v>1338400</v>
+        <v>1135300</v>
       </c>
       <c r="I10" s="3">
-        <v>1331700</v>
+        <v>1305400</v>
       </c>
       <c r="J10" s="3">
+        <v>1298900</v>
+      </c>
+      <c r="K10" s="3">
         <v>1342700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1350000</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -812,8 +824,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -841,9 +854,12 @@
       <c r="K12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -871,69 +887,78 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>8</v>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
       </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>20500</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>21000</v>
       </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>375500</v>
+        <v>435500</v>
       </c>
       <c r="E15" s="3">
-        <v>351600</v>
+        <v>366200</v>
       </c>
       <c r="F15" s="3">
-        <v>743600</v>
+        <v>342900</v>
       </c>
       <c r="G15" s="3">
-        <v>369800</v>
+        <v>725300</v>
       </c>
       <c r="H15" s="3">
-        <v>327100</v>
+        <v>360700</v>
       </c>
       <c r="I15" s="3">
-        <v>340400</v>
+        <v>319100</v>
       </c>
       <c r="J15" s="3">
+        <v>332000</v>
+      </c>
+      <c r="K15" s="3">
         <v>694800</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>465200</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -943,68 +968,75 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1885400</v>
+        <v>1849600</v>
       </c>
       <c r="E17" s="3">
-        <v>1733400</v>
+        <v>1839000</v>
       </c>
       <c r="F17" s="3">
-        <v>1618000</v>
+        <v>1690800</v>
       </c>
       <c r="G17" s="3">
-        <v>1894200</v>
+        <v>1578200</v>
       </c>
       <c r="H17" s="3">
-        <v>1774100</v>
+        <v>1847600</v>
       </c>
       <c r="I17" s="3">
-        <v>1829100</v>
+        <v>1730400</v>
       </c>
       <c r="J17" s="3">
+        <v>1784100</v>
+      </c>
+      <c r="K17" s="3">
         <v>1687400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1870600</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>250200</v>
+        <v>263700</v>
       </c>
       <c r="E18" s="3">
-        <v>251800</v>
+        <v>244000</v>
       </c>
       <c r="F18" s="3">
-        <v>247600</v>
+        <v>245600</v>
       </c>
       <c r="G18" s="3">
-        <v>238900</v>
+        <v>241500</v>
       </c>
       <c r="H18" s="3">
-        <v>261900</v>
+        <v>233000</v>
       </c>
       <c r="I18" s="3">
-        <v>242800</v>
+        <v>255400</v>
       </c>
       <c r="J18" s="3">
+        <v>236900</v>
+      </c>
+      <c r="K18" s="3">
         <v>285700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>221100</v>
       </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1017,158 +1049,174 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-13000</v>
+        <v>-31800</v>
       </c>
       <c r="E20" s="3">
-        <v>-25200</v>
+        <v>-12700</v>
       </c>
       <c r="F20" s="3">
-        <v>-27200</v>
+        <v>-24800</v>
       </c>
       <c r="G20" s="3">
-        <v>-20800</v>
+        <v>-26500</v>
       </c>
       <c r="H20" s="3">
-        <v>-18800</v>
+        <v>-20300</v>
       </c>
       <c r="I20" s="3">
-        <v>-28700</v>
+        <v>-18300</v>
       </c>
       <c r="J20" s="3">
+        <v>-28000</v>
+      </c>
+      <c r="K20" s="3">
         <v>-14200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-32400</v>
       </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>615000</v>
+        <v>666000</v>
       </c>
       <c r="E21" s="3">
-        <v>580300</v>
+        <v>596400</v>
       </c>
       <c r="F21" s="3">
-        <v>604600</v>
+        <v>562700</v>
       </c>
       <c r="G21" s="3">
-        <v>590200</v>
+        <v>586200</v>
       </c>
       <c r="H21" s="3">
-        <v>572200</v>
+        <v>572300</v>
       </c>
       <c r="I21" s="3">
-        <v>556700</v>
+        <v>555100</v>
       </c>
       <c r="J21" s="3">
+        <v>539900</v>
+      </c>
+      <c r="K21" s="3">
         <v>621100</v>
       </c>
-      <c r="K21" s="3" t="s">
+      <c r="L21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>42900</v>
+        <v>44400</v>
       </c>
       <c r="E22" s="3">
-        <v>44000</v>
+        <v>41900</v>
       </c>
       <c r="F22" s="3">
-        <v>60300</v>
+        <v>42700</v>
       </c>
       <c r="G22" s="3">
-        <v>70800</v>
+        <v>58800</v>
       </c>
       <c r="H22" s="3">
-        <v>73500</v>
+        <v>69100</v>
       </c>
       <c r="I22" s="3">
-        <v>73900</v>
+        <v>71700</v>
       </c>
       <c r="J22" s="3">
+        <v>72100</v>
+      </c>
+      <c r="K22" s="3">
         <v>78700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>81100</v>
       </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>194300</v>
+        <v>187500</v>
       </c>
       <c r="E23" s="3">
-        <v>182700</v>
+        <v>189500</v>
       </c>
       <c r="F23" s="3">
-        <v>160100</v>
+        <v>178200</v>
       </c>
       <c r="G23" s="3">
-        <v>147400</v>
+        <v>156200</v>
       </c>
       <c r="H23" s="3">
-        <v>169600</v>
+        <v>143700</v>
       </c>
       <c r="I23" s="3">
-        <v>140300</v>
+        <v>165400</v>
       </c>
       <c r="J23" s="3">
+        <v>136800</v>
+      </c>
+      <c r="K23" s="3">
         <v>192800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>107500</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>43300</v>
+        <v>46400</v>
       </c>
       <c r="E24" s="3">
-        <v>51900</v>
+        <v>42300</v>
       </c>
       <c r="F24" s="3">
-        <v>-15800</v>
+        <v>50600</v>
       </c>
       <c r="G24" s="3">
-        <v>44800</v>
+        <v>-15400</v>
       </c>
       <c r="H24" s="3">
-        <v>65500</v>
+        <v>43700</v>
       </c>
       <c r="I24" s="3">
-        <v>46500</v>
+        <v>63900</v>
       </c>
       <c r="J24" s="3">
+        <v>45400</v>
+      </c>
+      <c r="K24" s="3">
         <v>43800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>96400</v>
       </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1196,69 +1244,78 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>151000</v>
+        <v>141100</v>
       </c>
       <c r="E26" s="3">
-        <v>130800</v>
+        <v>147200</v>
       </c>
       <c r="F26" s="3">
-        <v>175900</v>
+        <v>127600</v>
       </c>
       <c r="G26" s="3">
-        <v>102500</v>
+        <v>171600</v>
       </c>
       <c r="H26" s="3">
-        <v>104100</v>
+        <v>100000</v>
       </c>
       <c r="I26" s="3">
-        <v>93800</v>
+        <v>101500</v>
       </c>
       <c r="J26" s="3">
+        <v>91500</v>
+      </c>
+      <c r="K26" s="3">
         <v>149000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>11100</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>140800</v>
+        <v>130500</v>
       </c>
       <c r="E27" s="3">
-        <v>120900</v>
+        <v>137300</v>
       </c>
       <c r="F27" s="3">
-        <v>166300</v>
+        <v>117900</v>
       </c>
       <c r="G27" s="3">
-        <v>90100</v>
+        <v>162200</v>
       </c>
       <c r="H27" s="3">
-        <v>93000</v>
+        <v>87900</v>
       </c>
       <c r="I27" s="3">
-        <v>76200</v>
+        <v>90700</v>
       </c>
       <c r="J27" s="3">
+        <v>74400</v>
+      </c>
+      <c r="K27" s="3">
         <v>119800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-26100</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1286,23 +1343,26 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
-        <v>0</v>
+      <c r="D29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E29" s="3">
-        <v>31000</v>
+        <v>0</v>
       </c>
       <c r="F29" s="3">
-        <v>10100</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>8</v>
+        <v>30200</v>
+      </c>
+      <c r="G29" s="3">
+        <v>9800</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>8</v>
@@ -1316,9 +1376,12 @@
       <c r="K29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1346,9 +1409,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1376,69 +1442,78 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>13000</v>
+        <v>31800</v>
       </c>
       <c r="E32" s="3">
-        <v>25200</v>
+        <v>12700</v>
       </c>
       <c r="F32" s="3">
-        <v>27200</v>
+        <v>24800</v>
       </c>
       <c r="G32" s="3">
-        <v>20800</v>
+        <v>26500</v>
       </c>
       <c r="H32" s="3">
-        <v>18800</v>
+        <v>20300</v>
       </c>
       <c r="I32" s="3">
-        <v>28700</v>
+        <v>18300</v>
       </c>
       <c r="J32" s="3">
+        <v>28000</v>
+      </c>
+      <c r="K32" s="3">
         <v>14200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>32400</v>
       </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>140800</v>
+        <v>130500</v>
       </c>
       <c r="E33" s="3">
-        <v>151900</v>
+        <v>137300</v>
       </c>
       <c r="F33" s="3">
-        <v>176400</v>
+        <v>148100</v>
       </c>
       <c r="G33" s="3">
-        <v>90100</v>
+        <v>172100</v>
       </c>
       <c r="H33" s="3">
-        <v>93000</v>
+        <v>87900</v>
       </c>
       <c r="I33" s="3">
-        <v>76200</v>
+        <v>90700</v>
       </c>
       <c r="J33" s="3">
+        <v>74400</v>
+      </c>
+      <c r="K33" s="3">
         <v>119800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-26100</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1466,74 +1541,83 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>140800</v>
+        <v>130500</v>
       </c>
       <c r="E35" s="3">
-        <v>151900</v>
+        <v>137300</v>
       </c>
       <c r="F35" s="3">
-        <v>176400</v>
+        <v>148100</v>
       </c>
       <c r="G35" s="3">
-        <v>90100</v>
+        <v>172100</v>
       </c>
       <c r="H35" s="3">
-        <v>93000</v>
+        <v>87900</v>
       </c>
       <c r="I35" s="3">
-        <v>76200</v>
+        <v>90700</v>
       </c>
       <c r="J35" s="3">
+        <v>74400</v>
+      </c>
+      <c r="K35" s="3">
         <v>119800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-26100</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43465</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43100</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42735</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42369</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42004</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41639</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41274</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>40908</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1546,8 +1630,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1560,278 +1645,306 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>36100</v>
+        <v>42900</v>
       </c>
       <c r="E41" s="3">
-        <v>29000</v>
+        <v>35600</v>
       </c>
       <c r="F41" s="3">
-        <v>38200</v>
+        <v>28600</v>
       </c>
       <c r="G41" s="3">
-        <v>83000</v>
+        <v>37600</v>
       </c>
       <c r="H41" s="3">
-        <v>95700</v>
+        <v>81700</v>
       </c>
       <c r="I41" s="3">
-        <v>124200</v>
+        <v>94200</v>
       </c>
       <c r="J41" s="3">
+        <v>122300</v>
+      </c>
+      <c r="K41" s="3">
         <v>49400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>50600</v>
       </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>23800</v>
+        <v>14000</v>
       </c>
       <c r="E42" s="3">
+        <v>23400</v>
+      </c>
+      <c r="F42" s="3">
         <v>3500</v>
       </c>
-      <c r="F42" s="3">
-        <v>4100</v>
-      </c>
       <c r="G42" s="3">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="H42" s="3">
-        <v>12300</v>
+        <v>4900</v>
       </c>
       <c r="I42" s="3">
-        <v>11200</v>
+        <v>12100</v>
       </c>
       <c r="J42" s="3">
+        <v>11000</v>
+      </c>
+      <c r="K42" s="3">
         <v>170500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>210200</v>
       </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>636600</v>
+        <v>616200</v>
       </c>
       <c r="E43" s="3">
-        <v>487300</v>
+        <v>626800</v>
       </c>
       <c r="F43" s="3">
-        <v>500300</v>
+        <v>470600</v>
       </c>
       <c r="G43" s="3">
-        <v>499100</v>
+        <v>486600</v>
       </c>
       <c r="H43" s="3">
-        <v>446200</v>
+        <v>490500</v>
       </c>
       <c r="I43" s="3">
-        <v>421100</v>
+        <v>433100</v>
       </c>
       <c r="J43" s="3">
+        <v>407800</v>
+      </c>
+      <c r="K43" s="3">
         <v>412000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>428900</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>62100</v>
+        <v>63500</v>
       </c>
       <c r="E44" s="3">
-        <v>55800</v>
+        <v>61200</v>
       </c>
       <c r="F44" s="3">
-        <v>54100</v>
+        <v>55000</v>
       </c>
       <c r="G44" s="3">
-        <v>41200</v>
+        <v>53300</v>
       </c>
       <c r="H44" s="3">
-        <v>44700</v>
+        <v>40500</v>
       </c>
       <c r="I44" s="3">
-        <v>40600</v>
+        <v>44000</v>
       </c>
       <c r="J44" s="3">
+        <v>39900</v>
+      </c>
+      <c r="K44" s="3">
         <v>40300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>34700</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>0</v>
+        <v>20400</v>
       </c>
       <c r="E45" s="3">
-        <v>38700</v>
+        <v>0</v>
       </c>
       <c r="F45" s="3">
-        <v>33800</v>
+        <v>47300</v>
       </c>
       <c r="G45" s="3">
+        <v>39200</v>
+      </c>
+      <c r="H45" s="3">
         <v>54900</v>
       </c>
-      <c r="H45" s="3">
-        <v>44200</v>
-      </c>
       <c r="I45" s="3">
-        <v>33200</v>
+        <v>49800</v>
       </c>
       <c r="J45" s="3">
+        <v>39500</v>
+      </c>
+      <c r="K45" s="3">
         <v>29500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>47000</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>758600</v>
+        <v>757000</v>
       </c>
       <c r="E46" s="3">
-        <v>614300</v>
+        <v>747000</v>
       </c>
       <c r="F46" s="3">
-        <v>630400</v>
+        <v>604900</v>
       </c>
       <c r="G46" s="3">
-        <v>683100</v>
+        <v>620700</v>
       </c>
       <c r="H46" s="3">
-        <v>643200</v>
+        <v>672600</v>
       </c>
       <c r="I46" s="3">
-        <v>630300</v>
+        <v>633300</v>
       </c>
       <c r="J46" s="3">
+        <v>620600</v>
+      </c>
+      <c r="K46" s="3">
         <v>701700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>771400</v>
       </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>82400</v>
+        <v>80000</v>
       </c>
       <c r="E47" s="3">
-        <v>67100</v>
+        <v>81100</v>
       </c>
       <c r="F47" s="3">
-        <v>50600</v>
+        <v>66100</v>
       </c>
       <c r="G47" s="3">
-        <v>57400</v>
+        <v>49800</v>
       </c>
       <c r="H47" s="3">
-        <v>58500</v>
+        <v>56600</v>
       </c>
       <c r="I47" s="3">
-        <v>53700</v>
+        <v>57600</v>
       </c>
       <c r="J47" s="3">
+        <v>52900</v>
+      </c>
+      <c r="K47" s="3">
         <v>61300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>110600</v>
       </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1440200</v>
+        <v>1709300</v>
       </c>
       <c r="E48" s="3">
-        <v>1490100</v>
+        <v>1418100</v>
       </c>
       <c r="F48" s="3">
-        <v>1575400</v>
+        <v>1467200</v>
       </c>
       <c r="G48" s="3">
-        <v>1609900</v>
+        <v>1551100</v>
       </c>
       <c r="H48" s="3">
-        <v>1587400</v>
+        <v>1585100</v>
       </c>
       <c r="I48" s="3">
-        <v>1606200</v>
+        <v>1563000</v>
       </c>
       <c r="J48" s="3">
+        <v>1581500</v>
+      </c>
+      <c r="K48" s="3">
         <v>1660600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1876800</v>
       </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1455800</v>
+        <v>1362600</v>
       </c>
       <c r="E49" s="3">
-        <v>1434700</v>
+        <v>1433400</v>
       </c>
       <c r="F49" s="3">
-        <v>1554400</v>
+        <v>1412700</v>
       </c>
       <c r="G49" s="3">
-        <v>1556200</v>
+        <v>1530400</v>
       </c>
       <c r="H49" s="3">
-        <v>1555100</v>
+        <v>1532300</v>
       </c>
       <c r="I49" s="3">
-        <v>1238900</v>
+        <v>1531200</v>
       </c>
       <c r="J49" s="3">
+        <v>1219800</v>
+      </c>
+      <c r="K49" s="3">
         <v>1011000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1079100</v>
       </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1859,9 +1972,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1889,39 +2005,45 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>19900</v>
+        <v>23400</v>
       </c>
       <c r="E52" s="3">
+        <v>19600</v>
+      </c>
+      <c r="F52" s="3">
         <v>100</v>
       </c>
-      <c r="F52" s="3">
-        <v>9700</v>
-      </c>
       <c r="G52" s="3">
-        <v>16200</v>
+        <v>9600</v>
       </c>
       <c r="H52" s="3">
-        <v>25800</v>
+        <v>15900</v>
       </c>
       <c r="I52" s="3">
-        <v>17400</v>
+        <v>25400</v>
       </c>
       <c r="J52" s="3">
+        <v>17200</v>
+      </c>
+      <c r="K52" s="3">
         <v>3400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>5300</v>
       </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1949,39 +2071,45 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3757000</v>
+        <v>3932400</v>
       </c>
       <c r="E54" s="3">
-        <v>3606400</v>
+        <v>3699200</v>
       </c>
       <c r="F54" s="3">
-        <v>3820500</v>
+        <v>3550900</v>
       </c>
       <c r="G54" s="3">
-        <v>3922800</v>
+        <v>3761700</v>
       </c>
       <c r="H54" s="3">
-        <v>3870000</v>
+        <v>3862500</v>
       </c>
       <c r="I54" s="3">
-        <v>3546600</v>
+        <v>3810500</v>
       </c>
       <c r="J54" s="3">
+        <v>3492000</v>
+      </c>
+      <c r="K54" s="3">
         <v>3438000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3843100</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1994,8 +2122,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2008,188 +2137,207 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>569800</v>
+        <v>496200</v>
       </c>
       <c r="E57" s="3">
-        <v>440200</v>
+        <v>561000</v>
       </c>
       <c r="F57" s="3">
-        <v>444000</v>
+        <v>433400</v>
       </c>
       <c r="G57" s="3">
-        <v>455600</v>
+        <v>437200</v>
       </c>
       <c r="H57" s="3">
-        <v>358700</v>
+        <v>448600</v>
       </c>
       <c r="I57" s="3">
-        <v>336500</v>
+        <v>353200</v>
       </c>
       <c r="J57" s="3">
+        <v>331400</v>
+      </c>
+      <c r="K57" s="3">
         <v>376100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>353900</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>344100</v>
+        <v>301800</v>
       </c>
       <c r="E58" s="3">
-        <v>96800</v>
+        <v>338800</v>
       </c>
       <c r="F58" s="3">
-        <v>261100</v>
+        <v>95300</v>
       </c>
       <c r="G58" s="3">
-        <v>479700</v>
+        <v>257100</v>
       </c>
       <c r="H58" s="3">
-        <v>515400</v>
+        <v>472400</v>
       </c>
       <c r="I58" s="3">
-        <v>467300</v>
+        <v>507500</v>
       </c>
       <c r="J58" s="3">
+        <v>460100</v>
+      </c>
+      <c r="K58" s="3">
         <v>243000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>342100</v>
       </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>167100</v>
+      </c>
+      <c r="E59" s="3">
+        <v>190900</v>
+      </c>
+      <c r="F59" s="3">
+        <v>196300</v>
+      </c>
+      <c r="G59" s="3">
         <v>193900</v>
       </c>
-      <c r="E59" s="3">
-        <v>199400</v>
-      </c>
-      <c r="F59" s="3">
-        <v>197000</v>
-      </c>
-      <c r="G59" s="3">
-        <v>209300</v>
-      </c>
       <c r="H59" s="3">
+        <v>206000</v>
+      </c>
+      <c r="I59" s="3">
+        <v>194800</v>
+      </c>
+      <c r="J59" s="3">
+        <v>191600</v>
+      </c>
+      <c r="K59" s="3">
+        <v>144300</v>
+      </c>
+      <c r="L59" s="3">
         <v>197900</v>
       </c>
-      <c r="I59" s="3">
-        <v>194600</v>
-      </c>
-      <c r="J59" s="3">
-        <v>144300</v>
-      </c>
-      <c r="K59" s="3">
-        <v>197900</v>
-      </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1107700</v>
+        <v>965000</v>
       </c>
       <c r="E60" s="3">
-        <v>736400</v>
+        <v>1090700</v>
       </c>
       <c r="F60" s="3">
-        <v>902100</v>
+        <v>725100</v>
       </c>
       <c r="G60" s="3">
-        <v>1144600</v>
+        <v>888200</v>
       </c>
       <c r="H60" s="3">
-        <v>1072000</v>
+        <v>1127000</v>
       </c>
       <c r="I60" s="3">
-        <v>998500</v>
+        <v>1055500</v>
       </c>
       <c r="J60" s="3">
+        <v>983100</v>
+      </c>
+      <c r="K60" s="3">
         <v>763400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>893900</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>409400</v>
+        <v>713300</v>
       </c>
       <c r="E61" s="3">
-        <v>746100</v>
+        <v>403100</v>
       </c>
       <c r="F61" s="3">
-        <v>803400</v>
+        <v>734600</v>
       </c>
       <c r="G61" s="3">
-        <v>727600</v>
+        <v>791100</v>
       </c>
       <c r="H61" s="3">
-        <v>815300</v>
+        <v>716400</v>
       </c>
       <c r="I61" s="3">
-        <v>806500</v>
+        <v>802800</v>
       </c>
       <c r="J61" s="3">
+        <v>794100</v>
+      </c>
+      <c r="K61" s="3">
         <v>866500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>868300</v>
       </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>241400</v>
+        <v>231200</v>
       </c>
       <c r="E62" s="3">
-        <v>238700</v>
+        <v>237700</v>
       </c>
       <c r="F62" s="3">
-        <v>225600</v>
+        <v>235000</v>
       </c>
       <c r="G62" s="3">
-        <v>279600</v>
+        <v>222200</v>
       </c>
       <c r="H62" s="3">
-        <v>278500</v>
+        <v>275300</v>
       </c>
       <c r="I62" s="3">
-        <v>150500</v>
+        <v>274200</v>
       </c>
       <c r="J62" s="3">
+        <v>148100</v>
+      </c>
+      <c r="K62" s="3">
         <v>111200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>134600</v>
       </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2217,9 +2365,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2247,9 +2398,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2277,39 +2431,45 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1870400</v>
+        <v>2022000</v>
       </c>
       <c r="E66" s="3">
-        <v>1828000</v>
+        <v>1841600</v>
       </c>
       <c r="F66" s="3">
-        <v>2070400</v>
+        <v>1799900</v>
       </c>
       <c r="G66" s="3">
-        <v>2297100</v>
+        <v>2038500</v>
       </c>
       <c r="H66" s="3">
-        <v>2329700</v>
+        <v>2261800</v>
       </c>
       <c r="I66" s="3">
-        <v>2124800</v>
+        <v>2293800</v>
       </c>
       <c r="J66" s="3">
+        <v>2092100</v>
+      </c>
+      <c r="K66" s="3">
         <v>1933100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2135000</v>
       </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2322,8 +2482,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2351,9 +2512,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2381,9 +2545,12 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2411,9 +2578,12 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2441,39 +2611,45 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1395200</v>
+        <v>1421700</v>
       </c>
       <c r="E72" s="3">
-        <v>1288000</v>
+        <v>1373700</v>
       </c>
       <c r="F72" s="3">
-        <v>1220900</v>
+        <v>1268200</v>
       </c>
       <c r="G72" s="3">
-        <v>1095300</v>
+        <v>1202100</v>
       </c>
       <c r="H72" s="3">
-        <v>1008800</v>
+        <v>1078400</v>
       </c>
       <c r="I72" s="3">
-        <v>915800</v>
+        <v>993300</v>
       </c>
       <c r="J72" s="3">
+        <v>901700</v>
+      </c>
+      <c r="K72" s="3">
         <v>1009000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1140000</v>
       </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2501,9 +2677,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2531,9 +2710,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2561,39 +2743,45 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1886600</v>
+        <v>1910400</v>
       </c>
       <c r="E76" s="3">
-        <v>1778400</v>
+        <v>1857600</v>
       </c>
       <c r="F76" s="3">
-        <v>1750100</v>
+        <v>1751000</v>
       </c>
       <c r="G76" s="3">
-        <v>1625700</v>
+        <v>1723200</v>
       </c>
       <c r="H76" s="3">
-        <v>1540400</v>
+        <v>1600700</v>
       </c>
       <c r="I76" s="3">
-        <v>1421800</v>
+        <v>1516700</v>
       </c>
       <c r="J76" s="3">
+        <v>1399900</v>
+      </c>
+      <c r="K76" s="3">
         <v>1504900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1708100</v>
       </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2621,74 +2809,83 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43465</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43100</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42735</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42369</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42004</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41639</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41274</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>40908</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>140800</v>
+        <v>130500</v>
       </c>
       <c r="E81" s="3">
-        <v>151900</v>
+        <v>137300</v>
       </c>
       <c r="F81" s="3">
-        <v>176400</v>
+        <v>148100</v>
       </c>
       <c r="G81" s="3">
-        <v>90100</v>
+        <v>172100</v>
       </c>
       <c r="H81" s="3">
-        <v>93000</v>
+        <v>87900</v>
       </c>
       <c r="I81" s="3">
-        <v>76200</v>
+        <v>90700</v>
       </c>
       <c r="J81" s="3">
+        <v>74400</v>
+      </c>
+      <c r="K81" s="3">
         <v>119800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-26100</v>
       </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2701,38 +2898,42 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>375500</v>
+        <v>435500</v>
       </c>
       <c r="E83" s="3">
-        <v>351600</v>
+        <v>366200</v>
       </c>
       <c r="F83" s="3">
-        <v>381800</v>
+        <v>342900</v>
       </c>
       <c r="G83" s="3">
-        <v>369800</v>
+        <v>372400</v>
       </c>
       <c r="H83" s="3">
-        <v>327100</v>
+        <v>360700</v>
       </c>
       <c r="I83" s="3">
-        <v>340400</v>
+        <v>319100</v>
       </c>
       <c r="J83" s="3">
+        <v>332000</v>
+      </c>
+      <c r="K83" s="3">
         <v>347400</v>
       </c>
-      <c r="K83" s="3" t="s">
+      <c r="L83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2760,9 +2961,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2790,9 +2994,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2820,9 +3027,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2850,9 +3060,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2880,39 +3093,45 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>517100</v>
+        <v>514700</v>
       </c>
       <c r="E89" s="3">
-        <v>511500</v>
+        <v>504300</v>
       </c>
       <c r="F89" s="3">
-        <v>503200</v>
+        <v>498900</v>
       </c>
       <c r="G89" s="3">
-        <v>508000</v>
+        <v>490800</v>
       </c>
       <c r="H89" s="3">
-        <v>472900</v>
+        <v>495500</v>
       </c>
       <c r="I89" s="3">
-        <v>427700</v>
+        <v>461200</v>
       </c>
       <c r="J89" s="3">
+        <v>417200</v>
+      </c>
+      <c r="K89" s="3">
         <v>472000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>590700</v>
       </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2925,38 +3144,42 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-304500</v>
+        <v>-309600</v>
       </c>
       <c r="E91" s="3">
-        <v>-295100</v>
+        <v>-297000</v>
       </c>
       <c r="F91" s="3">
-        <v>-357200</v>
+        <v>-287800</v>
       </c>
       <c r="G91" s="3">
-        <v>-314800</v>
+        <v>-348400</v>
       </c>
       <c r="H91" s="3">
-        <v>-462000</v>
+        <v>-307000</v>
       </c>
       <c r="I91" s="3">
-        <v>-390400</v>
+        <v>-450600</v>
       </c>
       <c r="J91" s="3">
+        <v>-380800</v>
+      </c>
+      <c r="K91" s="3">
         <v>-335800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-293300</v>
       </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2984,9 +3207,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3014,39 +3240,45 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-270000</v>
+        <v>-269200</v>
       </c>
       <c r="E94" s="3">
-        <v>-188700</v>
+        <v>-263400</v>
       </c>
       <c r="F94" s="3">
-        <v>-289900</v>
+        <v>-184100</v>
       </c>
       <c r="G94" s="3">
-        <v>-316900</v>
+        <v>-282800</v>
       </c>
       <c r="H94" s="3">
-        <v>-424100</v>
+        <v>-309100</v>
       </c>
       <c r="I94" s="3">
-        <v>-344700</v>
+        <v>-413700</v>
       </c>
       <c r="J94" s="3">
+        <v>-336200</v>
+      </c>
+      <c r="K94" s="3">
         <v>-236800</v>
       </c>
-      <c r="K94" s="3" t="s">
+      <c r="L94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3059,38 +3291,42 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-96000</v>
+        <v>-94200</v>
       </c>
       <c r="E96" s="3">
-        <v>-95600</v>
+        <v>-93700</v>
       </c>
       <c r="F96" s="3">
-        <v>-73700</v>
+        <v>-93200</v>
       </c>
       <c r="G96" s="3">
-        <v>-21700</v>
+        <v>-71900</v>
       </c>
       <c r="H96" s="3">
-        <v>-26000</v>
+        <v>-21200</v>
       </c>
       <c r="I96" s="3">
-        <v>-212600</v>
+        <v>-25400</v>
       </c>
       <c r="J96" s="3">
+        <v>-207300</v>
+      </c>
+      <c r="K96" s="3">
         <v>-214800</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-226200</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3118,9 +3354,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3148,9 +3387,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3178,97 +3420,109 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-241600</v>
+        <v>-226500</v>
       </c>
       <c r="E100" s="3">
-        <v>-340300</v>
+        <v>-235600</v>
       </c>
       <c r="F100" s="3">
-        <v>-235100</v>
+        <v>-332000</v>
       </c>
       <c r="G100" s="3">
-        <v>-181300</v>
+        <v>-229300</v>
       </c>
       <c r="H100" s="3">
-        <v>-50500</v>
+        <v>-176800</v>
       </c>
       <c r="I100" s="3">
-        <v>-85500</v>
+        <v>-49300</v>
       </c>
       <c r="J100" s="3">
+        <v>-83400</v>
+      </c>
+      <c r="K100" s="3">
         <v>-231000</v>
       </c>
-      <c r="K100" s="3" t="s">
+      <c r="L100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>600</v>
+      </c>
+      <c r="E101" s="3">
         <v>400</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
       <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
         <v>-100</v>
       </c>
-      <c r="G101" s="3">
-        <v>-300</v>
-      </c>
       <c r="H101" s="3">
-        <v>1800</v>
+        <v>-200</v>
       </c>
       <c r="I101" s="3">
+        <v>1700</v>
+      </c>
+      <c r="J101" s="3">
         <v>600</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-1700</v>
       </c>
-      <c r="K101" s="3" t="s">
+      <c r="L101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>5900</v>
+        <v>19600</v>
       </c>
       <c r="E102" s="3">
-        <v>-17600</v>
+        <v>5700</v>
       </c>
       <c r="F102" s="3">
-        <v>-21900</v>
+        <v>-17100</v>
       </c>
       <c r="G102" s="3">
-        <v>9500</v>
+        <v>-21400</v>
       </c>
       <c r="H102" s="3">
-        <v>0</v>
+        <v>9300</v>
       </c>
       <c r="I102" s="3">
-        <v>-1900</v>
+        <v>0</v>
       </c>
       <c r="J102" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="K102" s="3">
         <v>2500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-4900</v>
       </c>
-      <c r="L102" s="3"/>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/MYTAY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/MYTAY_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2113300</v>
+        <v>2220000</v>
       </c>
       <c r="E8" s="3">
-        <v>2083000</v>
+        <v>2188200</v>
       </c>
       <c r="F8" s="3">
-        <v>1936400</v>
+        <v>2034100</v>
       </c>
       <c r="G8" s="3">
-        <v>1819700</v>
+        <v>1911500</v>
       </c>
       <c r="H8" s="3">
-        <v>2080600</v>
+        <v>2185600</v>
       </c>
       <c r="I8" s="3">
-        <v>1985800</v>
+        <v>2086100</v>
       </c>
       <c r="J8" s="3">
-        <v>2020900</v>
+        <v>2122900</v>
       </c>
       <c r="K8" s="3">
         <v>1973200</v>
@@ -750,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1062000</v>
+        <v>1115600</v>
       </c>
       <c r="E9" s="3">
-        <v>1061200</v>
+        <v>1114800</v>
       </c>
       <c r="F9" s="3">
-        <v>954200</v>
+        <v>1002400</v>
       </c>
       <c r="G9" s="3">
-        <v>839300</v>
+        <v>881700</v>
       </c>
       <c r="H9" s="3">
-        <v>945300</v>
+        <v>993000</v>
       </c>
       <c r="I9" s="3">
-        <v>680400</v>
+        <v>714800</v>
       </c>
       <c r="J9" s="3">
-        <v>722100</v>
+        <v>758500</v>
       </c>
       <c r="K9" s="3">
         <v>630400</v>
@@ -783,25 +783,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1051300</v>
+        <v>1104300</v>
       </c>
       <c r="E10" s="3">
-        <v>1021800</v>
+        <v>1073400</v>
       </c>
       <c r="F10" s="3">
-        <v>982200</v>
+        <v>1031800</v>
       </c>
       <c r="G10" s="3">
-        <v>980400</v>
+        <v>1029800</v>
       </c>
       <c r="H10" s="3">
-        <v>1135300</v>
+        <v>1192600</v>
       </c>
       <c r="I10" s="3">
-        <v>1305400</v>
+        <v>1371300</v>
       </c>
       <c r="J10" s="3">
-        <v>1298900</v>
+        <v>1364400</v>
       </c>
       <c r="K10" s="3">
         <v>1342700</v>
@@ -930,25 +930,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>435500</v>
+        <v>457500</v>
       </c>
       <c r="E15" s="3">
-        <v>366200</v>
+        <v>384700</v>
       </c>
       <c r="F15" s="3">
-        <v>342900</v>
+        <v>360200</v>
       </c>
       <c r="G15" s="3">
-        <v>725300</v>
+        <v>761900</v>
       </c>
       <c r="H15" s="3">
-        <v>360700</v>
+        <v>378900</v>
       </c>
       <c r="I15" s="3">
-        <v>319100</v>
+        <v>335200</v>
       </c>
       <c r="J15" s="3">
-        <v>332000</v>
+        <v>348800</v>
       </c>
       <c r="K15" s="3">
         <v>694800</v>
@@ -975,25 +975,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1849600</v>
+        <v>1943000</v>
       </c>
       <c r="E17" s="3">
-        <v>1839000</v>
+        <v>1931800</v>
       </c>
       <c r="F17" s="3">
-        <v>1690800</v>
+        <v>1776100</v>
       </c>
       <c r="G17" s="3">
-        <v>1578200</v>
+        <v>1657800</v>
       </c>
       <c r="H17" s="3">
-        <v>1847600</v>
+        <v>1940800</v>
       </c>
       <c r="I17" s="3">
-        <v>1730400</v>
+        <v>1817800</v>
       </c>
       <c r="J17" s="3">
-        <v>1784100</v>
+        <v>1874100</v>
       </c>
       <c r="K17" s="3">
         <v>1687400</v>
@@ -1008,25 +1008,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>263700</v>
+        <v>277000</v>
       </c>
       <c r="E18" s="3">
-        <v>244000</v>
+        <v>256300</v>
       </c>
       <c r="F18" s="3">
-        <v>245600</v>
+        <v>258000</v>
       </c>
       <c r="G18" s="3">
-        <v>241500</v>
+        <v>253700</v>
       </c>
       <c r="H18" s="3">
-        <v>233000</v>
+        <v>244800</v>
       </c>
       <c r="I18" s="3">
-        <v>255400</v>
+        <v>268300</v>
       </c>
       <c r="J18" s="3">
-        <v>236900</v>
+        <v>248800</v>
       </c>
       <c r="K18" s="3">
         <v>285700</v>
@@ -1056,25 +1056,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-31800</v>
+        <v>-33400</v>
       </c>
       <c r="E20" s="3">
-        <v>-12700</v>
+        <v>-13300</v>
       </c>
       <c r="F20" s="3">
-        <v>-24800</v>
+        <v>-26000</v>
       </c>
       <c r="G20" s="3">
-        <v>-26500</v>
+        <v>-27800</v>
       </c>
       <c r="H20" s="3">
-        <v>-20300</v>
+        <v>-21300</v>
       </c>
       <c r="I20" s="3">
-        <v>-18300</v>
+        <v>-19300</v>
       </c>
       <c r="J20" s="3">
-        <v>-28000</v>
+        <v>-29400</v>
       </c>
       <c r="K20" s="3">
         <v>-14200</v>
@@ -1089,25 +1089,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>666000</v>
+        <v>705200</v>
       </c>
       <c r="E21" s="3">
-        <v>596400</v>
+        <v>631200</v>
       </c>
       <c r="F21" s="3">
-        <v>562700</v>
+        <v>595500</v>
       </c>
       <c r="G21" s="3">
-        <v>586200</v>
+        <v>620600</v>
       </c>
       <c r="H21" s="3">
-        <v>572300</v>
+        <v>605800</v>
       </c>
       <c r="I21" s="3">
-        <v>555100</v>
+        <v>587200</v>
       </c>
       <c r="J21" s="3">
-        <v>539900</v>
+        <v>571400</v>
       </c>
       <c r="K21" s="3">
         <v>621100</v>
@@ -1122,25 +1122,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>44400</v>
+        <v>46600</v>
       </c>
       <c r="E22" s="3">
-        <v>41900</v>
+        <v>44000</v>
       </c>
       <c r="F22" s="3">
-        <v>42700</v>
+        <v>44900</v>
       </c>
       <c r="G22" s="3">
-        <v>58800</v>
+        <v>61800</v>
       </c>
       <c r="H22" s="3">
-        <v>69100</v>
+        <v>72500</v>
       </c>
       <c r="I22" s="3">
-        <v>71700</v>
+        <v>75300</v>
       </c>
       <c r="J22" s="3">
-        <v>72100</v>
+        <v>75700</v>
       </c>
       <c r="K22" s="3">
         <v>78700</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>187500</v>
+        <v>197000</v>
       </c>
       <c r="E23" s="3">
-        <v>189500</v>
+        <v>199100</v>
       </c>
       <c r="F23" s="3">
-        <v>178200</v>
+        <v>187200</v>
       </c>
       <c r="G23" s="3">
-        <v>156200</v>
+        <v>164000</v>
       </c>
       <c r="H23" s="3">
+        <v>151000</v>
+      </c>
+      <c r="I23" s="3">
+        <v>173700</v>
+      </c>
+      <c r="J23" s="3">
         <v>143700</v>
-      </c>
-      <c r="I23" s="3">
-        <v>165400</v>
-      </c>
-      <c r="J23" s="3">
-        <v>136800</v>
       </c>
       <c r="K23" s="3">
         <v>192800</v>
@@ -1188,25 +1188,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>46400</v>
+        <v>48700</v>
       </c>
       <c r="E24" s="3">
-        <v>42300</v>
+        <v>44400</v>
       </c>
       <c r="F24" s="3">
-        <v>50600</v>
+        <v>53100</v>
       </c>
       <c r="G24" s="3">
-        <v>-15400</v>
+        <v>-16200</v>
       </c>
       <c r="H24" s="3">
-        <v>43700</v>
+        <v>45900</v>
       </c>
       <c r="I24" s="3">
-        <v>63900</v>
+        <v>67100</v>
       </c>
       <c r="J24" s="3">
-        <v>45400</v>
+        <v>47600</v>
       </c>
       <c r="K24" s="3">
         <v>43800</v>
@@ -1254,25 +1254,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>141100</v>
+        <v>148200</v>
       </c>
       <c r="E26" s="3">
-        <v>147200</v>
+        <v>154700</v>
       </c>
       <c r="F26" s="3">
-        <v>127600</v>
+        <v>134000</v>
       </c>
       <c r="G26" s="3">
-        <v>171600</v>
+        <v>180200</v>
       </c>
       <c r="H26" s="3">
-        <v>100000</v>
+        <v>105100</v>
       </c>
       <c r="I26" s="3">
-        <v>101500</v>
+        <v>106600</v>
       </c>
       <c r="J26" s="3">
-        <v>91500</v>
+        <v>96100</v>
       </c>
       <c r="K26" s="3">
         <v>149000</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>130500</v>
+        <v>137100</v>
       </c>
       <c r="E27" s="3">
-        <v>137300</v>
+        <v>144200</v>
       </c>
       <c r="F27" s="3">
-        <v>117900</v>
+        <v>123900</v>
       </c>
       <c r="G27" s="3">
-        <v>162200</v>
+        <v>170400</v>
       </c>
       <c r="H27" s="3">
-        <v>87900</v>
+        <v>92300</v>
       </c>
       <c r="I27" s="3">
-        <v>90700</v>
+        <v>95300</v>
       </c>
       <c r="J27" s="3">
-        <v>74400</v>
+        <v>78100</v>
       </c>
       <c r="K27" s="3">
         <v>119800</v>
@@ -1359,10 +1359,10 @@
         <v>0</v>
       </c>
       <c r="F29" s="3">
-        <v>30200</v>
+        <v>31700</v>
       </c>
       <c r="G29" s="3">
-        <v>9800</v>
+        <v>10300</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>8</v>
@@ -1452,25 +1452,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>31800</v>
+        <v>33400</v>
       </c>
       <c r="E32" s="3">
-        <v>12700</v>
+        <v>13300</v>
       </c>
       <c r="F32" s="3">
-        <v>24800</v>
+        <v>26000</v>
       </c>
       <c r="G32" s="3">
-        <v>26500</v>
+        <v>27800</v>
       </c>
       <c r="H32" s="3">
-        <v>20300</v>
+        <v>21300</v>
       </c>
       <c r="I32" s="3">
-        <v>18300</v>
+        <v>19300</v>
       </c>
       <c r="J32" s="3">
-        <v>28000</v>
+        <v>29400</v>
       </c>
       <c r="K32" s="3">
         <v>14200</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>130500</v>
+        <v>137100</v>
       </c>
       <c r="E33" s="3">
-        <v>137300</v>
+        <v>144200</v>
       </c>
       <c r="F33" s="3">
-        <v>148100</v>
+        <v>155600</v>
       </c>
       <c r="G33" s="3">
-        <v>172100</v>
+        <v>180700</v>
       </c>
       <c r="H33" s="3">
-        <v>87900</v>
+        <v>92300</v>
       </c>
       <c r="I33" s="3">
-        <v>90700</v>
+        <v>95300</v>
       </c>
       <c r="J33" s="3">
-        <v>74400</v>
+        <v>78100</v>
       </c>
       <c r="K33" s="3">
         <v>119800</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>130500</v>
+        <v>137100</v>
       </c>
       <c r="E35" s="3">
-        <v>137300</v>
+        <v>144200</v>
       </c>
       <c r="F35" s="3">
-        <v>148100</v>
+        <v>155600</v>
       </c>
       <c r="G35" s="3">
-        <v>172100</v>
+        <v>180700</v>
       </c>
       <c r="H35" s="3">
-        <v>87900</v>
+        <v>92300</v>
       </c>
       <c r="I35" s="3">
-        <v>90700</v>
+        <v>95300</v>
       </c>
       <c r="J35" s="3">
-        <v>74400</v>
+        <v>78100</v>
       </c>
       <c r="K35" s="3">
         <v>119800</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>42900</v>
+        <v>44600</v>
       </c>
       <c r="E41" s="3">
-        <v>35600</v>
+        <v>37000</v>
       </c>
       <c r="F41" s="3">
-        <v>28600</v>
+        <v>29700</v>
       </c>
       <c r="G41" s="3">
-        <v>37600</v>
+        <v>39100</v>
       </c>
       <c r="H41" s="3">
-        <v>81700</v>
+        <v>85000</v>
       </c>
       <c r="I41" s="3">
-        <v>94200</v>
+        <v>98100</v>
       </c>
       <c r="J41" s="3">
-        <v>122300</v>
+        <v>127300</v>
       </c>
       <c r="K41" s="3">
         <v>49400</v>
@@ -1685,25 +1685,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>14000</v>
+        <v>14600</v>
       </c>
       <c r="E42" s="3">
-        <v>23400</v>
+        <v>24300</v>
       </c>
       <c r="F42" s="3">
-        <v>3500</v>
+        <v>3600</v>
       </c>
       <c r="G42" s="3">
-        <v>4000</v>
+        <v>4200</v>
       </c>
       <c r="H42" s="3">
-        <v>4900</v>
+        <v>5100</v>
       </c>
       <c r="I42" s="3">
-        <v>12100</v>
+        <v>12600</v>
       </c>
       <c r="J42" s="3">
-        <v>11000</v>
+        <v>11500</v>
       </c>
       <c r="K42" s="3">
         <v>170500</v>
@@ -1718,25 +1718,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>616200</v>
+        <v>641300</v>
       </c>
       <c r="E43" s="3">
-        <v>626800</v>
+        <v>652300</v>
       </c>
       <c r="F43" s="3">
-        <v>470600</v>
+        <v>489700</v>
       </c>
       <c r="G43" s="3">
-        <v>486600</v>
+        <v>506400</v>
       </c>
       <c r="H43" s="3">
-        <v>490500</v>
+        <v>510400</v>
       </c>
       <c r="I43" s="3">
-        <v>433100</v>
+        <v>450700</v>
       </c>
       <c r="J43" s="3">
-        <v>407800</v>
+        <v>424300</v>
       </c>
       <c r="K43" s="3">
         <v>412000</v>
@@ -1751,25 +1751,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>63500</v>
+        <v>66000</v>
       </c>
       <c r="E44" s="3">
-        <v>61200</v>
+        <v>63700</v>
       </c>
       <c r="F44" s="3">
-        <v>55000</v>
+        <v>57200</v>
       </c>
       <c r="G44" s="3">
-        <v>53300</v>
+        <v>55400</v>
       </c>
       <c r="H44" s="3">
-        <v>40500</v>
+        <v>42200</v>
       </c>
       <c r="I44" s="3">
-        <v>44000</v>
+        <v>45800</v>
       </c>
       <c r="J44" s="3">
-        <v>39900</v>
+        <v>41600</v>
       </c>
       <c r="K44" s="3">
         <v>40300</v>
@@ -1784,25 +1784,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>20400</v>
+        <v>21300</v>
       </c>
       <c r="E45" s="3">
         <v>0</v>
       </c>
       <c r="F45" s="3">
-        <v>47300</v>
+        <v>49200</v>
       </c>
       <c r="G45" s="3">
-        <v>39200</v>
+        <v>40800</v>
       </c>
       <c r="H45" s="3">
-        <v>54900</v>
+        <v>57200</v>
       </c>
       <c r="I45" s="3">
-        <v>49800</v>
+        <v>51800</v>
       </c>
       <c r="J45" s="3">
-        <v>39500</v>
+        <v>41100</v>
       </c>
       <c r="K45" s="3">
         <v>29500</v>
@@ -1817,25 +1817,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>757000</v>
+        <v>787800</v>
       </c>
       <c r="E46" s="3">
-        <v>747000</v>
+        <v>777300</v>
       </c>
       <c r="F46" s="3">
-        <v>604900</v>
+        <v>629500</v>
       </c>
       <c r="G46" s="3">
-        <v>620700</v>
+        <v>645900</v>
       </c>
       <c r="H46" s="3">
-        <v>672600</v>
+        <v>699900</v>
       </c>
       <c r="I46" s="3">
-        <v>633300</v>
+        <v>659000</v>
       </c>
       <c r="J46" s="3">
-        <v>620600</v>
+        <v>645800</v>
       </c>
       <c r="K46" s="3">
         <v>701700</v>
@@ -1850,25 +1850,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>80000</v>
+        <v>83300</v>
       </c>
       <c r="E47" s="3">
-        <v>81100</v>
+        <v>84400</v>
       </c>
       <c r="F47" s="3">
-        <v>66100</v>
+        <v>68800</v>
       </c>
       <c r="G47" s="3">
-        <v>49800</v>
+        <v>51800</v>
       </c>
       <c r="H47" s="3">
-        <v>56600</v>
+        <v>58900</v>
       </c>
       <c r="I47" s="3">
-        <v>57600</v>
+        <v>60000</v>
       </c>
       <c r="J47" s="3">
-        <v>52900</v>
+        <v>55000</v>
       </c>
       <c r="K47" s="3">
         <v>61300</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1709300</v>
+        <v>1778800</v>
       </c>
       <c r="E48" s="3">
-        <v>1418100</v>
+        <v>1475700</v>
       </c>
       <c r="F48" s="3">
-        <v>1467200</v>
+        <v>1526800</v>
       </c>
       <c r="G48" s="3">
-        <v>1551100</v>
+        <v>1614200</v>
       </c>
       <c r="H48" s="3">
-        <v>1585100</v>
+        <v>1649500</v>
       </c>
       <c r="I48" s="3">
-        <v>1563000</v>
+        <v>1626500</v>
       </c>
       <c r="J48" s="3">
-        <v>1581500</v>
+        <v>1645800</v>
       </c>
       <c r="K48" s="3">
         <v>1660600</v>
@@ -1916,25 +1916,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1362600</v>
+        <v>1418000</v>
       </c>
       <c r="E49" s="3">
-        <v>1433400</v>
+        <v>1491700</v>
       </c>
       <c r="F49" s="3">
-        <v>1412700</v>
+        <v>1470100</v>
       </c>
       <c r="G49" s="3">
-        <v>1530400</v>
+        <v>1592600</v>
       </c>
       <c r="H49" s="3">
-        <v>1532300</v>
+        <v>1594600</v>
       </c>
       <c r="I49" s="3">
-        <v>1531200</v>
+        <v>1593400</v>
       </c>
       <c r="J49" s="3">
-        <v>1219800</v>
+        <v>1269400</v>
       </c>
       <c r="K49" s="3">
         <v>1011000</v>
@@ -2015,25 +2015,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>23400</v>
+        <v>24300</v>
       </c>
       <c r="E52" s="3">
-        <v>19600</v>
+        <v>20400</v>
       </c>
       <c r="F52" s="3">
         <v>100</v>
       </c>
       <c r="G52" s="3">
-        <v>9600</v>
+        <v>10000</v>
       </c>
       <c r="H52" s="3">
-        <v>15900</v>
+        <v>16600</v>
       </c>
       <c r="I52" s="3">
-        <v>25400</v>
+        <v>26400</v>
       </c>
       <c r="J52" s="3">
-        <v>17200</v>
+        <v>17900</v>
       </c>
       <c r="K52" s="3">
         <v>3400</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3932400</v>
+        <v>4092100</v>
       </c>
       <c r="E54" s="3">
-        <v>3699200</v>
+        <v>3849500</v>
       </c>
       <c r="F54" s="3">
-        <v>3550900</v>
+        <v>3695200</v>
       </c>
       <c r="G54" s="3">
-        <v>3761700</v>
+        <v>3914500</v>
       </c>
       <c r="H54" s="3">
-        <v>3862500</v>
+        <v>4019400</v>
       </c>
       <c r="I54" s="3">
-        <v>3810500</v>
+        <v>3965300</v>
       </c>
       <c r="J54" s="3">
-        <v>3492000</v>
+        <v>3633900</v>
       </c>
       <c r="K54" s="3">
         <v>3438000</v>
@@ -2144,25 +2144,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>496200</v>
+        <v>516300</v>
       </c>
       <c r="E57" s="3">
-        <v>561000</v>
+        <v>583800</v>
       </c>
       <c r="F57" s="3">
-        <v>433400</v>
+        <v>451000</v>
       </c>
       <c r="G57" s="3">
-        <v>437200</v>
+        <v>455000</v>
       </c>
       <c r="H57" s="3">
-        <v>448600</v>
+        <v>466800</v>
       </c>
       <c r="I57" s="3">
-        <v>353200</v>
+        <v>367500</v>
       </c>
       <c r="J57" s="3">
-        <v>331400</v>
+        <v>344800</v>
       </c>
       <c r="K57" s="3">
         <v>376100</v>
@@ -2177,25 +2177,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>301800</v>
+        <v>314000</v>
       </c>
       <c r="E58" s="3">
-        <v>338800</v>
+        <v>352600</v>
       </c>
       <c r="F58" s="3">
-        <v>95300</v>
+        <v>99200</v>
       </c>
       <c r="G58" s="3">
-        <v>257100</v>
+        <v>267500</v>
       </c>
       <c r="H58" s="3">
-        <v>472400</v>
+        <v>491500</v>
       </c>
       <c r="I58" s="3">
-        <v>507500</v>
+        <v>528100</v>
       </c>
       <c r="J58" s="3">
-        <v>460100</v>
+        <v>478800</v>
       </c>
       <c r="K58" s="3">
         <v>243000</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>167100</v>
+        <v>173900</v>
       </c>
       <c r="E59" s="3">
-        <v>190900</v>
+        <v>198600</v>
       </c>
       <c r="F59" s="3">
-        <v>196300</v>
+        <v>204300</v>
       </c>
       <c r="G59" s="3">
-        <v>193900</v>
+        <v>201800</v>
       </c>
       <c r="H59" s="3">
-        <v>206000</v>
+        <v>214400</v>
       </c>
       <c r="I59" s="3">
-        <v>194800</v>
+        <v>202700</v>
       </c>
       <c r="J59" s="3">
-        <v>191600</v>
+        <v>199400</v>
       </c>
       <c r="K59" s="3">
         <v>144300</v>
@@ -2243,25 +2243,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>965000</v>
+        <v>1004300</v>
       </c>
       <c r="E60" s="3">
-        <v>1090700</v>
+        <v>1135000</v>
       </c>
       <c r="F60" s="3">
-        <v>725100</v>
+        <v>754500</v>
       </c>
       <c r="G60" s="3">
-        <v>888200</v>
+        <v>924300</v>
       </c>
       <c r="H60" s="3">
-        <v>1127000</v>
+        <v>1172800</v>
       </c>
       <c r="I60" s="3">
-        <v>1055500</v>
+        <v>1098400</v>
       </c>
       <c r="J60" s="3">
-        <v>983100</v>
+        <v>1023100</v>
       </c>
       <c r="K60" s="3">
         <v>763400</v>
@@ -2276,25 +2276,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>713300</v>
+        <v>742200</v>
       </c>
       <c r="E61" s="3">
-        <v>403100</v>
+        <v>419400</v>
       </c>
       <c r="F61" s="3">
-        <v>734600</v>
+        <v>764500</v>
       </c>
       <c r="G61" s="3">
-        <v>791100</v>
+        <v>823200</v>
       </c>
       <c r="H61" s="3">
-        <v>716400</v>
+        <v>745500</v>
       </c>
       <c r="I61" s="3">
-        <v>802800</v>
+        <v>835400</v>
       </c>
       <c r="J61" s="3">
-        <v>794100</v>
+        <v>826400</v>
       </c>
       <c r="K61" s="3">
         <v>866500</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>240600</v>
+      </c>
+      <c r="E62" s="3">
+        <v>247300</v>
+      </c>
+      <c r="F62" s="3">
+        <v>244500</v>
+      </c>
+      <c r="G62" s="3">
         <v>231200</v>
       </c>
-      <c r="E62" s="3">
-        <v>237700</v>
-      </c>
-      <c r="F62" s="3">
-        <v>235000</v>
-      </c>
-      <c r="G62" s="3">
-        <v>222200</v>
-      </c>
       <c r="H62" s="3">
-        <v>275300</v>
+        <v>286500</v>
       </c>
       <c r="I62" s="3">
-        <v>274200</v>
+        <v>285300</v>
       </c>
       <c r="J62" s="3">
-        <v>148100</v>
+        <v>154200</v>
       </c>
       <c r="K62" s="3">
         <v>111200</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2022000</v>
+        <v>2104200</v>
       </c>
       <c r="E66" s="3">
-        <v>1841600</v>
+        <v>1916400</v>
       </c>
       <c r="F66" s="3">
-        <v>1799900</v>
+        <v>1873000</v>
       </c>
       <c r="G66" s="3">
-        <v>2038500</v>
+        <v>2121300</v>
       </c>
       <c r="H66" s="3">
-        <v>2261800</v>
+        <v>2353700</v>
       </c>
       <c r="I66" s="3">
-        <v>2293800</v>
+        <v>2387000</v>
       </c>
       <c r="J66" s="3">
-        <v>2092100</v>
+        <v>2177100</v>
       </c>
       <c r="K66" s="3">
         <v>1933100</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1421700</v>
+        <v>1479400</v>
       </c>
       <c r="E72" s="3">
-        <v>1373700</v>
+        <v>1429500</v>
       </c>
       <c r="F72" s="3">
-        <v>1268200</v>
+        <v>1319700</v>
       </c>
       <c r="G72" s="3">
-        <v>1202100</v>
+        <v>1250900</v>
       </c>
       <c r="H72" s="3">
-        <v>1078400</v>
+        <v>1122300</v>
       </c>
       <c r="I72" s="3">
-        <v>993300</v>
+        <v>1033700</v>
       </c>
       <c r="J72" s="3">
-        <v>901700</v>
+        <v>938400</v>
       </c>
       <c r="K72" s="3">
         <v>1009000</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1910400</v>
+        <v>1988000</v>
       </c>
       <c r="E76" s="3">
-        <v>1857600</v>
+        <v>1933000</v>
       </c>
       <c r="F76" s="3">
-        <v>1751000</v>
+        <v>1822200</v>
       </c>
       <c r="G76" s="3">
-        <v>1723200</v>
+        <v>1793200</v>
       </c>
       <c r="H76" s="3">
-        <v>1600700</v>
+        <v>1665700</v>
       </c>
       <c r="I76" s="3">
-        <v>1516700</v>
+        <v>1578300</v>
       </c>
       <c r="J76" s="3">
-        <v>1399900</v>
+        <v>1456800</v>
       </c>
       <c r="K76" s="3">
         <v>1504900</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>130500</v>
+        <v>137100</v>
       </c>
       <c r="E81" s="3">
-        <v>137300</v>
+        <v>144200</v>
       </c>
       <c r="F81" s="3">
-        <v>148100</v>
+        <v>155600</v>
       </c>
       <c r="G81" s="3">
-        <v>172100</v>
+        <v>180700</v>
       </c>
       <c r="H81" s="3">
-        <v>87900</v>
+        <v>92300</v>
       </c>
       <c r="I81" s="3">
-        <v>90700</v>
+        <v>95300</v>
       </c>
       <c r="J81" s="3">
-        <v>74400</v>
+        <v>78100</v>
       </c>
       <c r="K81" s="3">
         <v>119800</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>435500</v>
+        <v>457500</v>
       </c>
       <c r="E83" s="3">
-        <v>366200</v>
+        <v>384700</v>
       </c>
       <c r="F83" s="3">
-        <v>342900</v>
+        <v>360200</v>
       </c>
       <c r="G83" s="3">
-        <v>372400</v>
+        <v>391200</v>
       </c>
       <c r="H83" s="3">
-        <v>360700</v>
+        <v>378900</v>
       </c>
       <c r="I83" s="3">
-        <v>319100</v>
+        <v>335200</v>
       </c>
       <c r="J83" s="3">
-        <v>332000</v>
+        <v>348800</v>
       </c>
       <c r="K83" s="3">
         <v>347400</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>514700</v>
+        <v>540700</v>
       </c>
       <c r="E89" s="3">
-        <v>504300</v>
+        <v>529800</v>
       </c>
       <c r="F89" s="3">
-        <v>498900</v>
+        <v>524100</v>
       </c>
       <c r="G89" s="3">
-        <v>490800</v>
+        <v>515600</v>
       </c>
       <c r="H89" s="3">
-        <v>495500</v>
+        <v>520500</v>
       </c>
       <c r="I89" s="3">
-        <v>461200</v>
+        <v>484500</v>
       </c>
       <c r="J89" s="3">
-        <v>417200</v>
+        <v>438300</v>
       </c>
       <c r="K89" s="3">
         <v>472000</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-309600</v>
+        <v>-325200</v>
       </c>
       <c r="E91" s="3">
-        <v>-297000</v>
+        <v>-312000</v>
       </c>
       <c r="F91" s="3">
-        <v>-287800</v>
+        <v>-302400</v>
       </c>
       <c r="G91" s="3">
-        <v>-348400</v>
+        <v>-366000</v>
       </c>
       <c r="H91" s="3">
-        <v>-307000</v>
+        <v>-322500</v>
       </c>
       <c r="I91" s="3">
-        <v>-450600</v>
+        <v>-473400</v>
       </c>
       <c r="J91" s="3">
-        <v>-380800</v>
+        <v>-400100</v>
       </c>
       <c r="K91" s="3">
         <v>-335800</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-269200</v>
+        <v>-282800</v>
       </c>
       <c r="E94" s="3">
-        <v>-263400</v>
+        <v>-276700</v>
       </c>
       <c r="F94" s="3">
-        <v>-184100</v>
+        <v>-193300</v>
       </c>
       <c r="G94" s="3">
-        <v>-282800</v>
+        <v>-297000</v>
       </c>
       <c r="H94" s="3">
-        <v>-309100</v>
+        <v>-324700</v>
       </c>
       <c r="I94" s="3">
-        <v>-413700</v>
+        <v>-434600</v>
       </c>
       <c r="J94" s="3">
-        <v>-336200</v>
+        <v>-353100</v>
       </c>
       <c r="K94" s="3">
         <v>-236800</v>
@@ -3298,25 +3298,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-94200</v>
+        <v>-99000</v>
       </c>
       <c r="E96" s="3">
-        <v>-93700</v>
+        <v>-98400</v>
       </c>
       <c r="F96" s="3">
-        <v>-93200</v>
+        <v>-97900</v>
       </c>
       <c r="G96" s="3">
-        <v>-71900</v>
+        <v>-75500</v>
       </c>
       <c r="H96" s="3">
-        <v>-21200</v>
+        <v>-22300</v>
       </c>
       <c r="I96" s="3">
-        <v>-25400</v>
+        <v>-26700</v>
       </c>
       <c r="J96" s="3">
-        <v>-207300</v>
+        <v>-217800</v>
       </c>
       <c r="K96" s="3">
         <v>-214800</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-226500</v>
+        <v>-237900</v>
       </c>
       <c r="E100" s="3">
-        <v>-235600</v>
+        <v>-247500</v>
       </c>
       <c r="F100" s="3">
-        <v>-332000</v>
+        <v>-348700</v>
       </c>
       <c r="G100" s="3">
-        <v>-229300</v>
+        <v>-240900</v>
       </c>
       <c r="H100" s="3">
-        <v>-176800</v>
+        <v>-185700</v>
       </c>
       <c r="I100" s="3">
-        <v>-49300</v>
+        <v>-51800</v>
       </c>
       <c r="J100" s="3">
-        <v>-83400</v>
+        <v>-87600</v>
       </c>
       <c r="K100" s="3">
         <v>-231000</v>
@@ -3463,7 +3463,7 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="E101" s="3">
         <v>400</v>
@@ -3475,10 +3475,10 @@
         <v>-100</v>
       </c>
       <c r="H101" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="I101" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="J101" s="3">
         <v>600</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>19600</v>
+        <v>20600</v>
       </c>
       <c r="E102" s="3">
-        <v>5700</v>
+        <v>6000</v>
       </c>
       <c r="F102" s="3">
-        <v>-17100</v>
+        <v>-18000</v>
       </c>
       <c r="G102" s="3">
-        <v>-21400</v>
+        <v>-22500</v>
       </c>
       <c r="H102" s="3">
-        <v>9300</v>
+        <v>9800</v>
       </c>
       <c r="I102" s="3">
         <v>0</v>
       </c>
       <c r="J102" s="3">
-        <v>-1800</v>
+        <v>-1900</v>
       </c>
       <c r="K102" s="3">
         <v>2500</v>

--- a/AAII_Financials/Yearly/MYTAY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/MYTAY_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2220000</v>
+        <v>2206600</v>
       </c>
       <c r="E8" s="3">
-        <v>2188200</v>
+        <v>2175000</v>
       </c>
       <c r="F8" s="3">
-        <v>2034100</v>
+        <v>2021900</v>
       </c>
       <c r="G8" s="3">
-        <v>1911500</v>
+        <v>1900100</v>
       </c>
       <c r="H8" s="3">
-        <v>2185600</v>
+        <v>2172500</v>
       </c>
       <c r="I8" s="3">
-        <v>2086100</v>
+        <v>2073500</v>
       </c>
       <c r="J8" s="3">
-        <v>2122900</v>
+        <v>2110200</v>
       </c>
       <c r="K8" s="3">
         <v>1973200</v>
@@ -750,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1115600</v>
+        <v>1108900</v>
       </c>
       <c r="E9" s="3">
-        <v>1114800</v>
+        <v>1108100</v>
       </c>
       <c r="F9" s="3">
-        <v>1002400</v>
+        <v>996400</v>
       </c>
       <c r="G9" s="3">
-        <v>881700</v>
+        <v>876400</v>
       </c>
       <c r="H9" s="3">
-        <v>993000</v>
+        <v>987000</v>
       </c>
       <c r="I9" s="3">
-        <v>714800</v>
+        <v>710500</v>
       </c>
       <c r="J9" s="3">
-        <v>758500</v>
+        <v>754000</v>
       </c>
       <c r="K9" s="3">
         <v>630400</v>
@@ -783,25 +783,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1104300</v>
+        <v>1097700</v>
       </c>
       <c r="E10" s="3">
-        <v>1073400</v>
+        <v>1066900</v>
       </c>
       <c r="F10" s="3">
-        <v>1031800</v>
+        <v>1025600</v>
       </c>
       <c r="G10" s="3">
-        <v>1029800</v>
+        <v>1023700</v>
       </c>
       <c r="H10" s="3">
-        <v>1192600</v>
+        <v>1185500</v>
       </c>
       <c r="I10" s="3">
-        <v>1371300</v>
+        <v>1363100</v>
       </c>
       <c r="J10" s="3">
-        <v>1364400</v>
+        <v>1356200</v>
       </c>
       <c r="K10" s="3">
         <v>1342700</v>
@@ -930,25 +930,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>457500</v>
+        <v>454700</v>
       </c>
       <c r="E15" s="3">
-        <v>384700</v>
+        <v>382400</v>
       </c>
       <c r="F15" s="3">
-        <v>360200</v>
+        <v>358100</v>
       </c>
       <c r="G15" s="3">
-        <v>761900</v>
+        <v>757300</v>
       </c>
       <c r="H15" s="3">
-        <v>378900</v>
+        <v>376600</v>
       </c>
       <c r="I15" s="3">
-        <v>335200</v>
+        <v>333200</v>
       </c>
       <c r="J15" s="3">
-        <v>348800</v>
+        <v>346700</v>
       </c>
       <c r="K15" s="3">
         <v>694800</v>
@@ -975,25 +975,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1943000</v>
+        <v>1931300</v>
       </c>
       <c r="E17" s="3">
-        <v>1931800</v>
+        <v>1920200</v>
       </c>
       <c r="F17" s="3">
-        <v>1776100</v>
+        <v>1765400</v>
       </c>
       <c r="G17" s="3">
-        <v>1657800</v>
+        <v>1647900</v>
       </c>
       <c r="H17" s="3">
-        <v>1940800</v>
+        <v>1929200</v>
       </c>
       <c r="I17" s="3">
-        <v>1817800</v>
+        <v>1806800</v>
       </c>
       <c r="J17" s="3">
-        <v>1874100</v>
+        <v>1862900</v>
       </c>
       <c r="K17" s="3">
         <v>1687400</v>
@@ -1008,25 +1008,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>277000</v>
+        <v>275300</v>
       </c>
       <c r="E18" s="3">
-        <v>256300</v>
+        <v>254800</v>
       </c>
       <c r="F18" s="3">
-        <v>258000</v>
+        <v>256500</v>
       </c>
       <c r="G18" s="3">
-        <v>253700</v>
+        <v>252200</v>
       </c>
       <c r="H18" s="3">
-        <v>244800</v>
+        <v>243300</v>
       </c>
       <c r="I18" s="3">
-        <v>268300</v>
+        <v>266700</v>
       </c>
       <c r="J18" s="3">
-        <v>248800</v>
+        <v>247300</v>
       </c>
       <c r="K18" s="3">
         <v>285700</v>
@@ -1056,25 +1056,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-33400</v>
+        <v>-33200</v>
       </c>
       <c r="E20" s="3">
-        <v>-13300</v>
+        <v>-13200</v>
       </c>
       <c r="F20" s="3">
-        <v>-26000</v>
+        <v>-25800</v>
       </c>
       <c r="G20" s="3">
-        <v>-27800</v>
+        <v>-27700</v>
       </c>
       <c r="H20" s="3">
-        <v>-21300</v>
+        <v>-21200</v>
       </c>
       <c r="I20" s="3">
-        <v>-19300</v>
+        <v>-19100</v>
       </c>
       <c r="J20" s="3">
-        <v>-29400</v>
+        <v>-29200</v>
       </c>
       <c r="K20" s="3">
         <v>-14200</v>
@@ -1089,25 +1089,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>705200</v>
+        <v>695500</v>
       </c>
       <c r="E21" s="3">
-        <v>631200</v>
+        <v>622800</v>
       </c>
       <c r="F21" s="3">
-        <v>595500</v>
+        <v>587600</v>
       </c>
       <c r="G21" s="3">
-        <v>620600</v>
+        <v>612200</v>
       </c>
       <c r="H21" s="3">
-        <v>605800</v>
+        <v>597700</v>
       </c>
       <c r="I21" s="3">
-        <v>587200</v>
+        <v>579700</v>
       </c>
       <c r="J21" s="3">
-        <v>571400</v>
+        <v>563800</v>
       </c>
       <c r="K21" s="3">
         <v>621100</v>
@@ -1122,25 +1122,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>46600</v>
+        <v>46300</v>
       </c>
       <c r="E22" s="3">
-        <v>44000</v>
+        <v>43700</v>
       </c>
       <c r="F22" s="3">
-        <v>44900</v>
+        <v>44600</v>
       </c>
       <c r="G22" s="3">
-        <v>61800</v>
+        <v>61400</v>
       </c>
       <c r="H22" s="3">
-        <v>72500</v>
+        <v>72100</v>
       </c>
       <c r="I22" s="3">
-        <v>75300</v>
+        <v>74900</v>
       </c>
       <c r="J22" s="3">
-        <v>75700</v>
+        <v>75200</v>
       </c>
       <c r="K22" s="3">
         <v>78700</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>197000</v>
+        <v>195800</v>
       </c>
       <c r="E23" s="3">
-        <v>199100</v>
+        <v>197900</v>
       </c>
       <c r="F23" s="3">
-        <v>187200</v>
+        <v>186000</v>
       </c>
       <c r="G23" s="3">
-        <v>164000</v>
+        <v>163100</v>
       </c>
       <c r="H23" s="3">
-        <v>151000</v>
+        <v>150100</v>
       </c>
       <c r="I23" s="3">
-        <v>173700</v>
+        <v>172700</v>
       </c>
       <c r="J23" s="3">
-        <v>143700</v>
+        <v>142900</v>
       </c>
       <c r="K23" s="3">
         <v>192800</v>
@@ -1188,25 +1188,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>48700</v>
+        <v>48400</v>
       </c>
       <c r="E24" s="3">
-        <v>44400</v>
+        <v>44100</v>
       </c>
       <c r="F24" s="3">
-        <v>53100</v>
+        <v>52800</v>
       </c>
       <c r="G24" s="3">
-        <v>-16200</v>
+        <v>-16100</v>
       </c>
       <c r="H24" s="3">
-        <v>45900</v>
+        <v>45700</v>
       </c>
       <c r="I24" s="3">
-        <v>67100</v>
+        <v>66700</v>
       </c>
       <c r="J24" s="3">
-        <v>47600</v>
+        <v>47400</v>
       </c>
       <c r="K24" s="3">
         <v>43800</v>
@@ -1254,25 +1254,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>148200</v>
+        <v>147300</v>
       </c>
       <c r="E26" s="3">
-        <v>154700</v>
+        <v>153700</v>
       </c>
       <c r="F26" s="3">
-        <v>134000</v>
+        <v>133200</v>
       </c>
       <c r="G26" s="3">
-        <v>180200</v>
+        <v>179100</v>
       </c>
       <c r="H26" s="3">
-        <v>105100</v>
+        <v>104400</v>
       </c>
       <c r="I26" s="3">
-        <v>106600</v>
+        <v>106000</v>
       </c>
       <c r="J26" s="3">
-        <v>96100</v>
+        <v>95500</v>
       </c>
       <c r="K26" s="3">
         <v>149000</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>137100</v>
+        <v>136200</v>
       </c>
       <c r="E27" s="3">
-        <v>144200</v>
+        <v>143400</v>
       </c>
       <c r="F27" s="3">
-        <v>123900</v>
+        <v>123100</v>
       </c>
       <c r="G27" s="3">
-        <v>170400</v>
+        <v>169400</v>
       </c>
       <c r="H27" s="3">
-        <v>92300</v>
+        <v>91700</v>
       </c>
       <c r="I27" s="3">
-        <v>95300</v>
+        <v>94700</v>
       </c>
       <c r="J27" s="3">
-        <v>78100</v>
+        <v>77700</v>
       </c>
       <c r="K27" s="3">
         <v>119800</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="3">
-        <v>31700</v>
+        <v>31500</v>
       </c>
       <c r="G29" s="3">
         <v>10300</v>
@@ -1452,25 +1452,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>33400</v>
+        <v>33200</v>
       </c>
       <c r="E32" s="3">
-        <v>13300</v>
+        <v>13200</v>
       </c>
       <c r="F32" s="3">
-        <v>26000</v>
+        <v>25800</v>
       </c>
       <c r="G32" s="3">
-        <v>27800</v>
+        <v>27700</v>
       </c>
       <c r="H32" s="3">
-        <v>21300</v>
+        <v>21200</v>
       </c>
       <c r="I32" s="3">
-        <v>19300</v>
+        <v>19100</v>
       </c>
       <c r="J32" s="3">
-        <v>29400</v>
+        <v>29200</v>
       </c>
       <c r="K32" s="3">
         <v>14200</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>137100</v>
+        <v>136200</v>
       </c>
       <c r="E33" s="3">
-        <v>144200</v>
+        <v>143400</v>
       </c>
       <c r="F33" s="3">
-        <v>155600</v>
+        <v>154700</v>
       </c>
       <c r="G33" s="3">
-        <v>180700</v>
+        <v>179700</v>
       </c>
       <c r="H33" s="3">
-        <v>92300</v>
+        <v>91700</v>
       </c>
       <c r="I33" s="3">
-        <v>95300</v>
+        <v>94700</v>
       </c>
       <c r="J33" s="3">
-        <v>78100</v>
+        <v>77700</v>
       </c>
       <c r="K33" s="3">
         <v>119800</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>137100</v>
+        <v>136200</v>
       </c>
       <c r="E35" s="3">
-        <v>144200</v>
+        <v>143400</v>
       </c>
       <c r="F35" s="3">
-        <v>155600</v>
+        <v>154700</v>
       </c>
       <c r="G35" s="3">
-        <v>180700</v>
+        <v>179700</v>
       </c>
       <c r="H35" s="3">
-        <v>92300</v>
+        <v>91700</v>
       </c>
       <c r="I35" s="3">
-        <v>95300</v>
+        <v>94700</v>
       </c>
       <c r="J35" s="3">
-        <v>78100</v>
+        <v>77700</v>
       </c>
       <c r="K35" s="3">
         <v>119800</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>44600</v>
+        <v>44300</v>
       </c>
       <c r="E41" s="3">
-        <v>37000</v>
+        <v>36800</v>
       </c>
       <c r="F41" s="3">
-        <v>29700</v>
+        <v>29500</v>
       </c>
       <c r="G41" s="3">
-        <v>39100</v>
+        <v>38900</v>
       </c>
       <c r="H41" s="3">
-        <v>85000</v>
+        <v>84500</v>
       </c>
       <c r="I41" s="3">
-        <v>98100</v>
+        <v>97500</v>
       </c>
       <c r="J41" s="3">
-        <v>127300</v>
+        <v>126500</v>
       </c>
       <c r="K41" s="3">
         <v>49400</v>
@@ -1685,25 +1685,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>14600</v>
+        <v>14500</v>
       </c>
       <c r="E42" s="3">
-        <v>24300</v>
+        <v>24200</v>
       </c>
       <c r="F42" s="3">
         <v>3600</v>
       </c>
       <c r="G42" s="3">
-        <v>4200</v>
+        <v>4100</v>
       </c>
       <c r="H42" s="3">
         <v>5100</v>
       </c>
       <c r="I42" s="3">
-        <v>12600</v>
+        <v>12500</v>
       </c>
       <c r="J42" s="3">
-        <v>11500</v>
+        <v>11400</v>
       </c>
       <c r="K42" s="3">
         <v>170500</v>
@@ -1718,25 +1718,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>641300</v>
+        <v>637400</v>
       </c>
       <c r="E43" s="3">
-        <v>652300</v>
+        <v>648400</v>
       </c>
       <c r="F43" s="3">
-        <v>489700</v>
+        <v>486700</v>
       </c>
       <c r="G43" s="3">
-        <v>506400</v>
+        <v>503300</v>
       </c>
       <c r="H43" s="3">
-        <v>510400</v>
+        <v>507300</v>
       </c>
       <c r="I43" s="3">
-        <v>450700</v>
+        <v>448000</v>
       </c>
       <c r="J43" s="3">
-        <v>424300</v>
+        <v>421800</v>
       </c>
       <c r="K43" s="3">
         <v>412000</v>
@@ -1751,25 +1751,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>66000</v>
+        <v>65600</v>
       </c>
       <c r="E44" s="3">
-        <v>63700</v>
+        <v>63300</v>
       </c>
       <c r="F44" s="3">
-        <v>57200</v>
+        <v>56800</v>
       </c>
       <c r="G44" s="3">
-        <v>55400</v>
+        <v>55100</v>
       </c>
       <c r="H44" s="3">
-        <v>42200</v>
+        <v>41900</v>
       </c>
       <c r="I44" s="3">
-        <v>45800</v>
+        <v>45500</v>
       </c>
       <c r="J44" s="3">
-        <v>41600</v>
+        <v>41300</v>
       </c>
       <c r="K44" s="3">
         <v>40300</v>
@@ -1784,25 +1784,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>21300</v>
+        <v>21100</v>
       </c>
       <c r="E45" s="3">
         <v>0</v>
       </c>
       <c r="F45" s="3">
-        <v>49200</v>
+        <v>49000</v>
       </c>
       <c r="G45" s="3">
-        <v>40800</v>
+        <v>40600</v>
       </c>
       <c r="H45" s="3">
-        <v>57200</v>
+        <v>56800</v>
       </c>
       <c r="I45" s="3">
-        <v>51800</v>
+        <v>51500</v>
       </c>
       <c r="J45" s="3">
-        <v>41100</v>
+        <v>40900</v>
       </c>
       <c r="K45" s="3">
         <v>29500</v>
@@ -1817,25 +1817,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>787800</v>
+        <v>783000</v>
       </c>
       <c r="E46" s="3">
-        <v>777300</v>
+        <v>772600</v>
       </c>
       <c r="F46" s="3">
-        <v>629500</v>
+        <v>625700</v>
       </c>
       <c r="G46" s="3">
-        <v>645900</v>
+        <v>642100</v>
       </c>
       <c r="H46" s="3">
-        <v>699900</v>
+        <v>695700</v>
       </c>
       <c r="I46" s="3">
-        <v>659000</v>
+        <v>655000</v>
       </c>
       <c r="J46" s="3">
-        <v>645800</v>
+        <v>641900</v>
       </c>
       <c r="K46" s="3">
         <v>701700</v>
@@ -1850,25 +1850,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>83300</v>
+        <v>82800</v>
       </c>
       <c r="E47" s="3">
-        <v>84400</v>
+        <v>83900</v>
       </c>
       <c r="F47" s="3">
-        <v>68800</v>
+        <v>68300</v>
       </c>
       <c r="G47" s="3">
-        <v>51800</v>
+        <v>51500</v>
       </c>
       <c r="H47" s="3">
-        <v>58900</v>
+        <v>58500</v>
       </c>
       <c r="I47" s="3">
-        <v>60000</v>
+        <v>59600</v>
       </c>
       <c r="J47" s="3">
-        <v>55000</v>
+        <v>54700</v>
       </c>
       <c r="K47" s="3">
         <v>61300</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1778800</v>
+        <v>1768100</v>
       </c>
       <c r="E48" s="3">
-        <v>1475700</v>
+        <v>1466800</v>
       </c>
       <c r="F48" s="3">
-        <v>1526800</v>
+        <v>1517700</v>
       </c>
       <c r="G48" s="3">
-        <v>1614200</v>
+        <v>1604500</v>
       </c>
       <c r="H48" s="3">
-        <v>1649500</v>
+        <v>1639600</v>
       </c>
       <c r="I48" s="3">
-        <v>1626500</v>
+        <v>1616800</v>
       </c>
       <c r="J48" s="3">
-        <v>1645800</v>
+        <v>1635900</v>
       </c>
       <c r="K48" s="3">
         <v>1660600</v>
@@ -1916,25 +1916,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1418000</v>
+        <v>1409500</v>
       </c>
       <c r="E49" s="3">
-        <v>1491700</v>
+        <v>1482700</v>
       </c>
       <c r="F49" s="3">
-        <v>1470100</v>
+        <v>1461200</v>
       </c>
       <c r="G49" s="3">
-        <v>1592600</v>
+        <v>1583100</v>
       </c>
       <c r="H49" s="3">
-        <v>1594600</v>
+        <v>1585000</v>
       </c>
       <c r="I49" s="3">
-        <v>1593400</v>
+        <v>1583800</v>
       </c>
       <c r="J49" s="3">
-        <v>1269400</v>
+        <v>1261800</v>
       </c>
       <c r="K49" s="3">
         <v>1011000</v>
@@ -2015,25 +2015,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>24300</v>
+        <v>24200</v>
       </c>
       <c r="E52" s="3">
-        <v>20400</v>
+        <v>20300</v>
       </c>
       <c r="F52" s="3">
         <v>100</v>
       </c>
       <c r="G52" s="3">
-        <v>10000</v>
+        <v>9900</v>
       </c>
       <c r="H52" s="3">
-        <v>16600</v>
+        <v>16500</v>
       </c>
       <c r="I52" s="3">
-        <v>26400</v>
+        <v>26300</v>
       </c>
       <c r="J52" s="3">
-        <v>17900</v>
+        <v>17700</v>
       </c>
       <c r="K52" s="3">
         <v>3400</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>4092100</v>
+        <v>4067600</v>
       </c>
       <c r="E54" s="3">
-        <v>3849500</v>
+        <v>3826300</v>
       </c>
       <c r="F54" s="3">
-        <v>3695200</v>
+        <v>3673000</v>
       </c>
       <c r="G54" s="3">
-        <v>3914500</v>
+        <v>3891000</v>
       </c>
       <c r="H54" s="3">
-        <v>4019400</v>
+        <v>3995200</v>
       </c>
       <c r="I54" s="3">
-        <v>3965300</v>
+        <v>3941500</v>
       </c>
       <c r="J54" s="3">
-        <v>3633900</v>
+        <v>3612000</v>
       </c>
       <c r="K54" s="3">
         <v>3438000</v>
@@ -2144,25 +2144,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>516300</v>
+        <v>513200</v>
       </c>
       <c r="E57" s="3">
-        <v>583800</v>
+        <v>580300</v>
       </c>
       <c r="F57" s="3">
-        <v>451000</v>
+        <v>448300</v>
       </c>
       <c r="G57" s="3">
-        <v>455000</v>
+        <v>452200</v>
       </c>
       <c r="H57" s="3">
-        <v>466800</v>
+        <v>464000</v>
       </c>
       <c r="I57" s="3">
-        <v>367500</v>
+        <v>365300</v>
       </c>
       <c r="J57" s="3">
-        <v>344800</v>
+        <v>342700</v>
       </c>
       <c r="K57" s="3">
         <v>376100</v>
@@ -2177,25 +2177,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>314000</v>
+        <v>312200</v>
       </c>
       <c r="E58" s="3">
-        <v>352600</v>
+        <v>350500</v>
       </c>
       <c r="F58" s="3">
-        <v>99200</v>
+        <v>98600</v>
       </c>
       <c r="G58" s="3">
-        <v>267500</v>
+        <v>265900</v>
       </c>
       <c r="H58" s="3">
-        <v>491500</v>
+        <v>488600</v>
       </c>
       <c r="I58" s="3">
-        <v>528100</v>
+        <v>524900</v>
       </c>
       <c r="J58" s="3">
-        <v>478800</v>
+        <v>475900</v>
       </c>
       <c r="K58" s="3">
         <v>243000</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>173900</v>
+        <v>172900</v>
       </c>
       <c r="E59" s="3">
-        <v>198600</v>
+        <v>197400</v>
       </c>
       <c r="F59" s="3">
-        <v>204300</v>
+        <v>203100</v>
       </c>
       <c r="G59" s="3">
-        <v>201800</v>
+        <v>200600</v>
       </c>
       <c r="H59" s="3">
-        <v>214400</v>
+        <v>213100</v>
       </c>
       <c r="I59" s="3">
-        <v>202700</v>
+        <v>201500</v>
       </c>
       <c r="J59" s="3">
-        <v>199400</v>
+        <v>198200</v>
       </c>
       <c r="K59" s="3">
         <v>144300</v>
@@ -2243,25 +2243,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1004300</v>
+        <v>998200</v>
       </c>
       <c r="E60" s="3">
-        <v>1135000</v>
+        <v>1128200</v>
       </c>
       <c r="F60" s="3">
-        <v>754500</v>
+        <v>750000</v>
       </c>
       <c r="G60" s="3">
-        <v>924300</v>
+        <v>918700</v>
       </c>
       <c r="H60" s="3">
-        <v>1172800</v>
+        <v>1165700</v>
       </c>
       <c r="I60" s="3">
-        <v>1098400</v>
+        <v>1091800</v>
       </c>
       <c r="J60" s="3">
-        <v>1023100</v>
+        <v>1016900</v>
       </c>
       <c r="K60" s="3">
         <v>763400</v>
@@ -2276,25 +2276,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>742200</v>
+        <v>737800</v>
       </c>
       <c r="E61" s="3">
-        <v>419400</v>
+        <v>416900</v>
       </c>
       <c r="F61" s="3">
-        <v>764500</v>
+        <v>759900</v>
       </c>
       <c r="G61" s="3">
-        <v>823200</v>
+        <v>818200</v>
       </c>
       <c r="H61" s="3">
-        <v>745500</v>
+        <v>741100</v>
       </c>
       <c r="I61" s="3">
-        <v>835400</v>
+        <v>830300</v>
       </c>
       <c r="J61" s="3">
-        <v>826400</v>
+        <v>821400</v>
       </c>
       <c r="K61" s="3">
         <v>866500</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>240600</v>
+        <v>239100</v>
       </c>
       <c r="E62" s="3">
-        <v>247300</v>
+        <v>245800</v>
       </c>
       <c r="F62" s="3">
-        <v>244500</v>
+        <v>243100</v>
       </c>
       <c r="G62" s="3">
-        <v>231200</v>
+        <v>229800</v>
       </c>
       <c r="H62" s="3">
-        <v>286500</v>
+        <v>284700</v>
       </c>
       <c r="I62" s="3">
-        <v>285300</v>
+        <v>283600</v>
       </c>
       <c r="J62" s="3">
-        <v>154200</v>
+        <v>153200</v>
       </c>
       <c r="K62" s="3">
         <v>111200</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2104200</v>
+        <v>2091500</v>
       </c>
       <c r="E66" s="3">
-        <v>1916400</v>
+        <v>1904900</v>
       </c>
       <c r="F66" s="3">
-        <v>1873000</v>
+        <v>1861800</v>
       </c>
       <c r="G66" s="3">
-        <v>2121300</v>
+        <v>2108600</v>
       </c>
       <c r="H66" s="3">
-        <v>2353700</v>
+        <v>2339500</v>
       </c>
       <c r="I66" s="3">
-        <v>2387000</v>
+        <v>2372700</v>
       </c>
       <c r="J66" s="3">
-        <v>2177100</v>
+        <v>2164000</v>
       </c>
       <c r="K66" s="3">
         <v>1933100</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1479400</v>
+        <v>1470600</v>
       </c>
       <c r="E72" s="3">
-        <v>1429500</v>
+        <v>1421000</v>
       </c>
       <c r="F72" s="3">
-        <v>1319700</v>
+        <v>1311800</v>
       </c>
       <c r="G72" s="3">
-        <v>1250900</v>
+        <v>1243400</v>
       </c>
       <c r="H72" s="3">
-        <v>1122300</v>
+        <v>1115500</v>
       </c>
       <c r="I72" s="3">
-        <v>1033700</v>
+        <v>1027400</v>
       </c>
       <c r="J72" s="3">
-        <v>938400</v>
+        <v>932700</v>
       </c>
       <c r="K72" s="3">
         <v>1009000</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1988000</v>
+        <v>1976000</v>
       </c>
       <c r="E76" s="3">
-        <v>1933000</v>
+        <v>1921400</v>
       </c>
       <c r="F76" s="3">
-        <v>1822200</v>
+        <v>1811200</v>
       </c>
       <c r="G76" s="3">
-        <v>1793200</v>
+        <v>1782400</v>
       </c>
       <c r="H76" s="3">
-        <v>1665700</v>
+        <v>1655700</v>
       </c>
       <c r="I76" s="3">
-        <v>1578300</v>
+        <v>1568800</v>
       </c>
       <c r="J76" s="3">
-        <v>1456800</v>
+        <v>1448000</v>
       </c>
       <c r="K76" s="3">
         <v>1504900</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>137100</v>
+        <v>136200</v>
       </c>
       <c r="E81" s="3">
-        <v>144200</v>
+        <v>143400</v>
       </c>
       <c r="F81" s="3">
-        <v>155600</v>
+        <v>154700</v>
       </c>
       <c r="G81" s="3">
-        <v>180700</v>
+        <v>179700</v>
       </c>
       <c r="H81" s="3">
-        <v>92300</v>
+        <v>91700</v>
       </c>
       <c r="I81" s="3">
-        <v>95300</v>
+        <v>94700</v>
       </c>
       <c r="J81" s="3">
-        <v>78100</v>
+        <v>77700</v>
       </c>
       <c r="K81" s="3">
         <v>119800</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>457500</v>
+        <v>454700</v>
       </c>
       <c r="E83" s="3">
-        <v>384700</v>
+        <v>382400</v>
       </c>
       <c r="F83" s="3">
-        <v>360200</v>
+        <v>358100</v>
       </c>
       <c r="G83" s="3">
-        <v>391200</v>
+        <v>388800</v>
       </c>
       <c r="H83" s="3">
-        <v>378900</v>
+        <v>376600</v>
       </c>
       <c r="I83" s="3">
-        <v>335200</v>
+        <v>333200</v>
       </c>
       <c r="J83" s="3">
-        <v>348800</v>
+        <v>346700</v>
       </c>
       <c r="K83" s="3">
         <v>347400</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>540700</v>
+        <v>537400</v>
       </c>
       <c r="E89" s="3">
-        <v>529800</v>
+        <v>526600</v>
       </c>
       <c r="F89" s="3">
-        <v>524100</v>
+        <v>521000</v>
       </c>
       <c r="G89" s="3">
-        <v>515600</v>
+        <v>512500</v>
       </c>
       <c r="H89" s="3">
-        <v>520500</v>
+        <v>517300</v>
       </c>
       <c r="I89" s="3">
-        <v>484500</v>
+        <v>481600</v>
       </c>
       <c r="J89" s="3">
-        <v>438300</v>
+        <v>435600</v>
       </c>
       <c r="K89" s="3">
         <v>472000</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-325200</v>
+        <v>-323200</v>
       </c>
       <c r="E91" s="3">
-        <v>-312000</v>
+        <v>-310100</v>
       </c>
       <c r="F91" s="3">
-        <v>-302400</v>
+        <v>-300500</v>
       </c>
       <c r="G91" s="3">
-        <v>-366000</v>
+        <v>-363800</v>
       </c>
       <c r="H91" s="3">
-        <v>-322500</v>
+        <v>-320600</v>
       </c>
       <c r="I91" s="3">
-        <v>-473400</v>
+        <v>-470500</v>
       </c>
       <c r="J91" s="3">
-        <v>-400100</v>
+        <v>-397700</v>
       </c>
       <c r="K91" s="3">
         <v>-335800</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-282800</v>
+        <v>-281100</v>
       </c>
       <c r="E94" s="3">
-        <v>-276700</v>
+        <v>-275000</v>
       </c>
       <c r="F94" s="3">
-        <v>-193300</v>
+        <v>-192200</v>
       </c>
       <c r="G94" s="3">
-        <v>-297000</v>
+        <v>-295200</v>
       </c>
       <c r="H94" s="3">
-        <v>-324700</v>
+        <v>-322800</v>
       </c>
       <c r="I94" s="3">
-        <v>-434600</v>
+        <v>-432000</v>
       </c>
       <c r="J94" s="3">
-        <v>-353100</v>
+        <v>-351000</v>
       </c>
       <c r="K94" s="3">
         <v>-236800</v>
@@ -3298,25 +3298,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-99000</v>
+        <v>-98400</v>
       </c>
       <c r="E96" s="3">
-        <v>-98400</v>
+        <v>-97800</v>
       </c>
       <c r="F96" s="3">
-        <v>-97900</v>
+        <v>-97300</v>
       </c>
       <c r="G96" s="3">
-        <v>-75500</v>
+        <v>-75100</v>
       </c>
       <c r="H96" s="3">
-        <v>-22300</v>
+        <v>-22100</v>
       </c>
       <c r="I96" s="3">
-        <v>-26700</v>
+        <v>-26500</v>
       </c>
       <c r="J96" s="3">
-        <v>-217800</v>
+        <v>-216500</v>
       </c>
       <c r="K96" s="3">
         <v>-214800</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-237900</v>
+        <v>-236500</v>
       </c>
       <c r="E100" s="3">
-        <v>-247500</v>
+        <v>-246000</v>
       </c>
       <c r="F100" s="3">
-        <v>-348700</v>
+        <v>-346600</v>
       </c>
       <c r="G100" s="3">
-        <v>-240900</v>
+        <v>-239400</v>
       </c>
       <c r="H100" s="3">
-        <v>-185700</v>
+        <v>-184600</v>
       </c>
       <c r="I100" s="3">
-        <v>-51800</v>
+        <v>-51500</v>
       </c>
       <c r="J100" s="3">
-        <v>-87600</v>
+        <v>-87100</v>
       </c>
       <c r="K100" s="3">
         <v>-231000</v>
@@ -3496,19 +3496,19 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>20600</v>
+        <v>20500</v>
       </c>
       <c r="E102" s="3">
         <v>6000</v>
       </c>
       <c r="F102" s="3">
-        <v>-18000</v>
+        <v>-17900</v>
       </c>
       <c r="G102" s="3">
-        <v>-22500</v>
+        <v>-22400</v>
       </c>
       <c r="H102" s="3">
-        <v>9800</v>
+        <v>9700</v>
       </c>
       <c r="I102" s="3">
         <v>0</v>

--- a/AAII_Financials/Yearly/MYTAY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/MYTAY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
   <si>
     <t>MYTAY</t>
   </si>
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2206600</v>
+        <v>2153300</v>
       </c>
       <c r="E8" s="3">
-        <v>2175000</v>
+        <v>2122400</v>
       </c>
       <c r="F8" s="3">
-        <v>2021900</v>
+        <v>1973000</v>
       </c>
       <c r="G8" s="3">
-        <v>1900100</v>
+        <v>1854100</v>
       </c>
       <c r="H8" s="3">
-        <v>2172500</v>
+        <v>2120000</v>
       </c>
       <c r="I8" s="3">
-        <v>2073500</v>
+        <v>2023400</v>
       </c>
       <c r="J8" s="3">
-        <v>2110200</v>
+        <v>2059200</v>
       </c>
       <c r="K8" s="3">
         <v>1973200</v>
@@ -750,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1108900</v>
+        <v>1082100</v>
       </c>
       <c r="E9" s="3">
-        <v>1108100</v>
+        <v>1081300</v>
       </c>
       <c r="F9" s="3">
-        <v>996400</v>
+        <v>972300</v>
       </c>
       <c r="G9" s="3">
-        <v>876400</v>
+        <v>855200</v>
       </c>
       <c r="H9" s="3">
-        <v>987000</v>
+        <v>963200</v>
       </c>
       <c r="I9" s="3">
-        <v>710500</v>
+        <v>693300</v>
       </c>
       <c r="J9" s="3">
-        <v>754000</v>
+        <v>735700</v>
       </c>
       <c r="K9" s="3">
         <v>630400</v>
@@ -783,25 +783,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1097700</v>
+        <v>1071100</v>
       </c>
       <c r="E10" s="3">
-        <v>1066900</v>
+        <v>1041100</v>
       </c>
       <c r="F10" s="3">
-        <v>1025600</v>
+        <v>1000800</v>
       </c>
       <c r="G10" s="3">
-        <v>1023700</v>
+        <v>998900</v>
       </c>
       <c r="H10" s="3">
-        <v>1185500</v>
+        <v>1156800</v>
       </c>
       <c r="I10" s="3">
-        <v>1363100</v>
+        <v>1330100</v>
       </c>
       <c r="J10" s="3">
-        <v>1356200</v>
+        <v>1323500</v>
       </c>
       <c r="K10" s="3">
         <v>1342700</v>
@@ -930,25 +930,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>454700</v>
+        <v>443700</v>
       </c>
       <c r="E15" s="3">
-        <v>382400</v>
+        <v>373200</v>
       </c>
       <c r="F15" s="3">
-        <v>358100</v>
+        <v>349400</v>
       </c>
       <c r="G15" s="3">
-        <v>757300</v>
+        <v>739000</v>
       </c>
       <c r="H15" s="3">
-        <v>376600</v>
+        <v>367500</v>
       </c>
       <c r="I15" s="3">
-        <v>333200</v>
+        <v>325100</v>
       </c>
       <c r="J15" s="3">
-        <v>346700</v>
+        <v>338300</v>
       </c>
       <c r="K15" s="3">
         <v>694800</v>
@@ -975,25 +975,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1931300</v>
+        <v>1884600</v>
       </c>
       <c r="E17" s="3">
-        <v>1920200</v>
+        <v>1873800</v>
       </c>
       <c r="F17" s="3">
-        <v>1765400</v>
+        <v>1722800</v>
       </c>
       <c r="G17" s="3">
-        <v>1647900</v>
+        <v>1608100</v>
       </c>
       <c r="H17" s="3">
-        <v>1929200</v>
+        <v>1882500</v>
       </c>
       <c r="I17" s="3">
-        <v>1806800</v>
+        <v>1763200</v>
       </c>
       <c r="J17" s="3">
-        <v>1862900</v>
+        <v>1817800</v>
       </c>
       <c r="K17" s="3">
         <v>1687400</v>
@@ -1008,25 +1008,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>275300</v>
+        <v>268700</v>
       </c>
       <c r="E18" s="3">
-        <v>254800</v>
+        <v>248600</v>
       </c>
       <c r="F18" s="3">
-        <v>256500</v>
+        <v>250300</v>
       </c>
       <c r="G18" s="3">
-        <v>252200</v>
+        <v>246100</v>
       </c>
       <c r="H18" s="3">
-        <v>243300</v>
+        <v>237500</v>
       </c>
       <c r="I18" s="3">
-        <v>266700</v>
+        <v>260300</v>
       </c>
       <c r="J18" s="3">
-        <v>247300</v>
+        <v>241300</v>
       </c>
       <c r="K18" s="3">
         <v>285700</v>
@@ -1056,25 +1056,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-33200</v>
+        <v>-32400</v>
       </c>
       <c r="E20" s="3">
-        <v>-13200</v>
+        <v>-12900</v>
       </c>
       <c r="F20" s="3">
-        <v>-25800</v>
+        <v>-25200</v>
       </c>
       <c r="G20" s="3">
-        <v>-27700</v>
+        <v>-27000</v>
       </c>
       <c r="H20" s="3">
-        <v>-21200</v>
+        <v>-20600</v>
       </c>
       <c r="I20" s="3">
-        <v>-19100</v>
+        <v>-18700</v>
       </c>
       <c r="J20" s="3">
-        <v>-29200</v>
+        <v>-28500</v>
       </c>
       <c r="K20" s="3">
         <v>-14200</v>
@@ -1089,25 +1089,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>695500</v>
+        <v>681400</v>
       </c>
       <c r="E21" s="3">
-        <v>622800</v>
+        <v>610100</v>
       </c>
       <c r="F21" s="3">
-        <v>587600</v>
+        <v>575600</v>
       </c>
       <c r="G21" s="3">
-        <v>612200</v>
+        <v>599700</v>
       </c>
       <c r="H21" s="3">
-        <v>597700</v>
+        <v>585500</v>
       </c>
       <c r="I21" s="3">
-        <v>579700</v>
-      </c>
-      <c r="J21" s="3">
-        <v>563800</v>
+        <v>567700</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K21" s="3">
         <v>621100</v>
@@ -1122,25 +1122,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>46300</v>
+        <v>45200</v>
       </c>
       <c r="E22" s="3">
-        <v>43700</v>
+        <v>42600</v>
       </c>
       <c r="F22" s="3">
-        <v>44600</v>
+        <v>43500</v>
       </c>
       <c r="G22" s="3">
-        <v>61400</v>
+        <v>60000</v>
       </c>
       <c r="H22" s="3">
-        <v>72100</v>
+        <v>70400</v>
       </c>
       <c r="I22" s="3">
-        <v>74900</v>
+        <v>73100</v>
       </c>
       <c r="J22" s="3">
-        <v>75200</v>
+        <v>73400</v>
       </c>
       <c r="K22" s="3">
         <v>78700</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>195800</v>
+        <v>191000</v>
       </c>
       <c r="E23" s="3">
-        <v>197900</v>
+        <v>193100</v>
       </c>
       <c r="F23" s="3">
-        <v>186000</v>
+        <v>181500</v>
       </c>
       <c r="G23" s="3">
-        <v>163100</v>
+        <v>159100</v>
       </c>
       <c r="H23" s="3">
-        <v>150100</v>
+        <v>146500</v>
       </c>
       <c r="I23" s="3">
-        <v>172700</v>
+        <v>168500</v>
       </c>
       <c r="J23" s="3">
-        <v>142900</v>
+        <v>139400</v>
       </c>
       <c r="K23" s="3">
         <v>192800</v>
@@ -1188,25 +1188,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>48400</v>
+        <v>47300</v>
       </c>
       <c r="E24" s="3">
-        <v>44100</v>
+        <v>43100</v>
       </c>
       <c r="F24" s="3">
-        <v>52800</v>
+        <v>51500</v>
       </c>
       <c r="G24" s="3">
-        <v>-16100</v>
+        <v>-15700</v>
       </c>
       <c r="H24" s="3">
-        <v>45700</v>
+        <v>44600</v>
       </c>
       <c r="I24" s="3">
-        <v>66700</v>
+        <v>65100</v>
       </c>
       <c r="J24" s="3">
-        <v>47400</v>
+        <v>46200</v>
       </c>
       <c r="K24" s="3">
         <v>43800</v>
@@ -1254,25 +1254,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>147300</v>
+        <v>143800</v>
       </c>
       <c r="E26" s="3">
-        <v>153700</v>
+        <v>150000</v>
       </c>
       <c r="F26" s="3">
-        <v>133200</v>
+        <v>130000</v>
       </c>
       <c r="G26" s="3">
-        <v>179100</v>
+        <v>174800</v>
       </c>
       <c r="H26" s="3">
-        <v>104400</v>
+        <v>101900</v>
       </c>
       <c r="I26" s="3">
-        <v>106000</v>
+        <v>103400</v>
       </c>
       <c r="J26" s="3">
-        <v>95500</v>
+        <v>93200</v>
       </c>
       <c r="K26" s="3">
         <v>149000</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>136200</v>
+        <v>132900</v>
       </c>
       <c r="E27" s="3">
-        <v>143400</v>
+        <v>139900</v>
       </c>
       <c r="F27" s="3">
-        <v>123100</v>
+        <v>120200</v>
       </c>
       <c r="G27" s="3">
-        <v>169400</v>
+        <v>165300</v>
       </c>
       <c r="H27" s="3">
-        <v>91700</v>
+        <v>89500</v>
       </c>
       <c r="I27" s="3">
-        <v>94700</v>
+        <v>92400</v>
       </c>
       <c r="J27" s="3">
-        <v>77700</v>
+        <v>75800</v>
       </c>
       <c r="K27" s="3">
         <v>119800</v>
@@ -1359,10 +1359,10 @@
         <v>0</v>
       </c>
       <c r="F29" s="3">
-        <v>31500</v>
+        <v>30800</v>
       </c>
       <c r="G29" s="3">
-        <v>10300</v>
+        <v>10000</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>8</v>
@@ -1452,25 +1452,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>33200</v>
+        <v>32400</v>
       </c>
       <c r="E32" s="3">
-        <v>13200</v>
+        <v>12900</v>
       </c>
       <c r="F32" s="3">
-        <v>25800</v>
+        <v>25200</v>
       </c>
       <c r="G32" s="3">
-        <v>27700</v>
+        <v>27000</v>
       </c>
       <c r="H32" s="3">
-        <v>21200</v>
+        <v>20600</v>
       </c>
       <c r="I32" s="3">
-        <v>19100</v>
+        <v>18700</v>
       </c>
       <c r="J32" s="3">
-        <v>29200</v>
+        <v>28500</v>
       </c>
       <c r="K32" s="3">
         <v>14200</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>136200</v>
+        <v>132900</v>
       </c>
       <c r="E33" s="3">
-        <v>143400</v>
+        <v>139900</v>
       </c>
       <c r="F33" s="3">
-        <v>154700</v>
+        <v>150900</v>
       </c>
       <c r="G33" s="3">
-        <v>179700</v>
+        <v>175300</v>
       </c>
       <c r="H33" s="3">
-        <v>91700</v>
+        <v>89500</v>
       </c>
       <c r="I33" s="3">
-        <v>94700</v>
+        <v>92400</v>
       </c>
       <c r="J33" s="3">
-        <v>77700</v>
+        <v>75800</v>
       </c>
       <c r="K33" s="3">
         <v>119800</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>136200</v>
+        <v>132900</v>
       </c>
       <c r="E35" s="3">
-        <v>143400</v>
+        <v>139900</v>
       </c>
       <c r="F35" s="3">
-        <v>154700</v>
+        <v>150900</v>
       </c>
       <c r="G35" s="3">
-        <v>179700</v>
+        <v>175300</v>
       </c>
       <c r="H35" s="3">
-        <v>91700</v>
+        <v>89500</v>
       </c>
       <c r="I35" s="3">
-        <v>94700</v>
+        <v>92400</v>
       </c>
       <c r="J35" s="3">
-        <v>77700</v>
+        <v>75800</v>
       </c>
       <c r="K35" s="3">
         <v>119800</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>44300</v>
+        <v>43300</v>
       </c>
       <c r="E41" s="3">
-        <v>36800</v>
+        <v>35900</v>
       </c>
       <c r="F41" s="3">
-        <v>29500</v>
+        <v>28800</v>
       </c>
       <c r="G41" s="3">
-        <v>38900</v>
+        <v>38000</v>
       </c>
       <c r="H41" s="3">
-        <v>84500</v>
+        <v>82500</v>
       </c>
       <c r="I41" s="3">
-        <v>97500</v>
+        <v>95100</v>
       </c>
       <c r="J41" s="3">
-        <v>126500</v>
+        <v>123500</v>
       </c>
       <c r="K41" s="3">
         <v>49400</v>
@@ -1685,25 +1685,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>14500</v>
+        <v>14100</v>
       </c>
       <c r="E42" s="3">
-        <v>24200</v>
+        <v>23600</v>
       </c>
       <c r="F42" s="3">
-        <v>3600</v>
+        <v>3500</v>
       </c>
       <c r="G42" s="3">
-        <v>4100</v>
+        <v>4000</v>
       </c>
       <c r="H42" s="3">
-        <v>5100</v>
+        <v>4900</v>
       </c>
       <c r="I42" s="3">
-        <v>12500</v>
+        <v>12200</v>
       </c>
       <c r="J42" s="3">
-        <v>11400</v>
+        <v>11100</v>
       </c>
       <c r="K42" s="3">
         <v>170500</v>
@@ -1718,25 +1718,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>637400</v>
+        <v>622000</v>
       </c>
       <c r="E43" s="3">
-        <v>648400</v>
+        <v>632700</v>
       </c>
       <c r="F43" s="3">
-        <v>486700</v>
+        <v>475000</v>
       </c>
       <c r="G43" s="3">
-        <v>503300</v>
+        <v>491200</v>
       </c>
       <c r="H43" s="3">
-        <v>507300</v>
+        <v>495100</v>
       </c>
       <c r="I43" s="3">
-        <v>448000</v>
+        <v>437200</v>
       </c>
       <c r="J43" s="3">
-        <v>421800</v>
+        <v>411600</v>
       </c>
       <c r="K43" s="3">
         <v>412000</v>
@@ -1751,25 +1751,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>65600</v>
+        <v>64100</v>
       </c>
       <c r="E44" s="3">
-        <v>63300</v>
+        <v>61800</v>
       </c>
       <c r="F44" s="3">
-        <v>56800</v>
+        <v>55500</v>
       </c>
       <c r="G44" s="3">
-        <v>55100</v>
+        <v>53800</v>
       </c>
       <c r="H44" s="3">
-        <v>41900</v>
+        <v>40900</v>
       </c>
       <c r="I44" s="3">
-        <v>45500</v>
+        <v>44400</v>
       </c>
       <c r="J44" s="3">
-        <v>41300</v>
+        <v>40300</v>
       </c>
       <c r="K44" s="3">
         <v>40300</v>
@@ -1784,25 +1784,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>21100</v>
+        <v>20600</v>
       </c>
       <c r="E45" s="3">
         <v>0</v>
       </c>
       <c r="F45" s="3">
-        <v>49000</v>
+        <v>47800</v>
       </c>
       <c r="G45" s="3">
-        <v>40600</v>
+        <v>39600</v>
       </c>
       <c r="H45" s="3">
-        <v>56800</v>
+        <v>55500</v>
       </c>
       <c r="I45" s="3">
-        <v>51500</v>
+        <v>50300</v>
       </c>
       <c r="J45" s="3">
-        <v>40900</v>
+        <v>39900</v>
       </c>
       <c r="K45" s="3">
         <v>29500</v>
@@ -1817,25 +1817,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>783000</v>
+        <v>764100</v>
       </c>
       <c r="E46" s="3">
-        <v>772600</v>
+        <v>754000</v>
       </c>
       <c r="F46" s="3">
-        <v>625700</v>
+        <v>610600</v>
       </c>
       <c r="G46" s="3">
-        <v>642100</v>
+        <v>626500</v>
       </c>
       <c r="H46" s="3">
-        <v>695700</v>
+        <v>678900</v>
       </c>
       <c r="I46" s="3">
-        <v>655000</v>
+        <v>639200</v>
       </c>
       <c r="J46" s="3">
-        <v>641900</v>
+        <v>626400</v>
       </c>
       <c r="K46" s="3">
         <v>701700</v>
@@ -1850,25 +1850,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>82800</v>
+        <v>80800</v>
       </c>
       <c r="E47" s="3">
-        <v>83900</v>
+        <v>81900</v>
       </c>
       <c r="F47" s="3">
-        <v>68300</v>
+        <v>66700</v>
       </c>
       <c r="G47" s="3">
-        <v>51500</v>
+        <v>50300</v>
       </c>
       <c r="H47" s="3">
-        <v>58500</v>
+        <v>57100</v>
       </c>
       <c r="I47" s="3">
-        <v>59600</v>
+        <v>58200</v>
       </c>
       <c r="J47" s="3">
-        <v>54700</v>
+        <v>53400</v>
       </c>
       <c r="K47" s="3">
         <v>61300</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1768100</v>
+        <v>1725400</v>
       </c>
       <c r="E48" s="3">
-        <v>1466800</v>
+        <v>1431400</v>
       </c>
       <c r="F48" s="3">
-        <v>1517700</v>
+        <v>1481000</v>
       </c>
       <c r="G48" s="3">
-        <v>1604500</v>
+        <v>1565700</v>
       </c>
       <c r="H48" s="3">
-        <v>1639600</v>
+        <v>1600000</v>
       </c>
       <c r="I48" s="3">
-        <v>1616800</v>
+        <v>1577700</v>
       </c>
       <c r="J48" s="3">
-        <v>1635900</v>
+        <v>1596300</v>
       </c>
       <c r="K48" s="3">
         <v>1660600</v>
@@ -1916,25 +1916,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1409500</v>
+        <v>1375400</v>
       </c>
       <c r="E49" s="3">
-        <v>1482700</v>
+        <v>1446900</v>
       </c>
       <c r="F49" s="3">
-        <v>1461200</v>
+        <v>1425900</v>
       </c>
       <c r="G49" s="3">
-        <v>1583100</v>
+        <v>1544800</v>
       </c>
       <c r="H49" s="3">
-        <v>1585000</v>
+        <v>1546700</v>
       </c>
       <c r="I49" s="3">
-        <v>1583800</v>
+        <v>1545500</v>
       </c>
       <c r="J49" s="3">
-        <v>1261800</v>
+        <v>1231300</v>
       </c>
       <c r="K49" s="3">
         <v>1011000</v>
@@ -2015,25 +2015,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>24200</v>
+        <v>23600</v>
       </c>
       <c r="E52" s="3">
-        <v>20300</v>
+        <v>19800</v>
       </c>
       <c r="F52" s="3">
         <v>100</v>
       </c>
       <c r="G52" s="3">
-        <v>9900</v>
+        <v>9700</v>
       </c>
       <c r="H52" s="3">
-        <v>16500</v>
+        <v>16100</v>
       </c>
       <c r="I52" s="3">
-        <v>26300</v>
+        <v>25600</v>
       </c>
       <c r="J52" s="3">
-        <v>17700</v>
+        <v>17300</v>
       </c>
       <c r="K52" s="3">
         <v>3400</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>4067600</v>
+        <v>3969300</v>
       </c>
       <c r="E54" s="3">
-        <v>3826300</v>
+        <v>3733900</v>
       </c>
       <c r="F54" s="3">
-        <v>3673000</v>
+        <v>3584200</v>
       </c>
       <c r="G54" s="3">
-        <v>3891000</v>
+        <v>3797000</v>
       </c>
       <c r="H54" s="3">
-        <v>3995200</v>
+        <v>3898700</v>
       </c>
       <c r="I54" s="3">
-        <v>3941500</v>
+        <v>3846200</v>
       </c>
       <c r="J54" s="3">
-        <v>3612000</v>
+        <v>3524700</v>
       </c>
       <c r="K54" s="3">
         <v>3438000</v>
@@ -2144,25 +2144,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>513200</v>
+        <v>500800</v>
       </c>
       <c r="E57" s="3">
-        <v>580300</v>
+        <v>566300</v>
       </c>
       <c r="F57" s="3">
-        <v>448300</v>
+        <v>437500</v>
       </c>
       <c r="G57" s="3">
-        <v>452200</v>
+        <v>441300</v>
       </c>
       <c r="H57" s="3">
-        <v>464000</v>
+        <v>452800</v>
       </c>
       <c r="I57" s="3">
-        <v>365300</v>
+        <v>356500</v>
       </c>
       <c r="J57" s="3">
-        <v>342700</v>
+        <v>334500</v>
       </c>
       <c r="K57" s="3">
         <v>376100</v>
@@ -2177,25 +2177,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>312200</v>
+        <v>304600</v>
       </c>
       <c r="E58" s="3">
-        <v>350500</v>
+        <v>342000</v>
       </c>
       <c r="F58" s="3">
-        <v>98600</v>
+        <v>96200</v>
       </c>
       <c r="G58" s="3">
-        <v>265900</v>
+        <v>259500</v>
       </c>
       <c r="H58" s="3">
-        <v>488600</v>
+        <v>476800</v>
       </c>
       <c r="I58" s="3">
-        <v>524900</v>
+        <v>512300</v>
       </c>
       <c r="J58" s="3">
-        <v>475900</v>
+        <v>464400</v>
       </c>
       <c r="K58" s="3">
         <v>243000</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>172900</v>
+        <v>168700</v>
       </c>
       <c r="E59" s="3">
-        <v>197400</v>
+        <v>192700</v>
       </c>
       <c r="F59" s="3">
-        <v>203100</v>
+        <v>198100</v>
       </c>
       <c r="G59" s="3">
-        <v>200600</v>
+        <v>195700</v>
       </c>
       <c r="H59" s="3">
-        <v>213100</v>
+        <v>208000</v>
       </c>
       <c r="I59" s="3">
-        <v>201500</v>
+        <v>196700</v>
       </c>
       <c r="J59" s="3">
-        <v>198200</v>
+        <v>193400</v>
       </c>
       <c r="K59" s="3">
         <v>144300</v>
@@ -2243,25 +2243,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>998200</v>
+        <v>974100</v>
       </c>
       <c r="E60" s="3">
-        <v>1128200</v>
+        <v>1100900</v>
       </c>
       <c r="F60" s="3">
-        <v>750000</v>
+        <v>731900</v>
       </c>
       <c r="G60" s="3">
-        <v>918700</v>
+        <v>896500</v>
       </c>
       <c r="H60" s="3">
-        <v>1165700</v>
+        <v>1137600</v>
       </c>
       <c r="I60" s="3">
-        <v>1091800</v>
+        <v>1065400</v>
       </c>
       <c r="J60" s="3">
-        <v>1016900</v>
+        <v>992300</v>
       </c>
       <c r="K60" s="3">
         <v>763400</v>
@@ -2276,25 +2276,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>737800</v>
+        <v>720000</v>
       </c>
       <c r="E61" s="3">
-        <v>416900</v>
+        <v>406800</v>
       </c>
       <c r="F61" s="3">
-        <v>759900</v>
+        <v>741500</v>
       </c>
       <c r="G61" s="3">
-        <v>818200</v>
+        <v>798500</v>
       </c>
       <c r="H61" s="3">
-        <v>741100</v>
+        <v>723100</v>
       </c>
       <c r="I61" s="3">
-        <v>830300</v>
+        <v>810300</v>
       </c>
       <c r="J61" s="3">
-        <v>821400</v>
+        <v>801500</v>
       </c>
       <c r="K61" s="3">
         <v>866500</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>239100</v>
+        <v>233300</v>
       </c>
       <c r="E62" s="3">
-        <v>245800</v>
+        <v>239900</v>
       </c>
       <c r="F62" s="3">
-        <v>243100</v>
+        <v>237200</v>
       </c>
       <c r="G62" s="3">
-        <v>229800</v>
+        <v>224300</v>
       </c>
       <c r="H62" s="3">
-        <v>284700</v>
+        <v>277900</v>
       </c>
       <c r="I62" s="3">
-        <v>283600</v>
+        <v>276700</v>
       </c>
       <c r="J62" s="3">
-        <v>153200</v>
+        <v>149500</v>
       </c>
       <c r="K62" s="3">
         <v>111200</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2091500</v>
+        <v>2041000</v>
       </c>
       <c r="E66" s="3">
-        <v>1904900</v>
+        <v>1858900</v>
       </c>
       <c r="F66" s="3">
-        <v>1861800</v>
+        <v>1816800</v>
       </c>
       <c r="G66" s="3">
-        <v>2108600</v>
+        <v>2057600</v>
       </c>
       <c r="H66" s="3">
-        <v>2339500</v>
+        <v>2283000</v>
       </c>
       <c r="I66" s="3">
-        <v>2372700</v>
+        <v>2315300</v>
       </c>
       <c r="J66" s="3">
-        <v>2164000</v>
+        <v>2111700</v>
       </c>
       <c r="K66" s="3">
         <v>1933100</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1470600</v>
+        <v>1435000</v>
       </c>
       <c r="E72" s="3">
-        <v>1421000</v>
+        <v>1386600</v>
       </c>
       <c r="F72" s="3">
-        <v>1311800</v>
+        <v>1280100</v>
       </c>
       <c r="G72" s="3">
-        <v>1243400</v>
+        <v>1213400</v>
       </c>
       <c r="H72" s="3">
-        <v>1115500</v>
+        <v>1088600</v>
       </c>
       <c r="I72" s="3">
-        <v>1027400</v>
+        <v>1002600</v>
       </c>
       <c r="J72" s="3">
-        <v>932700</v>
+        <v>910200</v>
       </c>
       <c r="K72" s="3">
         <v>1009000</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1976000</v>
+        <v>1928300</v>
       </c>
       <c r="E76" s="3">
-        <v>1921400</v>
+        <v>1875000</v>
       </c>
       <c r="F76" s="3">
-        <v>1811200</v>
+        <v>1767400</v>
       </c>
       <c r="G76" s="3">
-        <v>1782400</v>
+        <v>1739300</v>
       </c>
       <c r="H76" s="3">
-        <v>1655700</v>
+        <v>1615700</v>
       </c>
       <c r="I76" s="3">
-        <v>1568800</v>
+        <v>1530900</v>
       </c>
       <c r="J76" s="3">
-        <v>1448000</v>
+        <v>1413000</v>
       </c>
       <c r="K76" s="3">
         <v>1504900</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>136200</v>
+        <v>132900</v>
       </c>
       <c r="E81" s="3">
-        <v>143400</v>
+        <v>139900</v>
       </c>
       <c r="F81" s="3">
-        <v>154700</v>
+        <v>150900</v>
       </c>
       <c r="G81" s="3">
-        <v>179700</v>
+        <v>175300</v>
       </c>
       <c r="H81" s="3">
-        <v>91700</v>
+        <v>89500</v>
       </c>
       <c r="I81" s="3">
-        <v>94700</v>
+        <v>92400</v>
       </c>
       <c r="J81" s="3">
-        <v>77700</v>
+        <v>75800</v>
       </c>
       <c r="K81" s="3">
         <v>119800</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>454700</v>
+        <v>443700</v>
       </c>
       <c r="E83" s="3">
-        <v>382400</v>
+        <v>373200</v>
       </c>
       <c r="F83" s="3">
-        <v>358100</v>
+        <v>349400</v>
       </c>
       <c r="G83" s="3">
-        <v>388800</v>
+        <v>379400</v>
       </c>
       <c r="H83" s="3">
-        <v>376600</v>
+        <v>367500</v>
       </c>
       <c r="I83" s="3">
-        <v>333200</v>
-      </c>
-      <c r="J83" s="3">
-        <v>346700</v>
+        <v>325100</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K83" s="3">
         <v>347400</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>537400</v>
+        <v>524400</v>
       </c>
       <c r="E89" s="3">
-        <v>526600</v>
+        <v>513900</v>
       </c>
       <c r="F89" s="3">
-        <v>521000</v>
+        <v>508400</v>
       </c>
       <c r="G89" s="3">
-        <v>512500</v>
+        <v>500100</v>
       </c>
       <c r="H89" s="3">
-        <v>517300</v>
+        <v>504800</v>
       </c>
       <c r="I89" s="3">
-        <v>481600</v>
+        <v>469900</v>
       </c>
       <c r="J89" s="3">
-        <v>435600</v>
+        <v>425100</v>
       </c>
       <c r="K89" s="3">
         <v>472000</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-323200</v>
+        <v>-315400</v>
       </c>
       <c r="E91" s="3">
-        <v>-310100</v>
+        <v>-302600</v>
       </c>
       <c r="F91" s="3">
-        <v>-300500</v>
+        <v>-293300</v>
       </c>
       <c r="G91" s="3">
-        <v>-363800</v>
+        <v>-355000</v>
       </c>
       <c r="H91" s="3">
-        <v>-320600</v>
+        <v>-312800</v>
       </c>
       <c r="I91" s="3">
-        <v>-470500</v>
+        <v>-459200</v>
       </c>
       <c r="J91" s="3">
-        <v>-397700</v>
+        <v>-388000</v>
       </c>
       <c r="K91" s="3">
         <v>-335800</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-281100</v>
+        <v>-274300</v>
       </c>
       <c r="E94" s="3">
-        <v>-275000</v>
+        <v>-268400</v>
       </c>
       <c r="F94" s="3">
-        <v>-192200</v>
+        <v>-187500</v>
       </c>
       <c r="G94" s="3">
-        <v>-295200</v>
+        <v>-288100</v>
       </c>
       <c r="H94" s="3">
-        <v>-322800</v>
+        <v>-315000</v>
       </c>
       <c r="I94" s="3">
-        <v>-432000</v>
-      </c>
-      <c r="J94" s="3">
-        <v>-351000</v>
+        <v>-421500</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K94" s="3">
         <v>-236800</v>
@@ -3298,25 +3298,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-98400</v>
+        <v>-96000</v>
       </c>
       <c r="E96" s="3">
-        <v>-97800</v>
+        <v>-95400</v>
       </c>
       <c r="F96" s="3">
-        <v>-97300</v>
+        <v>-95000</v>
       </c>
       <c r="G96" s="3">
-        <v>-75100</v>
+        <v>-73300</v>
       </c>
       <c r="H96" s="3">
-        <v>-22100</v>
+        <v>-21600</v>
       </c>
       <c r="I96" s="3">
-        <v>-26500</v>
+        <v>-25900</v>
       </c>
       <c r="J96" s="3">
-        <v>-216500</v>
+        <v>-211300</v>
       </c>
       <c r="K96" s="3">
         <v>-214800</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-236500</v>
+        <v>-230700</v>
       </c>
       <c r="E100" s="3">
-        <v>-246000</v>
+        <v>-240100</v>
       </c>
       <c r="F100" s="3">
-        <v>-346600</v>
+        <v>-338200</v>
       </c>
       <c r="G100" s="3">
-        <v>-239400</v>
+        <v>-233600</v>
       </c>
       <c r="H100" s="3">
-        <v>-184600</v>
+        <v>-180200</v>
       </c>
       <c r="I100" s="3">
-        <v>-51500</v>
-      </c>
-      <c r="J100" s="3">
-        <v>-87100</v>
+        <v>-50200</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K100" s="3">
         <v>-231000</v>
@@ -3463,7 +3463,7 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="E101" s="3">
         <v>400</v>
@@ -3480,8 +3480,8 @@
       <c r="I101" s="3">
         <v>1800</v>
       </c>
-      <c r="J101" s="3">
-        <v>600</v>
+      <c r="J101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K101" s="3">
         <v>-1700</v>
@@ -3496,19 +3496,19 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>20500</v>
+        <v>20000</v>
       </c>
       <c r="E102" s="3">
-        <v>6000</v>
+        <v>5800</v>
       </c>
       <c r="F102" s="3">
-        <v>-17900</v>
+        <v>-17500</v>
       </c>
       <c r="G102" s="3">
-        <v>-22400</v>
+        <v>-21800</v>
       </c>
       <c r="H102" s="3">
-        <v>9700</v>
+        <v>9500</v>
       </c>
       <c r="I102" s="3">
         <v>0</v>

--- a/AAII_Financials/Yearly/MYTAY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/MYTAY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="92">
   <si>
     <t>MYTAY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,153 +665,165 @@
     <col min="1" max="1" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43465</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43100</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42735</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42369</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42004</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41639</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41274</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>40908</v>
       </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2153300</v>
+        <v>2362400</v>
       </c>
       <c r="E8" s="3">
-        <v>2122400</v>
+        <v>2340000</v>
       </c>
       <c r="F8" s="3">
-        <v>1973000</v>
+        <v>2306400</v>
       </c>
       <c r="G8" s="3">
-        <v>1854100</v>
+        <v>2144100</v>
       </c>
       <c r="H8" s="3">
-        <v>2120000</v>
+        <v>2014900</v>
       </c>
       <c r="I8" s="3">
-        <v>2023400</v>
+        <v>2303800</v>
       </c>
       <c r="J8" s="3">
+        <v>2198800</v>
+      </c>
+      <c r="K8" s="3">
         <v>2059200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1973200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2091700</v>
       </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1082100</v>
+        <v>1186600</v>
       </c>
       <c r="E9" s="3">
-        <v>1081300</v>
+        <v>1175900</v>
       </c>
       <c r="F9" s="3">
-        <v>972300</v>
+        <v>1175000</v>
       </c>
       <c r="G9" s="3">
-        <v>855200</v>
+        <v>1056600</v>
       </c>
       <c r="H9" s="3">
-        <v>963200</v>
+        <v>929400</v>
       </c>
       <c r="I9" s="3">
-        <v>693300</v>
+        <v>1046700</v>
       </c>
       <c r="J9" s="3">
+        <v>753400</v>
+      </c>
+      <c r="K9" s="3">
         <v>735700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>630400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>741600</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1071100</v>
+        <v>1175800</v>
       </c>
       <c r="E10" s="3">
-        <v>1041100</v>
+        <v>1164000</v>
       </c>
       <c r="F10" s="3">
-        <v>1000800</v>
+        <v>1131400</v>
       </c>
       <c r="G10" s="3">
-        <v>998900</v>
+        <v>1087500</v>
       </c>
       <c r="H10" s="3">
-        <v>1156800</v>
+        <v>1085500</v>
       </c>
       <c r="I10" s="3">
-        <v>1330100</v>
+        <v>1257100</v>
       </c>
       <c r="J10" s="3">
+        <v>1445400</v>
+      </c>
+      <c r="K10" s="3">
         <v>1323500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1342700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1350000</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -825,8 +837,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -857,9 +870,12 @@
       <c r="L12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -890,9 +906,12 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -918,47 +937,53 @@
         <v>0</v>
       </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>20500</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>21000</v>
       </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>443700</v>
+        <v>495100</v>
       </c>
       <c r="E15" s="3">
-        <v>373200</v>
+        <v>482200</v>
       </c>
       <c r="F15" s="3">
-        <v>349400</v>
+        <v>405500</v>
       </c>
       <c r="G15" s="3">
-        <v>739000</v>
+        <v>379700</v>
       </c>
       <c r="H15" s="3">
-        <v>367500</v>
+        <v>803000</v>
       </c>
       <c r="I15" s="3">
-        <v>325100</v>
+        <v>399400</v>
       </c>
       <c r="J15" s="3">
+        <v>353300</v>
+      </c>
+      <c r="K15" s="3">
         <v>338300</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>694800</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>465200</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -969,74 +994,81 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1884600</v>
+        <v>2064700</v>
       </c>
       <c r="E17" s="3">
-        <v>1873800</v>
+        <v>2048000</v>
       </c>
       <c r="F17" s="3">
-        <v>1722800</v>
+        <v>2036200</v>
       </c>
       <c r="G17" s="3">
-        <v>1608100</v>
+        <v>1872100</v>
       </c>
       <c r="H17" s="3">
-        <v>1882500</v>
+        <v>1747500</v>
       </c>
       <c r="I17" s="3">
-        <v>1763200</v>
+        <v>2045700</v>
       </c>
       <c r="J17" s="3">
+        <v>1916000</v>
+      </c>
+      <c r="K17" s="3">
         <v>1817800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1687400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1870600</v>
       </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>268700</v>
+        <v>297700</v>
       </c>
       <c r="E18" s="3">
-        <v>248600</v>
+        <v>292000</v>
       </c>
       <c r="F18" s="3">
-        <v>250300</v>
+        <v>270200</v>
       </c>
       <c r="G18" s="3">
-        <v>246100</v>
+        <v>272000</v>
       </c>
       <c r="H18" s="3">
-        <v>237500</v>
+        <v>267400</v>
       </c>
       <c r="I18" s="3">
-        <v>260300</v>
+        <v>258000</v>
       </c>
       <c r="J18" s="3">
+        <v>282800</v>
+      </c>
+      <c r="K18" s="3">
         <v>241300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>285700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>221100</v>
       </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1050,173 +1082,189 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-41400</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-35200</v>
+      </c>
+      <c r="F20" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="G20" s="3">
+        <v>-27400</v>
+      </c>
+      <c r="H20" s="3">
+        <v>-29300</v>
+      </c>
+      <c r="I20" s="3">
+        <v>-22400</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-20300</v>
+      </c>
+      <c r="K20" s="3">
+        <v>-28500</v>
+      </c>
+      <c r="L20" s="3">
+        <v>-14200</v>
+      </c>
+      <c r="M20" s="3">
         <v>-32400</v>
       </c>
-      <c r="E20" s="3">
-        <v>-12900</v>
-      </c>
-      <c r="F20" s="3">
-        <v>-25200</v>
-      </c>
-      <c r="G20" s="3">
-        <v>-27000</v>
-      </c>
-      <c r="H20" s="3">
-        <v>-20600</v>
-      </c>
-      <c r="I20" s="3">
-        <v>-18700</v>
-      </c>
-      <c r="J20" s="3">
-        <v>-28500</v>
-      </c>
-      <c r="K20" s="3">
-        <v>-14200</v>
-      </c>
-      <c r="L20" s="3">
-        <v>-32400</v>
-      </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>681400</v>
+        <v>752800</v>
       </c>
       <c r="E21" s="3">
-        <v>610100</v>
+        <v>740300</v>
       </c>
       <c r="F21" s="3">
-        <v>575600</v>
+        <v>662800</v>
       </c>
       <c r="G21" s="3">
-        <v>599700</v>
+        <v>625300</v>
       </c>
       <c r="H21" s="3">
-        <v>585500</v>
+        <v>651600</v>
       </c>
       <c r="I21" s="3">
-        <v>567700</v>
-      </c>
-      <c r="J21" s="3" t="s">
+        <v>636100</v>
+      </c>
+      <c r="J21" s="3">
+        <v>616800</v>
+      </c>
+      <c r="K21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>621100</v>
       </c>
-      <c r="L21" s="3" t="s">
+      <c r="M21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>45200</v>
+        <v>42500</v>
       </c>
       <c r="E22" s="3">
-        <v>42600</v>
+        <v>49100</v>
       </c>
       <c r="F22" s="3">
-        <v>43500</v>
+        <v>46300</v>
       </c>
       <c r="G22" s="3">
-        <v>60000</v>
+        <v>47300</v>
       </c>
       <c r="H22" s="3">
-        <v>70400</v>
+        <v>65200</v>
       </c>
       <c r="I22" s="3">
-        <v>73100</v>
+        <v>76500</v>
       </c>
       <c r="J22" s="3">
+        <v>79400</v>
+      </c>
+      <c r="K22" s="3">
         <v>73400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>78700</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>81100</v>
       </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>191000</v>
+        <v>213800</v>
       </c>
       <c r="E23" s="3">
-        <v>193100</v>
+        <v>207600</v>
       </c>
       <c r="F23" s="3">
-        <v>181500</v>
+        <v>209800</v>
       </c>
       <c r="G23" s="3">
+        <v>197300</v>
+      </c>
+      <c r="H23" s="3">
+        <v>172900</v>
+      </c>
+      <c r="I23" s="3">
         <v>159100</v>
       </c>
-      <c r="H23" s="3">
-        <v>146500</v>
-      </c>
-      <c r="I23" s="3">
-        <v>168500</v>
-      </c>
       <c r="J23" s="3">
+        <v>183100</v>
+      </c>
+      <c r="K23" s="3">
         <v>139400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>192800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>107500</v>
       </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>47300</v>
+        <v>51200</v>
       </c>
       <c r="E24" s="3">
-        <v>43100</v>
+        <v>51400</v>
       </c>
       <c r="F24" s="3">
-        <v>51500</v>
+        <v>46800</v>
       </c>
       <c r="G24" s="3">
-        <v>-15700</v>
+        <v>56000</v>
       </c>
       <c r="H24" s="3">
-        <v>44600</v>
+        <v>-17100</v>
       </c>
       <c r="I24" s="3">
-        <v>65100</v>
+        <v>48400</v>
       </c>
       <c r="J24" s="3">
+        <v>70700</v>
+      </c>
+      <c r="K24" s="3">
         <v>46200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>43800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>96400</v>
       </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1247,75 +1295,84 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>143800</v>
+        <v>162600</v>
       </c>
       <c r="E26" s="3">
-        <v>150000</v>
+        <v>156200</v>
       </c>
       <c r="F26" s="3">
-        <v>130000</v>
+        <v>163000</v>
       </c>
       <c r="G26" s="3">
-        <v>174800</v>
+        <v>141300</v>
       </c>
       <c r="H26" s="3">
-        <v>101900</v>
+        <v>190000</v>
       </c>
       <c r="I26" s="3">
-        <v>103400</v>
+        <v>110700</v>
       </c>
       <c r="J26" s="3">
+        <v>112400</v>
+      </c>
+      <c r="K26" s="3">
         <v>93200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>149000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>11100</v>
       </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>132900</v>
+        <v>148700</v>
       </c>
       <c r="E27" s="3">
-        <v>139900</v>
+        <v>144500</v>
       </c>
       <c r="F27" s="3">
-        <v>120200</v>
+        <v>152000</v>
       </c>
       <c r="G27" s="3">
-        <v>165300</v>
+        <v>130600</v>
       </c>
       <c r="H27" s="3">
-        <v>89500</v>
+        <v>179600</v>
       </c>
       <c r="I27" s="3">
-        <v>92400</v>
+        <v>97300</v>
       </c>
       <c r="J27" s="3">
+        <v>100400</v>
+      </c>
+      <c r="K27" s="3">
         <v>75800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>119800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-26100</v>
       </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1346,26 +1403,29 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
+      <c r="E29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F29" s="3">
-        <v>30800</v>
+        <v>0</v>
       </c>
       <c r="G29" s="3">
-        <v>10000</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>8</v>
+        <v>33400</v>
+      </c>
+      <c r="H29" s="3">
+        <v>10900</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>8</v>
@@ -1379,9 +1439,12 @@
       <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1412,9 +1475,12 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1445,75 +1511,84 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>41400</v>
+      </c>
+      <c r="E32" s="3">
+        <v>35200</v>
+      </c>
+      <c r="F32" s="3">
+        <v>14000</v>
+      </c>
+      <c r="G32" s="3">
+        <v>27400</v>
+      </c>
+      <c r="H32" s="3">
+        <v>29300</v>
+      </c>
+      <c r="I32" s="3">
+        <v>22400</v>
+      </c>
+      <c r="J32" s="3">
+        <v>20300</v>
+      </c>
+      <c r="K32" s="3">
+        <v>28500</v>
+      </c>
+      <c r="L32" s="3">
+        <v>14200</v>
+      </c>
+      <c r="M32" s="3">
         <v>32400</v>
       </c>
-      <c r="E32" s="3">
-        <v>12900</v>
-      </c>
-      <c r="F32" s="3">
-        <v>25200</v>
-      </c>
-      <c r="G32" s="3">
-        <v>27000</v>
-      </c>
-      <c r="H32" s="3">
-        <v>20600</v>
-      </c>
-      <c r="I32" s="3">
-        <v>18700</v>
-      </c>
-      <c r="J32" s="3">
-        <v>28500</v>
-      </c>
-      <c r="K32" s="3">
-        <v>14200</v>
-      </c>
-      <c r="L32" s="3">
-        <v>32400</v>
-      </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>132900</v>
+        <v>148700</v>
       </c>
       <c r="E33" s="3">
-        <v>139900</v>
+        <v>144500</v>
       </c>
       <c r="F33" s="3">
-        <v>150900</v>
+        <v>152000</v>
       </c>
       <c r="G33" s="3">
-        <v>175300</v>
+        <v>164000</v>
       </c>
       <c r="H33" s="3">
-        <v>89500</v>
+        <v>190500</v>
       </c>
       <c r="I33" s="3">
-        <v>92400</v>
+        <v>97300</v>
       </c>
       <c r="J33" s="3">
+        <v>100400</v>
+      </c>
+      <c r="K33" s="3">
         <v>75800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>119800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-26100</v>
       </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1544,80 +1619,89 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>132900</v>
+        <v>148700</v>
       </c>
       <c r="E35" s="3">
-        <v>139900</v>
+        <v>144500</v>
       </c>
       <c r="F35" s="3">
-        <v>150900</v>
+        <v>152000</v>
       </c>
       <c r="G35" s="3">
-        <v>175300</v>
+        <v>164000</v>
       </c>
       <c r="H35" s="3">
-        <v>89500</v>
+        <v>190500</v>
       </c>
       <c r="I35" s="3">
-        <v>92400</v>
+        <v>97300</v>
       </c>
       <c r="J35" s="3">
+        <v>100400</v>
+      </c>
+      <c r="K35" s="3">
         <v>75800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>119800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-26100</v>
       </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43465</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43100</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42735</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42369</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42004</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41639</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41274</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>40908</v>
       </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1631,8 +1715,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1646,305 +1731,333 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>43300</v>
+        <v>61800</v>
       </c>
       <c r="E41" s="3">
-        <v>35900</v>
+        <v>47000</v>
       </c>
       <c r="F41" s="3">
-        <v>28800</v>
+        <v>39000</v>
       </c>
       <c r="G41" s="3">
-        <v>38000</v>
+        <v>31300</v>
       </c>
       <c r="H41" s="3">
-        <v>82500</v>
+        <v>41300</v>
       </c>
       <c r="I41" s="3">
-        <v>95100</v>
+        <v>89600</v>
       </c>
       <c r="J41" s="3">
+        <v>103400</v>
+      </c>
+      <c r="K41" s="3">
         <v>123500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>49400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>50600</v>
       </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>14100</v>
+        <v>71600</v>
       </c>
       <c r="E42" s="3">
-        <v>23600</v>
+        <v>15400</v>
       </c>
       <c r="F42" s="3">
-        <v>3500</v>
+        <v>25700</v>
       </c>
       <c r="G42" s="3">
-        <v>4000</v>
+        <v>3800</v>
       </c>
       <c r="H42" s="3">
-        <v>4900</v>
+        <v>4400</v>
       </c>
       <c r="I42" s="3">
-        <v>12200</v>
+        <v>5400</v>
       </c>
       <c r="J42" s="3">
+        <v>13300</v>
+      </c>
+      <c r="K42" s="3">
         <v>11100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>170500</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>210200</v>
       </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>622000</v>
+        <v>640700</v>
       </c>
       <c r="E43" s="3">
-        <v>632700</v>
+        <v>675900</v>
       </c>
       <c r="F43" s="3">
-        <v>475000</v>
+        <v>687500</v>
       </c>
       <c r="G43" s="3">
-        <v>491200</v>
+        <v>516100</v>
       </c>
       <c r="H43" s="3">
-        <v>495100</v>
+        <v>533800</v>
       </c>
       <c r="I43" s="3">
-        <v>437200</v>
+        <v>538000</v>
       </c>
       <c r="J43" s="3">
+        <v>475100</v>
+      </c>
+      <c r="K43" s="3">
         <v>411600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>412000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>428900</v>
       </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>64100</v>
+        <v>64600</v>
       </c>
       <c r="E44" s="3">
-        <v>61800</v>
+        <v>69600</v>
       </c>
       <c r="F44" s="3">
-        <v>55500</v>
+        <v>67100</v>
       </c>
       <c r="G44" s="3">
-        <v>53800</v>
+        <v>60300</v>
       </c>
       <c r="H44" s="3">
-        <v>40900</v>
+        <v>58400</v>
       </c>
       <c r="I44" s="3">
-        <v>44400</v>
+        <v>44500</v>
       </c>
       <c r="J44" s="3">
-        <v>40300</v>
+        <v>48300</v>
       </c>
       <c r="K44" s="3">
         <v>40300</v>
       </c>
       <c r="L44" s="3">
+        <v>40300</v>
+      </c>
+      <c r="M44" s="3">
         <v>34700</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>20600</v>
+        <v>67900</v>
       </c>
       <c r="E45" s="3">
-        <v>0</v>
+        <v>22400</v>
       </c>
       <c r="F45" s="3">
-        <v>47800</v>
+        <v>0</v>
       </c>
       <c r="G45" s="3">
-        <v>39600</v>
+        <v>51900</v>
       </c>
       <c r="H45" s="3">
-        <v>55500</v>
+        <v>43000</v>
       </c>
       <c r="I45" s="3">
-        <v>50300</v>
+        <v>60300</v>
       </c>
       <c r="J45" s="3">
+        <v>54600</v>
+      </c>
+      <c r="K45" s="3">
         <v>39900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>29500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>47000</v>
       </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>764100</v>
+        <v>906600</v>
       </c>
       <c r="E46" s="3">
-        <v>754000</v>
+        <v>830300</v>
       </c>
       <c r="F46" s="3">
-        <v>610600</v>
+        <v>819300</v>
       </c>
       <c r="G46" s="3">
-        <v>626500</v>
+        <v>663500</v>
       </c>
       <c r="H46" s="3">
-        <v>678900</v>
+        <v>680900</v>
       </c>
       <c r="I46" s="3">
-        <v>639200</v>
+        <v>737700</v>
       </c>
       <c r="J46" s="3">
+        <v>694600</v>
+      </c>
+      <c r="K46" s="3">
         <v>626400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>701700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>771400</v>
       </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>80800</v>
+        <v>92000</v>
       </c>
       <c r="E47" s="3">
-        <v>81900</v>
+        <v>87800</v>
       </c>
       <c r="F47" s="3">
-        <v>66700</v>
+        <v>89000</v>
       </c>
       <c r="G47" s="3">
-        <v>50300</v>
+        <v>72500</v>
       </c>
       <c r="H47" s="3">
-        <v>57100</v>
+        <v>54600</v>
       </c>
       <c r="I47" s="3">
-        <v>58200</v>
+        <v>62000</v>
       </c>
       <c r="J47" s="3">
+        <v>63200</v>
+      </c>
+      <c r="K47" s="3">
         <v>53400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>61300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>110600</v>
       </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1725400</v>
+        <v>1943700</v>
       </c>
       <c r="E48" s="3">
-        <v>1431400</v>
+        <v>1874900</v>
       </c>
       <c r="F48" s="3">
-        <v>1481000</v>
+        <v>1555400</v>
       </c>
       <c r="G48" s="3">
-        <v>1565700</v>
+        <v>1609400</v>
       </c>
       <c r="H48" s="3">
-        <v>1600000</v>
+        <v>1701400</v>
       </c>
       <c r="I48" s="3">
-        <v>1577700</v>
+        <v>1738700</v>
       </c>
       <c r="J48" s="3">
+        <v>1714400</v>
+      </c>
+      <c r="K48" s="3">
         <v>1596300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1660600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1876800</v>
       </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1375400</v>
+        <v>1750800</v>
       </c>
       <c r="E49" s="3">
-        <v>1446900</v>
+        <v>1494600</v>
       </c>
       <c r="F49" s="3">
-        <v>1425900</v>
+        <v>1572300</v>
       </c>
       <c r="G49" s="3">
-        <v>1544800</v>
+        <v>1549500</v>
       </c>
       <c r="H49" s="3">
-        <v>1546700</v>
+        <v>1678700</v>
       </c>
       <c r="I49" s="3">
-        <v>1545500</v>
+        <v>1680700</v>
       </c>
       <c r="J49" s="3">
+        <v>1679500</v>
+      </c>
+      <c r="K49" s="3">
         <v>1231300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1011000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1079100</v>
       </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1975,9 +2088,12 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2008,42 +2124,48 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>23600</v>
+        <v>44900</v>
       </c>
       <c r="E52" s="3">
-        <v>19800</v>
+        <v>25600</v>
       </c>
       <c r="F52" s="3">
+        <v>21500</v>
+      </c>
+      <c r="G52" s="3">
         <v>100</v>
       </c>
-      <c r="G52" s="3">
-        <v>9700</v>
-      </c>
       <c r="H52" s="3">
-        <v>16100</v>
+        <v>10500</v>
       </c>
       <c r="I52" s="3">
-        <v>25600</v>
+        <v>17500</v>
       </c>
       <c r="J52" s="3">
+        <v>27900</v>
+      </c>
+      <c r="K52" s="3">
         <v>17300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>3400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>5300</v>
       </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2074,42 +2196,48 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3969300</v>
+        <v>4738100</v>
       </c>
       <c r="E54" s="3">
-        <v>3733900</v>
+        <v>4313300</v>
       </c>
       <c r="F54" s="3">
-        <v>3584200</v>
+        <v>4057500</v>
       </c>
       <c r="G54" s="3">
-        <v>3797000</v>
+        <v>3894900</v>
       </c>
       <c r="H54" s="3">
-        <v>3898700</v>
+        <v>4126100</v>
       </c>
       <c r="I54" s="3">
-        <v>3846200</v>
+        <v>4236700</v>
       </c>
       <c r="J54" s="3">
+        <v>4179600</v>
+      </c>
+      <c r="K54" s="3">
         <v>3524700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3438000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>3843100</v>
       </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2123,8 +2251,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2138,206 +2267,225 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>500800</v>
+        <v>520600</v>
       </c>
       <c r="E57" s="3">
-        <v>566300</v>
+        <v>544200</v>
       </c>
       <c r="F57" s="3">
-        <v>437500</v>
+        <v>615300</v>
       </c>
       <c r="G57" s="3">
-        <v>441300</v>
+        <v>475400</v>
       </c>
       <c r="H57" s="3">
-        <v>452800</v>
+        <v>479500</v>
       </c>
       <c r="I57" s="3">
-        <v>356500</v>
+        <v>492000</v>
       </c>
       <c r="J57" s="3">
+        <v>387400</v>
+      </c>
+      <c r="K57" s="3">
         <v>334500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>376100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>353900</v>
       </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>304600</v>
+        <v>409800</v>
       </c>
       <c r="E58" s="3">
-        <v>342000</v>
+        <v>331000</v>
       </c>
       <c r="F58" s="3">
-        <v>96200</v>
+        <v>371600</v>
       </c>
       <c r="G58" s="3">
-        <v>259500</v>
+        <v>104600</v>
       </c>
       <c r="H58" s="3">
-        <v>476800</v>
+        <v>282000</v>
       </c>
       <c r="I58" s="3">
-        <v>512300</v>
+        <v>518100</v>
       </c>
       <c r="J58" s="3">
+        <v>556700</v>
+      </c>
+      <c r="K58" s="3">
         <v>464400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>243000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>342100</v>
       </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>168700</v>
+        <v>181700</v>
       </c>
       <c r="E59" s="3">
-        <v>192700</v>
+        <v>183300</v>
       </c>
       <c r="F59" s="3">
-        <v>198100</v>
+        <v>209400</v>
       </c>
       <c r="G59" s="3">
-        <v>195700</v>
+        <v>215300</v>
       </c>
       <c r="H59" s="3">
-        <v>208000</v>
+        <v>212700</v>
       </c>
       <c r="I59" s="3">
-        <v>196700</v>
+        <v>226000</v>
       </c>
       <c r="J59" s="3">
+        <v>213700</v>
+      </c>
+      <c r="K59" s="3">
         <v>193400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>144300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>197900</v>
       </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>974100</v>
+        <v>1112000</v>
       </c>
       <c r="E60" s="3">
-        <v>1100900</v>
+        <v>1058500</v>
       </c>
       <c r="F60" s="3">
-        <v>731900</v>
+        <v>1196300</v>
       </c>
       <c r="G60" s="3">
-        <v>896500</v>
+        <v>795300</v>
       </c>
       <c r="H60" s="3">
-        <v>1137600</v>
+        <v>974200</v>
       </c>
       <c r="I60" s="3">
-        <v>1065400</v>
+        <v>1236200</v>
       </c>
       <c r="J60" s="3">
+        <v>1157700</v>
+      </c>
+      <c r="K60" s="3">
         <v>992300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>763400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>893900</v>
       </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>720000</v>
+        <v>944800</v>
       </c>
       <c r="E61" s="3">
-        <v>406800</v>
+        <v>782400</v>
       </c>
       <c r="F61" s="3">
-        <v>741500</v>
+        <v>442100</v>
       </c>
       <c r="G61" s="3">
-        <v>798500</v>
+        <v>805800</v>
       </c>
       <c r="H61" s="3">
-        <v>723100</v>
+        <v>867700</v>
       </c>
       <c r="I61" s="3">
-        <v>810300</v>
+        <v>785800</v>
       </c>
       <c r="J61" s="3">
+        <v>880500</v>
+      </c>
+      <c r="K61" s="3">
         <v>801500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>866500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>868300</v>
       </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>233300</v>
+        <v>372600</v>
       </c>
       <c r="E62" s="3">
-        <v>239900</v>
+        <v>253600</v>
       </c>
       <c r="F62" s="3">
-        <v>237200</v>
+        <v>260700</v>
       </c>
       <c r="G62" s="3">
-        <v>224300</v>
+        <v>257700</v>
       </c>
       <c r="H62" s="3">
-        <v>277900</v>
+        <v>243700</v>
       </c>
       <c r="I62" s="3">
-        <v>276700</v>
+        <v>301900</v>
       </c>
       <c r="J62" s="3">
+        <v>300700</v>
+      </c>
+      <c r="K62" s="3">
         <v>149500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>111200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>134600</v>
       </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2368,9 +2516,12 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2401,9 +2552,12 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2434,42 +2588,48 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2041000</v>
+        <v>2566500</v>
       </c>
       <c r="E66" s="3">
-        <v>1858900</v>
+        <v>2217900</v>
       </c>
       <c r="F66" s="3">
-        <v>1816800</v>
+        <v>2020000</v>
       </c>
       <c r="G66" s="3">
-        <v>2057600</v>
+        <v>1974300</v>
       </c>
       <c r="H66" s="3">
-        <v>2283000</v>
+        <v>2236000</v>
       </c>
       <c r="I66" s="3">
-        <v>2315300</v>
+        <v>2480900</v>
       </c>
       <c r="J66" s="3">
+        <v>2516000</v>
+      </c>
+      <c r="K66" s="3">
         <v>2111700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1933100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2135000</v>
       </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2483,8 +2643,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2515,9 +2676,12 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2548,9 +2712,12 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2581,9 +2748,12 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2614,42 +2784,48 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1435000</v>
+        <v>1634900</v>
       </c>
       <c r="E72" s="3">
-        <v>1386600</v>
+        <v>1559400</v>
       </c>
       <c r="F72" s="3">
-        <v>1280100</v>
+        <v>1506800</v>
       </c>
       <c r="G72" s="3">
-        <v>1213400</v>
+        <v>1391100</v>
       </c>
       <c r="H72" s="3">
-        <v>1088600</v>
+        <v>1318600</v>
       </c>
       <c r="I72" s="3">
-        <v>1002600</v>
+        <v>1182900</v>
       </c>
       <c r="J72" s="3">
+        <v>1089500</v>
+      </c>
+      <c r="K72" s="3">
         <v>910200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1009000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1140000</v>
       </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2680,9 +2856,12 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2713,9 +2892,12 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2746,42 +2928,48 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1928300</v>
+        <v>2171600</v>
       </c>
       <c r="E76" s="3">
-        <v>1875000</v>
+        <v>2095400</v>
       </c>
       <c r="F76" s="3">
-        <v>1767400</v>
+        <v>2037500</v>
       </c>
       <c r="G76" s="3">
-        <v>1739300</v>
+        <v>1920700</v>
       </c>
       <c r="H76" s="3">
-        <v>1615700</v>
+        <v>1890100</v>
       </c>
       <c r="I76" s="3">
-        <v>1530900</v>
+        <v>1755800</v>
       </c>
       <c r="J76" s="3">
+        <v>1663600</v>
+      </c>
+      <c r="K76" s="3">
         <v>1413000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1504900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1708100</v>
       </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2812,80 +3000,89 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43465</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43100</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42735</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42369</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42004</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41639</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41274</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>40908</v>
       </c>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>132900</v>
+        <v>148700</v>
       </c>
       <c r="E81" s="3">
-        <v>139900</v>
+        <v>144500</v>
       </c>
       <c r="F81" s="3">
-        <v>150900</v>
+        <v>152000</v>
       </c>
       <c r="G81" s="3">
-        <v>175300</v>
+        <v>164000</v>
       </c>
       <c r="H81" s="3">
-        <v>89500</v>
+        <v>190500</v>
       </c>
       <c r="I81" s="3">
-        <v>92400</v>
+        <v>97300</v>
       </c>
       <c r="J81" s="3">
+        <v>100400</v>
+      </c>
+      <c r="K81" s="3">
         <v>75800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>119800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-26100</v>
       </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2899,41 +3096,45 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>443700</v>
+        <v>495100</v>
       </c>
       <c r="E83" s="3">
-        <v>373200</v>
+        <v>482200</v>
       </c>
       <c r="F83" s="3">
-        <v>349400</v>
+        <v>405500</v>
       </c>
       <c r="G83" s="3">
-        <v>379400</v>
+        <v>379700</v>
       </c>
       <c r="H83" s="3">
-        <v>367500</v>
+        <v>412300</v>
       </c>
       <c r="I83" s="3">
-        <v>325100</v>
-      </c>
-      <c r="J83" s="3" t="s">
+        <v>399400</v>
+      </c>
+      <c r="J83" s="3">
+        <v>353300</v>
+      </c>
+      <c r="K83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>347400</v>
       </c>
-      <c r="L83" s="3" t="s">
+      <c r="M83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2964,9 +3165,12 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2997,9 +3201,12 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3030,9 +3237,12 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3063,9 +3273,12 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3096,42 +3309,48 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>524400</v>
+        <v>652700</v>
       </c>
       <c r="E89" s="3">
-        <v>513900</v>
+        <v>569900</v>
       </c>
       <c r="F89" s="3">
-        <v>508400</v>
+        <v>558400</v>
       </c>
       <c r="G89" s="3">
-        <v>500100</v>
+        <v>552400</v>
       </c>
       <c r="H89" s="3">
-        <v>504800</v>
+        <v>543400</v>
       </c>
       <c r="I89" s="3">
-        <v>469900</v>
+        <v>548600</v>
       </c>
       <c r="J89" s="3">
+        <v>510700</v>
+      </c>
+      <c r="K89" s="3">
         <v>425100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>472000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>590700</v>
       </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3145,41 +3364,45 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-315400</v>
+        <v>-537400</v>
       </c>
       <c r="E91" s="3">
-        <v>-302600</v>
+        <v>-342800</v>
       </c>
       <c r="F91" s="3">
+        <v>-328800</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-318700</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-385800</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-340000</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-499000</v>
+      </c>
+      <c r="K91" s="3">
+        <v>-388000</v>
+      </c>
+      <c r="L91" s="3">
+        <v>-335800</v>
+      </c>
+      <c r="M91" s="3">
         <v>-293300</v>
       </c>
-      <c r="G91" s="3">
-        <v>-355000</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-312800</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-459200</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-388000</v>
-      </c>
-      <c r="K91" s="3">
-        <v>-335800</v>
-      </c>
-      <c r="L91" s="3">
-        <v>-293300</v>
-      </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3210,9 +3433,12 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3243,42 +3469,48 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-274300</v>
+        <v>-519800</v>
       </c>
       <c r="E94" s="3">
-        <v>-268400</v>
+        <v>-298100</v>
       </c>
       <c r="F94" s="3">
-        <v>-187500</v>
+        <v>-291700</v>
       </c>
       <c r="G94" s="3">
-        <v>-288100</v>
+        <v>-203800</v>
       </c>
       <c r="H94" s="3">
-        <v>-315000</v>
+        <v>-313100</v>
       </c>
       <c r="I94" s="3">
-        <v>-421500</v>
-      </c>
-      <c r="J94" s="3" t="s">
+        <v>-342300</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-458100</v>
+      </c>
+      <c r="K94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-236800</v>
       </c>
-      <c r="L94" s="3" t="s">
+      <c r="M94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3292,41 +3524,45 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-96000</v>
+        <v>-86100</v>
       </c>
       <c r="E96" s="3">
-        <v>-95400</v>
+        <v>-104300</v>
       </c>
       <c r="F96" s="3">
-        <v>-95000</v>
+        <v>-103700</v>
       </c>
       <c r="G96" s="3">
-        <v>-73300</v>
+        <v>-103200</v>
       </c>
       <c r="H96" s="3">
-        <v>-21600</v>
+        <v>-79600</v>
       </c>
       <c r="I96" s="3">
-        <v>-25900</v>
+        <v>-23500</v>
       </c>
       <c r="J96" s="3">
+        <v>-28100</v>
+      </c>
+      <c r="K96" s="3">
         <v>-211300</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-214800</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-226200</v>
       </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3357,9 +3593,12 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3390,9 +3629,12 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3423,106 +3665,118 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-230700</v>
+        <v>-132000</v>
       </c>
       <c r="E100" s="3">
-        <v>-240100</v>
+        <v>-250700</v>
       </c>
       <c r="F100" s="3">
-        <v>-338200</v>
+        <v>-260900</v>
       </c>
       <c r="G100" s="3">
-        <v>-233600</v>
+        <v>-367600</v>
       </c>
       <c r="H100" s="3">
-        <v>-180200</v>
+        <v>-253900</v>
       </c>
       <c r="I100" s="3">
-        <v>-50200</v>
-      </c>
-      <c r="J100" s="3" t="s">
+        <v>-195800</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-54600</v>
+      </c>
+      <c r="K100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-231000</v>
       </c>
-      <c r="L100" s="3" t="s">
+      <c r="M100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>600</v>
+        <v>3700</v>
       </c>
       <c r="E101" s="3">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="F101" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="G101" s="3">
         <v>-100</v>
       </c>
       <c r="H101" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I101" s="3">
         <v>-300</v>
       </c>
-      <c r="I101" s="3">
-        <v>1800</v>
-      </c>
-      <c r="J101" s="3" t="s">
+      <c r="J101" s="3">
+        <v>1900</v>
+      </c>
+      <c r="K101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-1700</v>
       </c>
-      <c r="L101" s="3" t="s">
+      <c r="M101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>20000</v>
+        <v>4500</v>
       </c>
       <c r="E102" s="3">
-        <v>5800</v>
+        <v>21700</v>
       </c>
       <c r="F102" s="3">
-        <v>-17500</v>
+        <v>6300</v>
       </c>
       <c r="G102" s="3">
-        <v>-21800</v>
+        <v>-19000</v>
       </c>
       <c r="H102" s="3">
-        <v>9500</v>
+        <v>-23700</v>
       </c>
       <c r="I102" s="3">
-        <v>0</v>
+        <v>10300</v>
       </c>
       <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
         <v>-1900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>2500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-4900</v>
       </c>
-      <c r="M102" s="3"/>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/MYTAY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/MYTAY_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2362400</v>
+        <v>2241200</v>
       </c>
       <c r="E8" s="3">
-        <v>2340000</v>
+        <v>2220000</v>
       </c>
       <c r="F8" s="3">
-        <v>2306400</v>
+        <v>2188200</v>
       </c>
       <c r="G8" s="3">
-        <v>2144100</v>
+        <v>2034100</v>
       </c>
       <c r="H8" s="3">
-        <v>2014900</v>
+        <v>1911500</v>
       </c>
       <c r="I8" s="3">
-        <v>2303800</v>
+        <v>2185600</v>
       </c>
       <c r="J8" s="3">
-        <v>2198800</v>
+        <v>2086100</v>
       </c>
       <c r="K8" s="3">
         <v>2059200</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1186600</v>
+        <v>1125800</v>
       </c>
       <c r="E9" s="3">
-        <v>1175900</v>
+        <v>1115600</v>
       </c>
       <c r="F9" s="3">
-        <v>1175000</v>
+        <v>1114800</v>
       </c>
       <c r="G9" s="3">
-        <v>1056600</v>
+        <v>1002400</v>
       </c>
       <c r="H9" s="3">
-        <v>929400</v>
+        <v>881700</v>
       </c>
       <c r="I9" s="3">
-        <v>1046700</v>
+        <v>993000</v>
       </c>
       <c r="J9" s="3">
-        <v>753400</v>
+        <v>714800</v>
       </c>
       <c r="K9" s="3">
         <v>735700</v>
@@ -792,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1175800</v>
+        <v>1115500</v>
       </c>
       <c r="E10" s="3">
-        <v>1164000</v>
+        <v>1104300</v>
       </c>
       <c r="F10" s="3">
-        <v>1131400</v>
+        <v>1073400</v>
       </c>
       <c r="G10" s="3">
-        <v>1087500</v>
+        <v>1031800</v>
       </c>
       <c r="H10" s="3">
-        <v>1085500</v>
+        <v>1029800</v>
       </c>
       <c r="I10" s="3">
-        <v>1257100</v>
+        <v>1192600</v>
       </c>
       <c r="J10" s="3">
-        <v>1445400</v>
+        <v>1371300</v>
       </c>
       <c r="K10" s="3">
         <v>1323500</v>
@@ -952,25 +952,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>495100</v>
+        <v>469700</v>
       </c>
       <c r="E15" s="3">
-        <v>482200</v>
+        <v>457500</v>
       </c>
       <c r="F15" s="3">
-        <v>405500</v>
+        <v>384700</v>
       </c>
       <c r="G15" s="3">
-        <v>379700</v>
+        <v>360200</v>
       </c>
       <c r="H15" s="3">
-        <v>803000</v>
+        <v>761900</v>
       </c>
       <c r="I15" s="3">
-        <v>399400</v>
+        <v>378900</v>
       </c>
       <c r="J15" s="3">
-        <v>353300</v>
+        <v>335200</v>
       </c>
       <c r="K15" s="3">
         <v>338300</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2064700</v>
+        <v>1958800</v>
       </c>
       <c r="E17" s="3">
-        <v>2048000</v>
+        <v>1943000</v>
       </c>
       <c r="F17" s="3">
-        <v>2036200</v>
+        <v>1931800</v>
       </c>
       <c r="G17" s="3">
-        <v>1872100</v>
+        <v>1776100</v>
       </c>
       <c r="H17" s="3">
-        <v>1747500</v>
+        <v>1657800</v>
       </c>
       <c r="I17" s="3">
-        <v>2045700</v>
+        <v>1940800</v>
       </c>
       <c r="J17" s="3">
-        <v>1916000</v>
+        <v>1817800</v>
       </c>
       <c r="K17" s="3">
         <v>1817800</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>297700</v>
+        <v>282500</v>
       </c>
       <c r="E18" s="3">
-        <v>292000</v>
+        <v>277000</v>
       </c>
       <c r="F18" s="3">
-        <v>270200</v>
+        <v>256300</v>
       </c>
       <c r="G18" s="3">
-        <v>272000</v>
+        <v>258000</v>
       </c>
       <c r="H18" s="3">
-        <v>267400</v>
+        <v>253700</v>
       </c>
       <c r="I18" s="3">
-        <v>258000</v>
+        <v>244800</v>
       </c>
       <c r="J18" s="3">
-        <v>282800</v>
+        <v>268300</v>
       </c>
       <c r="K18" s="3">
         <v>241300</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-41400</v>
+        <v>-39300</v>
       </c>
       <c r="E20" s="3">
-        <v>-35200</v>
+        <v>-33400</v>
       </c>
       <c r="F20" s="3">
-        <v>-14000</v>
+        <v>-13300</v>
       </c>
       <c r="G20" s="3">
-        <v>-27400</v>
+        <v>-26000</v>
       </c>
       <c r="H20" s="3">
-        <v>-29300</v>
+        <v>-27800</v>
       </c>
       <c r="I20" s="3">
-        <v>-22400</v>
+        <v>-21300</v>
       </c>
       <c r="J20" s="3">
-        <v>-20300</v>
+        <v>-19300</v>
       </c>
       <c r="K20" s="3">
         <v>-28500</v>
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>752800</v>
+        <v>714300</v>
       </c>
       <c r="E21" s="3">
-        <v>740300</v>
+        <v>702400</v>
       </c>
       <c r="F21" s="3">
-        <v>662800</v>
+        <v>628900</v>
       </c>
       <c r="G21" s="3">
-        <v>625300</v>
+        <v>593300</v>
       </c>
       <c r="H21" s="3">
-        <v>651600</v>
+        <v>618200</v>
       </c>
       <c r="I21" s="3">
-        <v>636100</v>
+        <v>603600</v>
       </c>
       <c r="J21" s="3">
-        <v>616800</v>
+        <v>585200</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>8</v>
@@ -1161,25 +1161,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>42500</v>
+        <v>40300</v>
       </c>
       <c r="E22" s="3">
-        <v>49100</v>
+        <v>46600</v>
       </c>
       <c r="F22" s="3">
-        <v>46300</v>
+        <v>44000</v>
       </c>
       <c r="G22" s="3">
-        <v>47300</v>
+        <v>44900</v>
       </c>
       <c r="H22" s="3">
-        <v>65200</v>
+        <v>61800</v>
       </c>
       <c r="I22" s="3">
-        <v>76500</v>
+        <v>72500</v>
       </c>
       <c r="J22" s="3">
-        <v>79400</v>
+        <v>75300</v>
       </c>
       <c r="K22" s="3">
         <v>73400</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>213800</v>
+        <v>202800</v>
       </c>
       <c r="E23" s="3">
-        <v>207600</v>
+        <v>197000</v>
       </c>
       <c r="F23" s="3">
-        <v>209800</v>
+        <v>199100</v>
       </c>
       <c r="G23" s="3">
-        <v>197300</v>
+        <v>187200</v>
       </c>
       <c r="H23" s="3">
-        <v>172900</v>
+        <v>164000</v>
       </c>
       <c r="I23" s="3">
-        <v>159100</v>
+        <v>151000</v>
       </c>
       <c r="J23" s="3">
-        <v>183100</v>
+        <v>173700</v>
       </c>
       <c r="K23" s="3">
         <v>139400</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>51200</v>
+        <v>48600</v>
       </c>
       <c r="E24" s="3">
-        <v>51400</v>
+        <v>48700</v>
       </c>
       <c r="F24" s="3">
-        <v>46800</v>
+        <v>44400</v>
       </c>
       <c r="G24" s="3">
-        <v>56000</v>
+        <v>53100</v>
       </c>
       <c r="H24" s="3">
-        <v>-17100</v>
+        <v>-16200</v>
       </c>
       <c r="I24" s="3">
-        <v>48400</v>
+        <v>45900</v>
       </c>
       <c r="J24" s="3">
-        <v>70700</v>
+        <v>67100</v>
       </c>
       <c r="K24" s="3">
         <v>46200</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>162600</v>
+        <v>154200</v>
       </c>
       <c r="E26" s="3">
-        <v>156200</v>
+        <v>148200</v>
       </c>
       <c r="F26" s="3">
-        <v>163000</v>
+        <v>154700</v>
       </c>
       <c r="G26" s="3">
-        <v>141300</v>
+        <v>134000</v>
       </c>
       <c r="H26" s="3">
-        <v>190000</v>
+        <v>180200</v>
       </c>
       <c r="I26" s="3">
-        <v>110700</v>
+        <v>105100</v>
       </c>
       <c r="J26" s="3">
-        <v>112400</v>
+        <v>106600</v>
       </c>
       <c r="K26" s="3">
         <v>93200</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>148700</v>
+        <v>141100</v>
       </c>
       <c r="E27" s="3">
-        <v>144500</v>
+        <v>137100</v>
       </c>
       <c r="F27" s="3">
-        <v>152000</v>
+        <v>144200</v>
       </c>
       <c r="G27" s="3">
-        <v>130600</v>
+        <v>123900</v>
       </c>
       <c r="H27" s="3">
-        <v>179600</v>
+        <v>170400</v>
       </c>
       <c r="I27" s="3">
-        <v>97300</v>
+        <v>92300</v>
       </c>
       <c r="J27" s="3">
-        <v>100400</v>
+        <v>95300</v>
       </c>
       <c r="K27" s="3">
         <v>75800</v>
@@ -1422,10 +1422,10 @@
         <v>0</v>
       </c>
       <c r="G29" s="3">
-        <v>33400</v>
+        <v>31700</v>
       </c>
       <c r="H29" s="3">
-        <v>10900</v>
+        <v>10300</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>8</v>
@@ -1521,25 +1521,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>41400</v>
+        <v>39300</v>
       </c>
       <c r="E32" s="3">
-        <v>35200</v>
+        <v>33400</v>
       </c>
       <c r="F32" s="3">
-        <v>14000</v>
+        <v>13300</v>
       </c>
       <c r="G32" s="3">
-        <v>27400</v>
+        <v>26000</v>
       </c>
       <c r="H32" s="3">
-        <v>29300</v>
+        <v>27800</v>
       </c>
       <c r="I32" s="3">
-        <v>22400</v>
+        <v>21300</v>
       </c>
       <c r="J32" s="3">
-        <v>20300</v>
+        <v>19300</v>
       </c>
       <c r="K32" s="3">
         <v>28500</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>148700</v>
+        <v>141100</v>
       </c>
       <c r="E33" s="3">
-        <v>144500</v>
+        <v>137100</v>
       </c>
       <c r="F33" s="3">
-        <v>152000</v>
+        <v>144200</v>
       </c>
       <c r="G33" s="3">
-        <v>164000</v>
+        <v>155600</v>
       </c>
       <c r="H33" s="3">
-        <v>190500</v>
+        <v>180700</v>
       </c>
       <c r="I33" s="3">
-        <v>97300</v>
+        <v>92300</v>
       </c>
       <c r="J33" s="3">
-        <v>100400</v>
+        <v>95300</v>
       </c>
       <c r="K33" s="3">
         <v>75800</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>148700</v>
+        <v>141100</v>
       </c>
       <c r="E35" s="3">
-        <v>144500</v>
+        <v>137100</v>
       </c>
       <c r="F35" s="3">
-        <v>152000</v>
+        <v>144200</v>
       </c>
       <c r="G35" s="3">
-        <v>164000</v>
+        <v>155600</v>
       </c>
       <c r="H35" s="3">
-        <v>190500</v>
+        <v>180700</v>
       </c>
       <c r="I35" s="3">
-        <v>97300</v>
+        <v>92300</v>
       </c>
       <c r="J35" s="3">
-        <v>100400</v>
+        <v>95300</v>
       </c>
       <c r="K35" s="3">
         <v>75800</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>61800</v>
+        <v>58700</v>
       </c>
       <c r="E41" s="3">
-        <v>47000</v>
+        <v>44600</v>
       </c>
       <c r="F41" s="3">
-        <v>39000</v>
+        <v>37000</v>
       </c>
       <c r="G41" s="3">
-        <v>31300</v>
+        <v>29700</v>
       </c>
       <c r="H41" s="3">
-        <v>41300</v>
+        <v>39100</v>
       </c>
       <c r="I41" s="3">
-        <v>89600</v>
+        <v>85000</v>
       </c>
       <c r="J41" s="3">
-        <v>103400</v>
+        <v>98100</v>
       </c>
       <c r="K41" s="3">
         <v>123500</v>
@@ -1774,25 +1774,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>71600</v>
+        <v>68000</v>
       </c>
       <c r="E42" s="3">
-        <v>15400</v>
+        <v>14600</v>
       </c>
       <c r="F42" s="3">
-        <v>25700</v>
+        <v>24300</v>
       </c>
       <c r="G42" s="3">
-        <v>3800</v>
+        <v>3600</v>
       </c>
       <c r="H42" s="3">
-        <v>4400</v>
+        <v>4200</v>
       </c>
       <c r="I42" s="3">
-        <v>5400</v>
+        <v>5100</v>
       </c>
       <c r="J42" s="3">
-        <v>13300</v>
+        <v>12600</v>
       </c>
       <c r="K42" s="3">
         <v>11100</v>
@@ -1810,25 +1810,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>640700</v>
+        <v>607800</v>
       </c>
       <c r="E43" s="3">
-        <v>675900</v>
+        <v>641300</v>
       </c>
       <c r="F43" s="3">
-        <v>687500</v>
+        <v>652300</v>
       </c>
       <c r="G43" s="3">
-        <v>516100</v>
+        <v>489700</v>
       </c>
       <c r="H43" s="3">
-        <v>533800</v>
+        <v>506400</v>
       </c>
       <c r="I43" s="3">
-        <v>538000</v>
+        <v>510400</v>
       </c>
       <c r="J43" s="3">
-        <v>475100</v>
+        <v>450700</v>
       </c>
       <c r="K43" s="3">
         <v>411600</v>
@@ -1846,25 +1846,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>64600</v>
+        <v>61300</v>
       </c>
       <c r="E44" s="3">
-        <v>69600</v>
+        <v>66000</v>
       </c>
       <c r="F44" s="3">
-        <v>67100</v>
+        <v>63700</v>
       </c>
       <c r="G44" s="3">
-        <v>60300</v>
+        <v>57200</v>
       </c>
       <c r="H44" s="3">
-        <v>58400</v>
+        <v>55400</v>
       </c>
       <c r="I44" s="3">
-        <v>44500</v>
+        <v>42200</v>
       </c>
       <c r="J44" s="3">
-        <v>48300</v>
+        <v>45800</v>
       </c>
       <c r="K44" s="3">
         <v>40300</v>
@@ -1882,25 +1882,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>67900</v>
+        <v>64400</v>
       </c>
       <c r="E45" s="3">
-        <v>22400</v>
+        <v>21300</v>
       </c>
       <c r="F45" s="3">
         <v>0</v>
       </c>
       <c r="G45" s="3">
-        <v>51900</v>
+        <v>49200</v>
       </c>
       <c r="H45" s="3">
-        <v>43000</v>
+        <v>40800</v>
       </c>
       <c r="I45" s="3">
-        <v>60300</v>
+        <v>57200</v>
       </c>
       <c r="J45" s="3">
-        <v>54600</v>
+        <v>51800</v>
       </c>
       <c r="K45" s="3">
         <v>39900</v>
@@ -1918,25 +1918,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>906600</v>
+        <v>860100</v>
       </c>
       <c r="E46" s="3">
-        <v>830300</v>
+        <v>787800</v>
       </c>
       <c r="F46" s="3">
-        <v>819300</v>
+        <v>777300</v>
       </c>
       <c r="G46" s="3">
-        <v>663500</v>
+        <v>629500</v>
       </c>
       <c r="H46" s="3">
-        <v>680900</v>
+        <v>645900</v>
       </c>
       <c r="I46" s="3">
-        <v>737700</v>
+        <v>699900</v>
       </c>
       <c r="J46" s="3">
-        <v>694600</v>
+        <v>659000</v>
       </c>
       <c r="K46" s="3">
         <v>626400</v>
@@ -1954,25 +1954,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>92000</v>
+        <v>87300</v>
       </c>
       <c r="E47" s="3">
-        <v>87800</v>
+        <v>83300</v>
       </c>
       <c r="F47" s="3">
-        <v>89000</v>
+        <v>84400</v>
       </c>
       <c r="G47" s="3">
-        <v>72500</v>
+        <v>68800</v>
       </c>
       <c r="H47" s="3">
-        <v>54600</v>
+        <v>51800</v>
       </c>
       <c r="I47" s="3">
-        <v>62000</v>
+        <v>58900</v>
       </c>
       <c r="J47" s="3">
-        <v>63200</v>
+        <v>60000</v>
       </c>
       <c r="K47" s="3">
         <v>53400</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1943700</v>
+        <v>1844100</v>
       </c>
       <c r="E48" s="3">
-        <v>1874900</v>
+        <v>1778800</v>
       </c>
       <c r="F48" s="3">
-        <v>1555400</v>
+        <v>1475700</v>
       </c>
       <c r="G48" s="3">
-        <v>1609400</v>
+        <v>1526800</v>
       </c>
       <c r="H48" s="3">
-        <v>1701400</v>
+        <v>1614200</v>
       </c>
       <c r="I48" s="3">
-        <v>1738700</v>
+        <v>1649500</v>
       </c>
       <c r="J48" s="3">
-        <v>1714400</v>
+        <v>1626500</v>
       </c>
       <c r="K48" s="3">
         <v>1596300</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1750800</v>
+        <v>1661100</v>
       </c>
       <c r="E49" s="3">
-        <v>1494600</v>
+        <v>1418000</v>
       </c>
       <c r="F49" s="3">
-        <v>1572300</v>
+        <v>1491700</v>
       </c>
       <c r="G49" s="3">
-        <v>1549500</v>
+        <v>1470100</v>
       </c>
       <c r="H49" s="3">
-        <v>1678700</v>
+        <v>1592600</v>
       </c>
       <c r="I49" s="3">
-        <v>1680700</v>
+        <v>1594600</v>
       </c>
       <c r="J49" s="3">
-        <v>1679500</v>
+        <v>1593400</v>
       </c>
       <c r="K49" s="3">
         <v>1231300</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>44900</v>
+        <v>42600</v>
       </c>
       <c r="E52" s="3">
-        <v>25600</v>
+        <v>24300</v>
       </c>
       <c r="F52" s="3">
-        <v>21500</v>
+        <v>20400</v>
       </c>
       <c r="G52" s="3">
         <v>100</v>
       </c>
       <c r="H52" s="3">
-        <v>10500</v>
+        <v>10000</v>
       </c>
       <c r="I52" s="3">
-        <v>17500</v>
+        <v>16600</v>
       </c>
       <c r="J52" s="3">
-        <v>27900</v>
+        <v>26400</v>
       </c>
       <c r="K52" s="3">
         <v>17300</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>4738100</v>
+        <v>4495100</v>
       </c>
       <c r="E54" s="3">
-        <v>4313300</v>
+        <v>4092100</v>
       </c>
       <c r="F54" s="3">
-        <v>4057500</v>
+        <v>3849500</v>
       </c>
       <c r="G54" s="3">
-        <v>3894900</v>
+        <v>3695200</v>
       </c>
       <c r="H54" s="3">
-        <v>4126100</v>
+        <v>3914500</v>
       </c>
       <c r="I54" s="3">
-        <v>4236700</v>
+        <v>4019400</v>
       </c>
       <c r="J54" s="3">
-        <v>4179600</v>
+        <v>3965300</v>
       </c>
       <c r="K54" s="3">
         <v>3524700</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>520600</v>
+        <v>493900</v>
       </c>
       <c r="E57" s="3">
-        <v>544200</v>
+        <v>516300</v>
       </c>
       <c r="F57" s="3">
-        <v>615300</v>
+        <v>583800</v>
       </c>
       <c r="G57" s="3">
-        <v>475400</v>
+        <v>451000</v>
       </c>
       <c r="H57" s="3">
-        <v>479500</v>
+        <v>455000</v>
       </c>
       <c r="I57" s="3">
-        <v>492000</v>
+        <v>466800</v>
       </c>
       <c r="J57" s="3">
-        <v>387400</v>
+        <v>367500</v>
       </c>
       <c r="K57" s="3">
         <v>334500</v>
@@ -2310,25 +2310,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>409800</v>
+        <v>388800</v>
       </c>
       <c r="E58" s="3">
-        <v>331000</v>
+        <v>314000</v>
       </c>
       <c r="F58" s="3">
-        <v>371600</v>
+        <v>352600</v>
       </c>
       <c r="G58" s="3">
-        <v>104600</v>
+        <v>99200</v>
       </c>
       <c r="H58" s="3">
-        <v>282000</v>
+        <v>267500</v>
       </c>
       <c r="I58" s="3">
-        <v>518100</v>
+        <v>491500</v>
       </c>
       <c r="J58" s="3">
-        <v>556700</v>
+        <v>528100</v>
       </c>
       <c r="K58" s="3">
         <v>464400</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>181700</v>
+        <v>172300</v>
       </c>
       <c r="E59" s="3">
-        <v>183300</v>
+        <v>173900</v>
       </c>
       <c r="F59" s="3">
-        <v>209400</v>
+        <v>198600</v>
       </c>
       <c r="G59" s="3">
-        <v>215300</v>
+        <v>204300</v>
       </c>
       <c r="H59" s="3">
-        <v>212700</v>
+        <v>201800</v>
       </c>
       <c r="I59" s="3">
-        <v>226000</v>
+        <v>214400</v>
       </c>
       <c r="J59" s="3">
-        <v>213700</v>
+        <v>202700</v>
       </c>
       <c r="K59" s="3">
         <v>193400</v>
@@ -2382,25 +2382,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1112000</v>
+        <v>1055000</v>
       </c>
       <c r="E60" s="3">
-        <v>1058500</v>
+        <v>1004300</v>
       </c>
       <c r="F60" s="3">
-        <v>1196300</v>
+        <v>1135000</v>
       </c>
       <c r="G60" s="3">
-        <v>795300</v>
+        <v>754500</v>
       </c>
       <c r="H60" s="3">
-        <v>974200</v>
+        <v>924300</v>
       </c>
       <c r="I60" s="3">
-        <v>1236200</v>
+        <v>1172800</v>
       </c>
       <c r="J60" s="3">
-        <v>1157700</v>
+        <v>1098400</v>
       </c>
       <c r="K60" s="3">
         <v>992300</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>944800</v>
+        <v>896400</v>
       </c>
       <c r="E61" s="3">
-        <v>782400</v>
+        <v>742200</v>
       </c>
       <c r="F61" s="3">
-        <v>442100</v>
+        <v>419400</v>
       </c>
       <c r="G61" s="3">
-        <v>805800</v>
+        <v>764500</v>
       </c>
       <c r="H61" s="3">
-        <v>867700</v>
+        <v>823200</v>
       </c>
       <c r="I61" s="3">
-        <v>785800</v>
+        <v>745500</v>
       </c>
       <c r="J61" s="3">
-        <v>880500</v>
+        <v>835400</v>
       </c>
       <c r="K61" s="3">
         <v>801500</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>372600</v>
+        <v>353500</v>
       </c>
       <c r="E62" s="3">
-        <v>253600</v>
+        <v>240600</v>
       </c>
       <c r="F62" s="3">
-        <v>260700</v>
+        <v>247300</v>
       </c>
       <c r="G62" s="3">
-        <v>257700</v>
+        <v>244500</v>
       </c>
       <c r="H62" s="3">
-        <v>243700</v>
+        <v>231200</v>
       </c>
       <c r="I62" s="3">
-        <v>301900</v>
+        <v>286500</v>
       </c>
       <c r="J62" s="3">
-        <v>300700</v>
+        <v>285300</v>
       </c>
       <c r="K62" s="3">
         <v>149500</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2566500</v>
+        <v>2434900</v>
       </c>
       <c r="E66" s="3">
-        <v>2217900</v>
+        <v>2104200</v>
       </c>
       <c r="F66" s="3">
-        <v>2020000</v>
+        <v>1916400</v>
       </c>
       <c r="G66" s="3">
-        <v>1974300</v>
+        <v>1873000</v>
       </c>
       <c r="H66" s="3">
-        <v>2236000</v>
+        <v>2121300</v>
       </c>
       <c r="I66" s="3">
-        <v>2480900</v>
+        <v>2353700</v>
       </c>
       <c r="J66" s="3">
-        <v>2516000</v>
+        <v>2387000</v>
       </c>
       <c r="K66" s="3">
         <v>2111700</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1634900</v>
+        <v>1551100</v>
       </c>
       <c r="E72" s="3">
-        <v>1559400</v>
+        <v>1479400</v>
       </c>
       <c r="F72" s="3">
-        <v>1506800</v>
+        <v>1429500</v>
       </c>
       <c r="G72" s="3">
-        <v>1391100</v>
+        <v>1319700</v>
       </c>
       <c r="H72" s="3">
-        <v>1318600</v>
+        <v>1250900</v>
       </c>
       <c r="I72" s="3">
-        <v>1182900</v>
+        <v>1122300</v>
       </c>
       <c r="J72" s="3">
-        <v>1089500</v>
+        <v>1033700</v>
       </c>
       <c r="K72" s="3">
         <v>910200</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2171600</v>
+        <v>2060200</v>
       </c>
       <c r="E76" s="3">
-        <v>2095400</v>
+        <v>1988000</v>
       </c>
       <c r="F76" s="3">
-        <v>2037500</v>
+        <v>1933000</v>
       </c>
       <c r="G76" s="3">
-        <v>1920700</v>
+        <v>1822200</v>
       </c>
       <c r="H76" s="3">
-        <v>1890100</v>
+        <v>1793200</v>
       </c>
       <c r="I76" s="3">
-        <v>1755800</v>
+        <v>1665700</v>
       </c>
       <c r="J76" s="3">
-        <v>1663600</v>
+        <v>1578300</v>
       </c>
       <c r="K76" s="3">
         <v>1413000</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>148700</v>
+        <v>141100</v>
       </c>
       <c r="E81" s="3">
-        <v>144500</v>
+        <v>137100</v>
       </c>
       <c r="F81" s="3">
-        <v>152000</v>
+        <v>144200</v>
       </c>
       <c r="G81" s="3">
-        <v>164000</v>
+        <v>155600</v>
       </c>
       <c r="H81" s="3">
-        <v>190500</v>
+        <v>180700</v>
       </c>
       <c r="I81" s="3">
-        <v>97300</v>
+        <v>92300</v>
       </c>
       <c r="J81" s="3">
-        <v>100400</v>
+        <v>95300</v>
       </c>
       <c r="K81" s="3">
         <v>75800</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>495100</v>
+        <v>469700</v>
       </c>
       <c r="E83" s="3">
-        <v>482200</v>
+        <v>457500</v>
       </c>
       <c r="F83" s="3">
-        <v>405500</v>
+        <v>384700</v>
       </c>
       <c r="G83" s="3">
-        <v>379700</v>
+        <v>360200</v>
       </c>
       <c r="H83" s="3">
-        <v>412300</v>
+        <v>391200</v>
       </c>
       <c r="I83" s="3">
-        <v>399400</v>
+        <v>378900</v>
       </c>
       <c r="J83" s="3">
-        <v>353300</v>
+        <v>335200</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>8</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>652700</v>
+        <v>619200</v>
       </c>
       <c r="E89" s="3">
-        <v>569900</v>
+        <v>540700</v>
       </c>
       <c r="F89" s="3">
-        <v>558400</v>
+        <v>529800</v>
       </c>
       <c r="G89" s="3">
-        <v>552400</v>
+        <v>524100</v>
       </c>
       <c r="H89" s="3">
-        <v>543400</v>
+        <v>515600</v>
       </c>
       <c r="I89" s="3">
-        <v>548600</v>
+        <v>520500</v>
       </c>
       <c r="J89" s="3">
-        <v>510700</v>
+        <v>484500</v>
       </c>
       <c r="K89" s="3">
         <v>425100</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-537400</v>
+        <v>-509900</v>
       </c>
       <c r="E91" s="3">
-        <v>-342800</v>
+        <v>-325200</v>
       </c>
       <c r="F91" s="3">
-        <v>-328800</v>
+        <v>-312000</v>
       </c>
       <c r="G91" s="3">
-        <v>-318700</v>
+        <v>-302400</v>
       </c>
       <c r="H91" s="3">
-        <v>-385800</v>
+        <v>-366000</v>
       </c>
       <c r="I91" s="3">
-        <v>-340000</v>
+        <v>-322500</v>
       </c>
       <c r="J91" s="3">
-        <v>-499000</v>
+        <v>-473400</v>
       </c>
       <c r="K91" s="3">
         <v>-388000</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-519800</v>
+        <v>-493200</v>
       </c>
       <c r="E94" s="3">
-        <v>-298100</v>
+        <v>-282800</v>
       </c>
       <c r="F94" s="3">
-        <v>-291700</v>
+        <v>-276700</v>
       </c>
       <c r="G94" s="3">
-        <v>-203800</v>
+        <v>-193300</v>
       </c>
       <c r="H94" s="3">
-        <v>-313100</v>
+        <v>-297000</v>
       </c>
       <c r="I94" s="3">
-        <v>-342300</v>
+        <v>-324700</v>
       </c>
       <c r="J94" s="3">
-        <v>-458100</v>
+        <v>-434600</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>8</v>
@@ -3531,25 +3531,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-86100</v>
+        <v>-81600</v>
       </c>
       <c r="E96" s="3">
-        <v>-104300</v>
+        <v>-99000</v>
       </c>
       <c r="F96" s="3">
-        <v>-103700</v>
+        <v>-98400</v>
       </c>
       <c r="G96" s="3">
-        <v>-103200</v>
+        <v>-97900</v>
       </c>
       <c r="H96" s="3">
-        <v>-79600</v>
+        <v>-75500</v>
       </c>
       <c r="I96" s="3">
-        <v>-23500</v>
+        <v>-22300</v>
       </c>
       <c r="J96" s="3">
-        <v>-28100</v>
+        <v>-26700</v>
       </c>
       <c r="K96" s="3">
         <v>-211300</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-132000</v>
+        <v>-125200</v>
       </c>
       <c r="E100" s="3">
-        <v>-250700</v>
+        <v>-237900</v>
       </c>
       <c r="F100" s="3">
-        <v>-260900</v>
+        <v>-247500</v>
       </c>
       <c r="G100" s="3">
-        <v>-367600</v>
+        <v>-348700</v>
       </c>
       <c r="H100" s="3">
-        <v>-253900</v>
+        <v>-240900</v>
       </c>
       <c r="I100" s="3">
-        <v>-195800</v>
+        <v>-185700</v>
       </c>
       <c r="J100" s="3">
-        <v>-54600</v>
+        <v>-51800</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>8</v>
@@ -3711,25 +3711,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>3700</v>
+        <v>3500</v>
       </c>
       <c r="E101" s="3">
         <v>700</v>
       </c>
       <c r="F101" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
         <v>-100</v>
-      </c>
-      <c r="H101" s="3">
-        <v>-200</v>
       </c>
       <c r="I101" s="3">
         <v>-300</v>
       </c>
       <c r="J101" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>8</v>
@@ -3747,22 +3747,22 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>4500</v>
+        <v>4300</v>
       </c>
       <c r="E102" s="3">
-        <v>21700</v>
+        <v>20600</v>
       </c>
       <c r="F102" s="3">
-        <v>6300</v>
+        <v>6000</v>
       </c>
       <c r="G102" s="3">
-        <v>-19000</v>
+        <v>-18000</v>
       </c>
       <c r="H102" s="3">
-        <v>-23700</v>
+        <v>-22500</v>
       </c>
       <c r="I102" s="3">
-        <v>10300</v>
+        <v>9800</v>
       </c>
       <c r="J102" s="3">
         <v>0</v>

--- a/AAII_Financials/Yearly/MYTAY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/MYTAY_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2241200</v>
+        <v>2073000</v>
       </c>
       <c r="E8" s="3">
-        <v>2220000</v>
+        <v>2053300</v>
       </c>
       <c r="F8" s="3">
-        <v>2188200</v>
+        <v>2023900</v>
       </c>
       <c r="G8" s="3">
-        <v>2034100</v>
+        <v>1881400</v>
       </c>
       <c r="H8" s="3">
-        <v>1911500</v>
+        <v>1768000</v>
       </c>
       <c r="I8" s="3">
-        <v>2185600</v>
+        <v>2021500</v>
       </c>
       <c r="J8" s="3">
-        <v>2086100</v>
+        <v>1929500</v>
       </c>
       <c r="K8" s="3">
         <v>2059200</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1125800</v>
+        <v>1041300</v>
       </c>
       <c r="E9" s="3">
-        <v>1115600</v>
+        <v>1031900</v>
       </c>
       <c r="F9" s="3">
-        <v>1114800</v>
+        <v>1031100</v>
       </c>
       <c r="G9" s="3">
-        <v>1002400</v>
+        <v>927100</v>
       </c>
       <c r="H9" s="3">
-        <v>881700</v>
+        <v>815500</v>
       </c>
       <c r="I9" s="3">
-        <v>993000</v>
+        <v>918400</v>
       </c>
       <c r="J9" s="3">
-        <v>714800</v>
+        <v>661100</v>
       </c>
       <c r="K9" s="3">
         <v>735700</v>
@@ -792,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1115500</v>
+        <v>1031700</v>
       </c>
       <c r="E10" s="3">
-        <v>1104300</v>
+        <v>1021400</v>
       </c>
       <c r="F10" s="3">
-        <v>1073400</v>
+        <v>992800</v>
       </c>
       <c r="G10" s="3">
-        <v>1031800</v>
+        <v>954300</v>
       </c>
       <c r="H10" s="3">
-        <v>1029800</v>
+        <v>952500</v>
       </c>
       <c r="I10" s="3">
-        <v>1192600</v>
+        <v>1103100</v>
       </c>
       <c r="J10" s="3">
-        <v>1371300</v>
+        <v>1268400</v>
       </c>
       <c r="K10" s="3">
         <v>1323500</v>
@@ -952,25 +952,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>469700</v>
+        <v>434500</v>
       </c>
       <c r="E15" s="3">
-        <v>457500</v>
+        <v>423100</v>
       </c>
       <c r="F15" s="3">
-        <v>384700</v>
+        <v>355800</v>
       </c>
       <c r="G15" s="3">
-        <v>360200</v>
+        <v>333200</v>
       </c>
       <c r="H15" s="3">
-        <v>761900</v>
+        <v>704700</v>
       </c>
       <c r="I15" s="3">
-        <v>378900</v>
+        <v>350500</v>
       </c>
       <c r="J15" s="3">
-        <v>335200</v>
+        <v>310000</v>
       </c>
       <c r="K15" s="3">
         <v>338300</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1958800</v>
+        <v>1811700</v>
       </c>
       <c r="E17" s="3">
-        <v>1943000</v>
+        <v>1797100</v>
       </c>
       <c r="F17" s="3">
-        <v>1931800</v>
+        <v>1786800</v>
       </c>
       <c r="G17" s="3">
-        <v>1776100</v>
+        <v>1642800</v>
       </c>
       <c r="H17" s="3">
-        <v>1657800</v>
+        <v>1533400</v>
       </c>
       <c r="I17" s="3">
-        <v>1940800</v>
+        <v>1795100</v>
       </c>
       <c r="J17" s="3">
-        <v>1817800</v>
+        <v>1681300</v>
       </c>
       <c r="K17" s="3">
         <v>1817800</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>282500</v>
+        <v>261300</v>
       </c>
       <c r="E18" s="3">
-        <v>277000</v>
+        <v>256200</v>
       </c>
       <c r="F18" s="3">
-        <v>256300</v>
+        <v>237100</v>
       </c>
       <c r="G18" s="3">
-        <v>258000</v>
+        <v>238700</v>
       </c>
       <c r="H18" s="3">
-        <v>253700</v>
+        <v>234600</v>
       </c>
       <c r="I18" s="3">
-        <v>244800</v>
+        <v>226400</v>
       </c>
       <c r="J18" s="3">
-        <v>268300</v>
+        <v>248200</v>
       </c>
       <c r="K18" s="3">
         <v>241300</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-39300</v>
+        <v>-36400</v>
       </c>
       <c r="E20" s="3">
-        <v>-33400</v>
+        <v>-30900</v>
       </c>
       <c r="F20" s="3">
-        <v>-13300</v>
+        <v>-12300</v>
       </c>
       <c r="G20" s="3">
-        <v>-26000</v>
+        <v>-24000</v>
       </c>
       <c r="H20" s="3">
-        <v>-27800</v>
+        <v>-25700</v>
       </c>
       <c r="I20" s="3">
-        <v>-21300</v>
+        <v>-19700</v>
       </c>
       <c r="J20" s="3">
-        <v>-19300</v>
+        <v>-17800</v>
       </c>
       <c r="K20" s="3">
         <v>-28500</v>
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>714300</v>
+        <v>657900</v>
       </c>
       <c r="E21" s="3">
-        <v>702400</v>
+        <v>647100</v>
       </c>
       <c r="F21" s="3">
-        <v>628900</v>
+        <v>579500</v>
       </c>
       <c r="G21" s="3">
-        <v>593300</v>
+        <v>546700</v>
       </c>
       <c r="H21" s="3">
-        <v>618200</v>
+        <v>569600</v>
       </c>
       <c r="I21" s="3">
-        <v>603600</v>
+        <v>556100</v>
       </c>
       <c r="J21" s="3">
-        <v>585200</v>
+        <v>539400</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>8</v>
@@ -1161,25 +1161,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>40300</v>
+        <v>37300</v>
       </c>
       <c r="E22" s="3">
-        <v>46600</v>
+        <v>43100</v>
       </c>
       <c r="F22" s="3">
-        <v>44000</v>
+        <v>40700</v>
       </c>
       <c r="G22" s="3">
-        <v>44900</v>
+        <v>41500</v>
       </c>
       <c r="H22" s="3">
-        <v>61800</v>
+        <v>57200</v>
       </c>
       <c r="I22" s="3">
-        <v>72500</v>
+        <v>67100</v>
       </c>
       <c r="J22" s="3">
-        <v>75300</v>
+        <v>69700</v>
       </c>
       <c r="K22" s="3">
         <v>73400</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>202800</v>
+        <v>187600</v>
       </c>
       <c r="E23" s="3">
-        <v>197000</v>
+        <v>182200</v>
       </c>
       <c r="F23" s="3">
-        <v>199100</v>
+        <v>184100</v>
       </c>
       <c r="G23" s="3">
-        <v>187200</v>
+        <v>173100</v>
       </c>
       <c r="H23" s="3">
-        <v>164000</v>
+        <v>151700</v>
       </c>
       <c r="I23" s="3">
-        <v>151000</v>
+        <v>139700</v>
       </c>
       <c r="J23" s="3">
-        <v>173700</v>
+        <v>160700</v>
       </c>
       <c r="K23" s="3">
         <v>139400</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>48600</v>
+        <v>45000</v>
       </c>
       <c r="E24" s="3">
-        <v>48700</v>
+        <v>45100</v>
       </c>
       <c r="F24" s="3">
-        <v>44400</v>
+        <v>41100</v>
       </c>
       <c r="G24" s="3">
-        <v>53100</v>
+        <v>49200</v>
       </c>
       <c r="H24" s="3">
-        <v>-16200</v>
+        <v>-15000</v>
       </c>
       <c r="I24" s="3">
-        <v>45900</v>
+        <v>42500</v>
       </c>
       <c r="J24" s="3">
-        <v>67100</v>
+        <v>62100</v>
       </c>
       <c r="K24" s="3">
         <v>46200</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>154200</v>
+        <v>142700</v>
       </c>
       <c r="E26" s="3">
-        <v>148200</v>
+        <v>137100</v>
       </c>
       <c r="F26" s="3">
-        <v>154700</v>
+        <v>143100</v>
       </c>
       <c r="G26" s="3">
-        <v>134000</v>
+        <v>124000</v>
       </c>
       <c r="H26" s="3">
-        <v>180200</v>
+        <v>166700</v>
       </c>
       <c r="I26" s="3">
-        <v>105100</v>
+        <v>97200</v>
       </c>
       <c r="J26" s="3">
-        <v>106600</v>
+        <v>98600</v>
       </c>
       <c r="K26" s="3">
         <v>93200</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>141100</v>
+        <v>130500</v>
       </c>
       <c r="E27" s="3">
-        <v>137100</v>
+        <v>126800</v>
       </c>
       <c r="F27" s="3">
-        <v>144200</v>
+        <v>133400</v>
       </c>
       <c r="G27" s="3">
-        <v>123900</v>
+        <v>114600</v>
       </c>
       <c r="H27" s="3">
-        <v>170400</v>
+        <v>157600</v>
       </c>
       <c r="I27" s="3">
-        <v>92300</v>
+        <v>85400</v>
       </c>
       <c r="J27" s="3">
-        <v>95300</v>
+        <v>88100</v>
       </c>
       <c r="K27" s="3">
         <v>75800</v>
@@ -1422,10 +1422,10 @@
         <v>0</v>
       </c>
       <c r="G29" s="3">
-        <v>31700</v>
+        <v>29300</v>
       </c>
       <c r="H29" s="3">
-        <v>10300</v>
+        <v>9600</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>8</v>
@@ -1521,25 +1521,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>39300</v>
+        <v>36400</v>
       </c>
       <c r="E32" s="3">
-        <v>33400</v>
+        <v>30900</v>
       </c>
       <c r="F32" s="3">
-        <v>13300</v>
+        <v>12300</v>
       </c>
       <c r="G32" s="3">
-        <v>26000</v>
+        <v>24000</v>
       </c>
       <c r="H32" s="3">
-        <v>27800</v>
+        <v>25700</v>
       </c>
       <c r="I32" s="3">
-        <v>21300</v>
+        <v>19700</v>
       </c>
       <c r="J32" s="3">
-        <v>19300</v>
+        <v>17800</v>
       </c>
       <c r="K32" s="3">
         <v>28500</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>141100</v>
+        <v>130500</v>
       </c>
       <c r="E33" s="3">
-        <v>137100</v>
+        <v>126800</v>
       </c>
       <c r="F33" s="3">
-        <v>144200</v>
+        <v>133400</v>
       </c>
       <c r="G33" s="3">
-        <v>155600</v>
+        <v>143900</v>
       </c>
       <c r="H33" s="3">
-        <v>180700</v>
+        <v>167200</v>
       </c>
       <c r="I33" s="3">
-        <v>92300</v>
+        <v>85400</v>
       </c>
       <c r="J33" s="3">
-        <v>95300</v>
+        <v>88100</v>
       </c>
       <c r="K33" s="3">
         <v>75800</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>141100</v>
+        <v>130500</v>
       </c>
       <c r="E35" s="3">
-        <v>137100</v>
+        <v>126800</v>
       </c>
       <c r="F35" s="3">
-        <v>144200</v>
+        <v>133400</v>
       </c>
       <c r="G35" s="3">
-        <v>155600</v>
+        <v>143900</v>
       </c>
       <c r="H35" s="3">
-        <v>180700</v>
+        <v>167200</v>
       </c>
       <c r="I35" s="3">
-        <v>92300</v>
+        <v>85400</v>
       </c>
       <c r="J35" s="3">
-        <v>95300</v>
+        <v>88100</v>
       </c>
       <c r="K35" s="3">
         <v>75800</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>58700</v>
+        <v>54300</v>
       </c>
       <c r="E41" s="3">
-        <v>44600</v>
+        <v>41300</v>
       </c>
       <c r="F41" s="3">
-        <v>37000</v>
+        <v>34200</v>
       </c>
       <c r="G41" s="3">
-        <v>29700</v>
+        <v>27500</v>
       </c>
       <c r="H41" s="3">
-        <v>39100</v>
+        <v>36200</v>
       </c>
       <c r="I41" s="3">
-        <v>85000</v>
+        <v>78700</v>
       </c>
       <c r="J41" s="3">
-        <v>98100</v>
+        <v>90700</v>
       </c>
       <c r="K41" s="3">
         <v>123500</v>
@@ -1774,25 +1774,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>68000</v>
+        <v>62900</v>
       </c>
       <c r="E42" s="3">
-        <v>14600</v>
+        <v>13500</v>
       </c>
       <c r="F42" s="3">
-        <v>24300</v>
+        <v>22500</v>
       </c>
       <c r="G42" s="3">
-        <v>3600</v>
+        <v>3400</v>
       </c>
       <c r="H42" s="3">
-        <v>4200</v>
+        <v>3800</v>
       </c>
       <c r="I42" s="3">
-        <v>5100</v>
+        <v>4700</v>
       </c>
       <c r="J42" s="3">
-        <v>12600</v>
+        <v>11700</v>
       </c>
       <c r="K42" s="3">
         <v>11100</v>
@@ -1810,25 +1810,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>607800</v>
+        <v>562200</v>
       </c>
       <c r="E43" s="3">
-        <v>641300</v>
+        <v>593100</v>
       </c>
       <c r="F43" s="3">
-        <v>652300</v>
+        <v>603300</v>
       </c>
       <c r="G43" s="3">
-        <v>489700</v>
+        <v>452900</v>
       </c>
       <c r="H43" s="3">
-        <v>506400</v>
+        <v>468400</v>
       </c>
       <c r="I43" s="3">
-        <v>510400</v>
+        <v>472100</v>
       </c>
       <c r="J43" s="3">
-        <v>450700</v>
+        <v>416900</v>
       </c>
       <c r="K43" s="3">
         <v>411600</v>
@@ -1846,25 +1846,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>61300</v>
+        <v>56700</v>
       </c>
       <c r="E44" s="3">
-        <v>66000</v>
+        <v>61100</v>
       </c>
       <c r="F44" s="3">
-        <v>63700</v>
+        <v>58900</v>
       </c>
       <c r="G44" s="3">
-        <v>57200</v>
+        <v>52900</v>
       </c>
       <c r="H44" s="3">
-        <v>55400</v>
+        <v>51300</v>
       </c>
       <c r="I44" s="3">
-        <v>42200</v>
+        <v>39000</v>
       </c>
       <c r="J44" s="3">
-        <v>45800</v>
+        <v>42300</v>
       </c>
       <c r="K44" s="3">
         <v>40300</v>
@@ -1882,25 +1882,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>64400</v>
+        <v>59600</v>
       </c>
       <c r="E45" s="3">
-        <v>21300</v>
+        <v>19700</v>
       </c>
       <c r="F45" s="3">
         <v>0</v>
       </c>
       <c r="G45" s="3">
-        <v>49200</v>
+        <v>45600</v>
       </c>
       <c r="H45" s="3">
-        <v>40800</v>
+        <v>37800</v>
       </c>
       <c r="I45" s="3">
-        <v>57200</v>
+        <v>52900</v>
       </c>
       <c r="J45" s="3">
-        <v>51800</v>
+        <v>47900</v>
       </c>
       <c r="K45" s="3">
         <v>39900</v>
@@ -1918,25 +1918,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>860100</v>
+        <v>795500</v>
       </c>
       <c r="E46" s="3">
-        <v>787800</v>
+        <v>728600</v>
       </c>
       <c r="F46" s="3">
-        <v>777300</v>
+        <v>719000</v>
       </c>
       <c r="G46" s="3">
-        <v>629500</v>
+        <v>582200</v>
       </c>
       <c r="H46" s="3">
-        <v>645900</v>
+        <v>597500</v>
       </c>
       <c r="I46" s="3">
-        <v>699900</v>
+        <v>647300</v>
       </c>
       <c r="J46" s="3">
-        <v>659000</v>
+        <v>609500</v>
       </c>
       <c r="K46" s="3">
         <v>626400</v>
@@ -1954,25 +1954,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>87300</v>
+        <v>80800</v>
       </c>
       <c r="E47" s="3">
-        <v>83300</v>
+        <v>77000</v>
       </c>
       <c r="F47" s="3">
-        <v>84400</v>
+        <v>78100</v>
       </c>
       <c r="G47" s="3">
-        <v>68800</v>
+        <v>63600</v>
       </c>
       <c r="H47" s="3">
-        <v>51800</v>
+        <v>48000</v>
       </c>
       <c r="I47" s="3">
-        <v>58900</v>
+        <v>54400</v>
       </c>
       <c r="J47" s="3">
-        <v>60000</v>
+        <v>55500</v>
       </c>
       <c r="K47" s="3">
         <v>53400</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1844100</v>
+        <v>1705600</v>
       </c>
       <c r="E48" s="3">
-        <v>1778800</v>
+        <v>1645200</v>
       </c>
       <c r="F48" s="3">
-        <v>1475700</v>
+        <v>1364900</v>
       </c>
       <c r="G48" s="3">
-        <v>1526800</v>
+        <v>1412200</v>
       </c>
       <c r="H48" s="3">
-        <v>1614200</v>
+        <v>1493000</v>
       </c>
       <c r="I48" s="3">
-        <v>1649500</v>
+        <v>1525700</v>
       </c>
       <c r="J48" s="3">
-        <v>1626500</v>
+        <v>1504400</v>
       </c>
       <c r="K48" s="3">
         <v>1596300</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1661100</v>
+        <v>1536400</v>
       </c>
       <c r="E49" s="3">
-        <v>1418000</v>
+        <v>1311500</v>
       </c>
       <c r="F49" s="3">
-        <v>1491700</v>
+        <v>1379700</v>
       </c>
       <c r="G49" s="3">
-        <v>1470100</v>
+        <v>1359700</v>
       </c>
       <c r="H49" s="3">
-        <v>1592600</v>
+        <v>1473100</v>
       </c>
       <c r="I49" s="3">
-        <v>1594600</v>
+        <v>1474800</v>
       </c>
       <c r="J49" s="3">
-        <v>1593400</v>
+        <v>1473700</v>
       </c>
       <c r="K49" s="3">
         <v>1231300</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>42600</v>
+        <v>39400</v>
       </c>
       <c r="E52" s="3">
-        <v>24300</v>
+        <v>22500</v>
       </c>
       <c r="F52" s="3">
-        <v>20400</v>
+        <v>18800</v>
       </c>
       <c r="G52" s="3">
         <v>100</v>
       </c>
       <c r="H52" s="3">
-        <v>10000</v>
+        <v>9200</v>
       </c>
       <c r="I52" s="3">
-        <v>16600</v>
+        <v>15300</v>
       </c>
       <c r="J52" s="3">
-        <v>26400</v>
+        <v>24400</v>
       </c>
       <c r="K52" s="3">
         <v>17300</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>4495100</v>
+        <v>4157700</v>
       </c>
       <c r="E54" s="3">
-        <v>4092100</v>
+        <v>3784900</v>
       </c>
       <c r="F54" s="3">
-        <v>3849500</v>
+        <v>3560500</v>
       </c>
       <c r="G54" s="3">
-        <v>3695200</v>
+        <v>3417800</v>
       </c>
       <c r="H54" s="3">
-        <v>3914500</v>
+        <v>3620600</v>
       </c>
       <c r="I54" s="3">
-        <v>4019400</v>
+        <v>3717600</v>
       </c>
       <c r="J54" s="3">
-        <v>3965300</v>
+        <v>3667600</v>
       </c>
       <c r="K54" s="3">
         <v>3524700</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>493900</v>
+        <v>456800</v>
       </c>
       <c r="E57" s="3">
-        <v>516300</v>
+        <v>477500</v>
       </c>
       <c r="F57" s="3">
-        <v>583800</v>
+        <v>540000</v>
       </c>
       <c r="G57" s="3">
-        <v>451000</v>
+        <v>417200</v>
       </c>
       <c r="H57" s="3">
-        <v>455000</v>
+        <v>420800</v>
       </c>
       <c r="I57" s="3">
-        <v>466800</v>
+        <v>431800</v>
       </c>
       <c r="J57" s="3">
-        <v>367500</v>
+        <v>339900</v>
       </c>
       <c r="K57" s="3">
         <v>334500</v>
@@ -2310,25 +2310,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>388800</v>
+        <v>359600</v>
       </c>
       <c r="E58" s="3">
-        <v>314000</v>
+        <v>290500</v>
       </c>
       <c r="F58" s="3">
-        <v>352600</v>
+        <v>326100</v>
       </c>
       <c r="G58" s="3">
-        <v>99200</v>
+        <v>91800</v>
       </c>
       <c r="H58" s="3">
-        <v>267500</v>
+        <v>247400</v>
       </c>
       <c r="I58" s="3">
-        <v>491500</v>
+        <v>454600</v>
       </c>
       <c r="J58" s="3">
-        <v>528100</v>
+        <v>488500</v>
       </c>
       <c r="K58" s="3">
         <v>464400</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>172300</v>
+        <v>159400</v>
       </c>
       <c r="E59" s="3">
-        <v>173900</v>
+        <v>160800</v>
       </c>
       <c r="F59" s="3">
-        <v>198600</v>
+        <v>183700</v>
       </c>
       <c r="G59" s="3">
-        <v>204300</v>
+        <v>188900</v>
       </c>
       <c r="H59" s="3">
-        <v>201800</v>
+        <v>186700</v>
       </c>
       <c r="I59" s="3">
-        <v>214400</v>
+        <v>198300</v>
       </c>
       <c r="J59" s="3">
-        <v>202700</v>
+        <v>187500</v>
       </c>
       <c r="K59" s="3">
         <v>193400</v>
@@ -2382,25 +2382,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1055000</v>
+        <v>975800</v>
       </c>
       <c r="E60" s="3">
-        <v>1004300</v>
+        <v>928900</v>
       </c>
       <c r="F60" s="3">
-        <v>1135000</v>
+        <v>1049800</v>
       </c>
       <c r="G60" s="3">
-        <v>754500</v>
+        <v>697900</v>
       </c>
       <c r="H60" s="3">
-        <v>924300</v>
+        <v>854900</v>
       </c>
       <c r="I60" s="3">
-        <v>1172800</v>
+        <v>1084700</v>
       </c>
       <c r="J60" s="3">
-        <v>1098400</v>
+        <v>1015900</v>
       </c>
       <c r="K60" s="3">
         <v>992300</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>896400</v>
+        <v>829100</v>
       </c>
       <c r="E61" s="3">
-        <v>742200</v>
+        <v>686500</v>
       </c>
       <c r="F61" s="3">
-        <v>419400</v>
+        <v>387900</v>
       </c>
       <c r="G61" s="3">
-        <v>764500</v>
+        <v>707100</v>
       </c>
       <c r="H61" s="3">
-        <v>823200</v>
+        <v>761400</v>
       </c>
       <c r="I61" s="3">
-        <v>745500</v>
+        <v>689600</v>
       </c>
       <c r="J61" s="3">
-        <v>835400</v>
+        <v>772700</v>
       </c>
       <c r="K61" s="3">
         <v>801500</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>353500</v>
+        <v>327000</v>
       </c>
       <c r="E62" s="3">
-        <v>240600</v>
+        <v>222500</v>
       </c>
       <c r="F62" s="3">
-        <v>247300</v>
+        <v>228700</v>
       </c>
       <c r="G62" s="3">
-        <v>244500</v>
+        <v>226200</v>
       </c>
       <c r="H62" s="3">
-        <v>231200</v>
+        <v>213800</v>
       </c>
       <c r="I62" s="3">
-        <v>286500</v>
+        <v>265000</v>
       </c>
       <c r="J62" s="3">
-        <v>285300</v>
+        <v>263900</v>
       </c>
       <c r="K62" s="3">
         <v>149500</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2434900</v>
+        <v>2252100</v>
       </c>
       <c r="E66" s="3">
-        <v>2104200</v>
+        <v>1946200</v>
       </c>
       <c r="F66" s="3">
-        <v>1916400</v>
+        <v>1772600</v>
       </c>
       <c r="G66" s="3">
-        <v>1873000</v>
+        <v>1732400</v>
       </c>
       <c r="H66" s="3">
-        <v>2121300</v>
+        <v>1962100</v>
       </c>
       <c r="I66" s="3">
-        <v>2353700</v>
+        <v>2177000</v>
       </c>
       <c r="J66" s="3">
-        <v>2387000</v>
+        <v>2207800</v>
       </c>
       <c r="K66" s="3">
         <v>2111700</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1551100</v>
+        <v>1434600</v>
       </c>
       <c r="E72" s="3">
-        <v>1479400</v>
+        <v>1368400</v>
       </c>
       <c r="F72" s="3">
-        <v>1429500</v>
+        <v>1322200</v>
       </c>
       <c r="G72" s="3">
-        <v>1319700</v>
+        <v>1220700</v>
       </c>
       <c r="H72" s="3">
-        <v>1250900</v>
+        <v>1157000</v>
       </c>
       <c r="I72" s="3">
-        <v>1122300</v>
+        <v>1038000</v>
       </c>
       <c r="J72" s="3">
-        <v>1033700</v>
+        <v>956100</v>
       </c>
       <c r="K72" s="3">
         <v>910200</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2060200</v>
+        <v>1905500</v>
       </c>
       <c r="E76" s="3">
-        <v>1988000</v>
+        <v>1838700</v>
       </c>
       <c r="F76" s="3">
-        <v>1933000</v>
+        <v>1787900</v>
       </c>
       <c r="G76" s="3">
-        <v>1822200</v>
+        <v>1685400</v>
       </c>
       <c r="H76" s="3">
-        <v>1793200</v>
+        <v>1658500</v>
       </c>
       <c r="I76" s="3">
-        <v>1665700</v>
+        <v>1540700</v>
       </c>
       <c r="J76" s="3">
-        <v>1578300</v>
+        <v>1459800</v>
       </c>
       <c r="K76" s="3">
         <v>1413000</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>141100</v>
+        <v>130500</v>
       </c>
       <c r="E81" s="3">
-        <v>137100</v>
+        <v>126800</v>
       </c>
       <c r="F81" s="3">
-        <v>144200</v>
+        <v>133400</v>
       </c>
       <c r="G81" s="3">
-        <v>155600</v>
+        <v>143900</v>
       </c>
       <c r="H81" s="3">
-        <v>180700</v>
+        <v>167200</v>
       </c>
       <c r="I81" s="3">
-        <v>92300</v>
+        <v>85400</v>
       </c>
       <c r="J81" s="3">
-        <v>95300</v>
+        <v>88100</v>
       </c>
       <c r="K81" s="3">
         <v>75800</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>469700</v>
+        <v>434500</v>
       </c>
       <c r="E83" s="3">
-        <v>457500</v>
+        <v>423100</v>
       </c>
       <c r="F83" s="3">
-        <v>384700</v>
+        <v>355800</v>
       </c>
       <c r="G83" s="3">
-        <v>360200</v>
+        <v>333200</v>
       </c>
       <c r="H83" s="3">
-        <v>391200</v>
+        <v>361800</v>
       </c>
       <c r="I83" s="3">
-        <v>378900</v>
+        <v>350500</v>
       </c>
       <c r="J83" s="3">
-        <v>335200</v>
+        <v>310000</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>8</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>619200</v>
+        <v>572700</v>
       </c>
       <c r="E89" s="3">
-        <v>540700</v>
+        <v>500100</v>
       </c>
       <c r="F89" s="3">
-        <v>529800</v>
+        <v>490000</v>
       </c>
       <c r="G89" s="3">
-        <v>524100</v>
+        <v>484800</v>
       </c>
       <c r="H89" s="3">
-        <v>515600</v>
+        <v>476900</v>
       </c>
       <c r="I89" s="3">
-        <v>520500</v>
+        <v>481400</v>
       </c>
       <c r="J89" s="3">
-        <v>484500</v>
+        <v>448100</v>
       </c>
       <c r="K89" s="3">
         <v>425100</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-509900</v>
+        <v>-471600</v>
       </c>
       <c r="E91" s="3">
-        <v>-325200</v>
+        <v>-300800</v>
       </c>
       <c r="F91" s="3">
-        <v>-312000</v>
+        <v>-288600</v>
       </c>
       <c r="G91" s="3">
-        <v>-302400</v>
+        <v>-279700</v>
       </c>
       <c r="H91" s="3">
-        <v>-366000</v>
+        <v>-338500</v>
       </c>
       <c r="I91" s="3">
-        <v>-322500</v>
+        <v>-298300</v>
       </c>
       <c r="J91" s="3">
-        <v>-473400</v>
+        <v>-437800</v>
       </c>
       <c r="K91" s="3">
         <v>-388000</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-493200</v>
+        <v>-456200</v>
       </c>
       <c r="E94" s="3">
-        <v>-282800</v>
+        <v>-261600</v>
       </c>
       <c r="F94" s="3">
-        <v>-276700</v>
+        <v>-255900</v>
       </c>
       <c r="G94" s="3">
-        <v>-193300</v>
+        <v>-178800</v>
       </c>
       <c r="H94" s="3">
-        <v>-297000</v>
+        <v>-274700</v>
       </c>
       <c r="I94" s="3">
-        <v>-324700</v>
+        <v>-300300</v>
       </c>
       <c r="J94" s="3">
-        <v>-434600</v>
+        <v>-401900</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>8</v>
@@ -3531,25 +3531,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-81600</v>
+        <v>-75500</v>
       </c>
       <c r="E96" s="3">
-        <v>-99000</v>
+        <v>-91600</v>
       </c>
       <c r="F96" s="3">
-        <v>-98400</v>
+        <v>-91000</v>
       </c>
       <c r="G96" s="3">
-        <v>-97900</v>
+        <v>-90600</v>
       </c>
       <c r="H96" s="3">
-        <v>-75500</v>
+        <v>-69900</v>
       </c>
       <c r="I96" s="3">
-        <v>-22300</v>
+        <v>-20600</v>
       </c>
       <c r="J96" s="3">
-        <v>-26700</v>
+        <v>-24700</v>
       </c>
       <c r="K96" s="3">
         <v>-211300</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-125200</v>
+        <v>-115800</v>
       </c>
       <c r="E100" s="3">
-        <v>-237900</v>
+        <v>-220000</v>
       </c>
       <c r="F100" s="3">
-        <v>-247500</v>
+        <v>-228900</v>
       </c>
       <c r="G100" s="3">
-        <v>-348700</v>
+        <v>-322500</v>
       </c>
       <c r="H100" s="3">
-        <v>-240900</v>
+        <v>-222800</v>
       </c>
       <c r="I100" s="3">
-        <v>-185700</v>
+        <v>-171800</v>
       </c>
       <c r="J100" s="3">
-        <v>-51800</v>
+        <v>-47900</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>8</v>
@@ -3711,10 +3711,10 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>3500</v>
+        <v>3200</v>
       </c>
       <c r="E101" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="F101" s="3">
         <v>400</v>
@@ -3726,10 +3726,10 @@
         <v>-100</v>
       </c>
       <c r="I101" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="J101" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>8</v>
@@ -3747,22 +3747,22 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>4300</v>
+        <v>4000</v>
       </c>
       <c r="E102" s="3">
-        <v>20600</v>
+        <v>19100</v>
       </c>
       <c r="F102" s="3">
-        <v>6000</v>
+        <v>5600</v>
       </c>
       <c r="G102" s="3">
-        <v>-18000</v>
+        <v>-16700</v>
       </c>
       <c r="H102" s="3">
-        <v>-22500</v>
+        <v>-20800</v>
       </c>
       <c r="I102" s="3">
-        <v>9800</v>
+        <v>9000</v>
       </c>
       <c r="J102" s="3">
         <v>0</v>

--- a/AAII_Financials/Yearly/MYTAY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/MYTAY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="92">
   <si>
     <t>MYTAY</t>
   </si>
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2073000</v>
+        <v>1924900</v>
       </c>
       <c r="E8" s="3">
-        <v>2053300</v>
+        <v>1906600</v>
       </c>
       <c r="F8" s="3">
-        <v>2023900</v>
+        <v>1879300</v>
       </c>
       <c r="G8" s="3">
-        <v>1881400</v>
+        <v>1747000</v>
       </c>
       <c r="H8" s="3">
-        <v>1768000</v>
+        <v>1641700</v>
       </c>
       <c r="I8" s="3">
-        <v>2021500</v>
+        <v>1877100</v>
       </c>
       <c r="J8" s="3">
-        <v>1929500</v>
+        <v>1791600</v>
       </c>
       <c r="K8" s="3">
         <v>2059200</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1041300</v>
+        <v>966900</v>
       </c>
       <c r="E9" s="3">
-        <v>1031900</v>
+        <v>958200</v>
       </c>
       <c r="F9" s="3">
-        <v>1031100</v>
+        <v>957400</v>
       </c>
       <c r="G9" s="3">
-        <v>927100</v>
+        <v>860900</v>
       </c>
       <c r="H9" s="3">
-        <v>815500</v>
+        <v>757300</v>
       </c>
       <c r="I9" s="3">
-        <v>918400</v>
+        <v>852800</v>
       </c>
       <c r="J9" s="3">
-        <v>661100</v>
+        <v>613900</v>
       </c>
       <c r="K9" s="3">
         <v>735700</v>
@@ -792,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1031700</v>
+        <v>958000</v>
       </c>
       <c r="E10" s="3">
-        <v>1021400</v>
+        <v>948400</v>
       </c>
       <c r="F10" s="3">
-        <v>992800</v>
+        <v>921900</v>
       </c>
       <c r="G10" s="3">
-        <v>954300</v>
+        <v>886100</v>
       </c>
       <c r="H10" s="3">
-        <v>952500</v>
+        <v>884500</v>
       </c>
       <c r="I10" s="3">
-        <v>1103100</v>
+        <v>1024300</v>
       </c>
       <c r="J10" s="3">
-        <v>1268400</v>
+        <v>1177800</v>
       </c>
       <c r="K10" s="3">
         <v>1323500</v>
@@ -952,25 +952,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>434500</v>
+        <v>403400</v>
       </c>
       <c r="E15" s="3">
-        <v>423100</v>
+        <v>392900</v>
       </c>
       <c r="F15" s="3">
-        <v>355800</v>
+        <v>330400</v>
       </c>
       <c r="G15" s="3">
-        <v>333200</v>
+        <v>309400</v>
       </c>
       <c r="H15" s="3">
-        <v>704700</v>
+        <v>654300</v>
       </c>
       <c r="I15" s="3">
-        <v>350500</v>
+        <v>325400</v>
       </c>
       <c r="J15" s="3">
-        <v>310000</v>
+        <v>287900</v>
       </c>
       <c r="K15" s="3">
         <v>338300</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1811700</v>
+        <v>1682300</v>
       </c>
       <c r="E17" s="3">
-        <v>1797100</v>
+        <v>1668700</v>
       </c>
       <c r="F17" s="3">
-        <v>1786800</v>
+        <v>1659200</v>
       </c>
       <c r="G17" s="3">
-        <v>1642800</v>
+        <v>1525400</v>
       </c>
       <c r="H17" s="3">
-        <v>1533400</v>
+        <v>1423900</v>
       </c>
       <c r="I17" s="3">
-        <v>1795100</v>
+        <v>1666900</v>
       </c>
       <c r="J17" s="3">
-        <v>1681300</v>
+        <v>1561200</v>
       </c>
       <c r="K17" s="3">
         <v>1817800</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>261300</v>
+        <v>242600</v>
       </c>
       <c r="E18" s="3">
-        <v>256200</v>
+        <v>237900</v>
       </c>
       <c r="F18" s="3">
-        <v>237100</v>
+        <v>220200</v>
       </c>
       <c r="G18" s="3">
-        <v>238700</v>
+        <v>221600</v>
       </c>
       <c r="H18" s="3">
-        <v>234600</v>
+        <v>217900</v>
       </c>
       <c r="I18" s="3">
-        <v>226400</v>
+        <v>210300</v>
       </c>
       <c r="J18" s="3">
-        <v>248200</v>
+        <v>230400</v>
       </c>
       <c r="K18" s="3">
         <v>241300</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-36400</v>
+        <v>-33800</v>
       </c>
       <c r="E20" s="3">
-        <v>-30900</v>
+        <v>-28700</v>
       </c>
       <c r="F20" s="3">
-        <v>-12300</v>
+        <v>-11400</v>
       </c>
       <c r="G20" s="3">
-        <v>-24000</v>
+        <v>-22300</v>
       </c>
       <c r="H20" s="3">
-        <v>-25700</v>
+        <v>-23900</v>
       </c>
       <c r="I20" s="3">
-        <v>-19700</v>
+        <v>-18300</v>
       </c>
       <c r="J20" s="3">
-        <v>-17800</v>
+        <v>-16500</v>
       </c>
       <c r="K20" s="3">
         <v>-28500</v>
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>657900</v>
+        <v>623500</v>
       </c>
       <c r="E21" s="3">
-        <v>647100</v>
+        <v>613100</v>
       </c>
       <c r="F21" s="3">
-        <v>579500</v>
+        <v>548400</v>
       </c>
       <c r="G21" s="3">
-        <v>546700</v>
+        <v>517300</v>
       </c>
       <c r="H21" s="3">
-        <v>569600</v>
+        <v>539400</v>
       </c>
       <c r="I21" s="3">
-        <v>556100</v>
-      </c>
-      <c r="J21" s="3">
-        <v>539400</v>
+        <v>526500</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>8</v>
@@ -1161,25 +1161,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>37300</v>
+        <v>34600</v>
       </c>
       <c r="E22" s="3">
-        <v>43100</v>
+        <v>40000</v>
       </c>
       <c r="F22" s="3">
-        <v>40700</v>
+        <v>37800</v>
       </c>
       <c r="G22" s="3">
-        <v>41500</v>
+        <v>38500</v>
       </c>
       <c r="H22" s="3">
-        <v>57200</v>
+        <v>53100</v>
       </c>
       <c r="I22" s="3">
-        <v>67100</v>
+        <v>62300</v>
       </c>
       <c r="J22" s="3">
-        <v>69700</v>
+        <v>64700</v>
       </c>
       <c r="K22" s="3">
         <v>73400</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>187600</v>
+        <v>174200</v>
       </c>
       <c r="E23" s="3">
-        <v>182200</v>
+        <v>169200</v>
       </c>
       <c r="F23" s="3">
-        <v>184100</v>
+        <v>171000</v>
       </c>
       <c r="G23" s="3">
-        <v>173100</v>
+        <v>160700</v>
       </c>
       <c r="H23" s="3">
-        <v>151700</v>
+        <v>140900</v>
       </c>
       <c r="I23" s="3">
-        <v>139700</v>
+        <v>129700</v>
       </c>
       <c r="J23" s="3">
-        <v>160700</v>
+        <v>149200</v>
       </c>
       <c r="K23" s="3">
         <v>139400</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>45000</v>
+        <v>41700</v>
       </c>
       <c r="E24" s="3">
-        <v>45100</v>
+        <v>41900</v>
       </c>
       <c r="F24" s="3">
-        <v>41100</v>
+        <v>38100</v>
       </c>
       <c r="G24" s="3">
-        <v>49200</v>
+        <v>45600</v>
       </c>
       <c r="H24" s="3">
-        <v>-15000</v>
+        <v>-13900</v>
       </c>
       <c r="I24" s="3">
-        <v>42500</v>
+        <v>39500</v>
       </c>
       <c r="J24" s="3">
-        <v>62100</v>
+        <v>57600</v>
       </c>
       <c r="K24" s="3">
         <v>46200</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>142700</v>
+        <v>132500</v>
       </c>
       <c r="E26" s="3">
-        <v>137100</v>
+        <v>127300</v>
       </c>
       <c r="F26" s="3">
-        <v>143100</v>
+        <v>132800</v>
       </c>
       <c r="G26" s="3">
-        <v>124000</v>
+        <v>115100</v>
       </c>
       <c r="H26" s="3">
-        <v>166700</v>
+        <v>154800</v>
       </c>
       <c r="I26" s="3">
-        <v>97200</v>
+        <v>90200</v>
       </c>
       <c r="J26" s="3">
-        <v>98600</v>
+        <v>91600</v>
       </c>
       <c r="K26" s="3">
         <v>93200</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>130500</v>
+        <v>121200</v>
       </c>
       <c r="E27" s="3">
-        <v>126800</v>
+        <v>117700</v>
       </c>
       <c r="F27" s="3">
-        <v>133400</v>
+        <v>123900</v>
       </c>
       <c r="G27" s="3">
-        <v>114600</v>
+        <v>106400</v>
       </c>
       <c r="H27" s="3">
-        <v>157600</v>
+        <v>146400</v>
       </c>
       <c r="I27" s="3">
-        <v>85400</v>
+        <v>79300</v>
       </c>
       <c r="J27" s="3">
-        <v>88100</v>
+        <v>81800</v>
       </c>
       <c r="K27" s="3">
         <v>75800</v>
@@ -1422,10 +1422,10 @@
         <v>0</v>
       </c>
       <c r="G29" s="3">
-        <v>29300</v>
+        <v>27200</v>
       </c>
       <c r="H29" s="3">
-        <v>9600</v>
+        <v>8900</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>8</v>
@@ -1521,25 +1521,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>36400</v>
+        <v>33800</v>
       </c>
       <c r="E32" s="3">
-        <v>30900</v>
+        <v>28700</v>
       </c>
       <c r="F32" s="3">
-        <v>12300</v>
+        <v>11400</v>
       </c>
       <c r="G32" s="3">
-        <v>24000</v>
+        <v>22300</v>
       </c>
       <c r="H32" s="3">
-        <v>25700</v>
+        <v>23900</v>
       </c>
       <c r="I32" s="3">
-        <v>19700</v>
+        <v>18300</v>
       </c>
       <c r="J32" s="3">
-        <v>17800</v>
+        <v>16500</v>
       </c>
       <c r="K32" s="3">
         <v>28500</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>130500</v>
+        <v>121200</v>
       </c>
       <c r="E33" s="3">
-        <v>126800</v>
+        <v>117700</v>
       </c>
       <c r="F33" s="3">
-        <v>133400</v>
+        <v>123900</v>
       </c>
       <c r="G33" s="3">
-        <v>143900</v>
+        <v>133600</v>
       </c>
       <c r="H33" s="3">
-        <v>167200</v>
+        <v>155200</v>
       </c>
       <c r="I33" s="3">
-        <v>85400</v>
+        <v>79300</v>
       </c>
       <c r="J33" s="3">
-        <v>88100</v>
+        <v>81800</v>
       </c>
       <c r="K33" s="3">
         <v>75800</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>130500</v>
+        <v>121200</v>
       </c>
       <c r="E35" s="3">
-        <v>126800</v>
+        <v>117700</v>
       </c>
       <c r="F35" s="3">
-        <v>133400</v>
+        <v>123900</v>
       </c>
       <c r="G35" s="3">
-        <v>143900</v>
+        <v>133600</v>
       </c>
       <c r="H35" s="3">
-        <v>167200</v>
+        <v>155200</v>
       </c>
       <c r="I35" s="3">
-        <v>85400</v>
+        <v>79300</v>
       </c>
       <c r="J35" s="3">
-        <v>88100</v>
+        <v>81800</v>
       </c>
       <c r="K35" s="3">
         <v>75800</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>54300</v>
+        <v>38500</v>
       </c>
       <c r="E41" s="3">
-        <v>41300</v>
+        <v>50400</v>
       </c>
       <c r="F41" s="3">
-        <v>34200</v>
+        <v>38300</v>
       </c>
       <c r="G41" s="3">
-        <v>27500</v>
+        <v>31800</v>
       </c>
       <c r="H41" s="3">
-        <v>36200</v>
+        <v>25500</v>
       </c>
       <c r="I41" s="3">
-        <v>78700</v>
+        <v>33600</v>
       </c>
       <c r="J41" s="3">
-        <v>90700</v>
+        <v>73000</v>
       </c>
       <c r="K41" s="3">
         <v>123500</v>
@@ -1774,25 +1774,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>62900</v>
+        <v>26900</v>
       </c>
       <c r="E42" s="3">
-        <v>13500</v>
+        <v>58400</v>
       </c>
       <c r="F42" s="3">
-        <v>22500</v>
+        <v>12500</v>
       </c>
       <c r="G42" s="3">
-        <v>3400</v>
+        <v>20900</v>
       </c>
       <c r="H42" s="3">
-        <v>3800</v>
+        <v>3100</v>
       </c>
       <c r="I42" s="3">
-        <v>4700</v>
+        <v>3600</v>
       </c>
       <c r="J42" s="3">
-        <v>11700</v>
+        <v>4400</v>
       </c>
       <c r="K42" s="3">
         <v>11100</v>
@@ -1810,25 +1810,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>562200</v>
+        <v>515500</v>
       </c>
       <c r="E43" s="3">
-        <v>593100</v>
+        <v>522000</v>
       </c>
       <c r="F43" s="3">
-        <v>603300</v>
+        <v>550800</v>
       </c>
       <c r="G43" s="3">
-        <v>452900</v>
+        <v>560200</v>
       </c>
       <c r="H43" s="3">
-        <v>468400</v>
+        <v>420600</v>
       </c>
       <c r="I43" s="3">
-        <v>472100</v>
+        <v>434900</v>
       </c>
       <c r="J43" s="3">
-        <v>416900</v>
+        <v>438400</v>
       </c>
       <c r="K43" s="3">
         <v>411600</v>
@@ -1846,25 +1846,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>51600</v>
+      </c>
+      <c r="E44" s="3">
+        <v>52600</v>
+      </c>
+      <c r="F44" s="3">
         <v>56700</v>
       </c>
-      <c r="E44" s="3">
-        <v>61100</v>
-      </c>
-      <c r="F44" s="3">
-        <v>58900</v>
-      </c>
       <c r="G44" s="3">
-        <v>52900</v>
+        <v>54700</v>
       </c>
       <c r="H44" s="3">
-        <v>51300</v>
+        <v>49100</v>
       </c>
       <c r="I44" s="3">
-        <v>39000</v>
+        <v>47600</v>
       </c>
       <c r="J44" s="3">
-        <v>42300</v>
+        <v>36200</v>
       </c>
       <c r="K44" s="3">
         <v>40300</v>
@@ -1882,25 +1882,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>59600</v>
+        <v>30700</v>
       </c>
       <c r="E45" s="3">
-        <v>19700</v>
+        <v>55300</v>
       </c>
       <c r="F45" s="3">
-        <v>0</v>
+        <v>18300</v>
       </c>
       <c r="G45" s="3">
-        <v>45600</v>
+        <v>0</v>
       </c>
       <c r="H45" s="3">
-        <v>37800</v>
+        <v>42300</v>
       </c>
       <c r="I45" s="3">
-        <v>52900</v>
+        <v>35100</v>
       </c>
       <c r="J45" s="3">
-        <v>47900</v>
+        <v>49100</v>
       </c>
       <c r="K45" s="3">
         <v>39900</v>
@@ -1918,25 +1918,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>795500</v>
+        <v>663200</v>
       </c>
       <c r="E46" s="3">
-        <v>728600</v>
+        <v>738700</v>
       </c>
       <c r="F46" s="3">
-        <v>719000</v>
+        <v>676600</v>
       </c>
       <c r="G46" s="3">
-        <v>582200</v>
+        <v>667600</v>
       </c>
       <c r="H46" s="3">
-        <v>597500</v>
+        <v>540600</v>
       </c>
       <c r="I46" s="3">
-        <v>647300</v>
+        <v>554800</v>
       </c>
       <c r="J46" s="3">
-        <v>609500</v>
+        <v>601100</v>
       </c>
       <c r="K46" s="3">
         <v>626400</v>
@@ -1954,25 +1954,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>80800</v>
+        <v>123800</v>
       </c>
       <c r="E47" s="3">
-        <v>77000</v>
+        <v>75000</v>
       </c>
       <c r="F47" s="3">
-        <v>78100</v>
+        <v>71500</v>
       </c>
       <c r="G47" s="3">
-        <v>63600</v>
+        <v>72500</v>
       </c>
       <c r="H47" s="3">
-        <v>48000</v>
+        <v>59100</v>
       </c>
       <c r="I47" s="3">
-        <v>54400</v>
+        <v>44500</v>
       </c>
       <c r="J47" s="3">
-        <v>55500</v>
+        <v>50500</v>
       </c>
       <c r="K47" s="3">
         <v>53400</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1705600</v>
+        <v>1601000</v>
       </c>
       <c r="E48" s="3">
-        <v>1645200</v>
+        <v>1583800</v>
       </c>
       <c r="F48" s="3">
-        <v>1364900</v>
+        <v>1527700</v>
       </c>
       <c r="G48" s="3">
-        <v>1412200</v>
+        <v>1267400</v>
       </c>
       <c r="H48" s="3">
-        <v>1493000</v>
+        <v>1311300</v>
       </c>
       <c r="I48" s="3">
-        <v>1525700</v>
+        <v>1386300</v>
       </c>
       <c r="J48" s="3">
-        <v>1504400</v>
+        <v>1416700</v>
       </c>
       <c r="K48" s="3">
         <v>1596300</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1536400</v>
+        <v>1597800</v>
       </c>
       <c r="E49" s="3">
-        <v>1311500</v>
+        <v>1426600</v>
       </c>
       <c r="F49" s="3">
-        <v>1379700</v>
+        <v>1217800</v>
       </c>
       <c r="G49" s="3">
-        <v>1359700</v>
+        <v>1281100</v>
       </c>
       <c r="H49" s="3">
-        <v>1473100</v>
+        <v>1262600</v>
       </c>
       <c r="I49" s="3">
-        <v>1474800</v>
+        <v>1367800</v>
       </c>
       <c r="J49" s="3">
-        <v>1473700</v>
+        <v>1369500</v>
       </c>
       <c r="K49" s="3">
         <v>1231300</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>39400</v>
+        <v>20100</v>
       </c>
       <c r="E52" s="3">
-        <v>22500</v>
+        <v>36600</v>
       </c>
       <c r="F52" s="3">
-        <v>18800</v>
+        <v>20900</v>
       </c>
       <c r="G52" s="3">
+        <v>17500</v>
+      </c>
+      <c r="H52" s="3">
         <v>100</v>
       </c>
-      <c r="H52" s="3">
-        <v>9200</v>
-      </c>
       <c r="I52" s="3">
-        <v>15300</v>
+        <v>8500</v>
       </c>
       <c r="J52" s="3">
-        <v>24400</v>
+        <v>14200</v>
       </c>
       <c r="K52" s="3">
         <v>17300</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>4157700</v>
+        <v>4005900</v>
       </c>
       <c r="E54" s="3">
-        <v>3784900</v>
+        <v>3860700</v>
       </c>
       <c r="F54" s="3">
-        <v>3560500</v>
+        <v>3514600</v>
       </c>
       <c r="G54" s="3">
-        <v>3417800</v>
+        <v>3306100</v>
       </c>
       <c r="H54" s="3">
-        <v>3620600</v>
+        <v>3173600</v>
       </c>
       <c r="I54" s="3">
-        <v>3717600</v>
+        <v>3362000</v>
       </c>
       <c r="J54" s="3">
-        <v>3667600</v>
+        <v>3452100</v>
       </c>
       <c r="K54" s="3">
         <v>3524700</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>456800</v>
+        <v>406200</v>
       </c>
       <c r="E57" s="3">
-        <v>477500</v>
+        <v>424200</v>
       </c>
       <c r="F57" s="3">
-        <v>540000</v>
+        <v>443400</v>
       </c>
       <c r="G57" s="3">
-        <v>417200</v>
+        <v>501400</v>
       </c>
       <c r="H57" s="3">
-        <v>420800</v>
+        <v>387400</v>
       </c>
       <c r="I57" s="3">
-        <v>431800</v>
+        <v>390700</v>
       </c>
       <c r="J57" s="3">
-        <v>339900</v>
+        <v>400900</v>
       </c>
       <c r="K57" s="3">
         <v>334500</v>
@@ -2310,25 +2310,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>359600</v>
+        <v>172800</v>
       </c>
       <c r="E58" s="3">
-        <v>290500</v>
+        <v>333900</v>
       </c>
       <c r="F58" s="3">
-        <v>326100</v>
+        <v>269700</v>
       </c>
       <c r="G58" s="3">
-        <v>91800</v>
+        <v>302800</v>
       </c>
       <c r="H58" s="3">
-        <v>247400</v>
+        <v>85200</v>
       </c>
       <c r="I58" s="3">
-        <v>454600</v>
+        <v>229800</v>
       </c>
       <c r="J58" s="3">
-        <v>488500</v>
+        <v>422200</v>
       </c>
       <c r="K58" s="3">
         <v>464400</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>159400</v>
+        <v>265800</v>
       </c>
       <c r="E59" s="3">
-        <v>160800</v>
+        <v>148000</v>
       </c>
       <c r="F59" s="3">
-        <v>183700</v>
+        <v>149400</v>
       </c>
       <c r="G59" s="3">
-        <v>188900</v>
+        <v>170600</v>
       </c>
       <c r="H59" s="3">
-        <v>186700</v>
+        <v>175400</v>
       </c>
       <c r="I59" s="3">
-        <v>198300</v>
+        <v>173300</v>
       </c>
       <c r="J59" s="3">
-        <v>187500</v>
+        <v>184200</v>
       </c>
       <c r="K59" s="3">
         <v>193400</v>
@@ -2382,25 +2382,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>975800</v>
+        <v>844700</v>
       </c>
       <c r="E60" s="3">
-        <v>928900</v>
+        <v>906100</v>
       </c>
       <c r="F60" s="3">
-        <v>1049800</v>
+        <v>862500</v>
       </c>
       <c r="G60" s="3">
-        <v>697900</v>
+        <v>974800</v>
       </c>
       <c r="H60" s="3">
-        <v>854900</v>
+        <v>648000</v>
       </c>
       <c r="I60" s="3">
-        <v>1084700</v>
+        <v>793800</v>
       </c>
       <c r="J60" s="3">
-        <v>1015900</v>
+        <v>1007200</v>
       </c>
       <c r="K60" s="3">
         <v>992300</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>829100</v>
+        <v>774200</v>
       </c>
       <c r="E61" s="3">
-        <v>686500</v>
+        <v>769900</v>
       </c>
       <c r="F61" s="3">
-        <v>387900</v>
+        <v>637500</v>
       </c>
       <c r="G61" s="3">
-        <v>707100</v>
+        <v>360200</v>
       </c>
       <c r="H61" s="3">
-        <v>761400</v>
+        <v>656600</v>
       </c>
       <c r="I61" s="3">
-        <v>689600</v>
+        <v>707000</v>
       </c>
       <c r="J61" s="3">
-        <v>772700</v>
+        <v>640300</v>
       </c>
       <c r="K61" s="3">
         <v>801500</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>327000</v>
+        <v>405100</v>
       </c>
       <c r="E62" s="3">
-        <v>222500</v>
+        <v>303600</v>
       </c>
       <c r="F62" s="3">
-        <v>228700</v>
+        <v>206600</v>
       </c>
       <c r="G62" s="3">
-        <v>226200</v>
+        <v>212400</v>
       </c>
       <c r="H62" s="3">
-        <v>213800</v>
+        <v>210000</v>
       </c>
       <c r="I62" s="3">
-        <v>265000</v>
+        <v>198600</v>
       </c>
       <c r="J62" s="3">
-        <v>263900</v>
+        <v>246000</v>
       </c>
       <c r="K62" s="3">
         <v>149500</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2252100</v>
+        <v>2138600</v>
       </c>
       <c r="E66" s="3">
-        <v>1946200</v>
+        <v>2091300</v>
       </c>
       <c r="F66" s="3">
-        <v>1772600</v>
+        <v>1807200</v>
       </c>
       <c r="G66" s="3">
-        <v>1732400</v>
+        <v>1645900</v>
       </c>
       <c r="H66" s="3">
-        <v>1962100</v>
+        <v>1608700</v>
       </c>
       <c r="I66" s="3">
-        <v>2177000</v>
+        <v>1821900</v>
       </c>
       <c r="J66" s="3">
-        <v>2207800</v>
+        <v>2021500</v>
       </c>
       <c r="K66" s="3">
         <v>2111700</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1434600</v>
+        <v>1535400</v>
       </c>
       <c r="E72" s="3">
-        <v>1368400</v>
+        <v>1332200</v>
       </c>
       <c r="F72" s="3">
-        <v>1322200</v>
+        <v>1270600</v>
       </c>
       <c r="G72" s="3">
-        <v>1220700</v>
+        <v>1227800</v>
       </c>
       <c r="H72" s="3">
-        <v>1157000</v>
+        <v>1133500</v>
       </c>
       <c r="I72" s="3">
-        <v>1038000</v>
+        <v>1074400</v>
       </c>
       <c r="J72" s="3">
-        <v>956100</v>
+        <v>963900</v>
       </c>
       <c r="K72" s="3">
         <v>910200</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1905500</v>
+        <v>1867300</v>
       </c>
       <c r="E76" s="3">
-        <v>1838700</v>
+        <v>1769400</v>
       </c>
       <c r="F76" s="3">
-        <v>1787900</v>
+        <v>1707400</v>
       </c>
       <c r="G76" s="3">
-        <v>1685400</v>
+        <v>1660200</v>
       </c>
       <c r="H76" s="3">
-        <v>1658500</v>
+        <v>1565000</v>
       </c>
       <c r="I76" s="3">
-        <v>1540700</v>
+        <v>1540100</v>
       </c>
       <c r="J76" s="3">
-        <v>1459800</v>
+        <v>1430600</v>
       </c>
       <c r="K76" s="3">
         <v>1413000</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>130500</v>
+        <v>121200</v>
       </c>
       <c r="E81" s="3">
-        <v>126800</v>
+        <v>117700</v>
       </c>
       <c r="F81" s="3">
-        <v>133400</v>
+        <v>123900</v>
       </c>
       <c r="G81" s="3">
-        <v>143900</v>
+        <v>133600</v>
       </c>
       <c r="H81" s="3">
-        <v>167200</v>
+        <v>155200</v>
       </c>
       <c r="I81" s="3">
-        <v>85400</v>
+        <v>79300</v>
       </c>
       <c r="J81" s="3">
-        <v>88100</v>
+        <v>81800</v>
       </c>
       <c r="K81" s="3">
         <v>75800</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>434500</v>
+        <v>403400</v>
       </c>
       <c r="E83" s="3">
-        <v>423100</v>
+        <v>392900</v>
       </c>
       <c r="F83" s="3">
-        <v>355800</v>
+        <v>330400</v>
       </c>
       <c r="G83" s="3">
-        <v>333200</v>
+        <v>309400</v>
       </c>
       <c r="H83" s="3">
-        <v>361800</v>
+        <v>336000</v>
       </c>
       <c r="I83" s="3">
-        <v>350500</v>
-      </c>
-      <c r="J83" s="3">
-        <v>310000</v>
+        <v>325400</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>8</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>572700</v>
+        <v>531800</v>
       </c>
       <c r="E89" s="3">
-        <v>500100</v>
+        <v>464400</v>
       </c>
       <c r="F89" s="3">
-        <v>490000</v>
+        <v>455000</v>
       </c>
       <c r="G89" s="3">
-        <v>484800</v>
+        <v>450100</v>
       </c>
       <c r="H89" s="3">
-        <v>476900</v>
+        <v>442800</v>
       </c>
       <c r="I89" s="3">
-        <v>481400</v>
+        <v>447000</v>
       </c>
       <c r="J89" s="3">
-        <v>448100</v>
+        <v>416100</v>
       </c>
       <c r="K89" s="3">
         <v>425100</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-471600</v>
+        <v>-437900</v>
       </c>
       <c r="E91" s="3">
-        <v>-300800</v>
+        <v>-279300</v>
       </c>
       <c r="F91" s="3">
-        <v>-288600</v>
+        <v>-267900</v>
       </c>
       <c r="G91" s="3">
-        <v>-279700</v>
+        <v>-259700</v>
       </c>
       <c r="H91" s="3">
-        <v>-338500</v>
+        <v>-314300</v>
       </c>
       <c r="I91" s="3">
-        <v>-298300</v>
+        <v>-277000</v>
       </c>
       <c r="J91" s="3">
-        <v>-437800</v>
+        <v>-406600</v>
       </c>
       <c r="K91" s="3">
         <v>-388000</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-456200</v>
+        <v>-423600</v>
       </c>
       <c r="E94" s="3">
-        <v>-261600</v>
+        <v>-242900</v>
       </c>
       <c r="F94" s="3">
-        <v>-255900</v>
+        <v>-237600</v>
       </c>
       <c r="G94" s="3">
-        <v>-178800</v>
+        <v>-166100</v>
       </c>
       <c r="H94" s="3">
-        <v>-274700</v>
+        <v>-255100</v>
       </c>
       <c r="I94" s="3">
-        <v>-300300</v>
-      </c>
-      <c r="J94" s="3">
-        <v>-401900</v>
+        <v>-278900</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>8</v>
@@ -3531,25 +3531,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-75500</v>
+        <v>-70100</v>
       </c>
       <c r="E96" s="3">
-        <v>-91600</v>
+        <v>-85000</v>
       </c>
       <c r="F96" s="3">
-        <v>-91000</v>
+        <v>-84500</v>
       </c>
       <c r="G96" s="3">
-        <v>-90600</v>
+        <v>-84100</v>
       </c>
       <c r="H96" s="3">
-        <v>-69900</v>
+        <v>-64900</v>
       </c>
       <c r="I96" s="3">
-        <v>-20600</v>
+        <v>-19100</v>
       </c>
       <c r="J96" s="3">
-        <v>-24700</v>
+        <v>-22900</v>
       </c>
       <c r="K96" s="3">
         <v>-211300</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-115800</v>
+        <v>-107500</v>
       </c>
       <c r="E100" s="3">
-        <v>-220000</v>
+        <v>-204300</v>
       </c>
       <c r="F100" s="3">
-        <v>-228900</v>
+        <v>-212600</v>
       </c>
       <c r="G100" s="3">
-        <v>-322500</v>
+        <v>-299500</v>
       </c>
       <c r="H100" s="3">
-        <v>-222800</v>
+        <v>-206900</v>
       </c>
       <c r="I100" s="3">
-        <v>-171800</v>
-      </c>
-      <c r="J100" s="3">
-        <v>-47900</v>
+        <v>-159500</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>8</v>
@@ -3711,7 +3711,7 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>3200</v>
+        <v>3000</v>
       </c>
       <c r="E101" s="3">
         <v>600</v>
@@ -3728,8 +3728,8 @@
       <c r="I101" s="3">
         <v>-200</v>
       </c>
-      <c r="J101" s="3">
-        <v>1700</v>
+      <c r="J101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>8</v>
@@ -3747,22 +3747,22 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>4000</v>
+        <v>3700</v>
       </c>
       <c r="E102" s="3">
-        <v>19100</v>
+        <v>17700</v>
       </c>
       <c r="F102" s="3">
-        <v>5600</v>
+        <v>5200</v>
       </c>
       <c r="G102" s="3">
-        <v>-16700</v>
+        <v>-15500</v>
       </c>
       <c r="H102" s="3">
-        <v>-20800</v>
+        <v>-19300</v>
       </c>
       <c r="I102" s="3">
-        <v>9000</v>
+        <v>8400</v>
       </c>
       <c r="J102" s="3">
         <v>0</v>

--- a/AAII_Financials/Yearly/MYTAY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/MYTAY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="92">
   <si>
     <t>MYTAY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,165 +665,177 @@
     <col min="1" max="1" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43100</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42735</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42369</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42004</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41639</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41274</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>40908</v>
       </c>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1924900</v>
+        <v>1897300</v>
       </c>
       <c r="E8" s="3">
-        <v>1906600</v>
+        <v>1824000</v>
       </c>
       <c r="F8" s="3">
-        <v>1879300</v>
+        <v>1806600</v>
       </c>
       <c r="G8" s="3">
-        <v>1747000</v>
+        <v>1780800</v>
       </c>
       <c r="H8" s="3">
-        <v>1641700</v>
+        <v>1655400</v>
       </c>
       <c r="I8" s="3">
-        <v>1877100</v>
+        <v>1555600</v>
       </c>
       <c r="J8" s="3">
+        <v>1778700</v>
+      </c>
+      <c r="K8" s="3">
         <v>1791600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2059200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1973200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2091700</v>
       </c>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>966900</v>
+        <v>973000</v>
       </c>
       <c r="E9" s="3">
-        <v>958200</v>
+        <v>942500</v>
       </c>
       <c r="F9" s="3">
-        <v>957400</v>
+        <v>932500</v>
       </c>
       <c r="G9" s="3">
-        <v>860900</v>
+        <v>933000</v>
       </c>
       <c r="H9" s="3">
-        <v>757300</v>
+        <v>830700</v>
       </c>
       <c r="I9" s="3">
-        <v>852800</v>
+        <v>738900</v>
       </c>
       <c r="J9" s="3">
+        <v>833900</v>
+      </c>
+      <c r="K9" s="3">
         <v>613900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>735700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>630400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>741600</v>
       </c>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>958000</v>
+        <v>924400</v>
       </c>
       <c r="E10" s="3">
-        <v>948400</v>
+        <v>881500</v>
       </c>
       <c r="F10" s="3">
-        <v>921900</v>
+        <v>874200</v>
       </c>
       <c r="G10" s="3">
-        <v>886100</v>
+        <v>847800</v>
       </c>
       <c r="H10" s="3">
-        <v>884500</v>
+        <v>824700</v>
       </c>
       <c r="I10" s="3">
-        <v>1024300</v>
+        <v>816700</v>
       </c>
       <c r="J10" s="3">
+        <v>944700</v>
+      </c>
+      <c r="K10" s="3">
         <v>1177800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1323500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1342700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1350000</v>
       </c>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -838,8 +850,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -873,9 +886,12 @@
       <c r="M12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -909,9 +925,12 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -940,50 +959,56 @@
         <v>0</v>
       </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>20500</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>21000</v>
       </c>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>403400</v>
+        <v>401000</v>
       </c>
       <c r="E15" s="3">
-        <v>392900</v>
+        <v>382300</v>
       </c>
       <c r="F15" s="3">
-        <v>330400</v>
+        <v>372300</v>
       </c>
       <c r="G15" s="3">
-        <v>309400</v>
+        <v>313100</v>
       </c>
       <c r="H15" s="3">
-        <v>654300</v>
+        <v>293200</v>
       </c>
       <c r="I15" s="3">
-        <v>325400</v>
+        <v>620000</v>
       </c>
       <c r="J15" s="3">
+        <v>308400</v>
+      </c>
+      <c r="K15" s="3">
         <v>287900</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>338300</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>694800</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>465200</v>
       </c>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -995,80 +1020,87 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1682300</v>
+        <v>1645800</v>
       </c>
       <c r="E17" s="3">
-        <v>1668700</v>
+        <v>1594100</v>
       </c>
       <c r="F17" s="3">
-        <v>1659200</v>
+        <v>1581200</v>
       </c>
       <c r="G17" s="3">
-        <v>1525400</v>
+        <v>1572100</v>
       </c>
       <c r="H17" s="3">
-        <v>1423900</v>
+        <v>1445400</v>
       </c>
       <c r="I17" s="3">
-        <v>1666900</v>
+        <v>1349200</v>
       </c>
       <c r="J17" s="3">
+        <v>1579500</v>
+      </c>
+      <c r="K17" s="3">
         <v>1561200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1817800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1687400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1870600</v>
       </c>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>242600</v>
+        <v>251500</v>
       </c>
       <c r="E18" s="3">
-        <v>237900</v>
+        <v>229900</v>
       </c>
       <c r="F18" s="3">
-        <v>220200</v>
+        <v>225400</v>
       </c>
       <c r="G18" s="3">
-        <v>221600</v>
+        <v>208600</v>
       </c>
       <c r="H18" s="3">
-        <v>217900</v>
+        <v>210000</v>
       </c>
       <c r="I18" s="3">
-        <v>210300</v>
+        <v>206500</v>
       </c>
       <c r="J18" s="3">
+        <v>199200</v>
+      </c>
+      <c r="K18" s="3">
         <v>230400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>241300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>285700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>221100</v>
       </c>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1083,188 +1115,204 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-33800</v>
+        <v>-1800</v>
       </c>
       <c r="E20" s="3">
-        <v>-28700</v>
+        <v>-32000</v>
       </c>
       <c r="F20" s="3">
-        <v>-11400</v>
+        <v>-27200</v>
       </c>
       <c r="G20" s="3">
-        <v>-22300</v>
+        <v>-10800</v>
       </c>
       <c r="H20" s="3">
-        <v>-23900</v>
+        <v>-21200</v>
       </c>
       <c r="I20" s="3">
-        <v>-18300</v>
+        <v>-22700</v>
       </c>
       <c r="J20" s="3">
+        <v>-17300</v>
+      </c>
+      <c r="K20" s="3">
         <v>-16500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-28500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-14200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-32400</v>
       </c>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>623500</v>
+        <v>659600</v>
       </c>
       <c r="E21" s="3">
-        <v>613100</v>
+        <v>588600</v>
       </c>
       <c r="F21" s="3">
-        <v>548400</v>
+        <v>578800</v>
       </c>
       <c r="G21" s="3">
-        <v>517300</v>
+        <v>517800</v>
       </c>
       <c r="H21" s="3">
-        <v>539400</v>
+        <v>488500</v>
       </c>
       <c r="I21" s="3">
-        <v>526500</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>8</v>
+        <v>509200</v>
+      </c>
+      <c r="J21" s="3">
+        <v>497100</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M21" s="3">
         <v>621100</v>
       </c>
-      <c r="M21" s="3" t="s">
+      <c r="N21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>34600</v>
+        <v>35300</v>
       </c>
       <c r="E22" s="3">
-        <v>40000</v>
+        <v>32800</v>
       </c>
       <c r="F22" s="3">
-        <v>37800</v>
+        <v>37900</v>
       </c>
       <c r="G22" s="3">
-        <v>38500</v>
+        <v>35800</v>
       </c>
       <c r="H22" s="3">
-        <v>53100</v>
+        <v>36500</v>
       </c>
       <c r="I22" s="3">
-        <v>62300</v>
+        <v>50300</v>
       </c>
       <c r="J22" s="3">
+        <v>59000</v>
+      </c>
+      <c r="K22" s="3">
         <v>64700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>73400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>78700</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>81100</v>
       </c>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>174200</v>
+        <v>214400</v>
       </c>
       <c r="E23" s="3">
-        <v>169200</v>
+        <v>165100</v>
       </c>
       <c r="F23" s="3">
-        <v>171000</v>
+        <v>160300</v>
       </c>
       <c r="G23" s="3">
-        <v>160700</v>
+        <v>162000</v>
       </c>
       <c r="H23" s="3">
-        <v>140900</v>
+        <v>152300</v>
       </c>
       <c r="I23" s="3">
-        <v>129700</v>
+        <v>133500</v>
       </c>
       <c r="J23" s="3">
+        <v>122900</v>
+      </c>
+      <c r="K23" s="3">
         <v>149200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>139400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>192800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>107500</v>
       </c>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>41700</v>
+        <v>44100</v>
       </c>
       <c r="E24" s="3">
-        <v>41900</v>
+        <v>39600</v>
       </c>
       <c r="F24" s="3">
-        <v>38100</v>
+        <v>39700</v>
       </c>
       <c r="G24" s="3">
-        <v>45600</v>
+        <v>36100</v>
       </c>
       <c r="H24" s="3">
-        <v>-13900</v>
+        <v>43200</v>
       </c>
       <c r="I24" s="3">
-        <v>39500</v>
+        <v>-13200</v>
       </c>
       <c r="J24" s="3">
+        <v>37400</v>
+      </c>
+      <c r="K24" s="3">
         <v>57600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>46200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>43800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>96400</v>
       </c>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1298,81 +1346,90 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>132500</v>
+        <v>170300</v>
       </c>
       <c r="E26" s="3">
-        <v>127300</v>
+        <v>125500</v>
       </c>
       <c r="F26" s="3">
-        <v>132800</v>
+        <v>120600</v>
       </c>
       <c r="G26" s="3">
-        <v>115100</v>
+        <v>125900</v>
       </c>
       <c r="H26" s="3">
-        <v>154800</v>
+        <v>109100</v>
       </c>
       <c r="I26" s="3">
-        <v>90200</v>
+        <v>146700</v>
       </c>
       <c r="J26" s="3">
+        <v>85500</v>
+      </c>
+      <c r="K26" s="3">
         <v>91600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>93200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>149000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>11100</v>
       </c>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>121200</v>
+        <v>159900</v>
       </c>
       <c r="E27" s="3">
-        <v>117700</v>
+        <v>114800</v>
       </c>
       <c r="F27" s="3">
-        <v>123900</v>
+        <v>111500</v>
       </c>
       <c r="G27" s="3">
-        <v>106400</v>
+        <v>117400</v>
       </c>
       <c r="H27" s="3">
-        <v>146400</v>
+        <v>100800</v>
       </c>
       <c r="I27" s="3">
-        <v>79300</v>
+        <v>138700</v>
       </c>
       <c r="J27" s="3">
+        <v>75100</v>
+      </c>
+      <c r="K27" s="3">
         <v>81800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>75800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>119800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-26100</v>
       </c>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1406,9 +1463,12 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1418,17 +1478,17 @@
       <c r="E29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
+      <c r="F29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G29" s="3">
-        <v>27200</v>
+        <v>0</v>
       </c>
       <c r="H29" s="3">
-        <v>8900</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>8</v>
+        <v>25800</v>
+      </c>
+      <c r="I29" s="3">
+        <v>8400</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>8</v>
@@ -1442,9 +1502,12 @@
       <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1478,9 +1541,12 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1514,81 +1580,90 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>33800</v>
+        <v>1800</v>
       </c>
       <c r="E32" s="3">
-        <v>28700</v>
+        <v>32000</v>
       </c>
       <c r="F32" s="3">
-        <v>11400</v>
+        <v>27200</v>
       </c>
       <c r="G32" s="3">
-        <v>22300</v>
+        <v>10800</v>
       </c>
       <c r="H32" s="3">
-        <v>23900</v>
+        <v>21200</v>
       </c>
       <c r="I32" s="3">
-        <v>18300</v>
+        <v>22700</v>
       </c>
       <c r="J32" s="3">
+        <v>17300</v>
+      </c>
+      <c r="K32" s="3">
         <v>16500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>28500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>14200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>32400</v>
       </c>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>121200</v>
+        <v>159900</v>
       </c>
       <c r="E33" s="3">
-        <v>117700</v>
+        <v>114800</v>
       </c>
       <c r="F33" s="3">
-        <v>123900</v>
+        <v>111500</v>
       </c>
       <c r="G33" s="3">
-        <v>133600</v>
+        <v>117400</v>
       </c>
       <c r="H33" s="3">
-        <v>155200</v>
+        <v>126600</v>
       </c>
       <c r="I33" s="3">
-        <v>79300</v>
+        <v>147100</v>
       </c>
       <c r="J33" s="3">
+        <v>75100</v>
+      </c>
+      <c r="K33" s="3">
         <v>81800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>75800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>119800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-26100</v>
       </c>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1622,86 +1697,95 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-      <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>121200</v>
+        <v>159900</v>
       </c>
       <c r="E35" s="3">
-        <v>117700</v>
+        <v>114800</v>
       </c>
       <c r="F35" s="3">
-        <v>123900</v>
+        <v>111500</v>
       </c>
       <c r="G35" s="3">
-        <v>133600</v>
+        <v>117400</v>
       </c>
       <c r="H35" s="3">
-        <v>155200</v>
+        <v>126600</v>
       </c>
       <c r="I35" s="3">
-        <v>79300</v>
+        <v>147100</v>
       </c>
       <c r="J35" s="3">
+        <v>75100</v>
+      </c>
+      <c r="K35" s="3">
         <v>81800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>75800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>119800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-26100</v>
       </c>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43100</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42735</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42369</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42004</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41639</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41274</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>40908</v>
       </c>
-      <c r="N38" s="2"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1716,8 +1800,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1732,332 +1817,360 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>38500</v>
+        <v>47500</v>
       </c>
       <c r="E41" s="3">
-        <v>50400</v>
+        <v>47700</v>
       </c>
       <c r="F41" s="3">
-        <v>38300</v>
+        <v>36300</v>
       </c>
       <c r="G41" s="3">
-        <v>31800</v>
+        <v>30100</v>
       </c>
       <c r="H41" s="3">
-        <v>25500</v>
+        <v>24200</v>
       </c>
       <c r="I41" s="3">
-        <v>33600</v>
+        <v>31900</v>
       </c>
       <c r="J41" s="3">
+        <v>69200</v>
+      </c>
+      <c r="K41" s="3">
         <v>73000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>123500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>49400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>50600</v>
       </c>
-      <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>26900</v>
+        <v>3300</v>
       </c>
       <c r="E42" s="3">
-        <v>58400</v>
+        <v>55300</v>
       </c>
       <c r="F42" s="3">
-        <v>12500</v>
+        <v>11900</v>
       </c>
       <c r="G42" s="3">
-        <v>20900</v>
+        <v>19800</v>
       </c>
       <c r="H42" s="3">
-        <v>3100</v>
+        <v>3000</v>
       </c>
       <c r="I42" s="3">
-        <v>3600</v>
+        <v>3400</v>
       </c>
       <c r="J42" s="3">
+        <v>4100</v>
+      </c>
+      <c r="K42" s="3">
         <v>4400</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>11100</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>170500</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>210200</v>
       </c>
-      <c r="N42" s="3"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>515500</v>
+        <v>502500</v>
       </c>
       <c r="E43" s="3">
-        <v>522000</v>
+        <v>494600</v>
       </c>
       <c r="F43" s="3">
-        <v>550800</v>
+        <v>521900</v>
       </c>
       <c r="G43" s="3">
-        <v>560200</v>
+        <v>530800</v>
       </c>
       <c r="H43" s="3">
-        <v>420600</v>
+        <v>398500</v>
       </c>
       <c r="I43" s="3">
-        <v>434900</v>
+        <v>412100</v>
       </c>
       <c r="J43" s="3">
+        <v>415400</v>
+      </c>
+      <c r="K43" s="3">
         <v>438400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>411600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>412000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>428900</v>
       </c>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>51600</v>
+        <v>48900</v>
       </c>
       <c r="E44" s="3">
-        <v>52600</v>
+        <v>49900</v>
       </c>
       <c r="F44" s="3">
-        <v>56700</v>
+        <v>53700</v>
       </c>
       <c r="G44" s="3">
-        <v>54700</v>
+        <v>51800</v>
       </c>
       <c r="H44" s="3">
-        <v>49100</v>
+        <v>46500</v>
       </c>
       <c r="I44" s="3">
-        <v>47600</v>
+        <v>45100</v>
       </c>
       <c r="J44" s="3">
+        <v>34300</v>
+      </c>
+      <c r="K44" s="3">
         <v>36200</v>
-      </c>
-      <c r="K44" s="3">
-        <v>40300</v>
       </c>
       <c r="L44" s="3">
         <v>40300</v>
       </c>
       <c r="M44" s="3">
+        <v>40300</v>
+      </c>
+      <c r="N44" s="3">
         <v>34700</v>
       </c>
-      <c r="N44" s="3"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>30700</v>
+        <v>26300</v>
       </c>
       <c r="E45" s="3">
-        <v>55300</v>
+        <v>52400</v>
       </c>
       <c r="F45" s="3">
-        <v>18300</v>
+        <v>17300</v>
       </c>
       <c r="G45" s="3">
         <v>0</v>
       </c>
       <c r="H45" s="3">
-        <v>42300</v>
+        <v>40100</v>
       </c>
       <c r="I45" s="3">
-        <v>35100</v>
+        <v>33200</v>
       </c>
       <c r="J45" s="3">
+        <v>46500</v>
+      </c>
+      <c r="K45" s="3">
         <v>49100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>39900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>29500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>47000</v>
       </c>
-      <c r="N45" s="3"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>663200</v>
+        <v>628500</v>
       </c>
       <c r="E46" s="3">
-        <v>738700</v>
+        <v>700000</v>
       </c>
       <c r="F46" s="3">
-        <v>676600</v>
+        <v>641100</v>
       </c>
       <c r="G46" s="3">
-        <v>667600</v>
+        <v>632600</v>
       </c>
       <c r="H46" s="3">
-        <v>540600</v>
+        <v>512300</v>
       </c>
       <c r="I46" s="3">
-        <v>554800</v>
+        <v>525700</v>
       </c>
       <c r="J46" s="3">
+        <v>569600</v>
+      </c>
+      <c r="K46" s="3">
         <v>601100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>626400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>701700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>771400</v>
       </c>
-      <c r="N46" s="3"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>123800</v>
+        <v>117300</v>
       </c>
       <c r="E47" s="3">
-        <v>75000</v>
+        <v>71100</v>
       </c>
       <c r="F47" s="3">
-        <v>71500</v>
+        <v>67800</v>
       </c>
       <c r="G47" s="3">
-        <v>72500</v>
+        <v>68700</v>
       </c>
       <c r="H47" s="3">
-        <v>59100</v>
+        <v>56000</v>
       </c>
       <c r="I47" s="3">
-        <v>44500</v>
+        <v>42200</v>
       </c>
       <c r="J47" s="3">
+        <v>47900</v>
+      </c>
+      <c r="K47" s="3">
         <v>50500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>53400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>61300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>110600</v>
       </c>
-      <c r="N47" s="3"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1601000</v>
+        <v>1517500</v>
       </c>
       <c r="E48" s="3">
-        <v>1583800</v>
+        <v>1500700</v>
       </c>
       <c r="F48" s="3">
-        <v>1527700</v>
+        <v>1447600</v>
       </c>
       <c r="G48" s="3">
-        <v>1267400</v>
+        <v>1200900</v>
       </c>
       <c r="H48" s="3">
-        <v>1311300</v>
+        <v>1242500</v>
       </c>
       <c r="I48" s="3">
-        <v>1386300</v>
+        <v>1313600</v>
       </c>
       <c r="J48" s="3">
+        <v>1342400</v>
+      </c>
+      <c r="K48" s="3">
         <v>1416700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1596300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1660600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1876800</v>
       </c>
-      <c r="N48" s="3"/>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1597800</v>
+        <v>1514000</v>
       </c>
       <c r="E49" s="3">
-        <v>1426600</v>
+        <v>1351800</v>
       </c>
       <c r="F49" s="3">
-        <v>1217800</v>
+        <v>1154000</v>
       </c>
       <c r="G49" s="3">
-        <v>1281100</v>
+        <v>1213900</v>
       </c>
       <c r="H49" s="3">
-        <v>1262600</v>
+        <v>1196400</v>
       </c>
       <c r="I49" s="3">
-        <v>1367800</v>
+        <v>1296100</v>
       </c>
       <c r="J49" s="3">
+        <v>1297700</v>
+      </c>
+      <c r="K49" s="3">
         <v>1369500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1231300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1011000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1079100</v>
       </c>
-      <c r="N49" s="3"/>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2091,9 +2204,12 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-      <c r="N50" s="3"/>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2127,45 +2243,51 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-      <c r="N51" s="3"/>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>20100</v>
+        <v>18600</v>
       </c>
       <c r="E52" s="3">
-        <v>36600</v>
+        <v>34700</v>
       </c>
       <c r="F52" s="3">
-        <v>20900</v>
+        <v>19800</v>
       </c>
       <c r="G52" s="3">
-        <v>17500</v>
+        <v>16600</v>
       </c>
       <c r="H52" s="3">
         <v>100</v>
       </c>
       <c r="I52" s="3">
-        <v>8500</v>
+        <v>8100</v>
       </c>
       <c r="J52" s="3">
+        <v>13500</v>
+      </c>
+      <c r="K52" s="3">
         <v>14200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>17300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>3400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>5300</v>
       </c>
-      <c r="N52" s="3"/>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2199,45 +2321,51 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-      <c r="N53" s="3"/>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>4005900</v>
+        <v>3795800</v>
       </c>
       <c r="E54" s="3">
-        <v>3860700</v>
+        <v>3658200</v>
       </c>
       <c r="F54" s="3">
-        <v>3514600</v>
+        <v>3330200</v>
       </c>
       <c r="G54" s="3">
-        <v>3306100</v>
+        <v>3132700</v>
       </c>
       <c r="H54" s="3">
-        <v>3173600</v>
+        <v>3007200</v>
       </c>
       <c r="I54" s="3">
-        <v>3362000</v>
+        <v>3185700</v>
       </c>
       <c r="J54" s="3">
+        <v>3271000</v>
+      </c>
+      <c r="K54" s="3">
         <v>3452100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3524700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>3438000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>3843100</v>
       </c>
-      <c r="N54" s="3"/>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2252,8 +2380,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2268,224 +2397,243 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>406200</v>
+        <v>384900</v>
       </c>
       <c r="E57" s="3">
-        <v>424200</v>
+        <v>402000</v>
       </c>
       <c r="F57" s="3">
-        <v>443400</v>
+        <v>420200</v>
       </c>
       <c r="G57" s="3">
-        <v>501400</v>
+        <v>475100</v>
       </c>
       <c r="H57" s="3">
-        <v>387400</v>
+        <v>367100</v>
       </c>
       <c r="I57" s="3">
-        <v>390700</v>
+        <v>370200</v>
       </c>
       <c r="J57" s="3">
+        <v>379900</v>
+      </c>
+      <c r="K57" s="3">
         <v>400900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>334500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>376100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>353900</v>
       </c>
-      <c r="N57" s="3"/>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3"/>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>172800</v>
+        <v>163300</v>
       </c>
       <c r="E58" s="3">
-        <v>333900</v>
+        <v>316400</v>
       </c>
       <c r="F58" s="3">
-        <v>269700</v>
+        <v>255600</v>
       </c>
       <c r="G58" s="3">
-        <v>302800</v>
+        <v>286900</v>
       </c>
       <c r="H58" s="3">
-        <v>85200</v>
+        <v>80700</v>
       </c>
       <c r="I58" s="3">
-        <v>229800</v>
+        <v>217700</v>
       </c>
       <c r="J58" s="3">
+        <v>400000</v>
+      </c>
+      <c r="K58" s="3">
         <v>422200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>464400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>243000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>342100</v>
       </c>
-      <c r="N58" s="3"/>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3"/>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>265800</v>
+        <v>252200</v>
       </c>
       <c r="E59" s="3">
-        <v>148000</v>
+        <v>140300</v>
       </c>
       <c r="F59" s="3">
-        <v>149400</v>
+        <v>141500</v>
       </c>
       <c r="G59" s="3">
-        <v>170600</v>
+        <v>161600</v>
       </c>
       <c r="H59" s="3">
-        <v>175400</v>
+        <v>166200</v>
       </c>
       <c r="I59" s="3">
-        <v>173300</v>
+        <v>164200</v>
       </c>
       <c r="J59" s="3">
+        <v>174500</v>
+      </c>
+      <c r="K59" s="3">
         <v>184200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>193400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>144300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>197900</v>
       </c>
-      <c r="N59" s="3"/>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3"/>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>844700</v>
+        <v>800400</v>
       </c>
       <c r="E60" s="3">
-        <v>906100</v>
+        <v>858600</v>
       </c>
       <c r="F60" s="3">
-        <v>862500</v>
+        <v>817300</v>
       </c>
       <c r="G60" s="3">
-        <v>974800</v>
+        <v>923700</v>
       </c>
       <c r="H60" s="3">
-        <v>648000</v>
+        <v>614000</v>
       </c>
       <c r="I60" s="3">
-        <v>793800</v>
+        <v>752200</v>
       </c>
       <c r="J60" s="3">
+        <v>954400</v>
+      </c>
+      <c r="K60" s="3">
         <v>1007200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>992300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>763400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>893900</v>
       </c>
-      <c r="N60" s="3"/>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3"/>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>774200</v>
+        <v>733600</v>
       </c>
       <c r="E61" s="3">
-        <v>769900</v>
+        <v>729500</v>
       </c>
       <c r="F61" s="3">
-        <v>637500</v>
+        <v>604000</v>
       </c>
       <c r="G61" s="3">
-        <v>360200</v>
+        <v>341300</v>
       </c>
       <c r="H61" s="3">
-        <v>656600</v>
+        <v>622100</v>
       </c>
       <c r="I61" s="3">
-        <v>707000</v>
+        <v>669900</v>
       </c>
       <c r="J61" s="3">
+        <v>606700</v>
+      </c>
+      <c r="K61" s="3">
         <v>640300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>801500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>866500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>868300</v>
       </c>
-      <c r="N61" s="3"/>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3"/>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>405100</v>
+        <v>383800</v>
       </c>
       <c r="E62" s="3">
-        <v>303600</v>
+        <v>287700</v>
       </c>
       <c r="F62" s="3">
-        <v>206600</v>
+        <v>195800</v>
       </c>
       <c r="G62" s="3">
-        <v>212400</v>
+        <v>201300</v>
       </c>
       <c r="H62" s="3">
-        <v>210000</v>
+        <v>199000</v>
       </c>
       <c r="I62" s="3">
-        <v>198600</v>
+        <v>188200</v>
       </c>
       <c r="J62" s="3">
+        <v>233100</v>
+      </c>
+      <c r="K62" s="3">
         <v>246000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>149500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>111200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>134600</v>
       </c>
-      <c r="N62" s="3"/>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3"/>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2519,9 +2667,12 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-      <c r="N63" s="3"/>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3"/>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2555,9 +2706,12 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-      <c r="N64" s="3"/>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2591,45 +2745,51 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-      <c r="N65" s="3"/>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2138600</v>
+        <v>2026500</v>
       </c>
       <c r="E66" s="3">
-        <v>2091300</v>
+        <v>1981600</v>
       </c>
       <c r="F66" s="3">
-        <v>1807200</v>
+        <v>1712400</v>
       </c>
       <c r="G66" s="3">
-        <v>1645900</v>
+        <v>1559600</v>
       </c>
       <c r="H66" s="3">
-        <v>1608700</v>
+        <v>1524300</v>
       </c>
       <c r="I66" s="3">
-        <v>1821900</v>
+        <v>1726400</v>
       </c>
       <c r="J66" s="3">
+        <v>1915400</v>
+      </c>
+      <c r="K66" s="3">
         <v>2021500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2111700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1933100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2135000</v>
       </c>
-      <c r="N66" s="3"/>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2644,8 +2804,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2679,9 +2840,12 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-      <c r="N68" s="3"/>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2715,9 +2879,12 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-      <c r="N69" s="3"/>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2751,9 +2918,12 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-      <c r="N70" s="3"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3"/>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2787,45 +2957,51 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-      <c r="N71" s="3"/>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3"/>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1535400</v>
+        <v>1454900</v>
       </c>
       <c r="E72" s="3">
-        <v>1332200</v>
+        <v>1262300</v>
       </c>
       <c r="F72" s="3">
-        <v>1270600</v>
+        <v>1204000</v>
       </c>
       <c r="G72" s="3">
-        <v>1227800</v>
+        <v>1163400</v>
       </c>
       <c r="H72" s="3">
-        <v>1133500</v>
+        <v>1074000</v>
       </c>
       <c r="I72" s="3">
-        <v>1074400</v>
+        <v>1018000</v>
       </c>
       <c r="J72" s="3">
+        <v>913300</v>
+      </c>
+      <c r="K72" s="3">
         <v>963900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>910200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1009000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1140000</v>
       </c>
-      <c r="N72" s="3"/>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2859,9 +3035,12 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-      <c r="N73" s="3"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3"/>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2895,9 +3074,12 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-      <c r="N74" s="3"/>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2931,45 +3113,51 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-      <c r="N75" s="3"/>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1867300</v>
+        <v>1769300</v>
       </c>
       <c r="E76" s="3">
-        <v>1769400</v>
+        <v>1676600</v>
       </c>
       <c r="F76" s="3">
-        <v>1707400</v>
+        <v>1617800</v>
       </c>
       <c r="G76" s="3">
-        <v>1660200</v>
+        <v>1573100</v>
       </c>
       <c r="H76" s="3">
-        <v>1565000</v>
+        <v>1482900</v>
       </c>
       <c r="I76" s="3">
-        <v>1540100</v>
+        <v>1459300</v>
       </c>
       <c r="J76" s="3">
+        <v>1355600</v>
+      </c>
+      <c r="K76" s="3">
         <v>1430600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1413000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1504900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1708100</v>
       </c>
-      <c r="N76" s="3"/>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3003,86 +3191,95 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-      <c r="N77" s="3"/>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3"/>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43100</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42735</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42369</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42004</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41639</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41274</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>40908</v>
       </c>
-      <c r="N80" s="2"/>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2"/>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>121200</v>
+        <v>159900</v>
       </c>
       <c r="E81" s="3">
-        <v>117700</v>
+        <v>114800</v>
       </c>
       <c r="F81" s="3">
-        <v>123900</v>
+        <v>111500</v>
       </c>
       <c r="G81" s="3">
-        <v>133600</v>
+        <v>117400</v>
       </c>
       <c r="H81" s="3">
-        <v>155200</v>
+        <v>126600</v>
       </c>
       <c r="I81" s="3">
-        <v>79300</v>
+        <v>147100</v>
       </c>
       <c r="J81" s="3">
+        <v>75100</v>
+      </c>
+      <c r="K81" s="3">
         <v>81800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>75800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>119800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-26100</v>
       </c>
-      <c r="N81" s="3"/>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3"/>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3097,44 +3294,48 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>403400</v>
+        <v>401000</v>
       </c>
       <c r="E83" s="3">
-        <v>392900</v>
+        <v>382300</v>
       </c>
       <c r="F83" s="3">
-        <v>330400</v>
+        <v>372300</v>
       </c>
       <c r="G83" s="3">
-        <v>309400</v>
+        <v>313100</v>
       </c>
       <c r="H83" s="3">
-        <v>336000</v>
+        <v>293200</v>
       </c>
       <c r="I83" s="3">
-        <v>325400</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>8</v>
+        <v>318400</v>
+      </c>
+      <c r="J83" s="3">
+        <v>308400</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L83" s="3">
+      <c r="L83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M83" s="3">
         <v>347400</v>
       </c>
-      <c r="M83" s="3" t="s">
+      <c r="N83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N83" s="3"/>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3"/>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3168,9 +3369,12 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-      <c r="N84" s="3"/>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3"/>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3204,9 +3408,12 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-      <c r="N85" s="3"/>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3"/>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3240,9 +3447,12 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-      <c r="N86" s="3"/>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3"/>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3276,9 +3486,12 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-      <c r="N87" s="3"/>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3"/>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3312,45 +3525,51 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-      <c r="N88" s="3"/>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3"/>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>531800</v>
+        <v>527800</v>
       </c>
       <c r="E89" s="3">
-        <v>464400</v>
+        <v>503900</v>
       </c>
       <c r="F89" s="3">
-        <v>455000</v>
+        <v>440000</v>
       </c>
       <c r="G89" s="3">
-        <v>450100</v>
+        <v>431200</v>
       </c>
       <c r="H89" s="3">
-        <v>442800</v>
+        <v>426500</v>
       </c>
       <c r="I89" s="3">
-        <v>447000</v>
+        <v>419600</v>
       </c>
       <c r="J89" s="3">
+        <v>423600</v>
+      </c>
+      <c r="K89" s="3">
         <v>416100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>425100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>472000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>590700</v>
       </c>
-      <c r="N89" s="3"/>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3"/>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3365,44 +3584,48 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-437900</v>
+        <v>-300600</v>
       </c>
       <c r="E91" s="3">
-        <v>-279300</v>
+        <v>-414900</v>
       </c>
       <c r="F91" s="3">
-        <v>-267900</v>
+        <v>-264700</v>
       </c>
       <c r="G91" s="3">
-        <v>-259700</v>
+        <v>-253900</v>
       </c>
       <c r="H91" s="3">
-        <v>-314300</v>
+        <v>-246100</v>
       </c>
       <c r="I91" s="3">
-        <v>-277000</v>
+        <v>-297900</v>
       </c>
       <c r="J91" s="3">
+        <v>-262500</v>
+      </c>
+      <c r="K91" s="3">
         <v>-406600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-388000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-335800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-293300</v>
       </c>
-      <c r="N91" s="3"/>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3"/>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3436,9 +3659,12 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-      <c r="N92" s="3"/>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3"/>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3472,45 +3698,51 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-      <c r="N93" s="3"/>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3"/>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-423600</v>
+        <v>-274800</v>
       </c>
       <c r="E94" s="3">
-        <v>-242900</v>
+        <v>-401400</v>
       </c>
       <c r="F94" s="3">
-        <v>-237600</v>
+        <v>-230200</v>
       </c>
       <c r="G94" s="3">
-        <v>-166100</v>
+        <v>-225200</v>
       </c>
       <c r="H94" s="3">
-        <v>-255100</v>
+        <v>-157300</v>
       </c>
       <c r="I94" s="3">
-        <v>-278900</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>8</v>
+        <v>-241700</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-264300</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L94" s="3">
+      <c r="L94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M94" s="3">
         <v>-236800</v>
       </c>
-      <c r="M94" s="3" t="s">
+      <c r="N94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N94" s="3"/>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3"/>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3525,44 +3757,48 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-70100</v>
+        <v>-50900</v>
       </c>
       <c r="E96" s="3">
-        <v>-85000</v>
+        <v>-66400</v>
       </c>
       <c r="F96" s="3">
-        <v>-84500</v>
+        <v>-80600</v>
       </c>
       <c r="G96" s="3">
-        <v>-84100</v>
+        <v>-80100</v>
       </c>
       <c r="H96" s="3">
-        <v>-64900</v>
+        <v>-79700</v>
       </c>
       <c r="I96" s="3">
-        <v>-19100</v>
+        <v>-61500</v>
       </c>
       <c r="J96" s="3">
+        <v>-18100</v>
+      </c>
+      <c r="K96" s="3">
         <v>-22900</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-211300</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-214800</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-226200</v>
       </c>
-      <c r="N96" s="3"/>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3"/>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3596,9 +3832,12 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-      <c r="N97" s="3"/>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3"/>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3632,9 +3871,12 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-      <c r="N98" s="3"/>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3"/>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3668,115 +3910,127 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-      <c r="N99" s="3"/>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3"/>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-107500</v>
+        <v>-256700</v>
       </c>
       <c r="E100" s="3">
-        <v>-204300</v>
+        <v>-101900</v>
       </c>
       <c r="F100" s="3">
-        <v>-212600</v>
+        <v>-193600</v>
       </c>
       <c r="G100" s="3">
-        <v>-299500</v>
+        <v>-201400</v>
       </c>
       <c r="H100" s="3">
-        <v>-206900</v>
+        <v>-283800</v>
       </c>
       <c r="I100" s="3">
-        <v>-159500</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>8</v>
+        <v>-196000</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-151100</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L100" s="3">
+      <c r="L100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M100" s="3">
         <v>-231000</v>
       </c>
-      <c r="M100" s="3" t="s">
+      <c r="N100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N100" s="3"/>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3"/>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>3000</v>
+        <v>300</v>
       </c>
       <c r="E101" s="3">
-        <v>600</v>
+        <v>2800</v>
       </c>
       <c r="F101" s="3">
+        <v>500</v>
+      </c>
+      <c r="G101" s="3">
         <v>400</v>
       </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
       <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
         <v>-100</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-200</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L101" s="3">
+      <c r="L101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M101" s="3">
         <v>-1700</v>
       </c>
-      <c r="M101" s="3" t="s">
+      <c r="N101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N101" s="3"/>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3"/>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>3700</v>
+        <v>-3300</v>
       </c>
       <c r="E102" s="3">
-        <v>17700</v>
+        <v>3500</v>
       </c>
       <c r="F102" s="3">
-        <v>5200</v>
+        <v>16800</v>
       </c>
       <c r="G102" s="3">
-        <v>-15500</v>
+        <v>4900</v>
       </c>
       <c r="H102" s="3">
-        <v>-19300</v>
+        <v>-14700</v>
       </c>
       <c r="I102" s="3">
-        <v>8400</v>
+        <v>-18300</v>
       </c>
       <c r="J102" s="3">
-        <v>0</v>
+        <v>7900</v>
       </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>-1900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>2500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-4900</v>
       </c>
-      <c r="N102" s="3"/>
+      <c r="O102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/MYTAY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/MYTAY_YR_FIN.xlsx
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1897300</v>
+        <v>1701300</v>
       </c>
       <c r="E8" s="3">
-        <v>1824000</v>
+        <v>1635500</v>
       </c>
       <c r="F8" s="3">
-        <v>1806600</v>
+        <v>1620000</v>
       </c>
       <c r="G8" s="3">
-        <v>1780800</v>
+        <v>1596800</v>
       </c>
       <c r="H8" s="3">
-        <v>1655400</v>
+        <v>1484400</v>
       </c>
       <c r="I8" s="3">
-        <v>1555600</v>
+        <v>1394900</v>
       </c>
       <c r="J8" s="3">
-        <v>1778700</v>
+        <v>1594900</v>
       </c>
       <c r="K8" s="3">
         <v>1791600</v>
@@ -762,25 +762,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>973000</v>
+        <v>872400</v>
       </c>
       <c r="E9" s="3">
-        <v>942500</v>
+        <v>845100</v>
       </c>
       <c r="F9" s="3">
-        <v>932500</v>
+        <v>836100</v>
       </c>
       <c r="G9" s="3">
-        <v>933000</v>
+        <v>836600</v>
       </c>
       <c r="H9" s="3">
-        <v>830700</v>
+        <v>744900</v>
       </c>
       <c r="I9" s="3">
-        <v>738900</v>
+        <v>662500</v>
       </c>
       <c r="J9" s="3">
-        <v>833900</v>
+        <v>747800</v>
       </c>
       <c r="K9" s="3">
         <v>613900</v>
@@ -801,25 +801,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>924400</v>
+        <v>828900</v>
       </c>
       <c r="E10" s="3">
-        <v>881500</v>
+        <v>790400</v>
       </c>
       <c r="F10" s="3">
-        <v>874200</v>
+        <v>783800</v>
       </c>
       <c r="G10" s="3">
-        <v>847800</v>
+        <v>760200</v>
       </c>
       <c r="H10" s="3">
-        <v>824700</v>
+        <v>739500</v>
       </c>
       <c r="I10" s="3">
-        <v>816700</v>
+        <v>732400</v>
       </c>
       <c r="J10" s="3">
-        <v>944700</v>
+        <v>847100</v>
       </c>
       <c r="K10" s="3">
         <v>1177800</v>
@@ -974,25 +974,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>401000</v>
+        <v>359500</v>
       </c>
       <c r="E15" s="3">
-        <v>382300</v>
+        <v>342800</v>
       </c>
       <c r="F15" s="3">
-        <v>372300</v>
+        <v>333800</v>
       </c>
       <c r="G15" s="3">
-        <v>313100</v>
+        <v>280700</v>
       </c>
       <c r="H15" s="3">
-        <v>293200</v>
+        <v>262900</v>
       </c>
       <c r="I15" s="3">
-        <v>620000</v>
+        <v>555900</v>
       </c>
       <c r="J15" s="3">
-        <v>308400</v>
+        <v>276500</v>
       </c>
       <c r="K15" s="3">
         <v>287900</v>
@@ -1027,25 +1027,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1645800</v>
+        <v>1475800</v>
       </c>
       <c r="E17" s="3">
-        <v>1594100</v>
+        <v>1429400</v>
       </c>
       <c r="F17" s="3">
-        <v>1581200</v>
+        <v>1417800</v>
       </c>
       <c r="G17" s="3">
-        <v>1572100</v>
+        <v>1409700</v>
       </c>
       <c r="H17" s="3">
-        <v>1445400</v>
+        <v>1296100</v>
       </c>
       <c r="I17" s="3">
-        <v>1349200</v>
+        <v>1209800</v>
       </c>
       <c r="J17" s="3">
-        <v>1579500</v>
+        <v>1416300</v>
       </c>
       <c r="K17" s="3">
         <v>1561200</v>
@@ -1066,25 +1066,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>251500</v>
+        <v>225500</v>
       </c>
       <c r="E18" s="3">
-        <v>229900</v>
+        <v>206100</v>
       </c>
       <c r="F18" s="3">
-        <v>225400</v>
+        <v>202100</v>
       </c>
       <c r="G18" s="3">
-        <v>208600</v>
+        <v>187100</v>
       </c>
       <c r="H18" s="3">
-        <v>210000</v>
+        <v>188300</v>
       </c>
       <c r="I18" s="3">
-        <v>206500</v>
+        <v>185100</v>
       </c>
       <c r="J18" s="3">
-        <v>199200</v>
+        <v>178600</v>
       </c>
       <c r="K18" s="3">
         <v>230400</v>
@@ -1122,25 +1122,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-1800</v>
+        <v>-1600</v>
       </c>
       <c r="E20" s="3">
-        <v>-32000</v>
+        <v>-28700</v>
       </c>
       <c r="F20" s="3">
-        <v>-27200</v>
+        <v>-24400</v>
       </c>
       <c r="G20" s="3">
-        <v>-10800</v>
+        <v>-9700</v>
       </c>
       <c r="H20" s="3">
-        <v>-21200</v>
+        <v>-19000</v>
       </c>
       <c r="I20" s="3">
-        <v>-22700</v>
+        <v>-20300</v>
       </c>
       <c r="J20" s="3">
-        <v>-17300</v>
+        <v>-15500</v>
       </c>
       <c r="K20" s="3">
         <v>-16500</v>
@@ -1161,25 +1161,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>659600</v>
+        <v>585000</v>
       </c>
       <c r="E21" s="3">
-        <v>588600</v>
+        <v>521600</v>
       </c>
       <c r="F21" s="3">
-        <v>578800</v>
+        <v>513000</v>
       </c>
       <c r="G21" s="3">
-        <v>517800</v>
+        <v>459200</v>
       </c>
       <c r="H21" s="3">
-        <v>488500</v>
+        <v>433300</v>
       </c>
       <c r="I21" s="3">
-        <v>509200</v>
+        <v>451500</v>
       </c>
       <c r="J21" s="3">
-        <v>497100</v>
+        <v>440700</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>8</v>
@@ -1200,25 +1200,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>35300</v>
+        <v>31700</v>
       </c>
       <c r="E22" s="3">
-        <v>32800</v>
+        <v>29400</v>
       </c>
       <c r="F22" s="3">
-        <v>37900</v>
+        <v>34000</v>
       </c>
       <c r="G22" s="3">
-        <v>35800</v>
+        <v>32100</v>
       </c>
       <c r="H22" s="3">
-        <v>36500</v>
+        <v>32700</v>
       </c>
       <c r="I22" s="3">
-        <v>50300</v>
+        <v>45100</v>
       </c>
       <c r="J22" s="3">
-        <v>59000</v>
+        <v>52900</v>
       </c>
       <c r="K22" s="3">
         <v>64700</v>
@@ -1239,25 +1239,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>214400</v>
+        <v>192200</v>
       </c>
       <c r="E23" s="3">
-        <v>165100</v>
+        <v>148000</v>
       </c>
       <c r="F23" s="3">
-        <v>160300</v>
+        <v>143700</v>
       </c>
       <c r="G23" s="3">
-        <v>162000</v>
+        <v>145300</v>
       </c>
       <c r="H23" s="3">
-        <v>152300</v>
+        <v>136600</v>
       </c>
       <c r="I23" s="3">
-        <v>133500</v>
+        <v>119700</v>
       </c>
       <c r="J23" s="3">
-        <v>122900</v>
+        <v>110200</v>
       </c>
       <c r="K23" s="3">
         <v>149200</v>
@@ -1278,25 +1278,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>44100</v>
+        <v>39500</v>
       </c>
       <c r="E24" s="3">
-        <v>39600</v>
+        <v>35500</v>
       </c>
       <c r="F24" s="3">
-        <v>39700</v>
+        <v>35600</v>
       </c>
       <c r="G24" s="3">
-        <v>36100</v>
+        <v>32400</v>
       </c>
       <c r="H24" s="3">
-        <v>43200</v>
+        <v>38800</v>
       </c>
       <c r="I24" s="3">
-        <v>-13200</v>
+        <v>-11800</v>
       </c>
       <c r="J24" s="3">
-        <v>37400</v>
+        <v>33500</v>
       </c>
       <c r="K24" s="3">
         <v>57600</v>
@@ -1356,25 +1356,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>170300</v>
+        <v>152700</v>
       </c>
       <c r="E26" s="3">
-        <v>125500</v>
+        <v>112600</v>
       </c>
       <c r="F26" s="3">
-        <v>120600</v>
+        <v>108200</v>
       </c>
       <c r="G26" s="3">
-        <v>125900</v>
+        <v>112900</v>
       </c>
       <c r="H26" s="3">
-        <v>109100</v>
+        <v>97800</v>
       </c>
       <c r="I26" s="3">
-        <v>146700</v>
+        <v>131500</v>
       </c>
       <c r="J26" s="3">
-        <v>85500</v>
+        <v>76700</v>
       </c>
       <c r="K26" s="3">
         <v>91600</v>
@@ -1395,25 +1395,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>159900</v>
+        <v>143400</v>
       </c>
       <c r="E27" s="3">
-        <v>114800</v>
+        <v>102900</v>
       </c>
       <c r="F27" s="3">
-        <v>111500</v>
+        <v>100000</v>
       </c>
       <c r="G27" s="3">
-        <v>117400</v>
+        <v>105300</v>
       </c>
       <c r="H27" s="3">
-        <v>100800</v>
+        <v>90400</v>
       </c>
       <c r="I27" s="3">
-        <v>138700</v>
+        <v>124400</v>
       </c>
       <c r="J27" s="3">
-        <v>75100</v>
+        <v>67300</v>
       </c>
       <c r="K27" s="3">
         <v>81800</v>
@@ -1485,10 +1485,10 @@
         <v>0</v>
       </c>
       <c r="H29" s="3">
-        <v>25800</v>
+        <v>23100</v>
       </c>
       <c r="I29" s="3">
-        <v>8400</v>
+        <v>7500</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>8</v>
@@ -1590,25 +1590,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>1800</v>
+        <v>1600</v>
       </c>
       <c r="E32" s="3">
-        <v>32000</v>
+        <v>28700</v>
       </c>
       <c r="F32" s="3">
-        <v>27200</v>
+        <v>24400</v>
       </c>
       <c r="G32" s="3">
-        <v>10800</v>
+        <v>9700</v>
       </c>
       <c r="H32" s="3">
-        <v>21200</v>
+        <v>19000</v>
       </c>
       <c r="I32" s="3">
-        <v>22700</v>
+        <v>20300</v>
       </c>
       <c r="J32" s="3">
-        <v>17300</v>
+        <v>15500</v>
       </c>
       <c r="K32" s="3">
         <v>16500</v>
@@ -1629,25 +1629,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>159900</v>
+        <v>143400</v>
       </c>
       <c r="E33" s="3">
-        <v>114800</v>
+        <v>102900</v>
       </c>
       <c r="F33" s="3">
-        <v>111500</v>
+        <v>100000</v>
       </c>
       <c r="G33" s="3">
-        <v>117400</v>
+        <v>105300</v>
       </c>
       <c r="H33" s="3">
-        <v>126600</v>
+        <v>113500</v>
       </c>
       <c r="I33" s="3">
-        <v>147100</v>
+        <v>131900</v>
       </c>
       <c r="J33" s="3">
-        <v>75100</v>
+        <v>67300</v>
       </c>
       <c r="K33" s="3">
         <v>81800</v>
@@ -1707,25 +1707,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>159900</v>
+        <v>143400</v>
       </c>
       <c r="E35" s="3">
-        <v>114800</v>
+        <v>102900</v>
       </c>
       <c r="F35" s="3">
-        <v>111500</v>
+        <v>100000</v>
       </c>
       <c r="G35" s="3">
-        <v>117400</v>
+        <v>105300</v>
       </c>
       <c r="H35" s="3">
-        <v>126600</v>
+        <v>113500</v>
       </c>
       <c r="I35" s="3">
-        <v>147100</v>
+        <v>131900</v>
       </c>
       <c r="J35" s="3">
-        <v>75100</v>
+        <v>67300</v>
       </c>
       <c r="K35" s="3">
         <v>81800</v>
@@ -1824,25 +1824,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>47500</v>
+        <v>42600</v>
       </c>
       <c r="E41" s="3">
-        <v>47700</v>
+        <v>42800</v>
       </c>
       <c r="F41" s="3">
-        <v>36300</v>
+        <v>32600</v>
       </c>
       <c r="G41" s="3">
-        <v>30100</v>
+        <v>27000</v>
       </c>
       <c r="H41" s="3">
-        <v>24200</v>
+        <v>21700</v>
       </c>
       <c r="I41" s="3">
-        <v>31900</v>
+        <v>28600</v>
       </c>
       <c r="J41" s="3">
-        <v>69200</v>
+        <v>62100</v>
       </c>
       <c r="K41" s="3">
         <v>73000</v>
@@ -1863,25 +1863,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>3300</v>
+        <v>3000</v>
       </c>
       <c r="E42" s="3">
-        <v>55300</v>
+        <v>49600</v>
       </c>
       <c r="F42" s="3">
-        <v>11900</v>
+        <v>10600</v>
       </c>
       <c r="G42" s="3">
-        <v>19800</v>
+        <v>17800</v>
       </c>
       <c r="H42" s="3">
+        <v>2600</v>
+      </c>
+      <c r="I42" s="3">
         <v>3000</v>
       </c>
-      <c r="I42" s="3">
-        <v>3400</v>
-      </c>
       <c r="J42" s="3">
-        <v>4100</v>
+        <v>3700</v>
       </c>
       <c r="K42" s="3">
         <v>4400</v>
@@ -1902,25 +1902,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>502500</v>
+        <v>450500</v>
       </c>
       <c r="E43" s="3">
-        <v>494600</v>
+        <v>443500</v>
       </c>
       <c r="F43" s="3">
-        <v>521900</v>
+        <v>467900</v>
       </c>
       <c r="G43" s="3">
-        <v>530800</v>
+        <v>476000</v>
       </c>
       <c r="H43" s="3">
-        <v>398500</v>
+        <v>357300</v>
       </c>
       <c r="I43" s="3">
-        <v>412100</v>
+        <v>369500</v>
       </c>
       <c r="J43" s="3">
-        <v>415400</v>
+        <v>372500</v>
       </c>
       <c r="K43" s="3">
         <v>438400</v>
@@ -1941,25 +1941,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>48900</v>
+        <v>43900</v>
       </c>
       <c r="E44" s="3">
-        <v>49900</v>
+        <v>44700</v>
       </c>
       <c r="F44" s="3">
-        <v>53700</v>
+        <v>48200</v>
       </c>
       <c r="G44" s="3">
-        <v>51800</v>
+        <v>46500</v>
       </c>
       <c r="H44" s="3">
-        <v>46500</v>
+        <v>41700</v>
       </c>
       <c r="I44" s="3">
-        <v>45100</v>
+        <v>40400</v>
       </c>
       <c r="J44" s="3">
-        <v>34300</v>
+        <v>30800</v>
       </c>
       <c r="K44" s="3">
         <v>36200</v>
@@ -1980,25 +1980,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>26300</v>
+        <v>23600</v>
       </c>
       <c r="E45" s="3">
-        <v>52400</v>
+        <v>47000</v>
       </c>
       <c r="F45" s="3">
-        <v>17300</v>
+        <v>15500</v>
       </c>
       <c r="G45" s="3">
         <v>0</v>
       </c>
       <c r="H45" s="3">
-        <v>40100</v>
+        <v>35900</v>
       </c>
       <c r="I45" s="3">
-        <v>33200</v>
+        <v>29800</v>
       </c>
       <c r="J45" s="3">
-        <v>46500</v>
+        <v>41700</v>
       </c>
       <c r="K45" s="3">
         <v>49100</v>
@@ -2019,25 +2019,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>628500</v>
+        <v>563500</v>
       </c>
       <c r="E46" s="3">
-        <v>700000</v>
+        <v>627600</v>
       </c>
       <c r="F46" s="3">
-        <v>641100</v>
+        <v>574900</v>
       </c>
       <c r="G46" s="3">
-        <v>632600</v>
+        <v>567200</v>
       </c>
       <c r="H46" s="3">
-        <v>512300</v>
+        <v>459300</v>
       </c>
       <c r="I46" s="3">
-        <v>525700</v>
+        <v>471400</v>
       </c>
       <c r="J46" s="3">
-        <v>569600</v>
+        <v>510700</v>
       </c>
       <c r="K46" s="3">
         <v>601100</v>
@@ -2058,25 +2058,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>117300</v>
+        <v>65300</v>
       </c>
       <c r="E47" s="3">
-        <v>71100</v>
+        <v>63700</v>
       </c>
       <c r="F47" s="3">
-        <v>67800</v>
+        <v>60800</v>
       </c>
       <c r="G47" s="3">
-        <v>68700</v>
+        <v>61600</v>
       </c>
       <c r="H47" s="3">
-        <v>56000</v>
+        <v>50200</v>
       </c>
       <c r="I47" s="3">
-        <v>42200</v>
+        <v>37800</v>
       </c>
       <c r="J47" s="3">
-        <v>47900</v>
+        <v>42900</v>
       </c>
       <c r="K47" s="3">
         <v>50500</v>
@@ -2097,25 +2097,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1517500</v>
+        <v>1360700</v>
       </c>
       <c r="E48" s="3">
-        <v>1500700</v>
+        <v>1345700</v>
       </c>
       <c r="F48" s="3">
-        <v>1447600</v>
+        <v>1298000</v>
       </c>
       <c r="G48" s="3">
-        <v>1200900</v>
+        <v>1076800</v>
       </c>
       <c r="H48" s="3">
-        <v>1242500</v>
+        <v>1114200</v>
       </c>
       <c r="I48" s="3">
-        <v>1313600</v>
+        <v>1177900</v>
       </c>
       <c r="J48" s="3">
-        <v>1342400</v>
+        <v>1203700</v>
       </c>
       <c r="K48" s="3">
         <v>1416700</v>
@@ -2136,25 +2136,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1514000</v>
+        <v>1357500</v>
       </c>
       <c r="E49" s="3">
-        <v>1351800</v>
+        <v>1212100</v>
       </c>
       <c r="F49" s="3">
-        <v>1154000</v>
+        <v>1034700</v>
       </c>
       <c r="G49" s="3">
-        <v>1213900</v>
+        <v>1088500</v>
       </c>
       <c r="H49" s="3">
-        <v>1196400</v>
+        <v>1072700</v>
       </c>
       <c r="I49" s="3">
-        <v>1296100</v>
+        <v>1162200</v>
       </c>
       <c r="J49" s="3">
-        <v>1297700</v>
+        <v>1163600</v>
       </c>
       <c r="K49" s="3">
         <v>1369500</v>
@@ -2253,25 +2253,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>18600</v>
+        <v>56600</v>
       </c>
       <c r="E52" s="3">
-        <v>34700</v>
+        <v>31100</v>
       </c>
       <c r="F52" s="3">
-        <v>19800</v>
+        <v>17800</v>
       </c>
       <c r="G52" s="3">
-        <v>16600</v>
+        <v>14900</v>
       </c>
       <c r="H52" s="3">
         <v>100</v>
       </c>
       <c r="I52" s="3">
-        <v>8100</v>
+        <v>7300</v>
       </c>
       <c r="J52" s="3">
-        <v>13500</v>
+        <v>12100</v>
       </c>
       <c r="K52" s="3">
         <v>14200</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3795800</v>
+        <v>3403600</v>
       </c>
       <c r="E54" s="3">
-        <v>3658200</v>
+        <v>3280200</v>
       </c>
       <c r="F54" s="3">
-        <v>3330200</v>
+        <v>2986200</v>
       </c>
       <c r="G54" s="3">
-        <v>3132700</v>
+        <v>2809100</v>
       </c>
       <c r="H54" s="3">
-        <v>3007200</v>
+        <v>2696500</v>
       </c>
       <c r="I54" s="3">
-        <v>3185700</v>
+        <v>2856500</v>
       </c>
       <c r="J54" s="3">
-        <v>3271000</v>
+        <v>2933100</v>
       </c>
       <c r="K54" s="3">
         <v>3452100</v>
@@ -2404,25 +2404,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>384900</v>
+        <v>345100</v>
       </c>
       <c r="E57" s="3">
-        <v>402000</v>
+        <v>360400</v>
       </c>
       <c r="F57" s="3">
-        <v>420200</v>
+        <v>376800</v>
       </c>
       <c r="G57" s="3">
-        <v>475100</v>
+        <v>426000</v>
       </c>
       <c r="H57" s="3">
-        <v>367100</v>
+        <v>329100</v>
       </c>
       <c r="I57" s="3">
-        <v>370200</v>
+        <v>332000</v>
       </c>
       <c r="J57" s="3">
-        <v>379900</v>
+        <v>340600</v>
       </c>
       <c r="K57" s="3">
         <v>400900</v>
@@ -2443,25 +2443,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>163300</v>
+        <v>146400</v>
       </c>
       <c r="E58" s="3">
-        <v>316400</v>
+        <v>283700</v>
       </c>
       <c r="F58" s="3">
-        <v>255600</v>
+        <v>229200</v>
       </c>
       <c r="G58" s="3">
-        <v>286900</v>
+        <v>257300</v>
       </c>
       <c r="H58" s="3">
-        <v>80700</v>
+        <v>72400</v>
       </c>
       <c r="I58" s="3">
-        <v>217700</v>
+        <v>195200</v>
       </c>
       <c r="J58" s="3">
-        <v>400000</v>
+        <v>358700</v>
       </c>
       <c r="K58" s="3">
         <v>422200</v>
@@ -2482,25 +2482,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>252200</v>
+        <v>226200</v>
       </c>
       <c r="E59" s="3">
-        <v>140300</v>
+        <v>125800</v>
       </c>
       <c r="F59" s="3">
-        <v>141500</v>
+        <v>126900</v>
       </c>
       <c r="G59" s="3">
-        <v>161600</v>
+        <v>144900</v>
       </c>
       <c r="H59" s="3">
-        <v>166200</v>
+        <v>149100</v>
       </c>
       <c r="I59" s="3">
-        <v>164200</v>
+        <v>147300</v>
       </c>
       <c r="J59" s="3">
-        <v>174500</v>
+        <v>156500</v>
       </c>
       <c r="K59" s="3">
         <v>184200</v>
@@ -2521,25 +2521,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>800400</v>
+        <v>717700</v>
       </c>
       <c r="E60" s="3">
-        <v>858600</v>
+        <v>769900</v>
       </c>
       <c r="F60" s="3">
-        <v>817300</v>
+        <v>732800</v>
       </c>
       <c r="G60" s="3">
-        <v>923700</v>
+        <v>828200</v>
       </c>
       <c r="H60" s="3">
-        <v>614000</v>
+        <v>550600</v>
       </c>
       <c r="I60" s="3">
-        <v>752200</v>
+        <v>674500</v>
       </c>
       <c r="J60" s="3">
-        <v>954400</v>
+        <v>855800</v>
       </c>
       <c r="K60" s="3">
         <v>1007200</v>
@@ -2560,25 +2560,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>733600</v>
+        <v>657800</v>
       </c>
       <c r="E61" s="3">
-        <v>729500</v>
+        <v>654100</v>
       </c>
       <c r="F61" s="3">
-        <v>604000</v>
+        <v>541600</v>
       </c>
       <c r="G61" s="3">
-        <v>341300</v>
+        <v>306100</v>
       </c>
       <c r="H61" s="3">
-        <v>622100</v>
+        <v>557900</v>
       </c>
       <c r="I61" s="3">
-        <v>669900</v>
+        <v>600700</v>
       </c>
       <c r="J61" s="3">
-        <v>606700</v>
+        <v>544000</v>
       </c>
       <c r="K61" s="3">
         <v>640300</v>
@@ -2599,25 +2599,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>383800</v>
+        <v>344200</v>
       </c>
       <c r="E62" s="3">
-        <v>287700</v>
+        <v>258000</v>
       </c>
       <c r="F62" s="3">
-        <v>195800</v>
+        <v>175600</v>
       </c>
       <c r="G62" s="3">
-        <v>201300</v>
+        <v>180500</v>
       </c>
       <c r="H62" s="3">
-        <v>199000</v>
+        <v>178400</v>
       </c>
       <c r="I62" s="3">
-        <v>188200</v>
+        <v>168700</v>
       </c>
       <c r="J62" s="3">
-        <v>233100</v>
+        <v>209000</v>
       </c>
       <c r="K62" s="3">
         <v>246000</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2026500</v>
+        <v>1817100</v>
       </c>
       <c r="E66" s="3">
-        <v>1981600</v>
+        <v>1776800</v>
       </c>
       <c r="F66" s="3">
-        <v>1712400</v>
+        <v>1535500</v>
       </c>
       <c r="G66" s="3">
-        <v>1559600</v>
+        <v>1398500</v>
       </c>
       <c r="H66" s="3">
-        <v>1524300</v>
+        <v>1366800</v>
       </c>
       <c r="I66" s="3">
-        <v>1726400</v>
+        <v>1548000</v>
       </c>
       <c r="J66" s="3">
-        <v>1915400</v>
+        <v>1717500</v>
       </c>
       <c r="K66" s="3">
         <v>2021500</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1454900</v>
+        <v>1238000</v>
       </c>
       <c r="E72" s="3">
-        <v>1262300</v>
+        <v>1131900</v>
       </c>
       <c r="F72" s="3">
-        <v>1204000</v>
+        <v>1079600</v>
       </c>
       <c r="G72" s="3">
-        <v>1163400</v>
+        <v>1043200</v>
       </c>
       <c r="H72" s="3">
-        <v>1074000</v>
+        <v>963100</v>
       </c>
       <c r="I72" s="3">
-        <v>1018000</v>
+        <v>912900</v>
       </c>
       <c r="J72" s="3">
-        <v>913300</v>
+        <v>818900</v>
       </c>
       <c r="K72" s="3">
         <v>963900</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1769300</v>
+        <v>1586500</v>
       </c>
       <c r="E76" s="3">
-        <v>1676600</v>
+        <v>1503400</v>
       </c>
       <c r="F76" s="3">
-        <v>1617800</v>
+        <v>1450700</v>
       </c>
       <c r="G76" s="3">
-        <v>1573100</v>
+        <v>1410600</v>
       </c>
       <c r="H76" s="3">
-        <v>1482900</v>
+        <v>1329700</v>
       </c>
       <c r="I76" s="3">
-        <v>1459300</v>
+        <v>1308500</v>
       </c>
       <c r="J76" s="3">
-        <v>1355600</v>
+        <v>1215500</v>
       </c>
       <c r="K76" s="3">
         <v>1430600</v>
@@ -3245,25 +3245,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>159900</v>
+        <v>143400</v>
       </c>
       <c r="E81" s="3">
-        <v>114800</v>
+        <v>102900</v>
       </c>
       <c r="F81" s="3">
-        <v>111500</v>
+        <v>100000</v>
       </c>
       <c r="G81" s="3">
-        <v>117400</v>
+        <v>105300</v>
       </c>
       <c r="H81" s="3">
-        <v>126600</v>
+        <v>113500</v>
       </c>
       <c r="I81" s="3">
-        <v>147100</v>
+        <v>131900</v>
       </c>
       <c r="J81" s="3">
-        <v>75100</v>
+        <v>67300</v>
       </c>
       <c r="K81" s="3">
         <v>81800</v>
@@ -3301,25 +3301,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>401000</v>
+        <v>359500</v>
       </c>
       <c r="E83" s="3">
-        <v>382300</v>
+        <v>342800</v>
       </c>
       <c r="F83" s="3">
-        <v>372300</v>
+        <v>333800</v>
       </c>
       <c r="G83" s="3">
-        <v>313100</v>
+        <v>280700</v>
       </c>
       <c r="H83" s="3">
-        <v>293200</v>
+        <v>262900</v>
       </c>
       <c r="I83" s="3">
-        <v>318400</v>
+        <v>285500</v>
       </c>
       <c r="J83" s="3">
-        <v>308400</v>
+        <v>276500</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>8</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>527800</v>
+        <v>473300</v>
       </c>
       <c r="E89" s="3">
-        <v>503900</v>
+        <v>451900</v>
       </c>
       <c r="F89" s="3">
-        <v>440000</v>
+        <v>394600</v>
       </c>
       <c r="G89" s="3">
-        <v>431200</v>
+        <v>386600</v>
       </c>
       <c r="H89" s="3">
-        <v>426500</v>
+        <v>382500</v>
       </c>
       <c r="I89" s="3">
-        <v>419600</v>
+        <v>376200</v>
       </c>
       <c r="J89" s="3">
-        <v>423600</v>
+        <v>379800</v>
       </c>
       <c r="K89" s="3">
         <v>416100</v>
@@ -3591,25 +3591,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-300600</v>
+        <v>-269500</v>
       </c>
       <c r="E91" s="3">
-        <v>-414900</v>
+        <v>-372100</v>
       </c>
       <c r="F91" s="3">
-        <v>-264700</v>
+        <v>-237300</v>
       </c>
       <c r="G91" s="3">
-        <v>-253900</v>
+        <v>-227700</v>
       </c>
       <c r="H91" s="3">
-        <v>-246100</v>
+        <v>-220600</v>
       </c>
       <c r="I91" s="3">
-        <v>-297900</v>
+        <v>-267100</v>
       </c>
       <c r="J91" s="3">
-        <v>-262500</v>
+        <v>-235400</v>
       </c>
       <c r="K91" s="3">
         <v>-406600</v>
@@ -3708,25 +3708,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-274800</v>
+        <v>-246400</v>
       </c>
       <c r="E94" s="3">
-        <v>-401400</v>
+        <v>-359900</v>
       </c>
       <c r="F94" s="3">
-        <v>-230200</v>
+        <v>-206400</v>
       </c>
       <c r="G94" s="3">
-        <v>-225200</v>
+        <v>-201900</v>
       </c>
       <c r="H94" s="3">
-        <v>-157300</v>
+        <v>-141100</v>
       </c>
       <c r="I94" s="3">
-        <v>-241700</v>
+        <v>-216800</v>
       </c>
       <c r="J94" s="3">
-        <v>-264300</v>
+        <v>-237000</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>8</v>
@@ -3764,25 +3764,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-50900</v>
+        <v>-45700</v>
       </c>
       <c r="E96" s="3">
-        <v>-66400</v>
+        <v>-59600</v>
       </c>
       <c r="F96" s="3">
-        <v>-80600</v>
+        <v>-72200</v>
       </c>
       <c r="G96" s="3">
-        <v>-80100</v>
+        <v>-71800</v>
       </c>
       <c r="H96" s="3">
-        <v>-79700</v>
+        <v>-71400</v>
       </c>
       <c r="I96" s="3">
-        <v>-61500</v>
+        <v>-55100</v>
       </c>
       <c r="J96" s="3">
-        <v>-18100</v>
+        <v>-16300</v>
       </c>
       <c r="K96" s="3">
         <v>-22900</v>
@@ -3920,25 +3920,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-256700</v>
+        <v>-230200</v>
       </c>
       <c r="E100" s="3">
-        <v>-101900</v>
+        <v>-91400</v>
       </c>
       <c r="F100" s="3">
-        <v>-193600</v>
+        <v>-173600</v>
       </c>
       <c r="G100" s="3">
-        <v>-201400</v>
+        <v>-180600</v>
       </c>
       <c r="H100" s="3">
-        <v>-283800</v>
+        <v>-254500</v>
       </c>
       <c r="I100" s="3">
-        <v>-196000</v>
+        <v>-175800</v>
       </c>
       <c r="J100" s="3">
-        <v>-151100</v>
+        <v>-135500</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>8</v>
@@ -3962,13 +3962,13 @@
         <v>300</v>
       </c>
       <c r="E101" s="3">
-        <v>2800</v>
+        <v>2500</v>
       </c>
       <c r="F101" s="3">
         <v>500</v>
       </c>
       <c r="G101" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="H101" s="3">
         <v>0</v>
@@ -3998,25 +3998,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-3300</v>
+        <v>-3000</v>
       </c>
       <c r="E102" s="3">
-        <v>3500</v>
+        <v>3100</v>
       </c>
       <c r="F102" s="3">
-        <v>16800</v>
+        <v>15100</v>
       </c>
       <c r="G102" s="3">
-        <v>4900</v>
+        <v>4400</v>
       </c>
       <c r="H102" s="3">
-        <v>-14700</v>
+        <v>-13100</v>
       </c>
       <c r="I102" s="3">
-        <v>-18300</v>
+        <v>-16400</v>
       </c>
       <c r="J102" s="3">
-        <v>7900</v>
+        <v>7100</v>
       </c>
       <c r="K102" s="3">
         <v>0</v>

--- a/AAII_Financials/Yearly/MYTAY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/MYTAY_YR_FIN.xlsx
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1701300</v>
+        <v>1785300</v>
       </c>
       <c r="E8" s="3">
-        <v>1635500</v>
+        <v>1716300</v>
       </c>
       <c r="F8" s="3">
-        <v>1620000</v>
+        <v>1700000</v>
       </c>
       <c r="G8" s="3">
-        <v>1596800</v>
+        <v>1675600</v>
       </c>
       <c r="H8" s="3">
-        <v>1484400</v>
+        <v>1557700</v>
       </c>
       <c r="I8" s="3">
-        <v>1394900</v>
+        <v>1463800</v>
       </c>
       <c r="J8" s="3">
-        <v>1594900</v>
+        <v>1673700</v>
       </c>
       <c r="K8" s="3">
         <v>1791600</v>
@@ -762,25 +762,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>872400</v>
+        <v>915500</v>
       </c>
       <c r="E9" s="3">
-        <v>845100</v>
+        <v>886900</v>
       </c>
       <c r="F9" s="3">
-        <v>836100</v>
+        <v>877400</v>
       </c>
       <c r="G9" s="3">
-        <v>836600</v>
+        <v>877900</v>
       </c>
       <c r="H9" s="3">
-        <v>744900</v>
+        <v>781700</v>
       </c>
       <c r="I9" s="3">
-        <v>662500</v>
+        <v>695300</v>
       </c>
       <c r="J9" s="3">
-        <v>747800</v>
+        <v>784700</v>
       </c>
       <c r="K9" s="3">
         <v>613900</v>
@@ -801,25 +801,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>828900</v>
+        <v>869800</v>
       </c>
       <c r="E10" s="3">
-        <v>790400</v>
+        <v>829400</v>
       </c>
       <c r="F10" s="3">
-        <v>783800</v>
+        <v>822600</v>
       </c>
       <c r="G10" s="3">
-        <v>760200</v>
+        <v>797700</v>
       </c>
       <c r="H10" s="3">
-        <v>739500</v>
+        <v>776000</v>
       </c>
       <c r="I10" s="3">
-        <v>732400</v>
+        <v>768500</v>
       </c>
       <c r="J10" s="3">
-        <v>847100</v>
+        <v>889000</v>
       </c>
       <c r="K10" s="3">
         <v>1177800</v>
@@ -974,25 +974,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>359500</v>
+        <v>377300</v>
       </c>
       <c r="E15" s="3">
-        <v>342800</v>
+        <v>359700</v>
       </c>
       <c r="F15" s="3">
-        <v>333800</v>
+        <v>350300</v>
       </c>
       <c r="G15" s="3">
-        <v>280700</v>
+        <v>294600</v>
       </c>
       <c r="H15" s="3">
-        <v>262900</v>
+        <v>275800</v>
       </c>
       <c r="I15" s="3">
-        <v>555900</v>
+        <v>583400</v>
       </c>
       <c r="J15" s="3">
-        <v>276500</v>
+        <v>290100</v>
       </c>
       <c r="K15" s="3">
         <v>287900</v>
@@ -1027,25 +1027,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1475800</v>
+        <v>1548600</v>
       </c>
       <c r="E17" s="3">
-        <v>1429400</v>
+        <v>1500000</v>
       </c>
       <c r="F17" s="3">
-        <v>1417800</v>
+        <v>1487900</v>
       </c>
       <c r="G17" s="3">
-        <v>1409700</v>
+        <v>1479300</v>
       </c>
       <c r="H17" s="3">
-        <v>1296100</v>
+        <v>1360100</v>
       </c>
       <c r="I17" s="3">
-        <v>1209800</v>
+        <v>1269500</v>
       </c>
       <c r="J17" s="3">
-        <v>1416300</v>
+        <v>1486200</v>
       </c>
       <c r="K17" s="3">
         <v>1561200</v>
@@ -1066,25 +1066,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>225500</v>
+        <v>236700</v>
       </c>
       <c r="E18" s="3">
-        <v>206100</v>
+        <v>216300</v>
       </c>
       <c r="F18" s="3">
-        <v>202100</v>
+        <v>212100</v>
       </c>
       <c r="G18" s="3">
-        <v>187100</v>
+        <v>196300</v>
       </c>
       <c r="H18" s="3">
-        <v>188300</v>
+        <v>197600</v>
       </c>
       <c r="I18" s="3">
-        <v>185100</v>
+        <v>194300</v>
       </c>
       <c r="J18" s="3">
-        <v>178600</v>
+        <v>187500</v>
       </c>
       <c r="K18" s="3">
         <v>230400</v>
@@ -1122,25 +1122,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-1600</v>
+        <v>-1700</v>
       </c>
       <c r="E20" s="3">
-        <v>-28700</v>
+        <v>-30100</v>
       </c>
       <c r="F20" s="3">
-        <v>-24400</v>
+        <v>-25600</v>
       </c>
       <c r="G20" s="3">
-        <v>-9700</v>
+        <v>-10200</v>
       </c>
       <c r="H20" s="3">
-        <v>-19000</v>
+        <v>-19900</v>
       </c>
       <c r="I20" s="3">
-        <v>-20300</v>
+        <v>-21300</v>
       </c>
       <c r="J20" s="3">
-        <v>-15500</v>
+        <v>-16300</v>
       </c>
       <c r="K20" s="3">
         <v>-16500</v>
@@ -1161,25 +1161,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>585000</v>
+        <v>603400</v>
       </c>
       <c r="E21" s="3">
-        <v>521600</v>
+        <v>537400</v>
       </c>
       <c r="F21" s="3">
-        <v>513000</v>
+        <v>528600</v>
       </c>
       <c r="G21" s="3">
-        <v>459200</v>
+        <v>473800</v>
       </c>
       <c r="H21" s="3">
-        <v>433300</v>
+        <v>447000</v>
       </c>
       <c r="I21" s="3">
-        <v>451500</v>
+        <v>465500</v>
       </c>
       <c r="J21" s="3">
-        <v>440700</v>
+        <v>454500</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>8</v>
@@ -1200,25 +1200,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>31700</v>
+        <v>33200</v>
       </c>
       <c r="E22" s="3">
-        <v>29400</v>
+        <v>30900</v>
       </c>
       <c r="F22" s="3">
-        <v>34000</v>
+        <v>35700</v>
       </c>
       <c r="G22" s="3">
-        <v>32100</v>
+        <v>33700</v>
       </c>
       <c r="H22" s="3">
-        <v>32700</v>
+        <v>34400</v>
       </c>
       <c r="I22" s="3">
-        <v>45100</v>
+        <v>47300</v>
       </c>
       <c r="J22" s="3">
-        <v>52900</v>
+        <v>55500</v>
       </c>
       <c r="K22" s="3">
         <v>64700</v>
@@ -1239,25 +1239,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>192200</v>
+        <v>201700</v>
       </c>
       <c r="E23" s="3">
-        <v>148000</v>
+        <v>155300</v>
       </c>
       <c r="F23" s="3">
-        <v>143700</v>
+        <v>150800</v>
       </c>
       <c r="G23" s="3">
-        <v>145300</v>
+        <v>152400</v>
       </c>
       <c r="H23" s="3">
-        <v>136600</v>
+        <v>143300</v>
       </c>
       <c r="I23" s="3">
-        <v>119700</v>
+        <v>125600</v>
       </c>
       <c r="J23" s="3">
-        <v>110200</v>
+        <v>115600</v>
       </c>
       <c r="K23" s="3">
         <v>149200</v>
@@ -1278,25 +1278,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>39500</v>
+        <v>41500</v>
       </c>
       <c r="E24" s="3">
-        <v>35500</v>
+        <v>37200</v>
       </c>
       <c r="F24" s="3">
-        <v>35600</v>
+        <v>37300</v>
       </c>
       <c r="G24" s="3">
-        <v>32400</v>
+        <v>34000</v>
       </c>
       <c r="H24" s="3">
-        <v>38800</v>
+        <v>40700</v>
       </c>
       <c r="I24" s="3">
-        <v>-11800</v>
+        <v>-12400</v>
       </c>
       <c r="J24" s="3">
-        <v>33500</v>
+        <v>35200</v>
       </c>
       <c r="K24" s="3">
         <v>57600</v>
@@ -1356,25 +1356,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>152700</v>
+        <v>160300</v>
       </c>
       <c r="E26" s="3">
-        <v>112600</v>
+        <v>118100</v>
       </c>
       <c r="F26" s="3">
-        <v>108200</v>
+        <v>113500</v>
       </c>
       <c r="G26" s="3">
-        <v>112900</v>
+        <v>118400</v>
       </c>
       <c r="H26" s="3">
-        <v>97800</v>
+        <v>102600</v>
       </c>
       <c r="I26" s="3">
-        <v>131500</v>
+        <v>138000</v>
       </c>
       <c r="J26" s="3">
-        <v>76700</v>
+        <v>80400</v>
       </c>
       <c r="K26" s="3">
         <v>91600</v>
@@ -1395,25 +1395,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>143400</v>
+        <v>150400</v>
       </c>
       <c r="E27" s="3">
-        <v>102900</v>
+        <v>108000</v>
       </c>
       <c r="F27" s="3">
-        <v>100000</v>
+        <v>105000</v>
       </c>
       <c r="G27" s="3">
-        <v>105300</v>
+        <v>110500</v>
       </c>
       <c r="H27" s="3">
-        <v>90400</v>
+        <v>94900</v>
       </c>
       <c r="I27" s="3">
-        <v>124400</v>
+        <v>130500</v>
       </c>
       <c r="J27" s="3">
-        <v>67300</v>
+        <v>70700</v>
       </c>
       <c r="K27" s="3">
         <v>81800</v>
@@ -1485,10 +1485,10 @@
         <v>0</v>
       </c>
       <c r="H29" s="3">
-        <v>23100</v>
+        <v>24300</v>
       </c>
       <c r="I29" s="3">
-        <v>7500</v>
+        <v>7900</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>8</v>
@@ -1590,25 +1590,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="E32" s="3">
-        <v>28700</v>
+        <v>30100</v>
       </c>
       <c r="F32" s="3">
-        <v>24400</v>
+        <v>25600</v>
       </c>
       <c r="G32" s="3">
-        <v>9700</v>
+        <v>10200</v>
       </c>
       <c r="H32" s="3">
-        <v>19000</v>
+        <v>19900</v>
       </c>
       <c r="I32" s="3">
-        <v>20300</v>
+        <v>21300</v>
       </c>
       <c r="J32" s="3">
-        <v>15500</v>
+        <v>16300</v>
       </c>
       <c r="K32" s="3">
         <v>16500</v>
@@ -1629,25 +1629,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>143400</v>
+        <v>150400</v>
       </c>
       <c r="E33" s="3">
-        <v>102900</v>
+        <v>108000</v>
       </c>
       <c r="F33" s="3">
-        <v>100000</v>
+        <v>105000</v>
       </c>
       <c r="G33" s="3">
-        <v>105300</v>
+        <v>110500</v>
       </c>
       <c r="H33" s="3">
-        <v>113500</v>
+        <v>119200</v>
       </c>
       <c r="I33" s="3">
-        <v>131900</v>
+        <v>138400</v>
       </c>
       <c r="J33" s="3">
-        <v>67300</v>
+        <v>70700</v>
       </c>
       <c r="K33" s="3">
         <v>81800</v>
@@ -1707,25 +1707,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>143400</v>
+        <v>150400</v>
       </c>
       <c r="E35" s="3">
-        <v>102900</v>
+        <v>108000</v>
       </c>
       <c r="F35" s="3">
-        <v>100000</v>
+        <v>105000</v>
       </c>
       <c r="G35" s="3">
-        <v>105300</v>
+        <v>110500</v>
       </c>
       <c r="H35" s="3">
-        <v>113500</v>
+        <v>119200</v>
       </c>
       <c r="I35" s="3">
-        <v>131900</v>
+        <v>138400</v>
       </c>
       <c r="J35" s="3">
-        <v>67300</v>
+        <v>70700</v>
       </c>
       <c r="K35" s="3">
         <v>81800</v>
@@ -1824,25 +1824,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>42600</v>
+        <v>44700</v>
       </c>
       <c r="E41" s="3">
-        <v>42800</v>
+        <v>44900</v>
       </c>
       <c r="F41" s="3">
-        <v>32600</v>
+        <v>34200</v>
       </c>
       <c r="G41" s="3">
-        <v>27000</v>
+        <v>28400</v>
       </c>
       <c r="H41" s="3">
-        <v>21700</v>
+        <v>22800</v>
       </c>
       <c r="I41" s="3">
-        <v>28600</v>
+        <v>30000</v>
       </c>
       <c r="J41" s="3">
-        <v>62100</v>
+        <v>65100</v>
       </c>
       <c r="K41" s="3">
         <v>73000</v>
@@ -1863,25 +1863,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>3000</v>
+        <v>3100</v>
       </c>
       <c r="E42" s="3">
-        <v>49600</v>
+        <v>52000</v>
       </c>
       <c r="F42" s="3">
-        <v>10600</v>
+        <v>11200</v>
       </c>
       <c r="G42" s="3">
-        <v>17800</v>
+        <v>18600</v>
       </c>
       <c r="H42" s="3">
-        <v>2600</v>
+        <v>2800</v>
       </c>
       <c r="I42" s="3">
-        <v>3000</v>
+        <v>3200</v>
       </c>
       <c r="J42" s="3">
-        <v>3700</v>
+        <v>3900</v>
       </c>
       <c r="K42" s="3">
         <v>4400</v>
@@ -1902,25 +1902,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>450500</v>
+        <v>472800</v>
       </c>
       <c r="E43" s="3">
-        <v>443500</v>
+        <v>465400</v>
       </c>
       <c r="F43" s="3">
-        <v>467900</v>
+        <v>491100</v>
       </c>
       <c r="G43" s="3">
-        <v>476000</v>
+        <v>499500</v>
       </c>
       <c r="H43" s="3">
-        <v>357300</v>
+        <v>375000</v>
       </c>
       <c r="I43" s="3">
-        <v>369500</v>
+        <v>387800</v>
       </c>
       <c r="J43" s="3">
-        <v>372500</v>
+        <v>390800</v>
       </c>
       <c r="K43" s="3">
         <v>438400</v>
@@ -1941,25 +1941,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>43900</v>
+        <v>46000</v>
       </c>
       <c r="E44" s="3">
-        <v>44700</v>
+        <v>46900</v>
       </c>
       <c r="F44" s="3">
-        <v>48200</v>
+        <v>50600</v>
       </c>
       <c r="G44" s="3">
-        <v>46500</v>
+        <v>48800</v>
       </c>
       <c r="H44" s="3">
-        <v>41700</v>
+        <v>43800</v>
       </c>
       <c r="I44" s="3">
-        <v>40400</v>
+        <v>42400</v>
       </c>
       <c r="J44" s="3">
-        <v>30800</v>
+        <v>32300</v>
       </c>
       <c r="K44" s="3">
         <v>36200</v>
@@ -1980,25 +1980,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>23600</v>
+        <v>24700</v>
       </c>
       <c r="E45" s="3">
-        <v>47000</v>
+        <v>49300</v>
       </c>
       <c r="F45" s="3">
-        <v>15500</v>
+        <v>16300</v>
       </c>
       <c r="G45" s="3">
         <v>0</v>
       </c>
       <c r="H45" s="3">
-        <v>35900</v>
+        <v>37700</v>
       </c>
       <c r="I45" s="3">
-        <v>29800</v>
+        <v>31300</v>
       </c>
       <c r="J45" s="3">
-        <v>41700</v>
+        <v>43800</v>
       </c>
       <c r="K45" s="3">
         <v>49100</v>
@@ -2019,25 +2019,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>563500</v>
+        <v>591400</v>
       </c>
       <c r="E46" s="3">
-        <v>627600</v>
+        <v>658600</v>
       </c>
       <c r="F46" s="3">
-        <v>574900</v>
+        <v>603200</v>
       </c>
       <c r="G46" s="3">
-        <v>567200</v>
+        <v>595200</v>
       </c>
       <c r="H46" s="3">
-        <v>459300</v>
+        <v>482000</v>
       </c>
       <c r="I46" s="3">
-        <v>471400</v>
+        <v>494600</v>
       </c>
       <c r="J46" s="3">
-        <v>510700</v>
+        <v>536000</v>
       </c>
       <c r="K46" s="3">
         <v>601100</v>
@@ -2058,25 +2058,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>65300</v>
+        <v>68500</v>
       </c>
       <c r="E47" s="3">
-        <v>63700</v>
+        <v>66900</v>
       </c>
       <c r="F47" s="3">
-        <v>60800</v>
+        <v>63800</v>
       </c>
       <c r="G47" s="3">
-        <v>61600</v>
+        <v>64600</v>
       </c>
       <c r="H47" s="3">
-        <v>50200</v>
+        <v>52600</v>
       </c>
       <c r="I47" s="3">
-        <v>37800</v>
+        <v>39700</v>
       </c>
       <c r="J47" s="3">
-        <v>42900</v>
+        <v>45100</v>
       </c>
       <c r="K47" s="3">
         <v>50500</v>
@@ -2097,25 +2097,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1360700</v>
+        <v>1427900</v>
       </c>
       <c r="E48" s="3">
-        <v>1345700</v>
+        <v>1412100</v>
       </c>
       <c r="F48" s="3">
-        <v>1298000</v>
+        <v>1362100</v>
       </c>
       <c r="G48" s="3">
-        <v>1076800</v>
+        <v>1130000</v>
       </c>
       <c r="H48" s="3">
-        <v>1114200</v>
+        <v>1169200</v>
       </c>
       <c r="I48" s="3">
-        <v>1177900</v>
+        <v>1236100</v>
       </c>
       <c r="J48" s="3">
-        <v>1203700</v>
+        <v>1263200</v>
       </c>
       <c r="K48" s="3">
         <v>1416700</v>
@@ -2136,25 +2136,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1357500</v>
+        <v>1424600</v>
       </c>
       <c r="E49" s="3">
-        <v>1212100</v>
+        <v>1272000</v>
       </c>
       <c r="F49" s="3">
-        <v>1034700</v>
+        <v>1085800</v>
       </c>
       <c r="G49" s="3">
-        <v>1088500</v>
+        <v>1142300</v>
       </c>
       <c r="H49" s="3">
-        <v>1072700</v>
+        <v>1125700</v>
       </c>
       <c r="I49" s="3">
-        <v>1162200</v>
+        <v>1219600</v>
       </c>
       <c r="J49" s="3">
-        <v>1163600</v>
+        <v>1221100</v>
       </c>
       <c r="K49" s="3">
         <v>1369500</v>
@@ -2253,25 +2253,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>56600</v>
+        <v>59400</v>
       </c>
       <c r="E52" s="3">
-        <v>31100</v>
+        <v>32600</v>
       </c>
       <c r="F52" s="3">
-        <v>17800</v>
+        <v>18600</v>
       </c>
       <c r="G52" s="3">
-        <v>14900</v>
+        <v>15600</v>
       </c>
       <c r="H52" s="3">
         <v>100</v>
       </c>
       <c r="I52" s="3">
-        <v>7300</v>
+        <v>7600</v>
       </c>
       <c r="J52" s="3">
-        <v>12100</v>
+        <v>12700</v>
       </c>
       <c r="K52" s="3">
         <v>14200</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3403600</v>
+        <v>3571700</v>
       </c>
       <c r="E54" s="3">
-        <v>3280200</v>
+        <v>3442200</v>
       </c>
       <c r="F54" s="3">
-        <v>2986200</v>
+        <v>3133600</v>
       </c>
       <c r="G54" s="3">
-        <v>2809100</v>
+        <v>2947800</v>
       </c>
       <c r="H54" s="3">
-        <v>2696500</v>
+        <v>2829600</v>
       </c>
       <c r="I54" s="3">
-        <v>2856500</v>
+        <v>2997600</v>
       </c>
       <c r="J54" s="3">
-        <v>2933100</v>
+        <v>3077900</v>
       </c>
       <c r="K54" s="3">
         <v>3452100</v>
@@ -2404,25 +2404,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>345100</v>
+        <v>362200</v>
       </c>
       <c r="E57" s="3">
-        <v>360400</v>
+        <v>378200</v>
       </c>
       <c r="F57" s="3">
-        <v>376800</v>
+        <v>395400</v>
       </c>
       <c r="G57" s="3">
-        <v>426000</v>
+        <v>447000</v>
       </c>
       <c r="H57" s="3">
-        <v>329100</v>
+        <v>345400</v>
       </c>
       <c r="I57" s="3">
-        <v>332000</v>
+        <v>348400</v>
       </c>
       <c r="J57" s="3">
-        <v>340600</v>
+        <v>357500</v>
       </c>
       <c r="K57" s="3">
         <v>400900</v>
@@ -2443,25 +2443,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>146400</v>
+        <v>153700</v>
       </c>
       <c r="E58" s="3">
-        <v>283700</v>
+        <v>297700</v>
       </c>
       <c r="F58" s="3">
-        <v>229200</v>
+        <v>240500</v>
       </c>
       <c r="G58" s="3">
-        <v>257300</v>
+        <v>270000</v>
       </c>
       <c r="H58" s="3">
-        <v>72400</v>
+        <v>76000</v>
       </c>
       <c r="I58" s="3">
-        <v>195200</v>
+        <v>204900</v>
       </c>
       <c r="J58" s="3">
-        <v>358700</v>
+        <v>376400</v>
       </c>
       <c r="K58" s="3">
         <v>422200</v>
@@ -2482,25 +2482,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>226200</v>
+        <v>237300</v>
       </c>
       <c r="E59" s="3">
-        <v>125800</v>
+        <v>132000</v>
       </c>
       <c r="F59" s="3">
-        <v>126900</v>
+        <v>133200</v>
       </c>
       <c r="G59" s="3">
-        <v>144900</v>
+        <v>152100</v>
       </c>
       <c r="H59" s="3">
-        <v>149100</v>
+        <v>156400</v>
       </c>
       <c r="I59" s="3">
-        <v>147300</v>
+        <v>154500</v>
       </c>
       <c r="J59" s="3">
-        <v>156500</v>
+        <v>164200</v>
       </c>
       <c r="K59" s="3">
         <v>184200</v>
@@ -2521,25 +2521,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>717700</v>
+        <v>753200</v>
       </c>
       <c r="E60" s="3">
-        <v>769900</v>
+        <v>807900</v>
       </c>
       <c r="F60" s="3">
-        <v>732800</v>
+        <v>769000</v>
       </c>
       <c r="G60" s="3">
-        <v>828200</v>
+        <v>869100</v>
       </c>
       <c r="H60" s="3">
-        <v>550600</v>
+        <v>577800</v>
       </c>
       <c r="I60" s="3">
-        <v>674500</v>
+        <v>707800</v>
       </c>
       <c r="J60" s="3">
-        <v>855800</v>
+        <v>898100</v>
       </c>
       <c r="K60" s="3">
         <v>1007200</v>
@@ -2560,25 +2560,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>657800</v>
+        <v>690300</v>
       </c>
       <c r="E61" s="3">
-        <v>654100</v>
+        <v>686400</v>
       </c>
       <c r="F61" s="3">
-        <v>541600</v>
+        <v>568400</v>
       </c>
       <c r="G61" s="3">
-        <v>306100</v>
+        <v>321200</v>
       </c>
       <c r="H61" s="3">
-        <v>557900</v>
+        <v>585400</v>
       </c>
       <c r="I61" s="3">
-        <v>600700</v>
+        <v>630400</v>
       </c>
       <c r="J61" s="3">
-        <v>544000</v>
+        <v>570900</v>
       </c>
       <c r="K61" s="3">
         <v>640300</v>
@@ -2599,25 +2599,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>344200</v>
+        <v>361200</v>
       </c>
       <c r="E62" s="3">
-        <v>258000</v>
+        <v>270700</v>
       </c>
       <c r="F62" s="3">
-        <v>175600</v>
+        <v>184200</v>
       </c>
       <c r="G62" s="3">
-        <v>180500</v>
+        <v>189400</v>
       </c>
       <c r="H62" s="3">
-        <v>178400</v>
+        <v>187300</v>
       </c>
       <c r="I62" s="3">
-        <v>168700</v>
+        <v>177000</v>
       </c>
       <c r="J62" s="3">
-        <v>209000</v>
+        <v>219400</v>
       </c>
       <c r="K62" s="3">
         <v>246000</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1817100</v>
+        <v>1906800</v>
       </c>
       <c r="E66" s="3">
-        <v>1776800</v>
+        <v>1864600</v>
       </c>
       <c r="F66" s="3">
-        <v>1535500</v>
+        <v>1611300</v>
       </c>
       <c r="G66" s="3">
-        <v>1398500</v>
+        <v>1467500</v>
       </c>
       <c r="H66" s="3">
-        <v>1366800</v>
+        <v>1434300</v>
       </c>
       <c r="I66" s="3">
-        <v>1548000</v>
+        <v>1624400</v>
       </c>
       <c r="J66" s="3">
-        <v>1717500</v>
+        <v>1802400</v>
       </c>
       <c r="K66" s="3">
         <v>2021500</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1238000</v>
+        <v>1369000</v>
       </c>
       <c r="E72" s="3">
-        <v>1131900</v>
+        <v>1187800</v>
       </c>
       <c r="F72" s="3">
-        <v>1079600</v>
+        <v>1132900</v>
       </c>
       <c r="G72" s="3">
-        <v>1043200</v>
+        <v>1094700</v>
       </c>
       <c r="H72" s="3">
-        <v>963100</v>
+        <v>1010600</v>
       </c>
       <c r="I72" s="3">
-        <v>912900</v>
+        <v>957900</v>
       </c>
       <c r="J72" s="3">
-        <v>818900</v>
+        <v>859400</v>
       </c>
       <c r="K72" s="3">
         <v>963900</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1586500</v>
+        <v>1664900</v>
       </c>
       <c r="E76" s="3">
-        <v>1503400</v>
+        <v>1577600</v>
       </c>
       <c r="F76" s="3">
-        <v>1450700</v>
+        <v>1522300</v>
       </c>
       <c r="G76" s="3">
-        <v>1410600</v>
+        <v>1480300</v>
       </c>
       <c r="H76" s="3">
-        <v>1329700</v>
+        <v>1395300</v>
       </c>
       <c r="I76" s="3">
-        <v>1308500</v>
+        <v>1373100</v>
       </c>
       <c r="J76" s="3">
-        <v>1215500</v>
+        <v>1275600</v>
       </c>
       <c r="K76" s="3">
         <v>1430600</v>
@@ -3245,25 +3245,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>143400</v>
+        <v>150400</v>
       </c>
       <c r="E81" s="3">
-        <v>102900</v>
+        <v>108000</v>
       </c>
       <c r="F81" s="3">
-        <v>100000</v>
+        <v>105000</v>
       </c>
       <c r="G81" s="3">
-        <v>105300</v>
+        <v>110500</v>
       </c>
       <c r="H81" s="3">
-        <v>113500</v>
+        <v>119200</v>
       </c>
       <c r="I81" s="3">
-        <v>131900</v>
+        <v>138400</v>
       </c>
       <c r="J81" s="3">
-        <v>67300</v>
+        <v>70700</v>
       </c>
       <c r="K81" s="3">
         <v>81800</v>
@@ -3301,25 +3301,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>359500</v>
+        <v>377300</v>
       </c>
       <c r="E83" s="3">
-        <v>342800</v>
+        <v>359700</v>
       </c>
       <c r="F83" s="3">
-        <v>333800</v>
+        <v>350300</v>
       </c>
       <c r="G83" s="3">
-        <v>280700</v>
+        <v>294600</v>
       </c>
       <c r="H83" s="3">
-        <v>262900</v>
+        <v>275800</v>
       </c>
       <c r="I83" s="3">
-        <v>285500</v>
+        <v>299600</v>
       </c>
       <c r="J83" s="3">
-        <v>276500</v>
+        <v>290100</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>8</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>473300</v>
+        <v>496700</v>
       </c>
       <c r="E89" s="3">
-        <v>451900</v>
+        <v>474200</v>
       </c>
       <c r="F89" s="3">
-        <v>394600</v>
+        <v>414000</v>
       </c>
       <c r="G89" s="3">
-        <v>386600</v>
+        <v>405700</v>
       </c>
       <c r="H89" s="3">
-        <v>382500</v>
+        <v>401300</v>
       </c>
       <c r="I89" s="3">
-        <v>376200</v>
+        <v>394800</v>
       </c>
       <c r="J89" s="3">
-        <v>379800</v>
+        <v>398600</v>
       </c>
       <c r="K89" s="3">
         <v>416100</v>
@@ -3591,25 +3591,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-269500</v>
+        <v>-282800</v>
       </c>
       <c r="E91" s="3">
-        <v>-372100</v>
+        <v>-390400</v>
       </c>
       <c r="F91" s="3">
-        <v>-237300</v>
+        <v>-249000</v>
       </c>
       <c r="G91" s="3">
-        <v>-227700</v>
+        <v>-238900</v>
       </c>
       <c r="H91" s="3">
-        <v>-220600</v>
+        <v>-231500</v>
       </c>
       <c r="I91" s="3">
-        <v>-267100</v>
+        <v>-280300</v>
       </c>
       <c r="J91" s="3">
-        <v>-235400</v>
+        <v>-247000</v>
       </c>
       <c r="K91" s="3">
         <v>-406600</v>
@@ -3708,25 +3708,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-246400</v>
+        <v>-258600</v>
       </c>
       <c r="E94" s="3">
-        <v>-359900</v>
+        <v>-377700</v>
       </c>
       <c r="F94" s="3">
-        <v>-206400</v>
+        <v>-216600</v>
       </c>
       <c r="G94" s="3">
-        <v>-201900</v>
+        <v>-211900</v>
       </c>
       <c r="H94" s="3">
-        <v>-141100</v>
+        <v>-148100</v>
       </c>
       <c r="I94" s="3">
-        <v>-216800</v>
+        <v>-227500</v>
       </c>
       <c r="J94" s="3">
-        <v>-237000</v>
+        <v>-248700</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>8</v>
@@ -3764,25 +3764,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-45700</v>
+        <v>-47900</v>
       </c>
       <c r="E96" s="3">
-        <v>-59600</v>
+        <v>-62500</v>
       </c>
       <c r="F96" s="3">
-        <v>-72200</v>
+        <v>-75800</v>
       </c>
       <c r="G96" s="3">
-        <v>-71800</v>
+        <v>-75300</v>
       </c>
       <c r="H96" s="3">
-        <v>-71400</v>
+        <v>-75000</v>
       </c>
       <c r="I96" s="3">
-        <v>-55100</v>
+        <v>-57800</v>
       </c>
       <c r="J96" s="3">
-        <v>-16300</v>
+        <v>-17100</v>
       </c>
       <c r="K96" s="3">
         <v>-22900</v>
@@ -3920,25 +3920,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-230200</v>
+        <v>-241500</v>
       </c>
       <c r="E100" s="3">
-        <v>-91400</v>
+        <v>-95900</v>
       </c>
       <c r="F100" s="3">
-        <v>-173600</v>
+        <v>-182200</v>
       </c>
       <c r="G100" s="3">
-        <v>-180600</v>
+        <v>-189500</v>
       </c>
       <c r="H100" s="3">
-        <v>-254500</v>
+        <v>-267000</v>
       </c>
       <c r="I100" s="3">
-        <v>-175800</v>
+        <v>-184500</v>
       </c>
       <c r="J100" s="3">
-        <v>-135500</v>
+        <v>-142200</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>8</v>
@@ -3962,7 +3962,7 @@
         <v>300</v>
       </c>
       <c r="E101" s="3">
-        <v>2500</v>
+        <v>2700</v>
       </c>
       <c r="F101" s="3">
         <v>500</v>
@@ -3998,25 +3998,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-3000</v>
+        <v>-3100</v>
       </c>
       <c r="E102" s="3">
-        <v>3100</v>
+        <v>3300</v>
       </c>
       <c r="F102" s="3">
-        <v>15100</v>
+        <v>15800</v>
       </c>
       <c r="G102" s="3">
-        <v>4400</v>
+        <v>4600</v>
       </c>
       <c r="H102" s="3">
-        <v>-13100</v>
+        <v>-13800</v>
       </c>
       <c r="I102" s="3">
-        <v>-16400</v>
+        <v>-17200</v>
       </c>
       <c r="J102" s="3">
-        <v>7100</v>
+        <v>7500</v>
       </c>
       <c r="K102" s="3">
         <v>0</v>

--- a/AAII_Financials/Yearly/MYTAY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/MYTAY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="92">
   <si>
     <t>MYTAY</t>
   </si>
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1785300</v>
+        <v>530700</v>
       </c>
       <c r="E8" s="3">
-        <v>1716300</v>
+        <v>1857600</v>
       </c>
       <c r="F8" s="3">
-        <v>1700000</v>
+        <v>1840000</v>
       </c>
       <c r="G8" s="3">
-        <v>1675600</v>
+        <v>1813600</v>
       </c>
       <c r="H8" s="3">
-        <v>1557700</v>
+        <v>1685900</v>
       </c>
       <c r="I8" s="3">
-        <v>1463800</v>
+        <v>1584300</v>
       </c>
       <c r="J8" s="3">
-        <v>1673700</v>
+        <v>1811500</v>
       </c>
       <c r="K8" s="3">
         <v>1791600</v>
@@ -762,25 +762,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>915500</v>
+        <v>409300</v>
       </c>
       <c r="E9" s="3">
-        <v>886900</v>
+        <v>959900</v>
       </c>
       <c r="F9" s="3">
-        <v>877400</v>
+        <v>949700</v>
       </c>
       <c r="G9" s="3">
-        <v>877900</v>
+        <v>950200</v>
       </c>
       <c r="H9" s="3">
-        <v>781700</v>
+        <v>846000</v>
       </c>
       <c r="I9" s="3">
-        <v>695300</v>
+        <v>752500</v>
       </c>
       <c r="J9" s="3">
-        <v>784700</v>
+        <v>849300</v>
       </c>
       <c r="K9" s="3">
         <v>613900</v>
@@ -801,25 +801,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>869800</v>
+        <v>121400</v>
       </c>
       <c r="E10" s="3">
-        <v>829400</v>
+        <v>897700</v>
       </c>
       <c r="F10" s="3">
-        <v>822600</v>
+        <v>890300</v>
       </c>
       <c r="G10" s="3">
-        <v>797700</v>
+        <v>863400</v>
       </c>
       <c r="H10" s="3">
-        <v>776000</v>
+        <v>839900</v>
       </c>
       <c r="I10" s="3">
-        <v>768500</v>
+        <v>831800</v>
       </c>
       <c r="J10" s="3">
-        <v>889000</v>
+        <v>962200</v>
       </c>
       <c r="K10" s="3">
         <v>1177800</v>
@@ -935,25 +935,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+        <v>14300</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -974,25 +974,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>377300</v>
+        <v>516700</v>
       </c>
       <c r="E15" s="3">
-        <v>359700</v>
+        <v>389300</v>
       </c>
       <c r="F15" s="3">
-        <v>350300</v>
+        <v>379200</v>
       </c>
       <c r="G15" s="3">
-        <v>294600</v>
+        <v>318900</v>
       </c>
       <c r="H15" s="3">
-        <v>275800</v>
+        <v>298600</v>
       </c>
       <c r="I15" s="3">
-        <v>583400</v>
+        <v>631400</v>
       </c>
       <c r="J15" s="3">
-        <v>290100</v>
+        <v>314000</v>
       </c>
       <c r="K15" s="3">
         <v>287900</v>
@@ -1027,25 +1027,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1548600</v>
+        <v>459900</v>
       </c>
       <c r="E17" s="3">
-        <v>1500000</v>
+        <v>1623500</v>
       </c>
       <c r="F17" s="3">
-        <v>1487900</v>
+        <v>1610400</v>
       </c>
       <c r="G17" s="3">
-        <v>1479300</v>
+        <v>1601100</v>
       </c>
       <c r="H17" s="3">
-        <v>1360100</v>
+        <v>1472100</v>
       </c>
       <c r="I17" s="3">
-        <v>1269500</v>
+        <v>1374100</v>
       </c>
       <c r="J17" s="3">
-        <v>1486200</v>
+        <v>1608600</v>
       </c>
       <c r="K17" s="3">
         <v>1561200</v>
@@ -1066,25 +1066,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>236700</v>
+        <v>70800</v>
       </c>
       <c r="E18" s="3">
-        <v>216300</v>
+        <v>234100</v>
       </c>
       <c r="F18" s="3">
-        <v>212100</v>
+        <v>229600</v>
       </c>
       <c r="G18" s="3">
-        <v>196300</v>
+        <v>212500</v>
       </c>
       <c r="H18" s="3">
-        <v>197600</v>
+        <v>213900</v>
       </c>
       <c r="I18" s="3">
-        <v>194300</v>
+        <v>210300</v>
       </c>
       <c r="J18" s="3">
-        <v>187500</v>
+        <v>202900</v>
       </c>
       <c r="K18" s="3">
         <v>230400</v>
@@ -1122,25 +1122,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-1700</v>
+        <v>29000</v>
       </c>
       <c r="E20" s="3">
-        <v>-30100</v>
+        <v>-32600</v>
       </c>
       <c r="F20" s="3">
-        <v>-25600</v>
+        <v>-27700</v>
       </c>
       <c r="G20" s="3">
-        <v>-10200</v>
+        <v>-11000</v>
       </c>
       <c r="H20" s="3">
-        <v>-19900</v>
+        <v>-21600</v>
       </c>
       <c r="I20" s="3">
-        <v>-21300</v>
+        <v>-23100</v>
       </c>
       <c r="J20" s="3">
-        <v>-16300</v>
+        <v>-17600</v>
       </c>
       <c r="K20" s="3">
         <v>-16500</v>
@@ -1161,25 +1161,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>603400</v>
+        <v>493400</v>
       </c>
       <c r="E21" s="3">
-        <v>537400</v>
+        <v>584800</v>
       </c>
       <c r="F21" s="3">
-        <v>528600</v>
+        <v>524200</v>
       </c>
       <c r="G21" s="3">
-        <v>473800</v>
+        <v>503200</v>
       </c>
       <c r="H21" s="3">
-        <v>447000</v>
+        <v>520100</v>
       </c>
       <c r="I21" s="3">
-        <v>465500</v>
-      </c>
-      <c r="J21" s="3">
-        <v>454500</v>
+        <v>504700</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>8</v>
@@ -1200,25 +1200,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>33200</v>
+        <v>36000</v>
       </c>
       <c r="E22" s="3">
-        <v>30900</v>
+        <v>33400</v>
       </c>
       <c r="F22" s="3">
-        <v>35700</v>
+        <v>38600</v>
       </c>
       <c r="G22" s="3">
-        <v>33700</v>
+        <v>36400</v>
       </c>
       <c r="H22" s="3">
-        <v>34400</v>
+        <v>37200</v>
       </c>
       <c r="I22" s="3">
-        <v>47300</v>
+        <v>51200</v>
       </c>
       <c r="J22" s="3">
-        <v>55500</v>
+        <v>60100</v>
       </c>
       <c r="K22" s="3">
         <v>64700</v>
@@ -1239,25 +1239,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>201700</v>
+        <v>63900</v>
       </c>
       <c r="E23" s="3">
-        <v>155300</v>
+        <v>168100</v>
       </c>
       <c r="F23" s="3">
-        <v>150800</v>
+        <v>163200</v>
       </c>
       <c r="G23" s="3">
-        <v>152400</v>
+        <v>165000</v>
       </c>
       <c r="H23" s="3">
-        <v>143300</v>
+        <v>155100</v>
       </c>
       <c r="I23" s="3">
-        <v>125600</v>
+        <v>136000</v>
       </c>
       <c r="J23" s="3">
-        <v>115600</v>
+        <v>125100</v>
       </c>
       <c r="K23" s="3">
         <v>149200</v>
@@ -1278,25 +1278,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>41500</v>
+        <v>11900</v>
       </c>
       <c r="E24" s="3">
-        <v>37200</v>
+        <v>40300</v>
       </c>
       <c r="F24" s="3">
-        <v>37300</v>
+        <v>40400</v>
       </c>
       <c r="G24" s="3">
-        <v>34000</v>
+        <v>36800</v>
       </c>
       <c r="H24" s="3">
-        <v>40700</v>
+        <v>44000</v>
       </c>
       <c r="I24" s="3">
-        <v>-12400</v>
+        <v>-13400</v>
       </c>
       <c r="J24" s="3">
-        <v>35200</v>
+        <v>38100</v>
       </c>
       <c r="K24" s="3">
         <v>57600</v>
@@ -1356,25 +1356,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>160300</v>
+        <v>52000</v>
       </c>
       <c r="E26" s="3">
-        <v>118100</v>
+        <v>127800</v>
       </c>
       <c r="F26" s="3">
-        <v>113500</v>
+        <v>122900</v>
       </c>
       <c r="G26" s="3">
-        <v>118400</v>
+        <v>128200</v>
       </c>
       <c r="H26" s="3">
-        <v>102600</v>
+        <v>111100</v>
       </c>
       <c r="I26" s="3">
-        <v>138000</v>
+        <v>149400</v>
       </c>
       <c r="J26" s="3">
-        <v>80400</v>
+        <v>87100</v>
       </c>
       <c r="K26" s="3">
         <v>91600</v>
@@ -1395,25 +1395,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>150400</v>
+        <v>51700</v>
       </c>
       <c r="E27" s="3">
-        <v>108000</v>
+        <v>116900</v>
       </c>
       <c r="F27" s="3">
-        <v>105000</v>
+        <v>113600</v>
       </c>
       <c r="G27" s="3">
-        <v>110500</v>
+        <v>119600</v>
       </c>
       <c r="H27" s="3">
-        <v>94900</v>
+        <v>102700</v>
       </c>
       <c r="I27" s="3">
-        <v>130500</v>
+        <v>141200</v>
       </c>
       <c r="J27" s="3">
-        <v>70700</v>
+        <v>76500</v>
       </c>
       <c r="K27" s="3">
         <v>81800</v>
@@ -1485,10 +1485,10 @@
         <v>0</v>
       </c>
       <c r="H29" s="3">
-        <v>24300</v>
+        <v>26300</v>
       </c>
       <c r="I29" s="3">
-        <v>7900</v>
+        <v>8600</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>8</v>
@@ -1590,25 +1590,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>1700</v>
+        <v>-29000</v>
       </c>
       <c r="E32" s="3">
-        <v>30100</v>
+        <v>32600</v>
       </c>
       <c r="F32" s="3">
-        <v>25600</v>
+        <v>27700</v>
       </c>
       <c r="G32" s="3">
-        <v>10200</v>
+        <v>11000</v>
       </c>
       <c r="H32" s="3">
-        <v>19900</v>
+        <v>21600</v>
       </c>
       <c r="I32" s="3">
-        <v>21300</v>
+        <v>23100</v>
       </c>
       <c r="J32" s="3">
-        <v>16300</v>
+        <v>17600</v>
       </c>
       <c r="K32" s="3">
         <v>16500</v>
@@ -1629,25 +1629,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>150400</v>
+        <v>51700</v>
       </c>
       <c r="E33" s="3">
-        <v>108000</v>
+        <v>116900</v>
       </c>
       <c r="F33" s="3">
-        <v>105000</v>
+        <v>113600</v>
       </c>
       <c r="G33" s="3">
-        <v>110500</v>
+        <v>119600</v>
       </c>
       <c r="H33" s="3">
-        <v>119200</v>
+        <v>129000</v>
       </c>
       <c r="I33" s="3">
-        <v>138400</v>
+        <v>149800</v>
       </c>
       <c r="J33" s="3">
-        <v>70700</v>
+        <v>76500</v>
       </c>
       <c r="K33" s="3">
         <v>81800</v>
@@ -1707,25 +1707,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>150400</v>
+        <v>51700</v>
       </c>
       <c r="E35" s="3">
-        <v>108000</v>
+        <v>116900</v>
       </c>
       <c r="F35" s="3">
-        <v>105000</v>
+        <v>113600</v>
       </c>
       <c r="G35" s="3">
-        <v>110500</v>
+        <v>119600</v>
       </c>
       <c r="H35" s="3">
-        <v>119200</v>
+        <v>129000</v>
       </c>
       <c r="I35" s="3">
-        <v>138400</v>
+        <v>149800</v>
       </c>
       <c r="J35" s="3">
-        <v>70700</v>
+        <v>76500</v>
       </c>
       <c r="K35" s="3">
         <v>81800</v>
@@ -1824,25 +1824,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>44700</v>
+        <v>48400</v>
       </c>
       <c r="E41" s="3">
-        <v>44900</v>
+        <v>48600</v>
       </c>
       <c r="F41" s="3">
-        <v>34200</v>
+        <v>37000</v>
       </c>
       <c r="G41" s="3">
-        <v>28400</v>
+        <v>30700</v>
       </c>
       <c r="H41" s="3">
-        <v>22800</v>
+        <v>24600</v>
       </c>
       <c r="I41" s="3">
-        <v>30000</v>
+        <v>32400</v>
       </c>
       <c r="J41" s="3">
-        <v>65100</v>
+        <v>70500</v>
       </c>
       <c r="K41" s="3">
         <v>73000</v>
@@ -1863,25 +1863,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>3100</v>
+        <v>3400</v>
       </c>
       <c r="E42" s="3">
-        <v>52000</v>
+        <v>56300</v>
       </c>
       <c r="F42" s="3">
-        <v>11200</v>
+        <v>12100</v>
       </c>
       <c r="G42" s="3">
-        <v>18600</v>
+        <v>20200</v>
       </c>
       <c r="H42" s="3">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="I42" s="3">
-        <v>3200</v>
+        <v>3400</v>
       </c>
       <c r="J42" s="3">
-        <v>3900</v>
+        <v>4200</v>
       </c>
       <c r="K42" s="3">
         <v>4400</v>
@@ -1902,25 +1902,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>472800</v>
+        <v>511700</v>
       </c>
       <c r="E43" s="3">
-        <v>465400</v>
+        <v>503800</v>
       </c>
       <c r="F43" s="3">
-        <v>491100</v>
+        <v>531500</v>
       </c>
       <c r="G43" s="3">
-        <v>499500</v>
+        <v>540600</v>
       </c>
       <c r="H43" s="3">
-        <v>375000</v>
+        <v>405900</v>
       </c>
       <c r="I43" s="3">
-        <v>387800</v>
+        <v>419700</v>
       </c>
       <c r="J43" s="3">
-        <v>390800</v>
+        <v>423000</v>
       </c>
       <c r="K43" s="3">
         <v>438400</v>
@@ -1941,25 +1941,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>46000</v>
+        <v>49800</v>
       </c>
       <c r="E44" s="3">
-        <v>46900</v>
+        <v>50800</v>
       </c>
       <c r="F44" s="3">
-        <v>50600</v>
+        <v>54700</v>
       </c>
       <c r="G44" s="3">
-        <v>48800</v>
+        <v>52800</v>
       </c>
       <c r="H44" s="3">
-        <v>43800</v>
+        <v>47400</v>
       </c>
       <c r="I44" s="3">
-        <v>42400</v>
+        <v>45900</v>
       </c>
       <c r="J44" s="3">
-        <v>32300</v>
+        <v>35000</v>
       </c>
       <c r="K44" s="3">
         <v>36200</v>
@@ -1980,25 +1980,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>24700</v>
+        <v>26800</v>
       </c>
       <c r="E45" s="3">
-        <v>49300</v>
+        <v>53400</v>
       </c>
       <c r="F45" s="3">
-        <v>16300</v>
+        <v>17600</v>
       </c>
       <c r="G45" s="3">
         <v>0</v>
       </c>
       <c r="H45" s="3">
-        <v>37700</v>
+        <v>40800</v>
       </c>
       <c r="I45" s="3">
-        <v>31300</v>
+        <v>33800</v>
       </c>
       <c r="J45" s="3">
-        <v>43800</v>
+        <v>47400</v>
       </c>
       <c r="K45" s="3">
         <v>49100</v>
@@ -2019,25 +2019,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>591400</v>
+        <v>640000</v>
       </c>
       <c r="E46" s="3">
-        <v>658600</v>
+        <v>712900</v>
       </c>
       <c r="F46" s="3">
-        <v>603200</v>
+        <v>652900</v>
       </c>
       <c r="G46" s="3">
-        <v>595200</v>
+        <v>644300</v>
       </c>
       <c r="H46" s="3">
-        <v>482000</v>
+        <v>521700</v>
       </c>
       <c r="I46" s="3">
-        <v>494600</v>
+        <v>535400</v>
       </c>
       <c r="J46" s="3">
-        <v>536000</v>
+        <v>580100</v>
       </c>
       <c r="K46" s="3">
         <v>601100</v>
@@ -2058,25 +2058,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>68500</v>
+        <v>74100</v>
       </c>
       <c r="E47" s="3">
-        <v>66900</v>
+        <v>72400</v>
       </c>
       <c r="F47" s="3">
-        <v>63800</v>
+        <v>69000</v>
       </c>
       <c r="G47" s="3">
-        <v>64600</v>
+        <v>70000</v>
       </c>
       <c r="H47" s="3">
-        <v>52600</v>
+        <v>57000</v>
       </c>
       <c r="I47" s="3">
-        <v>39700</v>
+        <v>43000</v>
       </c>
       <c r="J47" s="3">
-        <v>45100</v>
+        <v>48800</v>
       </c>
       <c r="K47" s="3">
         <v>50500</v>
@@ -2097,25 +2097,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1427900</v>
+        <v>1545500</v>
       </c>
       <c r="E48" s="3">
-        <v>1412100</v>
+        <v>1528400</v>
       </c>
       <c r="F48" s="3">
-        <v>1362100</v>
+        <v>1474300</v>
       </c>
       <c r="G48" s="3">
-        <v>1130000</v>
+        <v>1223100</v>
       </c>
       <c r="H48" s="3">
-        <v>1169200</v>
+        <v>1265500</v>
       </c>
       <c r="I48" s="3">
-        <v>1236100</v>
+        <v>1337900</v>
       </c>
       <c r="J48" s="3">
-        <v>1263200</v>
+        <v>1367200</v>
       </c>
       <c r="K48" s="3">
         <v>1416700</v>
@@ -2136,25 +2136,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1424600</v>
+        <v>1541900</v>
       </c>
       <c r="E49" s="3">
-        <v>1272000</v>
+        <v>1376700</v>
       </c>
       <c r="F49" s="3">
-        <v>1085800</v>
+        <v>1175300</v>
       </c>
       <c r="G49" s="3">
-        <v>1142300</v>
+        <v>1236300</v>
       </c>
       <c r="H49" s="3">
-        <v>1125700</v>
+        <v>1218400</v>
       </c>
       <c r="I49" s="3">
-        <v>1219600</v>
+        <v>1320000</v>
       </c>
       <c r="J49" s="3">
-        <v>1221100</v>
+        <v>1321600</v>
       </c>
       <c r="K49" s="3">
         <v>1369500</v>
@@ -2253,25 +2253,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>59400</v>
+        <v>64300</v>
       </c>
       <c r="E52" s="3">
-        <v>32600</v>
+        <v>35300</v>
       </c>
       <c r="F52" s="3">
-        <v>18600</v>
+        <v>20200</v>
       </c>
       <c r="G52" s="3">
-        <v>15600</v>
+        <v>16900</v>
       </c>
       <c r="H52" s="3">
         <v>100</v>
       </c>
       <c r="I52" s="3">
-        <v>7600</v>
+        <v>8200</v>
       </c>
       <c r="J52" s="3">
-        <v>12700</v>
+        <v>13700</v>
       </c>
       <c r="K52" s="3">
         <v>14200</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3571700</v>
+        <v>3865900</v>
       </c>
       <c r="E54" s="3">
-        <v>3442200</v>
+        <v>3725700</v>
       </c>
       <c r="F54" s="3">
-        <v>3133600</v>
+        <v>3391700</v>
       </c>
       <c r="G54" s="3">
-        <v>2947800</v>
+        <v>3190500</v>
       </c>
       <c r="H54" s="3">
-        <v>2829600</v>
+        <v>3062700</v>
       </c>
       <c r="I54" s="3">
-        <v>2997600</v>
+        <v>3244500</v>
       </c>
       <c r="J54" s="3">
-        <v>3077900</v>
+        <v>3331400</v>
       </c>
       <c r="K54" s="3">
         <v>3452100</v>
@@ -2404,25 +2404,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>362200</v>
+        <v>392000</v>
       </c>
       <c r="E57" s="3">
-        <v>378200</v>
+        <v>409400</v>
       </c>
       <c r="F57" s="3">
-        <v>395400</v>
+        <v>427900</v>
       </c>
       <c r="G57" s="3">
-        <v>447000</v>
+        <v>483900</v>
       </c>
       <c r="H57" s="3">
-        <v>345400</v>
+        <v>373800</v>
       </c>
       <c r="I57" s="3">
-        <v>348400</v>
+        <v>377100</v>
       </c>
       <c r="J57" s="3">
-        <v>357500</v>
+        <v>386900</v>
       </c>
       <c r="K57" s="3">
         <v>400900</v>
@@ -2443,25 +2443,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>153700</v>
+        <v>166300</v>
       </c>
       <c r="E58" s="3">
-        <v>297700</v>
+        <v>322200</v>
       </c>
       <c r="F58" s="3">
-        <v>240500</v>
+        <v>260300</v>
       </c>
       <c r="G58" s="3">
-        <v>270000</v>
+        <v>292200</v>
       </c>
       <c r="H58" s="3">
-        <v>76000</v>
+        <v>82200</v>
       </c>
       <c r="I58" s="3">
-        <v>204900</v>
+        <v>221700</v>
       </c>
       <c r="J58" s="3">
-        <v>376400</v>
+        <v>407400</v>
       </c>
       <c r="K58" s="3">
         <v>422200</v>
@@ -2482,25 +2482,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>237300</v>
+        <v>256900</v>
       </c>
       <c r="E59" s="3">
-        <v>132000</v>
+        <v>142800</v>
       </c>
       <c r="F59" s="3">
-        <v>133200</v>
+        <v>144100</v>
       </c>
       <c r="G59" s="3">
-        <v>152100</v>
+        <v>164600</v>
       </c>
       <c r="H59" s="3">
-        <v>156400</v>
+        <v>169300</v>
       </c>
       <c r="I59" s="3">
-        <v>154500</v>
+        <v>167300</v>
       </c>
       <c r="J59" s="3">
-        <v>164200</v>
+        <v>177700</v>
       </c>
       <c r="K59" s="3">
         <v>184200</v>
@@ -2521,25 +2521,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>753200</v>
+        <v>815200</v>
       </c>
       <c r="E60" s="3">
-        <v>807900</v>
+        <v>874400</v>
       </c>
       <c r="F60" s="3">
-        <v>769000</v>
+        <v>832400</v>
       </c>
       <c r="G60" s="3">
-        <v>869100</v>
+        <v>940700</v>
       </c>
       <c r="H60" s="3">
-        <v>577800</v>
+        <v>625400</v>
       </c>
       <c r="I60" s="3">
-        <v>707800</v>
+        <v>766100</v>
       </c>
       <c r="J60" s="3">
-        <v>898100</v>
+        <v>972000</v>
       </c>
       <c r="K60" s="3">
         <v>1007200</v>
@@ -2560,25 +2560,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>690300</v>
+        <v>747100</v>
       </c>
       <c r="E61" s="3">
-        <v>686400</v>
+        <v>742900</v>
       </c>
       <c r="F61" s="3">
-        <v>568400</v>
+        <v>615200</v>
       </c>
       <c r="G61" s="3">
-        <v>321200</v>
+        <v>347600</v>
       </c>
       <c r="H61" s="3">
-        <v>585400</v>
+        <v>633600</v>
       </c>
       <c r="I61" s="3">
-        <v>630400</v>
+        <v>682300</v>
       </c>
       <c r="J61" s="3">
-        <v>570900</v>
+        <v>617900</v>
       </c>
       <c r="K61" s="3">
         <v>640300</v>
@@ -2599,25 +2599,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>361200</v>
+        <v>390900</v>
       </c>
       <c r="E62" s="3">
-        <v>270700</v>
+        <v>293000</v>
       </c>
       <c r="F62" s="3">
-        <v>184200</v>
+        <v>199400</v>
       </c>
       <c r="G62" s="3">
-        <v>189400</v>
+        <v>205000</v>
       </c>
       <c r="H62" s="3">
-        <v>187300</v>
+        <v>202700</v>
       </c>
       <c r="I62" s="3">
-        <v>177000</v>
+        <v>191600</v>
       </c>
       <c r="J62" s="3">
-        <v>219400</v>
+        <v>237400</v>
       </c>
       <c r="K62" s="3">
         <v>246000</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1906800</v>
+        <v>2063900</v>
       </c>
       <c r="E66" s="3">
-        <v>1864600</v>
+        <v>2018100</v>
       </c>
       <c r="F66" s="3">
-        <v>1611300</v>
+        <v>1744000</v>
       </c>
       <c r="G66" s="3">
-        <v>1467500</v>
+        <v>1588400</v>
       </c>
       <c r="H66" s="3">
-        <v>1434300</v>
+        <v>1552400</v>
       </c>
       <c r="I66" s="3">
-        <v>1624400</v>
+        <v>1758200</v>
       </c>
       <c r="J66" s="3">
-        <v>1802400</v>
+        <v>1950800</v>
       </c>
       <c r="K66" s="3">
         <v>2021500</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1369000</v>
+        <v>1481700</v>
       </c>
       <c r="E72" s="3">
-        <v>1187800</v>
+        <v>1285600</v>
       </c>
       <c r="F72" s="3">
-        <v>1132900</v>
+        <v>1226200</v>
       </c>
       <c r="G72" s="3">
-        <v>1094700</v>
+        <v>1184900</v>
       </c>
       <c r="H72" s="3">
-        <v>1010600</v>
+        <v>1093800</v>
       </c>
       <c r="I72" s="3">
-        <v>957900</v>
+        <v>1036800</v>
       </c>
       <c r="J72" s="3">
-        <v>859400</v>
+        <v>930200</v>
       </c>
       <c r="K72" s="3">
         <v>963900</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1664900</v>
+        <v>1802000</v>
       </c>
       <c r="E76" s="3">
-        <v>1577600</v>
+        <v>1707600</v>
       </c>
       <c r="F76" s="3">
-        <v>1522300</v>
+        <v>1647700</v>
       </c>
       <c r="G76" s="3">
-        <v>1480300</v>
+        <v>1602200</v>
       </c>
       <c r="H76" s="3">
-        <v>1395300</v>
+        <v>1510300</v>
       </c>
       <c r="I76" s="3">
-        <v>1373100</v>
+        <v>1486200</v>
       </c>
       <c r="J76" s="3">
-        <v>1275600</v>
+        <v>1380600</v>
       </c>
       <c r="K76" s="3">
         <v>1430600</v>
@@ -3245,25 +3245,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>150400</v>
+        <v>51700</v>
       </c>
       <c r="E81" s="3">
-        <v>108000</v>
+        <v>116900</v>
       </c>
       <c r="F81" s="3">
-        <v>105000</v>
+        <v>113600</v>
       </c>
       <c r="G81" s="3">
-        <v>110500</v>
+        <v>119600</v>
       </c>
       <c r="H81" s="3">
-        <v>119200</v>
+        <v>129000</v>
       </c>
       <c r="I81" s="3">
-        <v>138400</v>
+        <v>149800</v>
       </c>
       <c r="J81" s="3">
-        <v>70700</v>
+        <v>76500</v>
       </c>
       <c r="K81" s="3">
         <v>81800</v>
@@ -3301,25 +3301,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>377300</v>
+        <v>389300</v>
       </c>
       <c r="E83" s="3">
-        <v>359700</v>
+        <v>379200</v>
       </c>
       <c r="F83" s="3">
-        <v>350300</v>
+        <v>318900</v>
       </c>
       <c r="G83" s="3">
-        <v>294600</v>
+        <v>298600</v>
       </c>
       <c r="H83" s="3">
-        <v>275800</v>
+        <v>324200</v>
       </c>
       <c r="I83" s="3">
-        <v>299600</v>
-      </c>
-      <c r="J83" s="3">
-        <v>290100</v>
+        <v>314000</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>8</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>496700</v>
+        <v>513200</v>
       </c>
       <c r="E89" s="3">
-        <v>474200</v>
+        <v>448100</v>
       </c>
       <c r="F89" s="3">
-        <v>414000</v>
+        <v>439100</v>
       </c>
       <c r="G89" s="3">
-        <v>405700</v>
+        <v>434400</v>
       </c>
       <c r="H89" s="3">
-        <v>401300</v>
+        <v>427300</v>
       </c>
       <c r="I89" s="3">
-        <v>394800</v>
+        <v>431400</v>
       </c>
       <c r="J89" s="3">
-        <v>398600</v>
+        <v>401600</v>
       </c>
       <c r="K89" s="3">
         <v>416100</v>
@@ -3591,25 +3591,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-282800</v>
+        <v>-422600</v>
       </c>
       <c r="E91" s="3">
-        <v>-390400</v>
+        <v>-269500</v>
       </c>
       <c r="F91" s="3">
-        <v>-249000</v>
+        <v>-258600</v>
       </c>
       <c r="G91" s="3">
-        <v>-238900</v>
+        <v>-250600</v>
       </c>
       <c r="H91" s="3">
-        <v>-231500</v>
+        <v>-303300</v>
       </c>
       <c r="I91" s="3">
-        <v>-280300</v>
+        <v>-267300</v>
       </c>
       <c r="J91" s="3">
-        <v>-247000</v>
+        <v>-392300</v>
       </c>
       <c r="K91" s="3">
         <v>-406600</v>
@@ -3708,25 +3708,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-258600</v>
+        <v>-408800</v>
       </c>
       <c r="E94" s="3">
-        <v>-377700</v>
+        <v>-234400</v>
       </c>
       <c r="F94" s="3">
-        <v>-216600</v>
+        <v>-229300</v>
       </c>
       <c r="G94" s="3">
-        <v>-211900</v>
+        <v>-160200</v>
       </c>
       <c r="H94" s="3">
-        <v>-148100</v>
+        <v>-246200</v>
       </c>
       <c r="I94" s="3">
-        <v>-227500</v>
-      </c>
-      <c r="J94" s="3">
-        <v>-248700</v>
+        <v>-269100</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>8</v>
@@ -3764,25 +3764,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-47900</v>
+        <v>-67700</v>
       </c>
       <c r="E96" s="3">
-        <v>-62500</v>
+        <v>-82000</v>
       </c>
       <c r="F96" s="3">
-        <v>-75800</v>
+        <v>-81500</v>
       </c>
       <c r="G96" s="3">
-        <v>-75300</v>
+        <v>-81200</v>
       </c>
       <c r="H96" s="3">
-        <v>-75000</v>
+        <v>-62600</v>
       </c>
       <c r="I96" s="3">
-        <v>-57800</v>
+        <v>-18500</v>
       </c>
       <c r="J96" s="3">
-        <v>-17100</v>
+        <v>-22100</v>
       </c>
       <c r="K96" s="3">
         <v>-22900</v>
@@ -3920,25 +3920,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-241500</v>
+        <v>-103800</v>
       </c>
       <c r="E100" s="3">
-        <v>-95900</v>
+        <v>-197200</v>
       </c>
       <c r="F100" s="3">
-        <v>-182200</v>
+        <v>-205200</v>
       </c>
       <c r="G100" s="3">
-        <v>-189500</v>
+        <v>-289000</v>
       </c>
       <c r="H100" s="3">
-        <v>-267000</v>
+        <v>-199600</v>
       </c>
       <c r="I100" s="3">
-        <v>-184500</v>
-      </c>
-      <c r="J100" s="3">
-        <v>-142200</v>
+        <v>-153900</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>8</v>
@@ -3959,25 +3959,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>300</v>
+        <v>2900</v>
       </c>
       <c r="E101" s="3">
-        <v>2700</v>
+        <v>500</v>
       </c>
       <c r="F101" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="G101" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="H101" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I101" s="3">
-        <v>-100</v>
-      </c>
-      <c r="J101" s="3">
         <v>-200</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>8</v>
@@ -3998,25 +3998,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-3100</v>
+        <v>3600</v>
       </c>
       <c r="E102" s="3">
-        <v>3300</v>
+        <v>17100</v>
       </c>
       <c r="F102" s="3">
-        <v>15800</v>
+        <v>5000</v>
       </c>
       <c r="G102" s="3">
-        <v>4600</v>
+        <v>-14900</v>
       </c>
       <c r="H102" s="3">
-        <v>-13800</v>
+        <v>-18600</v>
       </c>
       <c r="I102" s="3">
-        <v>-17200</v>
+        <v>8100</v>
       </c>
       <c r="J102" s="3">
-        <v>7500</v>
+        <v>0</v>
       </c>
       <c r="K102" s="3">
         <v>0</v>

--- a/AAII_Financials/Yearly/MYTAY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/MYTAY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="92">
   <si>
     <t>MYTAY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,177 +665,189 @@
     <col min="1" max="1" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42735</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42369</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42004</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41639</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>41274</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>40908</v>
       </c>
-      <c r="O7" s="2"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>530700</v>
+        <v>2142900</v>
       </c>
       <c r="E8" s="3">
-        <v>1857600</v>
+        <v>1988500</v>
       </c>
       <c r="F8" s="3">
-        <v>1840000</v>
+        <v>1931600</v>
       </c>
       <c r="G8" s="3">
-        <v>1813600</v>
+        <v>1913300</v>
       </c>
       <c r="H8" s="3">
-        <v>1685900</v>
+        <v>1885900</v>
       </c>
       <c r="I8" s="3">
-        <v>1584300</v>
+        <v>1753100</v>
       </c>
       <c r="J8" s="3">
+        <v>1647500</v>
+      </c>
+      <c r="K8" s="3">
         <v>1811500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1791600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2059200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1973200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2091700</v>
       </c>
-      <c r="O8" s="3"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>409300</v>
+        <v>1082000</v>
       </c>
       <c r="E9" s="3">
-        <v>959900</v>
+        <v>1009500</v>
       </c>
       <c r="F9" s="3">
-        <v>949700</v>
+        <v>998200</v>
       </c>
       <c r="G9" s="3">
-        <v>950200</v>
+        <v>987500</v>
       </c>
       <c r="H9" s="3">
-        <v>846000</v>
+        <v>988000</v>
       </c>
       <c r="I9" s="3">
-        <v>752500</v>
+        <v>879800</v>
       </c>
       <c r="J9" s="3">
+        <v>782500</v>
+      </c>
+      <c r="K9" s="3">
         <v>849300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>613900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>735700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>630400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>741600</v>
       </c>
-      <c r="O9" s="3"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>121400</v>
+        <v>1061000</v>
       </c>
       <c r="E10" s="3">
-        <v>897700</v>
+        <v>978900</v>
       </c>
       <c r="F10" s="3">
-        <v>890300</v>
+        <v>933500</v>
       </c>
       <c r="G10" s="3">
-        <v>863400</v>
+        <v>925800</v>
       </c>
       <c r="H10" s="3">
-        <v>839900</v>
+        <v>897800</v>
       </c>
       <c r="I10" s="3">
-        <v>831800</v>
+        <v>873400</v>
       </c>
       <c r="J10" s="3">
+        <v>865000</v>
+      </c>
+      <c r="K10" s="3">
         <v>962200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1177800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1323500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1342700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1350000</v>
       </c>
-      <c r="O10" s="3"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -851,8 +863,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -889,9 +902,12 @@
       <c r="N12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O12" s="3"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P12" s="3"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -928,17 +944,20 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-      <c r="O13" s="3"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>14300</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>8</v>
+        <v>-9400</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>8</v>
@@ -955,60 +974,66 @@
       <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
       </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>20500</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>21000</v>
       </c>
-      <c r="O14" s="3"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>516700</v>
+        <v>398300</v>
       </c>
       <c r="E15" s="3">
-        <v>389300</v>
+        <v>424700</v>
       </c>
       <c r="F15" s="3">
-        <v>379200</v>
+        <v>404800</v>
       </c>
       <c r="G15" s="3">
-        <v>318900</v>
+        <v>394300</v>
       </c>
       <c r="H15" s="3">
-        <v>298600</v>
+        <v>331600</v>
       </c>
       <c r="I15" s="3">
-        <v>631400</v>
+        <v>310500</v>
       </c>
       <c r="J15" s="3">
+        <v>656600</v>
+      </c>
+      <c r="K15" s="3">
         <v>314000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>287900</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>338300</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>694800</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>465200</v>
       </c>
-      <c r="O15" s="3"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1021,86 +1046,93 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>459900</v>
+        <v>1829600</v>
       </c>
       <c r="E17" s="3">
-        <v>1623500</v>
+        <v>1722100</v>
       </c>
       <c r="F17" s="3">
-        <v>1610400</v>
+        <v>1688200</v>
       </c>
       <c r="G17" s="3">
-        <v>1601100</v>
+        <v>1674600</v>
       </c>
       <c r="H17" s="3">
-        <v>1472100</v>
+        <v>1665000</v>
       </c>
       <c r="I17" s="3">
-        <v>1374100</v>
+        <v>1530800</v>
       </c>
       <c r="J17" s="3">
+        <v>1428800</v>
+      </c>
+      <c r="K17" s="3">
         <v>1608600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1561200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1817800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1687400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1870600</v>
       </c>
-      <c r="O17" s="3"/>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3"/>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>70800</v>
+        <v>313300</v>
       </c>
       <c r="E18" s="3">
-        <v>234100</v>
+        <v>266400</v>
       </c>
       <c r="F18" s="3">
-        <v>229600</v>
+        <v>243400</v>
       </c>
       <c r="G18" s="3">
-        <v>212500</v>
+        <v>238700</v>
       </c>
       <c r="H18" s="3">
-        <v>213900</v>
+        <v>220900</v>
       </c>
       <c r="I18" s="3">
-        <v>210300</v>
+        <v>222400</v>
       </c>
       <c r="J18" s="3">
+        <v>218700</v>
+      </c>
+      <c r="K18" s="3">
         <v>202900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>230400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>241300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>285700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>221100</v>
       </c>
-      <c r="O18" s="3"/>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3"/>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1116,70 +1148,74 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>29000</v>
+        <v>-23800</v>
       </c>
       <c r="E20" s="3">
-        <v>-32600</v>
+        <v>-1900</v>
       </c>
       <c r="F20" s="3">
-        <v>-27700</v>
+        <v>-33900</v>
       </c>
       <c r="G20" s="3">
-        <v>-11000</v>
+        <v>-28800</v>
       </c>
       <c r="H20" s="3">
-        <v>-21600</v>
+        <v>-11500</v>
       </c>
       <c r="I20" s="3">
-        <v>-23100</v>
+        <v>-22400</v>
       </c>
       <c r="J20" s="3">
+        <v>-24000</v>
+      </c>
+      <c r="K20" s="3">
         <v>-17600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-16500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-28500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-14200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-32400</v>
       </c>
-      <c r="O20" s="3"/>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3"/>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>493400</v>
+        <v>696100</v>
       </c>
       <c r="E21" s="3">
-        <v>584800</v>
+        <v>698000</v>
       </c>
       <c r="F21" s="3">
-        <v>524200</v>
+        <v>622900</v>
       </c>
       <c r="G21" s="3">
-        <v>503200</v>
+        <v>612500</v>
       </c>
       <c r="H21" s="3">
-        <v>520100</v>
+        <v>548000</v>
       </c>
       <c r="I21" s="3">
-        <v>504700</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>8</v>
+        <v>516900</v>
+      </c>
+      <c r="J21" s="3">
+        <v>538900</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>8</v>
@@ -1187,132 +1223,144 @@
       <c r="L21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N21" s="3">
         <v>621100</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O21" s="3"/>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P21" s="3"/>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>36000</v>
+        <v>47300</v>
       </c>
       <c r="E22" s="3">
-        <v>33400</v>
+        <v>37400</v>
       </c>
       <c r="F22" s="3">
-        <v>38600</v>
+        <v>34700</v>
       </c>
       <c r="G22" s="3">
-        <v>36400</v>
+        <v>40200</v>
       </c>
       <c r="H22" s="3">
-        <v>37200</v>
+        <v>37900</v>
       </c>
       <c r="I22" s="3">
-        <v>51200</v>
+        <v>38700</v>
       </c>
       <c r="J22" s="3">
+        <v>53300</v>
+      </c>
+      <c r="K22" s="3">
         <v>60100</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>64700</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>73400</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>78700</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>81100</v>
       </c>
-      <c r="O22" s="3"/>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3"/>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>63900</v>
+        <v>242200</v>
       </c>
       <c r="E23" s="3">
-        <v>168100</v>
+        <v>227100</v>
       </c>
       <c r="F23" s="3">
-        <v>163200</v>
+        <v>174800</v>
       </c>
       <c r="G23" s="3">
-        <v>165000</v>
+        <v>169700</v>
       </c>
       <c r="H23" s="3">
-        <v>155100</v>
+        <v>171600</v>
       </c>
       <c r="I23" s="3">
-        <v>136000</v>
+        <v>161300</v>
       </c>
       <c r="J23" s="3">
+        <v>141400</v>
+      </c>
+      <c r="K23" s="3">
         <v>125100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>149200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>139400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>192800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>107500</v>
       </c>
-      <c r="O23" s="3"/>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3"/>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>11900</v>
+        <v>49700</v>
       </c>
       <c r="E24" s="3">
-        <v>40300</v>
+        <v>46700</v>
       </c>
       <c r="F24" s="3">
-        <v>40400</v>
+        <v>41900</v>
       </c>
       <c r="G24" s="3">
-        <v>36800</v>
+        <v>42000</v>
       </c>
       <c r="H24" s="3">
-        <v>44000</v>
+        <v>38300</v>
       </c>
       <c r="I24" s="3">
-        <v>-13400</v>
+        <v>45800</v>
       </c>
       <c r="J24" s="3">
+        <v>-13900</v>
+      </c>
+      <c r="K24" s="3">
         <v>38100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>57600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>46200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>43800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>96400</v>
       </c>
-      <c r="O24" s="3"/>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3"/>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1349,87 +1397,96 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-      <c r="O25" s="3"/>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3"/>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>52000</v>
+        <v>192500</v>
       </c>
       <c r="E26" s="3">
-        <v>127800</v>
+        <v>180400</v>
       </c>
       <c r="F26" s="3">
-        <v>122900</v>
+        <v>132900</v>
       </c>
       <c r="G26" s="3">
-        <v>128200</v>
+        <v>127700</v>
       </c>
       <c r="H26" s="3">
-        <v>111100</v>
+        <v>133300</v>
       </c>
       <c r="I26" s="3">
-        <v>149400</v>
+        <v>115500</v>
       </c>
       <c r="J26" s="3">
+        <v>155300</v>
+      </c>
+      <c r="K26" s="3">
         <v>87100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>91600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>93200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>149000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>11100</v>
       </c>
-      <c r="O26" s="3"/>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3"/>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>51700</v>
+        <v>180700</v>
       </c>
       <c r="E27" s="3">
-        <v>116900</v>
+        <v>169300</v>
       </c>
       <c r="F27" s="3">
-        <v>113600</v>
+        <v>121600</v>
       </c>
       <c r="G27" s="3">
-        <v>119600</v>
+        <v>118100</v>
       </c>
       <c r="H27" s="3">
-        <v>102700</v>
+        <v>124300</v>
       </c>
       <c r="I27" s="3">
-        <v>141200</v>
+        <v>106800</v>
       </c>
       <c r="J27" s="3">
+        <v>146900</v>
+      </c>
+      <c r="K27" s="3">
         <v>76500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>81800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>75800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>119800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-26100</v>
       </c>
-      <c r="O27" s="3"/>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3"/>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1466,9 +1523,12 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-      <c r="O28" s="3"/>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3"/>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1481,17 +1541,17 @@
       <c r="F29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
+      <c r="G29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H29" s="3">
-        <v>26300</v>
+        <v>0</v>
       </c>
       <c r="I29" s="3">
-        <v>8600</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>8</v>
+        <v>27300</v>
+      </c>
+      <c r="J29" s="3">
+        <v>8900</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>8</v>
@@ -1505,9 +1565,12 @@
       <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O29" s="3"/>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P29" s="3"/>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1544,9 +1607,12 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-      <c r="O30" s="3"/>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3"/>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1583,87 +1649,96 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-      <c r="O31" s="3"/>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3"/>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-29000</v>
+        <v>23800</v>
       </c>
       <c r="E32" s="3">
-        <v>32600</v>
+        <v>1900</v>
       </c>
       <c r="F32" s="3">
-        <v>27700</v>
+        <v>33900</v>
       </c>
       <c r="G32" s="3">
-        <v>11000</v>
+        <v>28800</v>
       </c>
       <c r="H32" s="3">
-        <v>21600</v>
+        <v>11500</v>
       </c>
       <c r="I32" s="3">
-        <v>23100</v>
+        <v>22400</v>
       </c>
       <c r="J32" s="3">
+        <v>24000</v>
+      </c>
+      <c r="K32" s="3">
         <v>17600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>16500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>28500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>14200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>32400</v>
       </c>
-      <c r="O32" s="3"/>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3"/>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>51700</v>
+        <v>180700</v>
       </c>
       <c r="E33" s="3">
-        <v>116900</v>
+        <v>169300</v>
       </c>
       <c r="F33" s="3">
-        <v>113600</v>
+        <v>121600</v>
       </c>
       <c r="G33" s="3">
-        <v>119600</v>
+        <v>118100</v>
       </c>
       <c r="H33" s="3">
-        <v>129000</v>
+        <v>124300</v>
       </c>
       <c r="I33" s="3">
-        <v>149800</v>
+        <v>134100</v>
       </c>
       <c r="J33" s="3">
+        <v>155800</v>
+      </c>
+      <c r="K33" s="3">
         <v>76500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>81800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>75800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>119800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-26100</v>
       </c>
-      <c r="O33" s="3"/>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3"/>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1700,92 +1775,101 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-      <c r="O34" s="3"/>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3"/>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>51700</v>
+        <v>180700</v>
       </c>
       <c r="E35" s="3">
-        <v>116900</v>
+        <v>169300</v>
       </c>
       <c r="F35" s="3">
-        <v>113600</v>
+        <v>121600</v>
       </c>
       <c r="G35" s="3">
-        <v>119600</v>
+        <v>118100</v>
       </c>
       <c r="H35" s="3">
-        <v>129000</v>
+        <v>124300</v>
       </c>
       <c r="I35" s="3">
-        <v>149800</v>
+        <v>134100</v>
       </c>
       <c r="J35" s="3">
+        <v>155800</v>
+      </c>
+      <c r="K35" s="3">
         <v>76500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>81800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>75800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>119800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-26100</v>
       </c>
-      <c r="O35" s="3"/>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3"/>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42735</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42369</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42004</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41639</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>41274</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>40908</v>
       </c>
-      <c r="O38" s="2"/>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2"/>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1801,8 +1885,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1818,359 +1903,387 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>48400</v>
+        <v>36900</v>
       </c>
       <c r="E41" s="3">
-        <v>48600</v>
+        <v>50300</v>
       </c>
       <c r="F41" s="3">
-        <v>37000</v>
+        <v>50600</v>
       </c>
       <c r="G41" s="3">
-        <v>30700</v>
+        <v>38500</v>
       </c>
       <c r="H41" s="3">
-        <v>24600</v>
+        <v>31900</v>
       </c>
       <c r="I41" s="3">
-        <v>32400</v>
+        <v>25600</v>
       </c>
       <c r="J41" s="3">
+        <v>33700</v>
+      </c>
+      <c r="K41" s="3">
         <v>70500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>73000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>123500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>49400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>50600</v>
       </c>
-      <c r="O41" s="3"/>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3"/>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>3400</v>
+        <v>1900</v>
       </c>
       <c r="E42" s="3">
-        <v>56300</v>
+        <v>3500</v>
       </c>
       <c r="F42" s="3">
-        <v>12100</v>
+        <v>58600</v>
       </c>
       <c r="G42" s="3">
-        <v>20200</v>
+        <v>12600</v>
       </c>
       <c r="H42" s="3">
-        <v>3000</v>
+        <v>21000</v>
       </c>
       <c r="I42" s="3">
-        <v>3400</v>
+        <v>3100</v>
       </c>
       <c r="J42" s="3">
+        <v>3600</v>
+      </c>
+      <c r="K42" s="3">
         <v>4200</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>4400</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>11100</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>170500</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>210200</v>
       </c>
-      <c r="O42" s="3"/>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3"/>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>511700</v>
+        <v>551500</v>
       </c>
       <c r="E43" s="3">
-        <v>503800</v>
+        <v>532100</v>
       </c>
       <c r="F43" s="3">
-        <v>531500</v>
+        <v>523800</v>
       </c>
       <c r="G43" s="3">
-        <v>540600</v>
+        <v>552700</v>
       </c>
       <c r="H43" s="3">
-        <v>405900</v>
+        <v>562200</v>
       </c>
       <c r="I43" s="3">
-        <v>419700</v>
+        <v>422000</v>
       </c>
       <c r="J43" s="3">
+        <v>436400</v>
+      </c>
+      <c r="K43" s="3">
         <v>423000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>438400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>411600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>412000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>428900</v>
       </c>
-      <c r="O43" s="3"/>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3"/>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>49800</v>
+        <v>72700</v>
       </c>
       <c r="E44" s="3">
-        <v>50800</v>
+        <v>51800</v>
       </c>
       <c r="F44" s="3">
-        <v>54700</v>
+        <v>52800</v>
       </c>
       <c r="G44" s="3">
-        <v>52800</v>
+        <v>56900</v>
       </c>
       <c r="H44" s="3">
-        <v>47400</v>
+        <v>54900</v>
       </c>
       <c r="I44" s="3">
-        <v>45900</v>
+        <v>49300</v>
       </c>
       <c r="J44" s="3">
+        <v>47800</v>
+      </c>
+      <c r="K44" s="3">
         <v>35000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>36200</v>
-      </c>
-      <c r="L44" s="3">
-        <v>40300</v>
       </c>
       <c r="M44" s="3">
         <v>40300</v>
       </c>
       <c r="N44" s="3">
+        <v>40300</v>
+      </c>
+      <c r="O44" s="3">
         <v>34700</v>
       </c>
-      <c r="O44" s="3"/>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3"/>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>26800</v>
+        <v>29600</v>
       </c>
       <c r="E45" s="3">
-        <v>53400</v>
+        <v>27800</v>
       </c>
       <c r="F45" s="3">
-        <v>17600</v>
+        <v>55500</v>
       </c>
       <c r="G45" s="3">
-        <v>0</v>
+        <v>18300</v>
       </c>
       <c r="H45" s="3">
-        <v>40800</v>
+        <v>0</v>
       </c>
       <c r="I45" s="3">
-        <v>33800</v>
+        <v>42400</v>
       </c>
       <c r="J45" s="3">
+        <v>35200</v>
+      </c>
+      <c r="K45" s="3">
         <v>47400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>49100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>39900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>29500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>47000</v>
       </c>
-      <c r="O45" s="3"/>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3"/>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>640000</v>
+        <v>692600</v>
       </c>
       <c r="E46" s="3">
-        <v>712900</v>
+        <v>665600</v>
       </c>
       <c r="F46" s="3">
-        <v>652900</v>
+        <v>741300</v>
       </c>
       <c r="G46" s="3">
-        <v>644300</v>
+        <v>678900</v>
       </c>
       <c r="H46" s="3">
-        <v>521700</v>
+        <v>669900</v>
       </c>
       <c r="I46" s="3">
-        <v>535400</v>
+        <v>542500</v>
       </c>
       <c r="J46" s="3">
+        <v>556700</v>
+      </c>
+      <c r="K46" s="3">
         <v>580100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>601100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>626400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>701700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>771400</v>
       </c>
-      <c r="O46" s="3"/>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3"/>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>74100</v>
+        <v>87700</v>
       </c>
       <c r="E47" s="3">
-        <v>72400</v>
+        <v>77100</v>
       </c>
       <c r="F47" s="3">
-        <v>69000</v>
+        <v>75300</v>
       </c>
       <c r="G47" s="3">
-        <v>70000</v>
+        <v>71800</v>
       </c>
       <c r="H47" s="3">
-        <v>57000</v>
+        <v>72800</v>
       </c>
       <c r="I47" s="3">
-        <v>43000</v>
+        <v>59300</v>
       </c>
       <c r="J47" s="3">
+        <v>44700</v>
+      </c>
+      <c r="K47" s="3">
         <v>48800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>50500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>53400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>61300</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>110600</v>
       </c>
-      <c r="O47" s="3"/>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3"/>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1545500</v>
+        <v>1720400</v>
       </c>
       <c r="E48" s="3">
-        <v>1528400</v>
+        <v>1607100</v>
       </c>
       <c r="F48" s="3">
-        <v>1474300</v>
+        <v>1589300</v>
       </c>
       <c r="G48" s="3">
-        <v>1223100</v>
+        <v>1533100</v>
       </c>
       <c r="H48" s="3">
-        <v>1265500</v>
+        <v>1271800</v>
       </c>
       <c r="I48" s="3">
-        <v>1337900</v>
+        <v>1315900</v>
       </c>
       <c r="J48" s="3">
+        <v>1391200</v>
+      </c>
+      <c r="K48" s="3">
         <v>1367200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1416700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1596300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1660600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1876800</v>
       </c>
-      <c r="O48" s="3"/>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3"/>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1541900</v>
+        <v>1563900</v>
       </c>
       <c r="E49" s="3">
-        <v>1376700</v>
+        <v>1603400</v>
       </c>
       <c r="F49" s="3">
-        <v>1175300</v>
+        <v>1431600</v>
       </c>
       <c r="G49" s="3">
-        <v>1236300</v>
+        <v>1222100</v>
       </c>
       <c r="H49" s="3">
-        <v>1218400</v>
+        <v>1285600</v>
       </c>
       <c r="I49" s="3">
-        <v>1320000</v>
+        <v>1267000</v>
       </c>
       <c r="J49" s="3">
+        <v>1372600</v>
+      </c>
+      <c r="K49" s="3">
         <v>1321600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1369500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1231300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1011000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1079100</v>
       </c>
-      <c r="O49" s="3"/>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3"/>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2207,9 +2320,12 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-      <c r="O50" s="3"/>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3"/>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2246,48 +2362,54 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-      <c r="O51" s="3"/>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3"/>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>64300</v>
+        <v>115300</v>
       </c>
       <c r="E52" s="3">
-        <v>35300</v>
+        <v>66900</v>
       </c>
       <c r="F52" s="3">
-        <v>20200</v>
+        <v>36700</v>
       </c>
       <c r="G52" s="3">
-        <v>16900</v>
+        <v>21000</v>
       </c>
       <c r="H52" s="3">
+        <v>17600</v>
+      </c>
+      <c r="I52" s="3">
         <v>100</v>
       </c>
-      <c r="I52" s="3">
-        <v>8200</v>
-      </c>
       <c r="J52" s="3">
+        <v>8600</v>
+      </c>
+      <c r="K52" s="3">
         <v>13700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>14200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>17300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>3400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>5300</v>
       </c>
-      <c r="O52" s="3"/>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3"/>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2324,48 +2446,54 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-      <c r="O53" s="3"/>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3"/>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3865900</v>
+        <v>4179900</v>
       </c>
       <c r="E54" s="3">
-        <v>3725700</v>
+        <v>4019900</v>
       </c>
       <c r="F54" s="3">
-        <v>3391700</v>
+        <v>3874200</v>
       </c>
       <c r="G54" s="3">
-        <v>3190500</v>
+        <v>3526900</v>
       </c>
       <c r="H54" s="3">
-        <v>3062700</v>
+        <v>3317700</v>
       </c>
       <c r="I54" s="3">
-        <v>3244500</v>
+        <v>3184700</v>
       </c>
       <c r="J54" s="3">
+        <v>3373800</v>
+      </c>
+      <c r="K54" s="3">
         <v>3331400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3452100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>3524700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>3438000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>3843100</v>
       </c>
-      <c r="O54" s="3"/>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3"/>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2381,8 +2509,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2398,242 +2527,261 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>392000</v>
+        <v>455700</v>
       </c>
       <c r="E57" s="3">
-        <v>409400</v>
+        <v>407600</v>
       </c>
       <c r="F57" s="3">
-        <v>427900</v>
+        <v>425700</v>
       </c>
       <c r="G57" s="3">
-        <v>483900</v>
+        <v>445000</v>
       </c>
       <c r="H57" s="3">
-        <v>373800</v>
+        <v>503100</v>
       </c>
       <c r="I57" s="3">
-        <v>377100</v>
+        <v>388700</v>
       </c>
       <c r="J57" s="3">
+        <v>392100</v>
+      </c>
+      <c r="K57" s="3">
         <v>386900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>400900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>334500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>376100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>353900</v>
       </c>
-      <c r="O57" s="3"/>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3"/>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>166300</v>
+        <v>260400</v>
       </c>
       <c r="E58" s="3">
-        <v>322200</v>
+        <v>173000</v>
       </c>
       <c r="F58" s="3">
-        <v>260300</v>
+        <v>335000</v>
       </c>
       <c r="G58" s="3">
-        <v>292200</v>
+        <v>270700</v>
       </c>
       <c r="H58" s="3">
-        <v>82200</v>
+        <v>303900</v>
       </c>
       <c r="I58" s="3">
-        <v>221700</v>
+        <v>85500</v>
       </c>
       <c r="J58" s="3">
+        <v>230600</v>
+      </c>
+      <c r="K58" s="3">
         <v>407400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>422200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>464400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>243000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>342100</v>
       </c>
-      <c r="O58" s="3"/>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3"/>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>256900</v>
+        <v>164700</v>
       </c>
       <c r="E59" s="3">
-        <v>142800</v>
+        <v>267100</v>
       </c>
       <c r="F59" s="3">
-        <v>144100</v>
+        <v>148500</v>
       </c>
       <c r="G59" s="3">
-        <v>164600</v>
+        <v>149900</v>
       </c>
       <c r="H59" s="3">
-        <v>169300</v>
+        <v>171200</v>
       </c>
       <c r="I59" s="3">
-        <v>167300</v>
+        <v>176100</v>
       </c>
       <c r="J59" s="3">
+        <v>173900</v>
+      </c>
+      <c r="K59" s="3">
         <v>177700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>184200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>193400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>144300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>197900</v>
       </c>
-      <c r="O59" s="3"/>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3"/>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>815200</v>
+        <v>880900</v>
       </c>
       <c r="E60" s="3">
-        <v>874400</v>
+        <v>847700</v>
       </c>
       <c r="F60" s="3">
-        <v>832400</v>
+        <v>909300</v>
       </c>
       <c r="G60" s="3">
-        <v>940700</v>
+        <v>865500</v>
       </c>
       <c r="H60" s="3">
-        <v>625400</v>
+        <v>978200</v>
       </c>
       <c r="I60" s="3">
-        <v>766100</v>
+        <v>650300</v>
       </c>
       <c r="J60" s="3">
+        <v>796600</v>
+      </c>
+      <c r="K60" s="3">
         <v>972000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1007200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>992300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>763400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>893900</v>
       </c>
-      <c r="O60" s="3"/>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3"/>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>747100</v>
+        <v>807800</v>
       </c>
       <c r="E61" s="3">
-        <v>742900</v>
+        <v>776900</v>
       </c>
       <c r="F61" s="3">
-        <v>615200</v>
+        <v>772500</v>
       </c>
       <c r="G61" s="3">
-        <v>347600</v>
+        <v>639700</v>
       </c>
       <c r="H61" s="3">
-        <v>633600</v>
+        <v>361500</v>
       </c>
       <c r="I61" s="3">
-        <v>682300</v>
+        <v>658900</v>
       </c>
       <c r="J61" s="3">
+        <v>709500</v>
+      </c>
+      <c r="K61" s="3">
         <v>617900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>640300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>801500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>866500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>868300</v>
       </c>
-      <c r="O61" s="3"/>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3"/>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>390900</v>
+        <v>382500</v>
       </c>
       <c r="E62" s="3">
-        <v>293000</v>
+        <v>406500</v>
       </c>
       <c r="F62" s="3">
-        <v>199400</v>
+        <v>304700</v>
       </c>
       <c r="G62" s="3">
-        <v>205000</v>
+        <v>207300</v>
       </c>
       <c r="H62" s="3">
-        <v>202700</v>
+        <v>213100</v>
       </c>
       <c r="I62" s="3">
-        <v>191600</v>
+        <v>210800</v>
       </c>
       <c r="J62" s="3">
+        <v>199300</v>
+      </c>
+      <c r="K62" s="3">
         <v>237400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>246000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>149500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>111200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>134600</v>
       </c>
-      <c r="O62" s="3"/>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3"/>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2670,9 +2818,12 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-      <c r="O63" s="3"/>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3"/>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2709,9 +2860,12 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-      <c r="O64" s="3"/>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3"/>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2748,48 +2902,54 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-      <c r="O65" s="3"/>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3"/>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2063900</v>
+        <v>2194600</v>
       </c>
       <c r="E66" s="3">
-        <v>2018100</v>
+        <v>2146100</v>
       </c>
       <c r="F66" s="3">
-        <v>1744000</v>
+        <v>2098600</v>
       </c>
       <c r="G66" s="3">
-        <v>1588400</v>
+        <v>1813500</v>
       </c>
       <c r="H66" s="3">
-        <v>1552400</v>
+        <v>1651700</v>
       </c>
       <c r="I66" s="3">
-        <v>1758200</v>
+        <v>1614300</v>
       </c>
       <c r="J66" s="3">
+        <v>1828300</v>
+      </c>
+      <c r="K66" s="3">
         <v>1950800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2021500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2111700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1933100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2135000</v>
       </c>
-      <c r="O66" s="3"/>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3"/>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2805,8 +2965,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2843,9 +3004,12 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-      <c r="O68" s="3"/>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3"/>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2882,9 +3046,12 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-      <c r="O69" s="3"/>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3"/>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2921,9 +3088,12 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-      <c r="O70" s="3"/>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3"/>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2960,48 +3130,54 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-      <c r="O71" s="3"/>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3"/>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1481700</v>
+        <v>1644700</v>
       </c>
       <c r="E72" s="3">
-        <v>1285600</v>
+        <v>1540800</v>
       </c>
       <c r="F72" s="3">
-        <v>1226200</v>
+        <v>1336800</v>
       </c>
       <c r="G72" s="3">
-        <v>1184900</v>
+        <v>1275100</v>
       </c>
       <c r="H72" s="3">
-        <v>1093800</v>
+        <v>1232100</v>
       </c>
       <c r="I72" s="3">
-        <v>1036800</v>
+        <v>1137400</v>
       </c>
       <c r="J72" s="3">
+        <v>1078100</v>
+      </c>
+      <c r="K72" s="3">
         <v>930200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>963900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>910200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1009000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1140000</v>
       </c>
-      <c r="O72" s="3"/>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3"/>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3038,9 +3214,12 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-      <c r="O73" s="3"/>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3"/>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3077,9 +3256,12 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-      <c r="O74" s="3"/>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3"/>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3116,48 +3298,54 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-      <c r="O75" s="3"/>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3"/>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1802000</v>
+        <v>1985300</v>
       </c>
       <c r="E76" s="3">
-        <v>1707600</v>
+        <v>1873800</v>
       </c>
       <c r="F76" s="3">
-        <v>1647700</v>
+        <v>1775600</v>
       </c>
       <c r="G76" s="3">
-        <v>1602200</v>
+        <v>1713400</v>
       </c>
       <c r="H76" s="3">
-        <v>1510300</v>
+        <v>1666000</v>
       </c>
       <c r="I76" s="3">
-        <v>1486200</v>
+        <v>1570400</v>
       </c>
       <c r="J76" s="3">
+        <v>1545500</v>
+      </c>
+      <c r="K76" s="3">
         <v>1380600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1430600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1413000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1504900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1708100</v>
       </c>
-      <c r="O76" s="3"/>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3"/>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3194,92 +3382,101 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-      <c r="O77" s="3"/>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3"/>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42735</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42369</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42004</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41639</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>41274</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>40908</v>
       </c>
-      <c r="O80" s="2"/>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2"/>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>51700</v>
+        <v>180700</v>
       </c>
       <c r="E81" s="3">
-        <v>116900</v>
+        <v>169300</v>
       </c>
       <c r="F81" s="3">
-        <v>113600</v>
+        <v>121600</v>
       </c>
       <c r="G81" s="3">
-        <v>119600</v>
+        <v>118100</v>
       </c>
       <c r="H81" s="3">
-        <v>129000</v>
+        <v>124300</v>
       </c>
       <c r="I81" s="3">
-        <v>149800</v>
+        <v>134100</v>
       </c>
       <c r="J81" s="3">
+        <v>155800</v>
+      </c>
+      <c r="K81" s="3">
         <v>76500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>81800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>75800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>119800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-26100</v>
       </c>
-      <c r="O81" s="3"/>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3"/>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3295,31 +3492,32 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>389300</v>
+        <v>398300</v>
       </c>
       <c r="E83" s="3">
-        <v>379200</v>
+        <v>424700</v>
       </c>
       <c r="F83" s="3">
-        <v>318900</v>
+        <v>404800</v>
       </c>
       <c r="G83" s="3">
-        <v>298600</v>
+        <v>394300</v>
       </c>
       <c r="H83" s="3">
-        <v>324200</v>
+        <v>331600</v>
       </c>
       <c r="I83" s="3">
-        <v>314000</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>8</v>
+        <v>310500</v>
+      </c>
+      <c r="J83" s="3">
+        <v>337200</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>8</v>
@@ -3327,15 +3525,18 @@
       <c r="L83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M83" s="3">
+      <c r="M83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N83" s="3">
         <v>347400</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O83" s="3"/>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P83" s="3"/>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3372,9 +3573,12 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-      <c r="O84" s="3"/>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3"/>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3411,9 +3615,12 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-      <c r="O85" s="3"/>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3"/>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3450,9 +3657,12 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-      <c r="O86" s="3"/>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3"/>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3489,9 +3699,12 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-      <c r="O87" s="3"/>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3"/>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3528,48 +3741,54 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-      <c r="O88" s="3"/>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3"/>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>513200</v>
+        <v>561800</v>
       </c>
       <c r="E89" s="3">
-        <v>448100</v>
+        <v>559000</v>
       </c>
       <c r="F89" s="3">
-        <v>439100</v>
+        <v>533700</v>
       </c>
       <c r="G89" s="3">
-        <v>434400</v>
+        <v>466000</v>
       </c>
       <c r="H89" s="3">
-        <v>427300</v>
+        <v>456600</v>
       </c>
       <c r="I89" s="3">
-        <v>431400</v>
+        <v>451700</v>
       </c>
       <c r="J89" s="3">
+        <v>444300</v>
+      </c>
+      <c r="K89" s="3">
         <v>401600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>416100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>425100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>472000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>590700</v>
       </c>
-      <c r="O89" s="3"/>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3"/>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3585,47 +3804,51 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-422600</v>
+        <v>-347900</v>
       </c>
       <c r="E91" s="3">
-        <v>-269500</v>
+        <v>-318300</v>
       </c>
       <c r="F91" s="3">
-        <v>-258600</v>
+        <v>-439400</v>
       </c>
       <c r="G91" s="3">
-        <v>-250600</v>
+        <v>-280300</v>
       </c>
       <c r="H91" s="3">
-        <v>-303300</v>
+        <v>-268900</v>
       </c>
       <c r="I91" s="3">
-        <v>-267300</v>
+        <v>-260600</v>
       </c>
       <c r="J91" s="3">
+        <v>-315400</v>
+      </c>
+      <c r="K91" s="3">
         <v>-392300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-406600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-388000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-335800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-293300</v>
       </c>
-      <c r="O91" s="3"/>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3"/>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3662,9 +3885,12 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-      <c r="O92" s="3"/>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3"/>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3701,32 +3927,35 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-      <c r="O93" s="3"/>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3"/>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-408800</v>
+        <v>-302100</v>
       </c>
       <c r="E94" s="3">
-        <v>-234400</v>
+        <v>-291000</v>
       </c>
       <c r="F94" s="3">
-        <v>-229300</v>
+        <v>-425100</v>
       </c>
       <c r="G94" s="3">
-        <v>-160200</v>
+        <v>-243800</v>
       </c>
       <c r="H94" s="3">
-        <v>-246200</v>
+        <v>-238500</v>
       </c>
       <c r="I94" s="3">
-        <v>-269100</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>8</v>
+        <v>-166600</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-256000</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>8</v>
@@ -3734,15 +3963,18 @@
       <c r="L94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M94" s="3">
+      <c r="M94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N94" s="3">
         <v>-236800</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O94" s="3"/>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P94" s="3"/>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3758,47 +3990,51 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-67700</v>
+        <v>-55900</v>
       </c>
       <c r="E96" s="3">
-        <v>-82000</v>
+        <v>-53900</v>
       </c>
       <c r="F96" s="3">
-        <v>-81500</v>
+        <v>-70400</v>
       </c>
       <c r="G96" s="3">
-        <v>-81200</v>
+        <v>-85300</v>
       </c>
       <c r="H96" s="3">
-        <v>-62600</v>
+        <v>-84800</v>
       </c>
       <c r="I96" s="3">
-        <v>-18500</v>
+        <v>-84400</v>
       </c>
       <c r="J96" s="3">
+        <v>-65100</v>
+      </c>
+      <c r="K96" s="3">
         <v>-22100</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-22900</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-211300</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-214800</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-226200</v>
       </c>
-      <c r="O96" s="3"/>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3"/>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3835,9 +4071,12 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-      <c r="O97" s="3"/>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3"/>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3874,9 +4113,12 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-      <c r="O98" s="3"/>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3"/>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3913,32 +4155,35 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-      <c r="O99" s="3"/>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3"/>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-103800</v>
+        <v>-263600</v>
       </c>
       <c r="E100" s="3">
-        <v>-197200</v>
+        <v>-271800</v>
       </c>
       <c r="F100" s="3">
-        <v>-205200</v>
+        <v>-107900</v>
       </c>
       <c r="G100" s="3">
-        <v>-289000</v>
+        <v>-205000</v>
       </c>
       <c r="H100" s="3">
-        <v>-199600</v>
+        <v>-213300</v>
       </c>
       <c r="I100" s="3">
-        <v>-153900</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>8</v>
+        <v>-300500</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-207600</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>8</v>
@@ -3946,91 +4191,100 @@
       <c r="L100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M100" s="3">
+      <c r="M100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N100" s="3">
         <v>-231000</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O100" s="3"/>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P100" s="3"/>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>2900</v>
+        <v>2200</v>
       </c>
       <c r="E101" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="F101" s="3">
+        <v>3000</v>
+      </c>
+      <c r="G101" s="3">
+        <v>600</v>
+      </c>
+      <c r="H101" s="3">
         <v>400</v>
       </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
         <v>-100</v>
       </c>
-      <c r="I101" s="3">
-        <v>-200</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K101" s="3" t="s">
         <v>8</v>
       </c>
       <c r="L101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M101" s="3">
+      <c r="M101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N101" s="3">
         <v>-1700</v>
       </c>
-      <c r="N101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O101" s="3"/>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P101" s="3"/>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>3600</v>
+        <v>-1700</v>
       </c>
       <c r="E102" s="3">
-        <v>17100</v>
+        <v>-3500</v>
       </c>
       <c r="F102" s="3">
-        <v>5000</v>
+        <v>3700</v>
       </c>
       <c r="G102" s="3">
-        <v>-14900</v>
+        <v>17800</v>
       </c>
       <c r="H102" s="3">
-        <v>-18600</v>
+        <v>5200</v>
       </c>
       <c r="I102" s="3">
-        <v>8100</v>
+        <v>-15500</v>
       </c>
       <c r="J102" s="3">
-        <v>0</v>
+        <v>-19400</v>
       </c>
       <c r="K102" s="3">
         <v>0</v>
       </c>
       <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>-1900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>2500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-4900</v>
       </c>
-      <c r="O102" s="3"/>
+      <c r="P102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/MYTAY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/MYTAY_YR_FIN.xlsx
@@ -726,25 +726,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2142900</v>
+        <v>2128000</v>
       </c>
       <c r="E8" s="3">
-        <v>1988500</v>
+        <v>1974600</v>
       </c>
       <c r="F8" s="3">
-        <v>1931600</v>
+        <v>1918200</v>
       </c>
       <c r="G8" s="3">
-        <v>1913300</v>
+        <v>1900000</v>
       </c>
       <c r="H8" s="3">
-        <v>1885900</v>
+        <v>1872700</v>
       </c>
       <c r="I8" s="3">
-        <v>1753100</v>
+        <v>1740900</v>
       </c>
       <c r="J8" s="3">
-        <v>1647500</v>
+        <v>1636000</v>
       </c>
       <c r="K8" s="3">
         <v>1811500</v>
@@ -768,25 +768,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1082000</v>
+        <v>1074400</v>
       </c>
       <c r="E9" s="3">
-        <v>1009500</v>
+        <v>1002500</v>
       </c>
       <c r="F9" s="3">
-        <v>998200</v>
+        <v>991200</v>
       </c>
       <c r="G9" s="3">
-        <v>987500</v>
+        <v>980600</v>
       </c>
       <c r="H9" s="3">
-        <v>988000</v>
+        <v>981200</v>
       </c>
       <c r="I9" s="3">
-        <v>879800</v>
+        <v>873600</v>
       </c>
       <c r="J9" s="3">
-        <v>782500</v>
+        <v>777100</v>
       </c>
       <c r="K9" s="3">
         <v>849300</v>
@@ -810,25 +810,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1061000</v>
+        <v>1053600</v>
       </c>
       <c r="E10" s="3">
-        <v>978900</v>
+        <v>972100</v>
       </c>
       <c r="F10" s="3">
-        <v>933500</v>
+        <v>927000</v>
       </c>
       <c r="G10" s="3">
-        <v>925800</v>
+        <v>919300</v>
       </c>
       <c r="H10" s="3">
-        <v>897800</v>
+        <v>891600</v>
       </c>
       <c r="I10" s="3">
-        <v>873400</v>
+        <v>867300</v>
       </c>
       <c r="J10" s="3">
-        <v>865000</v>
+        <v>858900</v>
       </c>
       <c r="K10" s="3">
         <v>962200</v>
@@ -996,25 +996,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>398300</v>
+        <v>395500</v>
       </c>
       <c r="E15" s="3">
-        <v>424700</v>
+        <v>421700</v>
       </c>
       <c r="F15" s="3">
-        <v>404800</v>
+        <v>402000</v>
       </c>
       <c r="G15" s="3">
-        <v>394300</v>
+        <v>391500</v>
       </c>
       <c r="H15" s="3">
-        <v>331600</v>
+        <v>329300</v>
       </c>
       <c r="I15" s="3">
-        <v>310500</v>
+        <v>308300</v>
       </c>
       <c r="J15" s="3">
-        <v>656600</v>
+        <v>652000</v>
       </c>
       <c r="K15" s="3">
         <v>314000</v>
@@ -1053,25 +1053,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1829600</v>
+        <v>1816800</v>
       </c>
       <c r="E17" s="3">
-        <v>1722100</v>
+        <v>1710100</v>
       </c>
       <c r="F17" s="3">
-        <v>1688200</v>
+        <v>1676400</v>
       </c>
       <c r="G17" s="3">
-        <v>1674600</v>
+        <v>1662900</v>
       </c>
       <c r="H17" s="3">
-        <v>1665000</v>
+        <v>1653400</v>
       </c>
       <c r="I17" s="3">
-        <v>1530800</v>
+        <v>1520100</v>
       </c>
       <c r="J17" s="3">
-        <v>1428800</v>
+        <v>1418900</v>
       </c>
       <c r="K17" s="3">
         <v>1608600</v>
@@ -1095,25 +1095,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>313300</v>
+        <v>311200</v>
       </c>
       <c r="E18" s="3">
-        <v>266400</v>
+        <v>264500</v>
       </c>
       <c r="F18" s="3">
-        <v>243400</v>
+        <v>241700</v>
       </c>
       <c r="G18" s="3">
-        <v>238700</v>
+        <v>237100</v>
       </c>
       <c r="H18" s="3">
-        <v>220900</v>
+        <v>219400</v>
       </c>
       <c r="I18" s="3">
-        <v>222400</v>
+        <v>220800</v>
       </c>
       <c r="J18" s="3">
-        <v>218700</v>
+        <v>217100</v>
       </c>
       <c r="K18" s="3">
         <v>202900</v>
@@ -1155,25 +1155,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-23800</v>
+        <v>-23700</v>
       </c>
       <c r="E20" s="3">
         <v>-1900</v>
       </c>
       <c r="F20" s="3">
-        <v>-33900</v>
+        <v>-33600</v>
       </c>
       <c r="G20" s="3">
-        <v>-28800</v>
+        <v>-28600</v>
       </c>
       <c r="H20" s="3">
-        <v>-11500</v>
+        <v>-11400</v>
       </c>
       <c r="I20" s="3">
-        <v>-22400</v>
+        <v>-22300</v>
       </c>
       <c r="J20" s="3">
-        <v>-24000</v>
+        <v>-23800</v>
       </c>
       <c r="K20" s="3">
         <v>-17600</v>
@@ -1197,25 +1197,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>696100</v>
+        <v>683000</v>
       </c>
       <c r="E21" s="3">
-        <v>698000</v>
+        <v>684300</v>
       </c>
       <c r="F21" s="3">
-        <v>622900</v>
+        <v>610100</v>
       </c>
       <c r="G21" s="3">
-        <v>612500</v>
+        <v>600000</v>
       </c>
       <c r="H21" s="3">
-        <v>548000</v>
+        <v>537300</v>
       </c>
       <c r="I21" s="3">
-        <v>516900</v>
+        <v>506900</v>
       </c>
       <c r="J21" s="3">
-        <v>538900</v>
+        <v>528100</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>8</v>
@@ -1239,25 +1239,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>47300</v>
+        <v>47000</v>
       </c>
       <c r="E22" s="3">
-        <v>37400</v>
+        <v>37200</v>
       </c>
       <c r="F22" s="3">
-        <v>34700</v>
+        <v>34500</v>
       </c>
       <c r="G22" s="3">
-        <v>40200</v>
+        <v>39900</v>
       </c>
       <c r="H22" s="3">
-        <v>37900</v>
+        <v>37600</v>
       </c>
       <c r="I22" s="3">
-        <v>38700</v>
+        <v>38400</v>
       </c>
       <c r="J22" s="3">
-        <v>53300</v>
+        <v>52900</v>
       </c>
       <c r="K22" s="3">
         <v>60100</v>
@@ -1281,25 +1281,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>242200</v>
+        <v>240500</v>
       </c>
       <c r="E23" s="3">
-        <v>227100</v>
+        <v>225500</v>
       </c>
       <c r="F23" s="3">
-        <v>174800</v>
+        <v>173600</v>
       </c>
       <c r="G23" s="3">
-        <v>169700</v>
+        <v>168600</v>
       </c>
       <c r="H23" s="3">
-        <v>171600</v>
+        <v>170400</v>
       </c>
       <c r="I23" s="3">
-        <v>161300</v>
+        <v>160200</v>
       </c>
       <c r="J23" s="3">
-        <v>141400</v>
+        <v>140400</v>
       </c>
       <c r="K23" s="3">
         <v>125100</v>
@@ -1323,25 +1323,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>49700</v>
+        <v>49400</v>
       </c>
       <c r="E24" s="3">
-        <v>46700</v>
+        <v>46400</v>
       </c>
       <c r="F24" s="3">
-        <v>41900</v>
+        <v>41600</v>
       </c>
       <c r="G24" s="3">
-        <v>42000</v>
+        <v>41700</v>
       </c>
       <c r="H24" s="3">
-        <v>38300</v>
+        <v>38000</v>
       </c>
       <c r="I24" s="3">
-        <v>45800</v>
+        <v>45500</v>
       </c>
       <c r="J24" s="3">
-        <v>-13900</v>
+        <v>-13800</v>
       </c>
       <c r="K24" s="3">
         <v>38100</v>
@@ -1407,25 +1407,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>192500</v>
+        <v>191200</v>
       </c>
       <c r="E26" s="3">
-        <v>180400</v>
+        <v>179100</v>
       </c>
       <c r="F26" s="3">
-        <v>132900</v>
+        <v>132000</v>
       </c>
       <c r="G26" s="3">
-        <v>127700</v>
+        <v>126900</v>
       </c>
       <c r="H26" s="3">
-        <v>133300</v>
+        <v>132400</v>
       </c>
       <c r="I26" s="3">
-        <v>115500</v>
+        <v>114700</v>
       </c>
       <c r="J26" s="3">
-        <v>155300</v>
+        <v>154200</v>
       </c>
       <c r="K26" s="3">
         <v>87100</v>
@@ -1449,25 +1449,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>180700</v>
+        <v>179400</v>
       </c>
       <c r="E27" s="3">
-        <v>169300</v>
+        <v>168100</v>
       </c>
       <c r="F27" s="3">
-        <v>121600</v>
+        <v>120700</v>
       </c>
       <c r="G27" s="3">
-        <v>118100</v>
+        <v>117300</v>
       </c>
       <c r="H27" s="3">
-        <v>124300</v>
+        <v>123500</v>
       </c>
       <c r="I27" s="3">
-        <v>106800</v>
+        <v>106000</v>
       </c>
       <c r="J27" s="3">
-        <v>146900</v>
+        <v>145900</v>
       </c>
       <c r="K27" s="3">
         <v>76500</v>
@@ -1548,10 +1548,10 @@
         <v>0</v>
       </c>
       <c r="I29" s="3">
-        <v>27300</v>
+        <v>27100</v>
       </c>
       <c r="J29" s="3">
-        <v>8900</v>
+        <v>8800</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>8</v>
@@ -1659,25 +1659,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>23800</v>
+        <v>23700</v>
       </c>
       <c r="E32" s="3">
         <v>1900</v>
       </c>
       <c r="F32" s="3">
-        <v>33900</v>
+        <v>33600</v>
       </c>
       <c r="G32" s="3">
-        <v>28800</v>
+        <v>28600</v>
       </c>
       <c r="H32" s="3">
-        <v>11500</v>
+        <v>11400</v>
       </c>
       <c r="I32" s="3">
-        <v>22400</v>
+        <v>22300</v>
       </c>
       <c r="J32" s="3">
-        <v>24000</v>
+        <v>23800</v>
       </c>
       <c r="K32" s="3">
         <v>17600</v>
@@ -1701,25 +1701,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>180700</v>
+        <v>179400</v>
       </c>
       <c r="E33" s="3">
-        <v>169300</v>
+        <v>168100</v>
       </c>
       <c r="F33" s="3">
-        <v>121600</v>
+        <v>120700</v>
       </c>
       <c r="G33" s="3">
-        <v>118100</v>
+        <v>117300</v>
       </c>
       <c r="H33" s="3">
-        <v>124300</v>
+        <v>123500</v>
       </c>
       <c r="I33" s="3">
-        <v>134100</v>
+        <v>133200</v>
       </c>
       <c r="J33" s="3">
-        <v>155800</v>
+        <v>154700</v>
       </c>
       <c r="K33" s="3">
         <v>76500</v>
@@ -1785,25 +1785,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>180700</v>
+        <v>179400</v>
       </c>
       <c r="E35" s="3">
-        <v>169300</v>
+        <v>168100</v>
       </c>
       <c r="F35" s="3">
-        <v>121600</v>
+        <v>120700</v>
       </c>
       <c r="G35" s="3">
-        <v>118100</v>
+        <v>117300</v>
       </c>
       <c r="H35" s="3">
-        <v>124300</v>
+        <v>123500</v>
       </c>
       <c r="I35" s="3">
-        <v>134100</v>
+        <v>133200</v>
       </c>
       <c r="J35" s="3">
-        <v>155800</v>
+        <v>154700</v>
       </c>
       <c r="K35" s="3">
         <v>76500</v>
@@ -1910,25 +1910,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>36900</v>
+        <v>36700</v>
       </c>
       <c r="E41" s="3">
-        <v>50300</v>
+        <v>49900</v>
       </c>
       <c r="F41" s="3">
-        <v>50600</v>
+        <v>50200</v>
       </c>
       <c r="G41" s="3">
-        <v>38500</v>
+        <v>38200</v>
       </c>
       <c r="H41" s="3">
-        <v>31900</v>
+        <v>31700</v>
       </c>
       <c r="I41" s="3">
-        <v>25600</v>
+        <v>25400</v>
       </c>
       <c r="J41" s="3">
-        <v>33700</v>
+        <v>33500</v>
       </c>
       <c r="K41" s="3">
         <v>70500</v>
@@ -1958,13 +1958,13 @@
         <v>3500</v>
       </c>
       <c r="F42" s="3">
-        <v>58600</v>
+        <v>58200</v>
       </c>
       <c r="G42" s="3">
-        <v>12600</v>
+        <v>12500</v>
       </c>
       <c r="H42" s="3">
-        <v>21000</v>
+        <v>20800</v>
       </c>
       <c r="I42" s="3">
         <v>3100</v>
@@ -1994,25 +1994,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>551500</v>
+        <v>547600</v>
       </c>
       <c r="E43" s="3">
-        <v>532100</v>
+        <v>528400</v>
       </c>
       <c r="F43" s="3">
-        <v>523800</v>
+        <v>520200</v>
       </c>
       <c r="G43" s="3">
-        <v>552700</v>
+        <v>548800</v>
       </c>
       <c r="H43" s="3">
-        <v>562200</v>
+        <v>558300</v>
       </c>
       <c r="I43" s="3">
-        <v>422000</v>
+        <v>419100</v>
       </c>
       <c r="J43" s="3">
-        <v>436400</v>
+        <v>433400</v>
       </c>
       <c r="K43" s="3">
         <v>423000</v>
@@ -2036,25 +2036,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>72700</v>
+        <v>72200</v>
       </c>
       <c r="E44" s="3">
-        <v>51800</v>
+        <v>51500</v>
       </c>
       <c r="F44" s="3">
-        <v>52800</v>
+        <v>52400</v>
       </c>
       <c r="G44" s="3">
-        <v>56900</v>
+        <v>56500</v>
       </c>
       <c r="H44" s="3">
-        <v>54900</v>
+        <v>54500</v>
       </c>
       <c r="I44" s="3">
-        <v>49300</v>
+        <v>48900</v>
       </c>
       <c r="J44" s="3">
-        <v>47800</v>
+        <v>47400</v>
       </c>
       <c r="K44" s="3">
         <v>35000</v>
@@ -2078,25 +2078,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>29600</v>
+        <v>29400</v>
       </c>
       <c r="E45" s="3">
-        <v>27800</v>
+        <v>27600</v>
       </c>
       <c r="F45" s="3">
-        <v>55500</v>
+        <v>55100</v>
       </c>
       <c r="G45" s="3">
-        <v>18300</v>
+        <v>18200</v>
       </c>
       <c r="H45" s="3">
         <v>0</v>
       </c>
       <c r="I45" s="3">
-        <v>42400</v>
+        <v>42100</v>
       </c>
       <c r="J45" s="3">
-        <v>35200</v>
+        <v>35000</v>
       </c>
       <c r="K45" s="3">
         <v>47400</v>
@@ -2120,25 +2120,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>692600</v>
+        <v>687800</v>
       </c>
       <c r="E46" s="3">
-        <v>665600</v>
+        <v>660900</v>
       </c>
       <c r="F46" s="3">
-        <v>741300</v>
+        <v>736100</v>
       </c>
       <c r="G46" s="3">
-        <v>678900</v>
+        <v>674200</v>
       </c>
       <c r="H46" s="3">
-        <v>669900</v>
+        <v>665300</v>
       </c>
       <c r="I46" s="3">
-        <v>542500</v>
+        <v>538700</v>
       </c>
       <c r="J46" s="3">
-        <v>556700</v>
+        <v>552800</v>
       </c>
       <c r="K46" s="3">
         <v>580100</v>
@@ -2162,25 +2162,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>87700</v>
+        <v>87100</v>
       </c>
       <c r="E47" s="3">
-        <v>77100</v>
+        <v>76600</v>
       </c>
       <c r="F47" s="3">
-        <v>75300</v>
+        <v>74700</v>
       </c>
       <c r="G47" s="3">
-        <v>71800</v>
+        <v>71300</v>
       </c>
       <c r="H47" s="3">
-        <v>72800</v>
+        <v>72300</v>
       </c>
       <c r="I47" s="3">
-        <v>59300</v>
+        <v>58800</v>
       </c>
       <c r="J47" s="3">
-        <v>44700</v>
+        <v>44400</v>
       </c>
       <c r="K47" s="3">
         <v>48800</v>
@@ -2204,25 +2204,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1720400</v>
+        <v>1708400</v>
       </c>
       <c r="E48" s="3">
-        <v>1607100</v>
+        <v>1595900</v>
       </c>
       <c r="F48" s="3">
-        <v>1589300</v>
+        <v>1578200</v>
       </c>
       <c r="G48" s="3">
-        <v>1533100</v>
+        <v>1522400</v>
       </c>
       <c r="H48" s="3">
-        <v>1271800</v>
+        <v>1263000</v>
       </c>
       <c r="I48" s="3">
-        <v>1315900</v>
+        <v>1306700</v>
       </c>
       <c r="J48" s="3">
-        <v>1391200</v>
+        <v>1381500</v>
       </c>
       <c r="K48" s="3">
         <v>1367200</v>
@@ -2246,25 +2246,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1563900</v>
+        <v>1553000</v>
       </c>
       <c r="E49" s="3">
-        <v>1603400</v>
+        <v>1592200</v>
       </c>
       <c r="F49" s="3">
-        <v>1431600</v>
+        <v>1421600</v>
       </c>
       <c r="G49" s="3">
-        <v>1222100</v>
+        <v>1213600</v>
       </c>
       <c r="H49" s="3">
-        <v>1285600</v>
+        <v>1276700</v>
       </c>
       <c r="I49" s="3">
-        <v>1267000</v>
+        <v>1258200</v>
       </c>
       <c r="J49" s="3">
-        <v>1372600</v>
+        <v>1363000</v>
       </c>
       <c r="K49" s="3">
         <v>1321600</v>
@@ -2372,25 +2372,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>115300</v>
+        <v>114500</v>
       </c>
       <c r="E52" s="3">
-        <v>66900</v>
+        <v>66400</v>
       </c>
       <c r="F52" s="3">
-        <v>36700</v>
+        <v>36500</v>
       </c>
       <c r="G52" s="3">
-        <v>21000</v>
+        <v>20800</v>
       </c>
       <c r="H52" s="3">
-        <v>17600</v>
+        <v>17400</v>
       </c>
       <c r="I52" s="3">
         <v>100</v>
       </c>
       <c r="J52" s="3">
-        <v>8600</v>
+        <v>8500</v>
       </c>
       <c r="K52" s="3">
         <v>13700</v>
@@ -2456,25 +2456,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>4179900</v>
+        <v>4150800</v>
       </c>
       <c r="E54" s="3">
-        <v>4019900</v>
+        <v>3991900</v>
       </c>
       <c r="F54" s="3">
-        <v>3874200</v>
+        <v>3847200</v>
       </c>
       <c r="G54" s="3">
-        <v>3526900</v>
+        <v>3502300</v>
       </c>
       <c r="H54" s="3">
-        <v>3317700</v>
+        <v>3294600</v>
       </c>
       <c r="I54" s="3">
-        <v>3184700</v>
+        <v>3162500</v>
       </c>
       <c r="J54" s="3">
-        <v>3373800</v>
+        <v>3350300</v>
       </c>
       <c r="K54" s="3">
         <v>3331400</v>
@@ -2534,25 +2534,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>455700</v>
+        <v>452500</v>
       </c>
       <c r="E57" s="3">
-        <v>407600</v>
+        <v>404800</v>
       </c>
       <c r="F57" s="3">
-        <v>425700</v>
+        <v>422700</v>
       </c>
       <c r="G57" s="3">
-        <v>445000</v>
+        <v>441900</v>
       </c>
       <c r="H57" s="3">
-        <v>503100</v>
+        <v>499600</v>
       </c>
       <c r="I57" s="3">
-        <v>388700</v>
+        <v>386000</v>
       </c>
       <c r="J57" s="3">
-        <v>392100</v>
+        <v>389400</v>
       </c>
       <c r="K57" s="3">
         <v>386900</v>
@@ -2576,25 +2576,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>260400</v>
+        <v>258600</v>
       </c>
       <c r="E58" s="3">
-        <v>173000</v>
+        <v>171800</v>
       </c>
       <c r="F58" s="3">
-        <v>335000</v>
+        <v>332700</v>
       </c>
       <c r="G58" s="3">
-        <v>270700</v>
+        <v>268800</v>
       </c>
       <c r="H58" s="3">
-        <v>303900</v>
+        <v>301800</v>
       </c>
       <c r="I58" s="3">
-        <v>85500</v>
+        <v>84900</v>
       </c>
       <c r="J58" s="3">
-        <v>230600</v>
+        <v>229000</v>
       </c>
       <c r="K58" s="3">
         <v>407400</v>
@@ -2618,25 +2618,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>164700</v>
+        <v>163600</v>
       </c>
       <c r="E59" s="3">
-        <v>267100</v>
+        <v>265300</v>
       </c>
       <c r="F59" s="3">
-        <v>148500</v>
+        <v>147500</v>
       </c>
       <c r="G59" s="3">
-        <v>149900</v>
+        <v>148800</v>
       </c>
       <c r="H59" s="3">
-        <v>171200</v>
+        <v>170000</v>
       </c>
       <c r="I59" s="3">
-        <v>176100</v>
+        <v>174800</v>
       </c>
       <c r="J59" s="3">
-        <v>173900</v>
+        <v>172700</v>
       </c>
       <c r="K59" s="3">
         <v>177700</v>
@@ -2660,25 +2660,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>880900</v>
+        <v>874700</v>
       </c>
       <c r="E60" s="3">
-        <v>847700</v>
+        <v>841800</v>
       </c>
       <c r="F60" s="3">
-        <v>909300</v>
+        <v>902900</v>
       </c>
       <c r="G60" s="3">
-        <v>865500</v>
+        <v>859500</v>
       </c>
       <c r="H60" s="3">
-        <v>978200</v>
+        <v>971400</v>
       </c>
       <c r="I60" s="3">
-        <v>650300</v>
+        <v>645800</v>
       </c>
       <c r="J60" s="3">
-        <v>796600</v>
+        <v>791000</v>
       </c>
       <c r="K60" s="3">
         <v>972000</v>
@@ -2702,25 +2702,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>807800</v>
+        <v>802200</v>
       </c>
       <c r="E61" s="3">
-        <v>776900</v>
+        <v>771500</v>
       </c>
       <c r="F61" s="3">
-        <v>772500</v>
+        <v>767200</v>
       </c>
       <c r="G61" s="3">
-        <v>639700</v>
+        <v>635300</v>
       </c>
       <c r="H61" s="3">
-        <v>361500</v>
+        <v>359000</v>
       </c>
       <c r="I61" s="3">
-        <v>658900</v>
+        <v>654300</v>
       </c>
       <c r="J61" s="3">
-        <v>709500</v>
+        <v>704500</v>
       </c>
       <c r="K61" s="3">
         <v>617900</v>
@@ -2744,25 +2744,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>382500</v>
+        <v>379800</v>
       </c>
       <c r="E62" s="3">
-        <v>406500</v>
+        <v>403700</v>
       </c>
       <c r="F62" s="3">
-        <v>304700</v>
+        <v>302600</v>
       </c>
       <c r="G62" s="3">
-        <v>207300</v>
+        <v>205900</v>
       </c>
       <c r="H62" s="3">
-        <v>213100</v>
+        <v>211700</v>
       </c>
       <c r="I62" s="3">
-        <v>210800</v>
+        <v>209300</v>
       </c>
       <c r="J62" s="3">
-        <v>199300</v>
+        <v>197900</v>
       </c>
       <c r="K62" s="3">
         <v>237400</v>
@@ -2912,25 +2912,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2194600</v>
+        <v>2179300</v>
       </c>
       <c r="E66" s="3">
-        <v>2146100</v>
+        <v>2131200</v>
       </c>
       <c r="F66" s="3">
-        <v>2098600</v>
+        <v>2083900</v>
       </c>
       <c r="G66" s="3">
-        <v>1813500</v>
+        <v>1800900</v>
       </c>
       <c r="H66" s="3">
-        <v>1651700</v>
+        <v>1640200</v>
       </c>
       <c r="I66" s="3">
-        <v>1614300</v>
+        <v>1603000</v>
       </c>
       <c r="J66" s="3">
-        <v>1828300</v>
+        <v>1815600</v>
       </c>
       <c r="K66" s="3">
         <v>1950800</v>
@@ -3140,25 +3140,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1644700</v>
+        <v>1633200</v>
       </c>
       <c r="E72" s="3">
-        <v>1540800</v>
+        <v>1530000</v>
       </c>
       <c r="F72" s="3">
-        <v>1336800</v>
+        <v>1327500</v>
       </c>
       <c r="G72" s="3">
-        <v>1275100</v>
+        <v>1266200</v>
       </c>
       <c r="H72" s="3">
-        <v>1232100</v>
+        <v>1223500</v>
       </c>
       <c r="I72" s="3">
-        <v>1137400</v>
+        <v>1129500</v>
       </c>
       <c r="J72" s="3">
-        <v>1078100</v>
+        <v>1070600</v>
       </c>
       <c r="K72" s="3">
         <v>930200</v>
@@ -3308,25 +3308,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1985300</v>
+        <v>1971500</v>
       </c>
       <c r="E76" s="3">
-        <v>1873800</v>
+        <v>1860800</v>
       </c>
       <c r="F76" s="3">
-        <v>1775600</v>
+        <v>1763200</v>
       </c>
       <c r="G76" s="3">
-        <v>1713400</v>
+        <v>1701400</v>
       </c>
       <c r="H76" s="3">
-        <v>1666000</v>
+        <v>1654400</v>
       </c>
       <c r="I76" s="3">
-        <v>1570400</v>
+        <v>1559500</v>
       </c>
       <c r="J76" s="3">
-        <v>1545500</v>
+        <v>1534700</v>
       </c>
       <c r="K76" s="3">
         <v>1380600</v>
@@ -3439,25 +3439,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>180700</v>
+        <v>179400</v>
       </c>
       <c r="E81" s="3">
-        <v>169300</v>
+        <v>168100</v>
       </c>
       <c r="F81" s="3">
-        <v>121600</v>
+        <v>120700</v>
       </c>
       <c r="G81" s="3">
-        <v>118100</v>
+        <v>117300</v>
       </c>
       <c r="H81" s="3">
-        <v>124300</v>
+        <v>123500</v>
       </c>
       <c r="I81" s="3">
-        <v>134100</v>
+        <v>133200</v>
       </c>
       <c r="J81" s="3">
-        <v>155800</v>
+        <v>154700</v>
       </c>
       <c r="K81" s="3">
         <v>76500</v>
@@ -3499,25 +3499,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>398300</v>
+        <v>395500</v>
       </c>
       <c r="E83" s="3">
-        <v>424700</v>
+        <v>421700</v>
       </c>
       <c r="F83" s="3">
-        <v>404800</v>
+        <v>402000</v>
       </c>
       <c r="G83" s="3">
-        <v>394300</v>
+        <v>391500</v>
       </c>
       <c r="H83" s="3">
-        <v>331600</v>
+        <v>329300</v>
       </c>
       <c r="I83" s="3">
-        <v>310500</v>
+        <v>308300</v>
       </c>
       <c r="J83" s="3">
-        <v>337200</v>
+        <v>334800</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>8</v>
@@ -3751,25 +3751,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>561800</v>
+        <v>557900</v>
       </c>
       <c r="E89" s="3">
-        <v>559000</v>
+        <v>555100</v>
       </c>
       <c r="F89" s="3">
-        <v>533700</v>
+        <v>530000</v>
       </c>
       <c r="G89" s="3">
-        <v>466000</v>
+        <v>462700</v>
       </c>
       <c r="H89" s="3">
-        <v>456600</v>
+        <v>453400</v>
       </c>
       <c r="I89" s="3">
-        <v>451700</v>
+        <v>448600</v>
       </c>
       <c r="J89" s="3">
-        <v>444300</v>
+        <v>441300</v>
       </c>
       <c r="K89" s="3">
         <v>401600</v>
@@ -3811,25 +3811,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-347900</v>
+        <v>-345500</v>
       </c>
       <c r="E91" s="3">
-        <v>-318300</v>
+        <v>-316100</v>
       </c>
       <c r="F91" s="3">
-        <v>-439400</v>
+        <v>-436400</v>
       </c>
       <c r="G91" s="3">
-        <v>-280300</v>
+        <v>-278300</v>
       </c>
       <c r="H91" s="3">
-        <v>-268900</v>
+        <v>-267000</v>
       </c>
       <c r="I91" s="3">
-        <v>-260600</v>
+        <v>-258800</v>
       </c>
       <c r="J91" s="3">
-        <v>-315400</v>
+        <v>-313200</v>
       </c>
       <c r="K91" s="3">
         <v>-392300</v>
@@ -3937,25 +3937,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-302100</v>
+        <v>-300000</v>
       </c>
       <c r="E94" s="3">
-        <v>-291000</v>
+        <v>-289000</v>
       </c>
       <c r="F94" s="3">
-        <v>-425100</v>
+        <v>-422100</v>
       </c>
       <c r="G94" s="3">
-        <v>-243800</v>
+        <v>-242100</v>
       </c>
       <c r="H94" s="3">
-        <v>-238500</v>
+        <v>-236800</v>
       </c>
       <c r="I94" s="3">
-        <v>-166600</v>
+        <v>-165500</v>
       </c>
       <c r="J94" s="3">
-        <v>-256000</v>
+        <v>-254200</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>8</v>
@@ -3997,25 +3997,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-55900</v>
+        <v>-55500</v>
       </c>
       <c r="E96" s="3">
-        <v>-53900</v>
+        <v>-53500</v>
       </c>
       <c r="F96" s="3">
-        <v>-70400</v>
+        <v>-69900</v>
       </c>
       <c r="G96" s="3">
-        <v>-85300</v>
+        <v>-84700</v>
       </c>
       <c r="H96" s="3">
-        <v>-84800</v>
+        <v>-84200</v>
       </c>
       <c r="I96" s="3">
-        <v>-84400</v>
+        <v>-83800</v>
       </c>
       <c r="J96" s="3">
-        <v>-65100</v>
+        <v>-64700</v>
       </c>
       <c r="K96" s="3">
         <v>-22100</v>
@@ -4165,25 +4165,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-263600</v>
+        <v>-261800</v>
       </c>
       <c r="E100" s="3">
-        <v>-271800</v>
+        <v>-269900</v>
       </c>
       <c r="F100" s="3">
-        <v>-107900</v>
+        <v>-107200</v>
       </c>
       <c r="G100" s="3">
-        <v>-205000</v>
+        <v>-203600</v>
       </c>
       <c r="H100" s="3">
-        <v>-213300</v>
+        <v>-211800</v>
       </c>
       <c r="I100" s="3">
-        <v>-300500</v>
+        <v>-298400</v>
       </c>
       <c r="J100" s="3">
-        <v>-207600</v>
+        <v>-206200</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>8</v>
@@ -4207,7 +4207,7 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="E101" s="3">
         <v>300</v>
@@ -4258,16 +4258,16 @@
         <v>3700</v>
       </c>
       <c r="G102" s="3">
-        <v>17800</v>
+        <v>17700</v>
       </c>
       <c r="H102" s="3">
-        <v>5200</v>
+        <v>5100</v>
       </c>
       <c r="I102" s="3">
-        <v>-15500</v>
+        <v>-15400</v>
       </c>
       <c r="J102" s="3">
-        <v>-19400</v>
+        <v>-19200</v>
       </c>
       <c r="K102" s="3">
         <v>0</v>

--- a/AAII_Financials/Yearly/MYTAY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/MYTAY_YR_FIN.xlsx
@@ -726,25 +726,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2128000</v>
+        <v>2150400</v>
       </c>
       <c r="E8" s="3">
-        <v>1974600</v>
+        <v>1995400</v>
       </c>
       <c r="F8" s="3">
-        <v>1918200</v>
+        <v>1938400</v>
       </c>
       <c r="G8" s="3">
-        <v>1900000</v>
+        <v>1920000</v>
       </c>
       <c r="H8" s="3">
-        <v>1872700</v>
+        <v>1892500</v>
       </c>
       <c r="I8" s="3">
-        <v>1740900</v>
+        <v>1759300</v>
       </c>
       <c r="J8" s="3">
-        <v>1636000</v>
+        <v>1653200</v>
       </c>
       <c r="K8" s="3">
         <v>1811500</v>
@@ -768,25 +768,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1074400</v>
+        <v>1085700</v>
       </c>
       <c r="E9" s="3">
-        <v>1002500</v>
+        <v>1013000</v>
       </c>
       <c r="F9" s="3">
-        <v>991200</v>
+        <v>1001600</v>
       </c>
       <c r="G9" s="3">
-        <v>980600</v>
+        <v>991000</v>
       </c>
       <c r="H9" s="3">
-        <v>981200</v>
+        <v>991500</v>
       </c>
       <c r="I9" s="3">
-        <v>873600</v>
+        <v>882800</v>
       </c>
       <c r="J9" s="3">
-        <v>777100</v>
+        <v>785200</v>
       </c>
       <c r="K9" s="3">
         <v>849300</v>
@@ -810,25 +810,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1053600</v>
+        <v>1064700</v>
       </c>
       <c r="E10" s="3">
-        <v>972100</v>
+        <v>982400</v>
       </c>
       <c r="F10" s="3">
-        <v>927000</v>
+        <v>936700</v>
       </c>
       <c r="G10" s="3">
-        <v>919300</v>
+        <v>929000</v>
       </c>
       <c r="H10" s="3">
-        <v>891600</v>
+        <v>901000</v>
       </c>
       <c r="I10" s="3">
-        <v>867300</v>
+        <v>876400</v>
       </c>
       <c r="J10" s="3">
-        <v>858900</v>
+        <v>868000</v>
       </c>
       <c r="K10" s="3">
         <v>962200</v>
@@ -954,7 +954,7 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-9400</v>
+        <v>-9500</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
@@ -996,25 +996,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>395500</v>
+        <v>399700</v>
       </c>
       <c r="E15" s="3">
-        <v>421700</v>
+        <v>426100</v>
       </c>
       <c r="F15" s="3">
-        <v>402000</v>
+        <v>406200</v>
       </c>
       <c r="G15" s="3">
-        <v>391500</v>
+        <v>395700</v>
       </c>
       <c r="H15" s="3">
-        <v>329300</v>
+        <v>332700</v>
       </c>
       <c r="I15" s="3">
-        <v>308300</v>
+        <v>311500</v>
       </c>
       <c r="J15" s="3">
-        <v>652000</v>
+        <v>658900</v>
       </c>
       <c r="K15" s="3">
         <v>314000</v>
@@ -1053,25 +1053,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1816800</v>
+        <v>1836000</v>
       </c>
       <c r="E17" s="3">
-        <v>1710100</v>
+        <v>1728100</v>
       </c>
       <c r="F17" s="3">
-        <v>1676400</v>
+        <v>1694100</v>
       </c>
       <c r="G17" s="3">
-        <v>1662900</v>
+        <v>1680400</v>
       </c>
       <c r="H17" s="3">
-        <v>1653400</v>
+        <v>1670800</v>
       </c>
       <c r="I17" s="3">
-        <v>1520100</v>
+        <v>1536100</v>
       </c>
       <c r="J17" s="3">
-        <v>1418900</v>
+        <v>1433800</v>
       </c>
       <c r="K17" s="3">
         <v>1608600</v>
@@ -1095,25 +1095,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>311200</v>
+        <v>314400</v>
       </c>
       <c r="E18" s="3">
-        <v>264500</v>
+        <v>267300</v>
       </c>
       <c r="F18" s="3">
-        <v>241700</v>
+        <v>244300</v>
       </c>
       <c r="G18" s="3">
-        <v>237100</v>
+        <v>239600</v>
       </c>
       <c r="H18" s="3">
+        <v>221700</v>
+      </c>
+      <c r="I18" s="3">
+        <v>223200</v>
+      </c>
+      <c r="J18" s="3">
         <v>219400</v>
-      </c>
-      <c r="I18" s="3">
-        <v>220800</v>
-      </c>
-      <c r="J18" s="3">
-        <v>217100</v>
       </c>
       <c r="K18" s="3">
         <v>202900</v>
@@ -1155,25 +1155,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-23700</v>
+        <v>-23900</v>
       </c>
       <c r="E20" s="3">
         <v>-1900</v>
       </c>
       <c r="F20" s="3">
-        <v>-33600</v>
+        <v>-34000</v>
       </c>
       <c r="G20" s="3">
-        <v>-28600</v>
+        <v>-28900</v>
       </c>
       <c r="H20" s="3">
-        <v>-11400</v>
+        <v>-11500</v>
       </c>
       <c r="I20" s="3">
-        <v>-22300</v>
+        <v>-22500</v>
       </c>
       <c r="J20" s="3">
-        <v>-23800</v>
+        <v>-24100</v>
       </c>
       <c r="K20" s="3">
         <v>-17600</v>
@@ -1197,25 +1197,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>683000</v>
+        <v>690200</v>
       </c>
       <c r="E21" s="3">
-        <v>684300</v>
+        <v>691500</v>
       </c>
       <c r="F21" s="3">
-        <v>610100</v>
+        <v>616500</v>
       </c>
       <c r="G21" s="3">
-        <v>600000</v>
+        <v>606300</v>
       </c>
       <c r="H21" s="3">
-        <v>537300</v>
+        <v>542900</v>
       </c>
       <c r="I21" s="3">
-        <v>506900</v>
+        <v>512200</v>
       </c>
       <c r="J21" s="3">
-        <v>528100</v>
+        <v>533700</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>8</v>
@@ -1239,25 +1239,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>47000</v>
+        <v>47500</v>
       </c>
       <c r="E22" s="3">
-        <v>37200</v>
+        <v>37600</v>
       </c>
       <c r="F22" s="3">
-        <v>34500</v>
+        <v>34900</v>
       </c>
       <c r="G22" s="3">
-        <v>39900</v>
+        <v>40300</v>
       </c>
       <c r="H22" s="3">
-        <v>37600</v>
+        <v>38000</v>
       </c>
       <c r="I22" s="3">
-        <v>38400</v>
+        <v>38800</v>
       </c>
       <c r="J22" s="3">
-        <v>52900</v>
+        <v>53500</v>
       </c>
       <c r="K22" s="3">
         <v>60100</v>
@@ -1281,25 +1281,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>240500</v>
+        <v>243100</v>
       </c>
       <c r="E23" s="3">
-        <v>225500</v>
+        <v>227800</v>
       </c>
       <c r="F23" s="3">
-        <v>173600</v>
+        <v>175400</v>
       </c>
       <c r="G23" s="3">
-        <v>168600</v>
+        <v>170300</v>
       </c>
       <c r="H23" s="3">
-        <v>170400</v>
+        <v>172200</v>
       </c>
       <c r="I23" s="3">
-        <v>160200</v>
+        <v>161900</v>
       </c>
       <c r="J23" s="3">
-        <v>140400</v>
+        <v>141900</v>
       </c>
       <c r="K23" s="3">
         <v>125100</v>
@@ -1323,25 +1323,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>49400</v>
+        <v>49900</v>
       </c>
       <c r="E24" s="3">
-        <v>46400</v>
+        <v>46800</v>
       </c>
       <c r="F24" s="3">
-        <v>41600</v>
+        <v>42000</v>
       </c>
       <c r="G24" s="3">
-        <v>41700</v>
+        <v>42100</v>
       </c>
       <c r="H24" s="3">
-        <v>38000</v>
+        <v>38400</v>
       </c>
       <c r="I24" s="3">
-        <v>45500</v>
+        <v>46000</v>
       </c>
       <c r="J24" s="3">
-        <v>-13800</v>
+        <v>-14000</v>
       </c>
       <c r="K24" s="3">
         <v>38100</v>
@@ -1407,25 +1407,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>191200</v>
+        <v>193200</v>
       </c>
       <c r="E26" s="3">
-        <v>179100</v>
+        <v>181000</v>
       </c>
       <c r="F26" s="3">
-        <v>132000</v>
+        <v>133400</v>
       </c>
       <c r="G26" s="3">
-        <v>126900</v>
+        <v>128200</v>
       </c>
       <c r="H26" s="3">
-        <v>132400</v>
+        <v>133800</v>
       </c>
       <c r="I26" s="3">
-        <v>114700</v>
+        <v>115900</v>
       </c>
       <c r="J26" s="3">
-        <v>154200</v>
+        <v>155900</v>
       </c>
       <c r="K26" s="3">
         <v>87100</v>
@@ -1449,25 +1449,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>179400</v>
+        <v>181300</v>
       </c>
       <c r="E27" s="3">
-        <v>168100</v>
+        <v>169900</v>
       </c>
       <c r="F27" s="3">
-        <v>120700</v>
+        <v>122000</v>
       </c>
       <c r="G27" s="3">
-        <v>117300</v>
+        <v>118500</v>
       </c>
       <c r="H27" s="3">
-        <v>123500</v>
+        <v>124800</v>
       </c>
       <c r="I27" s="3">
-        <v>106000</v>
+        <v>107100</v>
       </c>
       <c r="J27" s="3">
-        <v>145900</v>
+        <v>147400</v>
       </c>
       <c r="K27" s="3">
         <v>76500</v>
@@ -1548,10 +1548,10 @@
         <v>0</v>
       </c>
       <c r="I29" s="3">
-        <v>27100</v>
+        <v>27400</v>
       </c>
       <c r="J29" s="3">
-        <v>8800</v>
+        <v>8900</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>8</v>
@@ -1659,25 +1659,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>23700</v>
+        <v>23900</v>
       </c>
       <c r="E32" s="3">
         <v>1900</v>
       </c>
       <c r="F32" s="3">
-        <v>33600</v>
+        <v>34000</v>
       </c>
       <c r="G32" s="3">
-        <v>28600</v>
+        <v>28900</v>
       </c>
       <c r="H32" s="3">
-        <v>11400</v>
+        <v>11500</v>
       </c>
       <c r="I32" s="3">
-        <v>22300</v>
+        <v>22500</v>
       </c>
       <c r="J32" s="3">
-        <v>23800</v>
+        <v>24100</v>
       </c>
       <c r="K32" s="3">
         <v>17600</v>
@@ -1701,25 +1701,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>179400</v>
+        <v>181300</v>
       </c>
       <c r="E33" s="3">
-        <v>168100</v>
+        <v>169900</v>
       </c>
       <c r="F33" s="3">
-        <v>120700</v>
+        <v>122000</v>
       </c>
       <c r="G33" s="3">
-        <v>117300</v>
+        <v>118500</v>
       </c>
       <c r="H33" s="3">
-        <v>123500</v>
+        <v>124800</v>
       </c>
       <c r="I33" s="3">
-        <v>133200</v>
+        <v>134600</v>
       </c>
       <c r="J33" s="3">
-        <v>154700</v>
+        <v>156300</v>
       </c>
       <c r="K33" s="3">
         <v>76500</v>
@@ -1785,25 +1785,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>179400</v>
+        <v>181300</v>
       </c>
       <c r="E35" s="3">
-        <v>168100</v>
+        <v>169900</v>
       </c>
       <c r="F35" s="3">
-        <v>120700</v>
+        <v>122000</v>
       </c>
       <c r="G35" s="3">
-        <v>117300</v>
+        <v>118500</v>
       </c>
       <c r="H35" s="3">
-        <v>123500</v>
+        <v>124800</v>
       </c>
       <c r="I35" s="3">
-        <v>133200</v>
+        <v>134600</v>
       </c>
       <c r="J35" s="3">
-        <v>154700</v>
+        <v>156300</v>
       </c>
       <c r="K35" s="3">
         <v>76500</v>
@@ -1910,25 +1910,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>36700</v>
+        <v>37000</v>
       </c>
       <c r="E41" s="3">
-        <v>49900</v>
+        <v>50500</v>
       </c>
       <c r="F41" s="3">
-        <v>50200</v>
+        <v>50700</v>
       </c>
       <c r="G41" s="3">
-        <v>38200</v>
+        <v>38600</v>
       </c>
       <c r="H41" s="3">
-        <v>31700</v>
+        <v>32000</v>
       </c>
       <c r="I41" s="3">
-        <v>25400</v>
+        <v>25700</v>
       </c>
       <c r="J41" s="3">
-        <v>33500</v>
+        <v>33900</v>
       </c>
       <c r="K41" s="3">
         <v>70500</v>
@@ -1958,13 +1958,13 @@
         <v>3500</v>
       </c>
       <c r="F42" s="3">
-        <v>58200</v>
+        <v>58800</v>
       </c>
       <c r="G42" s="3">
-        <v>12500</v>
+        <v>12600</v>
       </c>
       <c r="H42" s="3">
-        <v>20800</v>
+        <v>21100</v>
       </c>
       <c r="I42" s="3">
         <v>3100</v>
@@ -1994,25 +1994,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>547600</v>
+        <v>553400</v>
       </c>
       <c r="E43" s="3">
-        <v>528400</v>
+        <v>534000</v>
       </c>
       <c r="F43" s="3">
-        <v>520200</v>
+        <v>525700</v>
       </c>
       <c r="G43" s="3">
-        <v>548800</v>
+        <v>554600</v>
       </c>
       <c r="H43" s="3">
-        <v>558300</v>
+        <v>564100</v>
       </c>
       <c r="I43" s="3">
-        <v>419100</v>
+        <v>423500</v>
       </c>
       <c r="J43" s="3">
-        <v>433400</v>
+        <v>438000</v>
       </c>
       <c r="K43" s="3">
         <v>423000</v>
@@ -2036,25 +2036,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>72200</v>
+        <v>73000</v>
       </c>
       <c r="E44" s="3">
-        <v>51500</v>
+        <v>52000</v>
       </c>
       <c r="F44" s="3">
-        <v>52400</v>
+        <v>53000</v>
       </c>
       <c r="G44" s="3">
-        <v>56500</v>
+        <v>57100</v>
       </c>
       <c r="H44" s="3">
-        <v>54500</v>
+        <v>55100</v>
       </c>
       <c r="I44" s="3">
-        <v>48900</v>
+        <v>49500</v>
       </c>
       <c r="J44" s="3">
-        <v>47400</v>
+        <v>47900</v>
       </c>
       <c r="K44" s="3">
         <v>35000</v>
@@ -2078,25 +2078,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>29400</v>
+        <v>29700</v>
       </c>
       <c r="E45" s="3">
-        <v>27600</v>
+        <v>27900</v>
       </c>
       <c r="F45" s="3">
-        <v>55100</v>
+        <v>55700</v>
       </c>
       <c r="G45" s="3">
-        <v>18200</v>
+        <v>18400</v>
       </c>
       <c r="H45" s="3">
         <v>0</v>
       </c>
       <c r="I45" s="3">
-        <v>42100</v>
+        <v>42600</v>
       </c>
       <c r="J45" s="3">
-        <v>35000</v>
+        <v>35300</v>
       </c>
       <c r="K45" s="3">
         <v>47400</v>
@@ -2120,25 +2120,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>687800</v>
+        <v>695000</v>
       </c>
       <c r="E46" s="3">
-        <v>660900</v>
+        <v>667900</v>
       </c>
       <c r="F46" s="3">
-        <v>736100</v>
+        <v>743900</v>
       </c>
       <c r="G46" s="3">
-        <v>674200</v>
+        <v>681300</v>
       </c>
       <c r="H46" s="3">
-        <v>665300</v>
+        <v>672300</v>
       </c>
       <c r="I46" s="3">
-        <v>538700</v>
+        <v>544400</v>
       </c>
       <c r="J46" s="3">
-        <v>552800</v>
+        <v>558700</v>
       </c>
       <c r="K46" s="3">
         <v>580100</v>
@@ -2162,25 +2162,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>87100</v>
+        <v>88000</v>
       </c>
       <c r="E47" s="3">
-        <v>76600</v>
+        <v>77400</v>
       </c>
       <c r="F47" s="3">
-        <v>74700</v>
+        <v>75500</v>
       </c>
       <c r="G47" s="3">
-        <v>71300</v>
+        <v>72000</v>
       </c>
       <c r="H47" s="3">
-        <v>72300</v>
+        <v>73000</v>
       </c>
       <c r="I47" s="3">
-        <v>58800</v>
+        <v>59500</v>
       </c>
       <c r="J47" s="3">
-        <v>44400</v>
+        <v>44800</v>
       </c>
       <c r="K47" s="3">
         <v>48800</v>
@@ -2204,25 +2204,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1708400</v>
+        <v>1726400</v>
       </c>
       <c r="E48" s="3">
-        <v>1595900</v>
+        <v>1612700</v>
       </c>
       <c r="F48" s="3">
-        <v>1578200</v>
+        <v>1594900</v>
       </c>
       <c r="G48" s="3">
-        <v>1522400</v>
+        <v>1538400</v>
       </c>
       <c r="H48" s="3">
-        <v>1263000</v>
+        <v>1276300</v>
       </c>
       <c r="I48" s="3">
-        <v>1306700</v>
+        <v>1320500</v>
       </c>
       <c r="J48" s="3">
-        <v>1381500</v>
+        <v>1396000</v>
       </c>
       <c r="K48" s="3">
         <v>1367200</v>
@@ -2246,25 +2246,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1553000</v>
+        <v>1569300</v>
       </c>
       <c r="E49" s="3">
-        <v>1592200</v>
+        <v>1608900</v>
       </c>
       <c r="F49" s="3">
-        <v>1421600</v>
+        <v>1436600</v>
       </c>
       <c r="G49" s="3">
-        <v>1213600</v>
+        <v>1226400</v>
       </c>
       <c r="H49" s="3">
-        <v>1276700</v>
+        <v>1290100</v>
       </c>
       <c r="I49" s="3">
-        <v>1258200</v>
+        <v>1271400</v>
       </c>
       <c r="J49" s="3">
-        <v>1363000</v>
+        <v>1377400</v>
       </c>
       <c r="K49" s="3">
         <v>1321600</v>
@@ -2372,25 +2372,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>114500</v>
+        <v>115700</v>
       </c>
       <c r="E52" s="3">
-        <v>66400</v>
+        <v>67100</v>
       </c>
       <c r="F52" s="3">
-        <v>36500</v>
+        <v>36800</v>
       </c>
       <c r="G52" s="3">
-        <v>20800</v>
+        <v>21000</v>
       </c>
       <c r="H52" s="3">
-        <v>17400</v>
+        <v>17600</v>
       </c>
       <c r="I52" s="3">
         <v>100</v>
       </c>
       <c r="J52" s="3">
-        <v>8500</v>
+        <v>8600</v>
       </c>
       <c r="K52" s="3">
         <v>13700</v>
@@ -2456,25 +2456,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>4150800</v>
+        <v>4194500</v>
       </c>
       <c r="E54" s="3">
-        <v>3991900</v>
+        <v>4033900</v>
       </c>
       <c r="F54" s="3">
-        <v>3847200</v>
+        <v>3887700</v>
       </c>
       <c r="G54" s="3">
-        <v>3502300</v>
+        <v>3539100</v>
       </c>
       <c r="H54" s="3">
-        <v>3294600</v>
+        <v>3329300</v>
       </c>
       <c r="I54" s="3">
-        <v>3162500</v>
+        <v>3195800</v>
       </c>
       <c r="J54" s="3">
-        <v>3350300</v>
+        <v>3385500</v>
       </c>
       <c r="K54" s="3">
         <v>3331400</v>
@@ -2534,25 +2534,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>452500</v>
+        <v>457300</v>
       </c>
       <c r="E57" s="3">
-        <v>404800</v>
+        <v>409000</v>
       </c>
       <c r="F57" s="3">
-        <v>422700</v>
+        <v>427200</v>
       </c>
       <c r="G57" s="3">
-        <v>441900</v>
+        <v>446500</v>
       </c>
       <c r="H57" s="3">
-        <v>499600</v>
+        <v>504900</v>
       </c>
       <c r="I57" s="3">
-        <v>386000</v>
+        <v>390100</v>
       </c>
       <c r="J57" s="3">
-        <v>389400</v>
+        <v>393500</v>
       </c>
       <c r="K57" s="3">
         <v>386900</v>
@@ -2576,25 +2576,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>258600</v>
+        <v>261300</v>
       </c>
       <c r="E58" s="3">
-        <v>171800</v>
+        <v>173600</v>
       </c>
       <c r="F58" s="3">
-        <v>332700</v>
+        <v>336200</v>
       </c>
       <c r="G58" s="3">
-        <v>268800</v>
+        <v>271600</v>
       </c>
       <c r="H58" s="3">
-        <v>301800</v>
+        <v>304900</v>
       </c>
       <c r="I58" s="3">
-        <v>84900</v>
+        <v>85800</v>
       </c>
       <c r="J58" s="3">
-        <v>229000</v>
+        <v>231400</v>
       </c>
       <c r="K58" s="3">
         <v>407400</v>
@@ -2618,25 +2618,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>163600</v>
+        <v>165300</v>
       </c>
       <c r="E59" s="3">
-        <v>265300</v>
+        <v>268000</v>
       </c>
       <c r="F59" s="3">
-        <v>147500</v>
+        <v>149100</v>
       </c>
       <c r="G59" s="3">
-        <v>148800</v>
+        <v>150400</v>
       </c>
       <c r="H59" s="3">
-        <v>170000</v>
+        <v>171800</v>
       </c>
       <c r="I59" s="3">
-        <v>174800</v>
+        <v>176700</v>
       </c>
       <c r="J59" s="3">
-        <v>172700</v>
+        <v>174500</v>
       </c>
       <c r="K59" s="3">
         <v>177700</v>
@@ -2660,25 +2660,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>874700</v>
+        <v>883900</v>
       </c>
       <c r="E60" s="3">
-        <v>841800</v>
+        <v>850700</v>
       </c>
       <c r="F60" s="3">
-        <v>902900</v>
+        <v>912500</v>
       </c>
       <c r="G60" s="3">
-        <v>859500</v>
+        <v>868500</v>
       </c>
       <c r="H60" s="3">
-        <v>971400</v>
+        <v>981600</v>
       </c>
       <c r="I60" s="3">
-        <v>645800</v>
+        <v>652600</v>
       </c>
       <c r="J60" s="3">
-        <v>791000</v>
+        <v>799400</v>
       </c>
       <c r="K60" s="3">
         <v>972000</v>
@@ -2702,25 +2702,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>802200</v>
+        <v>810600</v>
       </c>
       <c r="E61" s="3">
-        <v>771500</v>
+        <v>779600</v>
       </c>
       <c r="F61" s="3">
-        <v>767200</v>
+        <v>775200</v>
       </c>
       <c r="G61" s="3">
-        <v>635300</v>
+        <v>641900</v>
       </c>
       <c r="H61" s="3">
-        <v>359000</v>
+        <v>362800</v>
       </c>
       <c r="I61" s="3">
-        <v>654300</v>
+        <v>661200</v>
       </c>
       <c r="J61" s="3">
-        <v>704500</v>
+        <v>712000</v>
       </c>
       <c r="K61" s="3">
         <v>617900</v>
@@ -2744,25 +2744,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>379800</v>
+        <v>383800</v>
       </c>
       <c r="E62" s="3">
-        <v>403700</v>
+        <v>407900</v>
       </c>
       <c r="F62" s="3">
-        <v>302600</v>
+        <v>305800</v>
       </c>
       <c r="G62" s="3">
-        <v>205900</v>
+        <v>208100</v>
       </c>
       <c r="H62" s="3">
-        <v>211700</v>
+        <v>213900</v>
       </c>
       <c r="I62" s="3">
-        <v>209300</v>
+        <v>211500</v>
       </c>
       <c r="J62" s="3">
-        <v>197900</v>
+        <v>200000</v>
       </c>
       <c r="K62" s="3">
         <v>237400</v>
@@ -2912,25 +2912,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2179300</v>
+        <v>2202300</v>
       </c>
       <c r="E66" s="3">
-        <v>2131200</v>
+        <v>2153600</v>
       </c>
       <c r="F66" s="3">
-        <v>2083900</v>
+        <v>2105900</v>
       </c>
       <c r="G66" s="3">
-        <v>1800900</v>
+        <v>1819800</v>
       </c>
       <c r="H66" s="3">
-        <v>1640200</v>
+        <v>1657500</v>
       </c>
       <c r="I66" s="3">
-        <v>1603000</v>
+        <v>1619900</v>
       </c>
       <c r="J66" s="3">
-        <v>1815600</v>
+        <v>1834700</v>
       </c>
       <c r="K66" s="3">
         <v>1950800</v>
@@ -3140,25 +3140,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1633200</v>
+        <v>1650400</v>
       </c>
       <c r="E72" s="3">
-        <v>1530000</v>
+        <v>1546100</v>
       </c>
       <c r="F72" s="3">
-        <v>1327500</v>
+        <v>1341500</v>
       </c>
       <c r="G72" s="3">
-        <v>1266200</v>
+        <v>1279500</v>
       </c>
       <c r="H72" s="3">
-        <v>1223500</v>
+        <v>1236400</v>
       </c>
       <c r="I72" s="3">
-        <v>1129500</v>
+        <v>1141400</v>
       </c>
       <c r="J72" s="3">
-        <v>1070600</v>
+        <v>1081900</v>
       </c>
       <c r="K72" s="3">
         <v>930200</v>
@@ -3308,25 +3308,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1971500</v>
+        <v>1992200</v>
       </c>
       <c r="E76" s="3">
-        <v>1860800</v>
+        <v>1880300</v>
       </c>
       <c r="F76" s="3">
-        <v>1763200</v>
+        <v>1781800</v>
       </c>
       <c r="G76" s="3">
-        <v>1701400</v>
+        <v>1719300</v>
       </c>
       <c r="H76" s="3">
-        <v>1654400</v>
+        <v>1671800</v>
       </c>
       <c r="I76" s="3">
-        <v>1559500</v>
+        <v>1575900</v>
       </c>
       <c r="J76" s="3">
-        <v>1534700</v>
+        <v>1550900</v>
       </c>
       <c r="K76" s="3">
         <v>1380600</v>
@@ -3439,25 +3439,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>179400</v>
+        <v>181300</v>
       </c>
       <c r="E81" s="3">
-        <v>168100</v>
+        <v>169900</v>
       </c>
       <c r="F81" s="3">
-        <v>120700</v>
+        <v>122000</v>
       </c>
       <c r="G81" s="3">
-        <v>117300</v>
+        <v>118500</v>
       </c>
       <c r="H81" s="3">
-        <v>123500</v>
+        <v>124800</v>
       </c>
       <c r="I81" s="3">
-        <v>133200</v>
+        <v>134600</v>
       </c>
       <c r="J81" s="3">
-        <v>154700</v>
+        <v>156300</v>
       </c>
       <c r="K81" s="3">
         <v>76500</v>
@@ -3499,25 +3499,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>395500</v>
+        <v>399700</v>
       </c>
       <c r="E83" s="3">
-        <v>421700</v>
+        <v>426100</v>
       </c>
       <c r="F83" s="3">
-        <v>402000</v>
+        <v>406200</v>
       </c>
       <c r="G83" s="3">
-        <v>391500</v>
+        <v>395700</v>
       </c>
       <c r="H83" s="3">
-        <v>329300</v>
+        <v>332700</v>
       </c>
       <c r="I83" s="3">
-        <v>308300</v>
+        <v>311500</v>
       </c>
       <c r="J83" s="3">
-        <v>334800</v>
+        <v>338300</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>8</v>
@@ -3751,25 +3751,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>557900</v>
+        <v>563800</v>
       </c>
       <c r="E89" s="3">
-        <v>555100</v>
+        <v>560900</v>
       </c>
       <c r="F89" s="3">
-        <v>530000</v>
+        <v>535600</v>
       </c>
       <c r="G89" s="3">
-        <v>462700</v>
+        <v>467600</v>
       </c>
       <c r="H89" s="3">
-        <v>453400</v>
+        <v>458200</v>
       </c>
       <c r="I89" s="3">
-        <v>448600</v>
+        <v>453300</v>
       </c>
       <c r="J89" s="3">
-        <v>441300</v>
+        <v>445900</v>
       </c>
       <c r="K89" s="3">
         <v>401600</v>
@@ -3811,25 +3811,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-345500</v>
+        <v>-349100</v>
       </c>
       <c r="E91" s="3">
-        <v>-316100</v>
+        <v>-319400</v>
       </c>
       <c r="F91" s="3">
-        <v>-436400</v>
+        <v>-441000</v>
       </c>
       <c r="G91" s="3">
-        <v>-278300</v>
+        <v>-281300</v>
       </c>
       <c r="H91" s="3">
-        <v>-267000</v>
+        <v>-269800</v>
       </c>
       <c r="I91" s="3">
-        <v>-258800</v>
+        <v>-261500</v>
       </c>
       <c r="J91" s="3">
-        <v>-313200</v>
+        <v>-316500</v>
       </c>
       <c r="K91" s="3">
         <v>-392300</v>
@@ -3937,25 +3937,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-300000</v>
+        <v>-303100</v>
       </c>
       <c r="E94" s="3">
-        <v>-289000</v>
+        <v>-292000</v>
       </c>
       <c r="F94" s="3">
-        <v>-422100</v>
+        <v>-426500</v>
       </c>
       <c r="G94" s="3">
-        <v>-242100</v>
+        <v>-244600</v>
       </c>
       <c r="H94" s="3">
-        <v>-236800</v>
+        <v>-239300</v>
       </c>
       <c r="I94" s="3">
-        <v>-165500</v>
+        <v>-167200</v>
       </c>
       <c r="J94" s="3">
-        <v>-254200</v>
+        <v>-256900</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>8</v>
@@ -3997,25 +3997,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-55500</v>
+        <v>-56100</v>
       </c>
       <c r="E96" s="3">
-        <v>-53500</v>
+        <v>-54100</v>
       </c>
       <c r="F96" s="3">
-        <v>-69900</v>
+        <v>-70600</v>
       </c>
       <c r="G96" s="3">
+        <v>-85600</v>
+      </c>
+      <c r="H96" s="3">
+        <v>-85100</v>
+      </c>
+      <c r="I96" s="3">
         <v>-84700</v>
       </c>
-      <c r="H96" s="3">
-        <v>-84200</v>
-      </c>
-      <c r="I96" s="3">
-        <v>-83800</v>
-      </c>
       <c r="J96" s="3">
-        <v>-64700</v>
+        <v>-65300</v>
       </c>
       <c r="K96" s="3">
         <v>-22100</v>
@@ -4165,25 +4165,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-261800</v>
+        <v>-264600</v>
       </c>
       <c r="E100" s="3">
-        <v>-269900</v>
+        <v>-272800</v>
       </c>
       <c r="F100" s="3">
-        <v>-107200</v>
+        <v>-108300</v>
       </c>
       <c r="G100" s="3">
-        <v>-203600</v>
+        <v>-205700</v>
       </c>
       <c r="H100" s="3">
-        <v>-211800</v>
+        <v>-214100</v>
       </c>
       <c r="I100" s="3">
-        <v>-298400</v>
+        <v>-301600</v>
       </c>
       <c r="J100" s="3">
-        <v>-206200</v>
+        <v>-208300</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>8</v>
@@ -4207,7 +4207,7 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="E101" s="3">
         <v>300</v>
@@ -4258,16 +4258,16 @@
         <v>3700</v>
       </c>
       <c r="G102" s="3">
-        <v>17700</v>
+        <v>17800</v>
       </c>
       <c r="H102" s="3">
-        <v>5100</v>
+        <v>5200</v>
       </c>
       <c r="I102" s="3">
-        <v>-15400</v>
+        <v>-15600</v>
       </c>
       <c r="J102" s="3">
-        <v>-19200</v>
+        <v>-19400</v>
       </c>
       <c r="K102" s="3">
         <v>0</v>
